--- a/survey/references/OD_nationale_quebec_2025.xlsx
+++ b/survey/references/OD_nationale_quebec_2025.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Widgets" sheetId="1" state="visible" r:id="rId3"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="537">
   <si>
     <t xml:space="preserve">questionName</t>
   </si>
@@ -729,6 +729,234 @@
     <t xml:space="preserve">household_save</t>
   </si>
   <si>
+    <t xml:space="preserve">householdOwnership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household.ownership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est-ce que votre ménage est locataire ou propriétaire de votre logement?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does your household rent or own your home?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">householdOwnershipChoices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">householdIncome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household.income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tranche de revenu avant impôts (brut) du ménage, en 2023?
+__Facultatif__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What was your household's income range before taxes (gross income), in 2023?
+__Not mandatory__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">householdIncomeChoices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wouldLikeToParticipateInOtherSurveysChaireMobilite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seriez-vous intéressés à **participer à d'autres études** menées par la **Chaire Mobilité de Polytechnique Montréal** ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would you be interested in **participating in other studies** conducted by the **Chaire Mobilite at Polytechnique Montreal**?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wouldLikeToParticipateInOtherSurveysChaireMobiliteContactEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veuillez fournir l'**adresse e-mail** où vous pouvez être contacté pour participer à d'autres études de la Chaire Mobilité.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please provide the **email address** where you can be reached to participate in other studies by the Chaire Mobilite.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wantToParticipateInOtherSurveysChaireMobiliteConditional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">householdCommentsOnSurvey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commentsOnSurvey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vos **commentaires et suggestions** sur le questionnaire (facultatif)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your **comments and suggestions** about the survey (optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optionalValidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optionalIntroText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'entrevue est maintenant terminée. Merci pour votre participation et votre patience!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The next questions are optional and are added for research purposes. You can complete the interview without answering them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buttonCompleteInterviewWithCompleteSectionNoOptional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminer l'entrevue sans les questions optionnelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete interview without optional questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">householdHybridCarNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household.hybridCarNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parmi les véhicules possédés par votre ménage, combien sont des **véhicules hybrides rechargeables**?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Among the vehicles owned by your household, how many are **plug-in hybrid vehicles**?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min=0
+max=household.carNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">householdHasCars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">householdHybridCarCountCustomValidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">householdElectricCarNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household.electricCarNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parmi les véhicules possédés par votre ménage, combien sont des **véhicules électriques**?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Among the vehicles owned by your household, how many are **electric vehicles**?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">householdElectricCarCountCustomValidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endDurationOfTheSurvey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">durationOfSurvey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensez-vous que la **durée de l'enquête était trop courte, correcte ou trop longue**?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you feel that the **length of the survey was too short, about right, or too long**?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sliderTooShortToTooLong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endTimeSpentAnswering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timeSpentAnswering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combien de **temps** pensez-vous avoir passé **à répondre** à cette enquête (**en minutes**) ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How much **time** do you think you **spent answering** this survey (**in minutes**)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endInterestOfTheSurvey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interestOfTheSurvey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans quelle mesure cette enquête a-t-elle été **intéressante** pour vous ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How **interesting** was this survey to you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sliderNotAtAllToVeryInteresting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endDifficultyOfTheSurvey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">difficultyOfTheSurvey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans quelle mesure vous a-t-il été **facile** ou **difficile** de répondre aux questions de cette enquête ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How **easy** or **difficult** was it for you to answer the questions in this survey?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sliderVeryEasyToVeryDifficult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endBurdenOfTheSurvey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">burdenOfTheSurvey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans quelle mesure avez-vous trouvé cette enquête **pénible (exigeante)** ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How **burdensome (demanding)** did you find this survey to be?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sliderNotAtAllToVeryBurdensome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endConsideredAbandoningSurvey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consideredAbandoningSurvey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avez-vous pensé, à un moment ou un autre, **abandonner l'enquête** ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you considered, at any point, to **abandon the survey**?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buttonCompleteInterviewWithCompleteSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminer l’entrevue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete interview</t>
+  </si>
+  <si>
     <t xml:space="preserve">completedText</t>
   </si>
   <si>
@@ -845,6 +1073,9 @@
     <t xml:space="preserve">onTheRoadWithUsualPlace</t>
   </si>
   <si>
+    <t xml:space="preserve">household.carNumber</t>
+  </si>
+  <si>
     <t xml:space="preserve">abbreviation</t>
   </si>
   <si>
@@ -884,6 +1115,15 @@
     <t xml:space="preserve">Household</t>
   </si>
   <si>
+    <t xml:space="preserve">e_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End</t>
+  </si>
+  <si>
     <t xml:space="preserve">c_</t>
   </si>
   <si>
@@ -1190,6 +1430,147 @@
     <t xml:space="preserve">No, remote studies from home or from elsewhere</t>
   </si>
   <si>
+    <t xml:space="preserve">000000_009999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moins de 10 000 $</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less than $10,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010000_019999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 000$ à 19 999$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$10,000 to $19,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">020000_029999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 000$ à 29 999$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$20,000 to $29,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">030000_039999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 000$ à 39 999$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$30,000 to $39,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">040000_049999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 000$ à 49 999$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$40,000 to $49,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">050000_059999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 000$ à 59 999$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$50,000 to $59,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">060000_069999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 000$ à 69 999$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$60,000 to $69,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">070000_079999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70 000$ à 79 999$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$70,000 to $79,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">080000_089999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80 000$ à 89 999$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$80,000 to $89,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">090000_099999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 000$ à 99 999$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$90,000 to $99,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100000_149999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 000$ à 149 999$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$100,000 to $149,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150000_199999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150 000$ à 199 999$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$150,000 to $199,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200000_999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 000 $ et plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$200,000 and more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refusal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I prefer not to respond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locataire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propriétaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owner</t>
+  </si>
+  <si>
     <t xml:space="preserve">inputRangeName</t>
   </si>
   <si>
@@ -1224,6 +1605,84 @@
   </si>
   <si>
     <t xml:space="preserve">input_color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trop court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juste comme il faut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trop long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Too short</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Too long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas du tout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Très intéressante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not at all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very interesting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red-yellow-green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Très facile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modérément difficile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Très difficile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderately difficult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very difficult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green-yellow-red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modérément pénible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Très pénible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderately burdensome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very burdensome</t>
   </si>
   <si>
     <t xml:space="preserve">key</t>
@@ -1249,7 +1708,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1342,6 +1801,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1356,12 +1822,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1371,10 +1831,24 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1473,7 +1947,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1590,11 +2064,23 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1606,11 +2092,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1626,11 +2112,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1646,12 +2140,20 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1663,7 +2165,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1754,6 +2256,34 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Aptos Narrow"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Aptos Narrow"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2002,14 +2532,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X42"/>
+  <dimension ref="A1:X1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="J34" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="M25" activeCellId="0" sqref="M25"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+      <selection pane="bottomRight" activeCell="O48" activeCellId="0" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4047,67 +4577,805 @@
       <c r="W41" s="28"/>
       <c r="X41" s="28"/>
     </row>
-    <row r="42" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+    <row r="42" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+    </row>
+    <row r="43" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+    </row>
+    <row r="44" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44" s="28"/>
+      <c r="F44" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="H44" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="0"/>
+      <c r="O44" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+    </row>
+    <row r="45" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E45" s="28"/>
+      <c r="F45" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+    </row>
+    <row r="46" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="C46" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+    </row>
+    <row r="47" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="C47" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="L42" s="29"/>
-      <c r="M42" s="30"/>
-      <c r="T42" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="H47" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+    </row>
+    <row r="48" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E48" s="28"/>
+      <c r="F48" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+    </row>
+    <row r="49" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="N49" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+    </row>
+    <row r="50" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="N50" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+    </row>
+    <row r="51" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="C51" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="G51" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="H51" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="28"/>
+    </row>
+    <row r="52" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="28"/>
+      <c r="T52" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="U52" s="28"/>
+      <c r="V52" s="28"/>
+      <c r="W52" s="28"/>
+      <c r="X52" s="28"/>
+    </row>
+    <row r="53" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="G53" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="H53" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="R53" s="28"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="U53" s="28"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="28"/>
+    </row>
+    <row r="54" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="C54" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="H54" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="R54" s="28"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="U54" s="28"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+    </row>
+    <row r="55" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="C55" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="G55" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="H55" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="R55" s="28"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="U55" s="28"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="28"/>
+    </row>
+    <row r="56" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="G56" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="H56" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="O56" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="28"/>
+      <c r="T56" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="U56" s="28"/>
+      <c r="V56" s="28"/>
+      <c r="W56" s="28"/>
+      <c r="X56" s="28"/>
+    </row>
+    <row r="57" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E57" s="28"/>
+      <c r="F57" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="28"/>
+      <c r="R57" s="28"/>
+      <c r="S57" s="28"/>
+      <c r="T57" s="27"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="28"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="28"/>
+    </row>
+    <row r="58" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="L58" s="32"/>
+      <c r="M58" s="33"/>
+      <c r="T58" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:X1"/>
-  <conditionalFormatting sqref="N42:Q42">
+  <conditionalFormatting sqref="N58:Q58">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($B1048370="Custom",  $B1048370&lt;&gt;"", ROW(N1048370)&lt;&gt;1)</formula>
+      <formula>AND($B1048386="Custom",  $B1048386&lt;&gt;"", ROW(N1048386)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q42">
+  <conditionalFormatting sqref="Q58">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($B42&lt;&gt;"Range", $B42&lt;&gt;"", ROW(Q42)&lt;&gt;1)</formula>
+      <formula>AND($B58&lt;&gt;"Range", $B58&lt;&gt;"", ROW(Q58)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
+  <conditionalFormatting sqref="C58">
     <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="FALSE" dxfId="5">
-      <formula>NOT(ISERROR(SEARCH("FALSE",C42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",C58)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="5" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="TRUE" dxfId="6">
-      <formula>NOT(ISERROR(SEARCH("TRUE",C42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",C58)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O42:P42">
+  <conditionalFormatting sqref="O58:P58">
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($B42&lt;&gt;"Select", $B42&lt;&gt;"Checkbox", $B42&lt;&gt;"Radio",  $B42&lt;&gt;"", ROW(O42)&lt;&gt;1)</formula>
+      <formula>AND($B58&lt;&gt;"Select", $B58&lt;&gt;"Checkbox", $B58&lt;&gt;"Radio",  $B58&lt;&gt;"", ROW(O58)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43:C1048576 C1:C41">
+  <conditionalFormatting sqref="C59:C1048576 C1:C57">
     <cfRule type="containsText" priority="7" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="FALSE" dxfId="8">
       <formula>NOT(ISERROR(SEARCH("FALSE",C1)))</formula>
     </cfRule>
     <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q51">
+    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>AND($B1048380="Custom",  $B1048380&lt;&gt;"", ROW(Q1048380)&lt;&gt;1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q51 Q54:Q55">
+    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND($B51&lt;&gt;"Range", $B51&lt;&gt;"", ROW(Q51)&lt;&gt;1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q54:Q55">
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(#REF!="Custom",  #REF!&lt;&gt;"", ROW(#REF!)&lt;&gt;1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O43">
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>AND($B43="Custom",  $B43&lt;&gt;"", ROW(O43)&lt;&gt;1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O43">
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>AND($B43&lt;&gt;"Select", $B43&lt;&gt;"Checkbox", $B43&lt;&gt;"Radio",  $B43&lt;&gt;"", ROW(O43)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4126,510 +5394,538 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="27.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="31" width="15.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="31" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="32" width="20.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="31" width="19.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="31" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="27.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="15.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="35" width="20.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="34" width="19.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="34" width="12.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="C1" s="33" t="s">
+    <row r="1" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>223</v>
+      <c r="D1" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="36"/>
+      <c r="A2" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" s="37" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="39"/>
+    </row>
+    <row r="4" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="F4" s="39"/>
+    </row>
+    <row r="5" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="E6" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="39"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="39"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="E8" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="39"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="E9" s="39" t="n">
+        <v>13</v>
+      </c>
+      <c r="F9" s="39"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="E10" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" s="39"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="E11" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" s="39"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="E12" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" s="39"/>
+    </row>
+    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="E13" s="39" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" s="39"/>
+    </row>
+    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="E14" s="39" t="n">
+        <v>14</v>
+      </c>
+      <c r="F14" s="39"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="E15" s="39" t="n">
+        <v>15</v>
+      </c>
+      <c r="F15" s="39"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="F16" s="39"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="E17" s="39" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" s="39"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="E18" s="39" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" s="39"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19" s="39" t="n">
+        <v>40</v>
+      </c>
+      <c r="F19" s="39"/>
+    </row>
+    <row r="20" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="F20" s="39"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="E3" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="36"/>
-    </row>
-    <row r="4" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="36"/>
-    </row>
-    <row r="5" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="E5" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="36"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="E6" s="36" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" s="36"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="E7" s="36" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" s="36"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="E8" s="36" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" s="36"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="E9" s="36" t="n">
-        <v>13</v>
-      </c>
-      <c r="F9" s="36"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="E10" s="36" t="n">
-        <v>5</v>
-      </c>
-      <c r="F10" s="36"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="E11" s="36" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" s="36"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="E12" s="36" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" s="36"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="E13" s="36" t="n">
-        <v>11</v>
-      </c>
-      <c r="F13" s="36"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="E14" s="36" t="n">
-        <v>14</v>
-      </c>
-      <c r="F14" s="36"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="E15" s="36" t="n">
-        <v>15</v>
-      </c>
-      <c r="F15" s="36"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="F16" s="36"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="E17" s="36" t="n">
-        <v>15</v>
-      </c>
-      <c r="F17" s="36"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="E18" s="36" t="n">
-        <v>16</v>
-      </c>
-      <c r="F18" s="36"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="E19" s="36" t="n">
-        <v>40</v>
-      </c>
-      <c r="F19" s="36"/>
-    </row>
-    <row r="20" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="F20" s="36"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="E28" s="31" t="s">
+      <c r="D31" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="28" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>229</v>
+      <c r="C32" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="E32" s="34" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4648,124 +5944,147 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="36" width="10.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="36" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="36" width="12.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="36" width="10.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="36" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="36" width="15.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="36" width="10.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="39" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="39" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="39" width="12.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="39" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="39" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="39" width="15.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="39" width="10.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>256</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>257</v>
+      <c r="B1" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>333</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>259</v>
+        <v>334</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="E2" s="41" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="41" t="b">
+      <c r="B2" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2" s="46" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="46" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G2" s="41" t="b">
+      <c r="G2" s="46" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="E3" s="41" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="41" t="b">
+      <c r="B3" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" s="46" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="46" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G3" s="41" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
+      <c r="G3" s="46" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="E4" s="41" t="b">
+      <c r="B4" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="E4" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="E5" s="46" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F4" s="41" t="b">
+      <c r="F5" s="46" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G4" s="41" t="b">
+      <c r="G5" s="46" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4786,70 +6105,70 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="42" width="21.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="15.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="42" width="23.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="42" width="19.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="42" width="24.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="42" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="47" width="21.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="47" width="15.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="47" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="47" width="19.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="47" width="24.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="47" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1" s="43" t="s">
+      <c r="A1" s="48" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="48" t="s">
+        <v>349</v>
+      </c>
+      <c r="F1" s="48" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>271</v>
+        <v>350</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>273</v>
+        <v>352</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>273</v>
+        <v>352</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>274</v>
+        <v>353</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>275</v>
+        <v>354</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -4862,58 +6181,58 @@
         <v>137</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>276</v>
+        <v>355</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>277</v>
+        <v>356</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>278</v>
+        <v>357</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>280</v>
+        <v>359</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>281</v>
+        <v>360</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>281</v>
+        <v>360</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>282</v>
+        <v>361</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>283</v>
+        <v>362</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>284</v>
+        <v>363</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>284</v>
+        <v>363</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>285</v>
+        <v>364</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -4926,7 +6245,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -4938,7 +6257,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>273</v>
+        <v>352</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -4962,7 +6281,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>281</v>
+        <v>360</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -4974,7 +6293,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -4986,7 +6305,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>273</v>
+        <v>352</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -4998,7 +6317,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>284</v>
+        <v>363</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -5007,13 +6326,13 @@
         <v>116</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>287</v>
+        <v>366</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>288</v>
+        <v>367</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>289</v>
+        <v>368</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -5023,13 +6342,13 @@
         <v>116</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>290</v>
+        <v>369</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>291</v>
+        <v>370</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>292</v>
+        <v>371</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -5042,7 +6361,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>284</v>
+        <v>363</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -5051,13 +6370,13 @@
         <v>125</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>293</v>
+        <v>372</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>294</v>
+        <v>373</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>295</v>
+        <v>374</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -5067,13 +6386,13 @@
         <v>125</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>296</v>
+        <v>375</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>297</v>
+        <v>376</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>298</v>
+        <v>377</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -5086,7 +6405,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>273</v>
+        <v>352</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -5095,17 +6414,17 @@
         <v>132</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>299</v>
+        <v>378</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>301</v>
+        <v>380</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5113,17 +6432,17 @@
         <v>132</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>302</v>
+        <v>381</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>303</v>
+        <v>382</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>304</v>
+        <v>383</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5131,17 +6450,17 @@
         <v>132</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>305</v>
+        <v>384</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>306</v>
+        <v>385</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>307</v>
+        <v>386</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>237</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5149,13 +6468,13 @@
         <v>132</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>308</v>
+        <v>387</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>309</v>
+        <v>388</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>310</v>
+        <v>389</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -5165,17 +6484,17 @@
         <v>132</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>311</v>
+        <v>390</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>312</v>
+        <v>391</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>313</v>
+        <v>392</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>240</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5195,13 +6514,13 @@
         <v>138</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>315</v>
+        <v>394</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -5211,13 +6530,13 @@
         <v>138</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>245</v>
+        <v>320</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>316</v>
+        <v>395</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>317</v>
+        <v>396</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -5227,13 +6546,13 @@
         <v>138</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>246</v>
+        <v>321</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -5243,13 +6562,13 @@
         <v>138</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>247</v>
+        <v>322</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>321</v>
+        <v>400</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -5259,13 +6578,13 @@
         <v>138</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>248</v>
+        <v>323</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>322</v>
+        <v>401</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>323</v>
+        <v>402</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -5275,17 +6594,17 @@
         <v>138</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>324</v>
+        <v>403</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>325</v>
+        <v>404</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>326</v>
+        <v>405</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>241</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5293,13 +6612,13 @@
         <v>138</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>327</v>
+        <v>406</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>328</v>
+        <v>407</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>329</v>
+        <v>408</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -5309,13 +6628,13 @@
         <v>138</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>330</v>
+        <v>409</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>331</v>
+        <v>410</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>332</v>
+        <v>411</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -5325,13 +6644,13 @@
         <v>138</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>333</v>
+        <v>412</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>334</v>
+        <v>413</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>335</v>
+        <v>414</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -5341,13 +6660,13 @@
         <v>138</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>337</v>
+        <v>416</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>338</v>
+        <v>417</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -5357,13 +6676,13 @@
         <v>138</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>339</v>
+        <v>418</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>340</v>
+        <v>419</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>341</v>
+        <v>420</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -5376,10 +6695,10 @@
         <v>137</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>280</v>
+        <v>359</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -5389,13 +6708,13 @@
         <v>138</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>342</v>
+        <v>421</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>343</v>
+        <v>422</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>344</v>
+        <v>423</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -5408,7 +6727,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>273</v>
+        <v>352</v>
       </c>
       <c r="F40" s="1"/>
     </row>
@@ -5417,13 +6736,13 @@
         <v>159</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>346</v>
+        <v>425</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>347</v>
+        <v>426</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -5433,13 +6752,13 @@
         <v>159</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>348</v>
+        <v>427</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>349</v>
+        <v>428</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>350</v>
+        <v>429</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -5452,7 +6771,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>281</v>
+        <v>360</v>
       </c>
       <c r="F43" s="1"/>
     </row>
@@ -5461,13 +6780,13 @@
         <v>166</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>351</v>
+        <v>430</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -5477,13 +6796,13 @@
         <v>166</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>251</v>
+        <v>326</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -5493,13 +6812,13 @@
         <v>166</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -5509,13 +6828,13 @@
         <v>166</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>357</v>
+        <v>436</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>358</v>
+        <v>437</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -5525,59 +6844,327 @@
         <v>166</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>360</v>
+        <v>439</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>361</v>
+        <v>440</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>362</v>
+        <v>441</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="42" t="s">
+      <c r="A49" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="B49" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="C49" s="42" t="s">
-        <v>363</v>
-      </c>
-      <c r="D49" s="42" t="s">
-        <v>352</v>
+      <c r="B49" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="D49" s="47" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="B50" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="C50" s="42" t="s">
+      <c r="B50" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="C50" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="D50" s="47" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" s="47" t="s">
+        <v>439</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>445</v>
+      </c>
+      <c r="D51" s="47" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B52" s="47" t="s">
+        <v>447</v>
+      </c>
+      <c r="C52" s="47" t="s">
+        <v>448</v>
+      </c>
+      <c r="D52" s="47" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B64" s="47" t="s">
+        <v>483</v>
+      </c>
+      <c r="C64" s="47" t="s">
+        <v>484</v>
+      </c>
+      <c r="D64" s="47" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B65" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="C65" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="D65" s="47" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B66" s="47" t="s">
+        <v>486</v>
+      </c>
+      <c r="C66" s="47" t="s">
         <v>364</v>
       </c>
-      <c r="D50" s="42" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="B51" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C51" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="D51" s="42" t="s">
-        <v>367</v>
-      </c>
-    </row>
+      <c r="D66" s="47" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="C67" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="D67" s="47" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="B68" s="47" t="s">
+        <v>491</v>
+      </c>
+      <c r="C68" s="47" t="s">
+        <v>492</v>
+      </c>
+      <c r="D68" s="47" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="D69" s="47" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="B70" s="47" t="s">
+        <v>421</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5594,62 +7181,214 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="31" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="31" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="31" width="12.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="31" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="31" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="31" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="31" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="31" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="31" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="34" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="34" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="34" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="34" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="34" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="34" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="34" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>370</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>371</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>372</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>373</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>374</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>375</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>376</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>377</v>
-      </c>
-      <c r="K1" s="44" t="s">
-        <v>378</v>
-      </c>
-      <c r="L1" s="43" t="s">
-        <v>379</v>
+    <row r="1" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="50" t="s">
+        <v>494</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>498</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>499</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>500</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>501</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>502</v>
+      </c>
+      <c r="J1" s="50" t="s">
+        <v>503</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="H2" s="30" t="n">
+        <v>-10</v>
+      </c>
+      <c r="I2" s="30" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>516</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>518</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>519</v>
+      </c>
+      <c r="H3" s="30" t="n">
+        <v>-10</v>
+      </c>
+      <c r="I3" s="30" t="n">
+        <v>100</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>523</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>524</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>525</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>526</v>
+      </c>
+      <c r="H4" s="30" t="n">
+        <v>-10</v>
+      </c>
+      <c r="I4" s="30" t="n">
+        <v>100</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>528</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>529</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="H5" s="30" t="n">
+        <v>-10</v>
+      </c>
+      <c r="I5" s="30" t="n">
+        <v>100</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -5677,20 +7416,20 @@
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>384</v>
+      <c r="A1" s="34" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>535</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>

--- a/survey/references/OD_nationale_quebec_2025.xlsx
+++ b/survey/references/OD_nationale_quebec_2025.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="635">
   <si>
     <t xml:space="preserve">questionName</t>
   </si>
@@ -729,6 +729,209 @@
     <t xml:space="preserve">household_save</t>
   </si>
   <si>
+    <t xml:space="preserve">selectPerson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tripsSelectPerson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_activePersonId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour quelle personne désirez-vous poursuivre l'entrevue?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who do you want to continue the interview for?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personNewPerson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_showNewPersonPopupButton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nous allons débuter avec les déplacements de {{nickname}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We'll start with the trips made by {{nickname}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buttonSelectPersonConfirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sélectionner cette personne et continuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select this person and continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tripsIntroActivePersonTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tripsIntro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activePersonTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p class="_center _em" style="margin-bottom: 0;"&gt;Entrevue de **{{nickname}}**&lt;/p&gt;&lt;p class="_center _pale"&gt;•&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p class="_center _em" style="margin-bottom: 0;"&gt;**{{nickname}}**’s interview&lt;/p&gt;&lt;p class="_center _pale"&gt;•&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buttonSwitchPerson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changer de personne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personWhoWillAnswerForThisPerson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whoAnswers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qui répond pour {{nickname}}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who is responding for {{nickname}}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personDidTrips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est-ce que {{nickname}} s'est déplac{{gender:é/ée/é.e}} le {{assignedDate}}?
+__Inclure tous les déplacements, qu'ils soient pour motifs personnels (achats, sorties, loisirs, etc.), pour le travail, ou pour aller chercher ou reconduire quelqu'un.__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did {{nickname}} make any trips on {{assignedDate}}?
+__Include all trips, whether for personal reasons (shopping, outings, leisure, etc.), for work, or to pick up or drop someone off.__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous êtes-vous déplac{{gender:é/ée/é.e}} le {{assignedDate}}?
+__Inclure tous les déplacements, qu'ils soient pour motifs personnels (achats, sorties, loisirs, etc.), pour le travail, ou pour aller chercher ou reconduire quelqu'un.__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did you make any trips on {{assignedDate}}?
+__Include all trips, whether for personal reasons (shopping, outings, leisure, etc.), for work, or to pick up or drop someone off.__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personDidTripsChangeConfirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous avez déjà déclaré des déplacements. Confirmez-vous qu'ils sont erronés et que ${{nickname}} ne s'est pas déplac{{gender:é/ée/é.e}} le {{formattedTripsDate}}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You already declared trip. Do you confirm they are erroneous and that {{person.nickname}} did not make any trips on {{formattedTripsDate}}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous avez déjà déclaré des déplacements. Confirmez-vous qu'ils sont erronés et que vous n'avez fait aucun déplacement le {{formattedTripsDate}}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You already declared trips. Do you confirm they are erroneous and that you did not make any trips on {{formattedTripsDate}}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visitedPlacesIntro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">didTripsIntro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nous allons vous demander d'indiquer les lieux où {{nickname}} est all{{gender:é/ée/é.e}} le {{assignedDate}} (inclure les lieux visités jusqu'à 4:00 le lendemain matin).
+&lt;span class="_green"&gt;- **Inclure même les petits arrêts** (station-service, garderie/école, dépanneur ou tout lieu où {{nickname}} est all{{gender:é/ée/é.e}} chercher ou reconduire quelqu'un).
+- **Inclure tous les lieux** peu importe les modes de transport utilisés pour s'y rendre (marche, vélo, voiture, transport collectif, taxi, avion, bateau, etc.).&lt;/span&gt;
+&lt;span class="_red"&gt;- **Ne pas inclure les lieux de transfert** en cours de déplacement (arrêts de bus, gares, terminus, lieux de stationnement, etc.) sauf si {{nickname}} est all{{gender:é/ée/é.e}} reconduire ou chercher quelqu'un à cet endroit.&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please specify the **places {{nickname}} went on {{assignedDate}}** (include all places visited until 4 AM the following morning)
+&lt;span class="_green"&gt;- **Include short stops and errands** (gas station, daycare/school, convenience store or any place where {{nickname}} picked someone up or dropped someone off).
+- **Include all places** regardless of the mode of transport used to get there (walking, cycling, car, public transit, taxi, plane, boat, etc.).&lt;/span&gt;
+&lt;span class="_red"&gt;- **Do not include transfer locations** (bus stops, train stations, terminals, parking lots, etc.) unless {{nickname}} went there to drop someone off or pick someone up.&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nous allons vous demander d'indiquer les **lieux où vous êtes all{{gender:é/ée/é.e}} le {{assignedDate}}** (inclure les lieux visités jusqu'à 4:00 le lendemain matin).
+&lt;span class="_green"&gt;- **Inclure même les petits arrêts** (station-service, garderie/école, dépanneur ou tout lieu où vous êtes all{{gender:é/ée/é.e}} chercher ou reconduire quelqu'un).
+- **Inclure tous les lieux** peu importe les modes de transport utilisés pour s'y rendre (marche, vélo, voiture, transport collectif, taxi, avion, bateau, etc.).&lt;/span&gt;
+&lt;span class="_red"&gt;- **Ne pas inclure les lieux de transfert** en cours de déplacement (arrêts de bus, gares, terminus, lieux de stationnement, etc.) sauf si vous êtes all{{gender:é/ée/é.e}} reconduire ou chercher quelqu'un à cet endroit.&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please specify the**places you went on {{assignedDate}}** (include all places visited until 4 AM the following morning).
+&lt;span class="_green"&gt;- **Include short stops and errands** (gas station, daycare/school, convenience store or any place where you picked someone up or dropped someone off).
+- **Include all places** regardless of the mode of transport used to get there (walking, cycling, car, public transit, taxi, plane, boat, etc.).&lt;/span&gt;
+&lt;span class="_red"&gt;- **Do not include transfer locations** (bus stops, train stations, terminals, parking lots, etc.) unless you went there to drop someone off or pick someone up.&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personDeparturePlaceIsHome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">departurePlaceIsHome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est-ce que {{nickname}} a **commencé sa journée au domicile** ({{address}})?
+__Répondre 'Non' uniquement si {{nickname}} n'a pas dormi au domicile (nuit du {{dayOne}} au {{dayTwo}}), ou y est rentr{{gender:é/ée/é.e}} après 4h du matin (par ex.: travail de nuit).__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did {{nickname}} **start their day at home** ({{address}})?
+__Answer 'No' only if {{nickname}} did not sleep at home (nuit du {{dayOne}} au {{dayTwo}}) or came home after 4 AM (ex: overnight work shift).__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avez-vous **commencé votre journée au domicile** ({{address}})?
+__Répondre 'Non' uniquement si vous n'avez pas dormi au domicile (nuit du {{dayOne}} au {{dayTwo}}), ou y êtes rentré{{gender:é/ée/é.e}} après 4h du matin (par ex.: travail de nuit).__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did you **start your day at home** ({{address}})?
+__Answer 'No' only if you did not sleep at home (nuit du {{dayOne}} au {{dayTwo}}) or came home after 4 AM (ex: overnight work shift).__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personDeparturePlaceOther</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household.persons.{_activePersonId}.journeys.{_activeJourneyId}.departurePlaceOther</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Où était {{nickname}} à 4h du matin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where was {{nickname}} at 4 AM?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Où étiez-vous à 4h du matin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where were you at 4 AM?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">departurePlaceOtherCustomConditional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">departurePlaceOtherChoices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tripsIntro_save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tripsIntro.save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tripsIntroOutro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">__Vos réponses serviront à évaluer l'usage et l'achalandage des réseaux routiers et de transport collectif et demeureront entièrement confidentielles.__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">__Your answers will be used to assess the use and traffic of the road and public transit networks and will remain entirely confidential.__</t>
+  </si>
+  <si>
     <t xml:space="preserve">householdOwnership</t>
   </si>
   <si>
@@ -1037,6 +1240,9 @@
     <t xml:space="preserve">ifAge15OrMoreConditional</t>
   </si>
   <si>
+    <t xml:space="preserve">ifAge16OrLessConditional</t>
+  </si>
+  <si>
     <t xml:space="preserve">ifAge40OrMoreConditional</t>
   </si>
   <si>
@@ -1115,6 +1321,33 @@
     <t xml:space="preserve">Household</t>
   </si>
   <si>
+    <t xml:space="preserve">personsTrips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déplacements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trips introduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ts_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sélection du membre du ménage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household member selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ti_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction aux déplacements</t>
+  </si>
+  <si>
     <t xml:space="preserve">e_</t>
   </si>
   <si>
@@ -1571,6 +1804,78 @@
     <t xml:space="preserve">Owner</t>
   </si>
   <si>
+    <t xml:space="preserve">otherParentHome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Domicile de l'autre parent ou tuteur**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Home of the other parent or guardian**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workedOvernight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Travaillait de nuit**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Worked overnight**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secondaryHome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Résidence secondaire** (chalet ou autre)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Secondary residence** (cottage or other)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleptAtFriends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passait la nuit chez **ami, copine/copain ou famille**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed at a **friend’s, partner’s or family’s home**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Était à un ou revenait d'un **restaurant ou bar**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was at or was coming back from a **restaurant or bar**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hotelForWork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hôtel ou autre lieu pour une **conférence / travail**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel or other venue for **a conference / work**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hotelForVacation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hôtel ou autre lieu en **vacances**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hôtel or other on **vacation**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">studying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Écoles / lieu d’études**: terminait des travaux ou y couchait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**School / place of study**: studied or slept there</t>
+  </si>
+  <si>
     <t xml:space="preserve">inputRangeName</t>
   </si>
   <si>
@@ -1698,6 +2003,15 @@
   </si>
   <si>
     <t xml:space="preserve">en_one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error.mandatory._activePersonId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veuillez sélectionner une personne pour poursuivre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please select a person to continue.</t>
   </si>
 </sst>
 </file>
@@ -1708,7 +2022,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1800,6 +2114,21 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FFFFBF00"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1830,11 +2159,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="9"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1880,7 +2209,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFFBF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1947,7 +2276,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2064,48 +2393,60 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2116,19 +2457,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2136,23 +2477,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2334,7 +2683,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -2535,11 +2884,11 @@
   <dimension ref="A1:X1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H52" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
-      <selection pane="bottomRight" activeCell="O48" activeCellId="0" sqref="O48"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
+      <selection pane="bottomRight" activeCell="J52" activeCellId="0" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2643,7 +2992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -2687,7 +3036,7 @@
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="51.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
@@ -2732,7 +3081,7 @@
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>34</v>
       </c>
@@ -2778,7 +3127,7 @@
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -2826,7 +3175,7 @@
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
         <v>43</v>
       </c>
@@ -2968,7 +3317,7 @@
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>55</v>
       </c>
@@ -3017,7 +3366,7 @@
       </c>
       <c r="X9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
         <v>59</v>
       </c>
@@ -3066,7 +3415,7 @@
       </c>
       <c r="X10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>64</v>
       </c>
@@ -3309,7 +3658,7 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
         <v>89</v>
       </c>
@@ -3588,7 +3937,7 @@
       <c r="W21" s="18"/>
       <c r="X21" s="18"/>
     </row>
-    <row r="22" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
         <v>115</v>
       </c>
@@ -3638,7 +3987,7 @@
       <c r="W22" s="18"/>
       <c r="X22" s="18"/>
     </row>
-    <row r="23" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
         <v>120</v>
       </c>
@@ -3942,7 +4291,7 @@
       <c r="W28" s="18"/>
       <c r="X28" s="18"/>
     </row>
-    <row r="29" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="22" t="s">
         <v>153</v>
       </c>
@@ -3992,7 +4341,7 @@
       <c r="W29" s="18"/>
       <c r="X29" s="18"/>
     </row>
-    <row r="30" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
         <v>160</v>
       </c>
@@ -4190,7 +4539,7 @@
       <c r="W33" s="18"/>
       <c r="X33" s="18"/>
     </row>
-    <row r="34" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
         <v>181</v>
       </c>
@@ -4290,7 +4639,7 @@
       <c r="W35" s="18"/>
       <c r="X35" s="18"/>
     </row>
-    <row r="36" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
         <v>192</v>
       </c>
@@ -4436,7 +4785,7 @@
       <c r="W38" s="18"/>
       <c r="X38" s="18"/>
     </row>
-    <row r="39" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="22" t="s">
         <v>206</v>
       </c>
@@ -4577,27 +4926,28 @@
       <c r="W41" s="28"/>
       <c r="X41" s="28"/>
     </row>
-    <row r="42" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="29" t="s">
         <v>215</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C42" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D42" s="27" t="s">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D42" s="29" t="s">
         <v>216</v>
       </c>
       <c r="E42" s="28"/>
-      <c r="F42" s="28" t="s">
+      <c r="F42" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="G42" s="27" t="s">
+      <c r="G42" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="H42" s="27" t="s">
+      <c r="H42" s="29" t="s">
         <v>219</v>
       </c>
       <c r="I42" s="27"/>
@@ -4605,10 +4955,8 @@
       <c r="K42" s="27"/>
       <c r="L42" s="28"/>
       <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28" t="s">
-        <v>220</v>
-      </c>
+      <c r="N42" s="30"/>
+      <c r="O42" s="28"/>
       <c r="P42" s="28"/>
       <c r="Q42" s="28"/>
       <c r="R42" s="28"/>
@@ -4619,28 +4967,29 @@
       <c r="W42" s="28"/>
       <c r="X42" s="28"/>
     </row>
-    <row r="43" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="E43" s="28"/>
+      <c r="F43" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="G43" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="C43" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28" t="s">
+      <c r="H43" s="29" t="s">
         <v>223</v>
-      </c>
-      <c r="G43" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="H43" s="27" t="s">
-        <v>225</v>
       </c>
       <c r="I43" s="27"/>
       <c r="J43" s="27"/>
@@ -4648,104 +4997,97 @@
       <c r="L43" s="28"/>
       <c r="M43" s="28"/>
       <c r="N43" s="28"/>
-      <c r="O43" s="30" t="s">
-        <v>226</v>
-      </c>
+      <c r="O43" s="28"/>
       <c r="P43" s="28"/>
       <c r="Q43" s="28"/>
       <c r="R43" s="28"/>
       <c r="S43" s="28"/>
-      <c r="T43" s="27" t="b">
-        <v>1</v>
-      </c>
+      <c r="T43" s="27"/>
       <c r="U43" s="28"/>
       <c r="V43" s="28"/>
       <c r="W43" s="28"/>
       <c r="X43" s="28"/>
     </row>
-    <row r="44" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="29" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="C44" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D44" s="27" t="s">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D44" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="E44" s="28"/>
+      <c r="E44" s="29"/>
       <c r="F44" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="G44" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="H44" s="31" t="s">
-        <v>229</v>
+        <v>224</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>226</v>
       </c>
       <c r="I44" s="27"/>
       <c r="J44" s="27"/>
       <c r="K44" s="27"/>
       <c r="L44" s="28"/>
       <c r="M44" s="28"/>
-      <c r="N44" s="0"/>
-      <c r="O44" s="28" t="s">
-        <v>33</v>
-      </c>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
       <c r="P44" s="28"/>
       <c r="Q44" s="28"/>
       <c r="R44" s="28"/>
       <c r="S44" s="28"/>
-      <c r="T44" s="27" t="b">
-        <v>1</v>
-      </c>
+      <c r="T44" s="27"/>
       <c r="U44" s="28"/>
       <c r="V44" s="28"/>
       <c r="W44" s="28"/>
       <c r="X44" s="28"/>
     </row>
-    <row r="45" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="G45" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="B45" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="G45" s="31" t="s">
+      <c r="H45" s="31" t="s">
         <v>231</v>
-      </c>
-      <c r="H45" s="31" t="s">
-        <v>232</v>
       </c>
       <c r="I45" s="27"/>
       <c r="J45" s="27"/>
       <c r="K45" s="27"/>
       <c r="L45" s="28"/>
-      <c r="M45" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="N45" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="M45" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="N45" s="28"/>
       <c r="O45" s="28"/>
       <c r="P45" s="28"/>
       <c r="Q45" s="28"/>
       <c r="R45" s="28"/>
       <c r="S45" s="28"/>
       <c r="T45" s="27" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="U45" s="28"/>
@@ -4753,72 +5095,70 @@
       <c r="W45" s="28"/>
       <c r="X45" s="28"/>
     </row>
-    <row r="46" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="29" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>235</v>
+        <v>69</v>
       </c>
       <c r="C46" s="27" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="G46" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="H46" s="30" t="s">
-        <v>238</v>
+        <v>232</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>234</v>
       </c>
       <c r="I46" s="27"/>
       <c r="J46" s="27"/>
       <c r="K46" s="27"/>
       <c r="L46" s="28"/>
       <c r="M46" s="28"/>
-      <c r="N46" s="28" t="s">
-        <v>239</v>
-      </c>
+      <c r="N46" s="28"/>
       <c r="O46" s="28"/>
       <c r="P46" s="28"/>
       <c r="Q46" s="28"/>
       <c r="R46" s="28"/>
       <c r="S46" s="28"/>
-      <c r="T46" s="27" t="b">
-        <v>1</v>
-      </c>
+      <c r="T46" s="27"/>
       <c r="U46" s="28"/>
       <c r="V46" s="28"/>
       <c r="W46" s="28"/>
       <c r="X46" s="28"/>
     </row>
-    <row r="47" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>35</v>
+        <v>220</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="C47" s="27" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="E47" s="28"/>
-      <c r="F47" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="G47" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="H47" s="27" t="s">
-        <v>242</v>
+      <c r="F47" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>223</v>
       </c>
       <c r="I47" s="27"/>
       <c r="J47" s="27"/>
@@ -4831,36 +5171,35 @@
       <c r="Q47" s="28"/>
       <c r="R47" s="28"/>
       <c r="S47" s="28"/>
-      <c r="T47" s="27" t="b">
-        <v>1</v>
-      </c>
+      <c r="T47" s="27"/>
       <c r="U47" s="28"/>
       <c r="V47" s="28"/>
       <c r="W47" s="28"/>
       <c r="X47" s="28"/>
     </row>
-    <row r="48" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="29" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C48" s="27" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="E48" s="28"/>
       <c r="F48" s="29" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I48" s="27"/>
       <c r="J48" s="27"/>
@@ -4879,231 +5218,231 @@
       <c r="W48" s="28"/>
       <c r="X48" s="28"/>
     </row>
-    <row r="49" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="29" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C49" s="27" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="E49" s="28"/>
-      <c r="F49" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="G49" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="H49" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="7" t="s">
-        <v>250</v>
-      </c>
+      <c r="F49" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="I49" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="J49" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K49" s="27"/>
       <c r="L49" s="28"/>
-      <c r="M49" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="N49" s="29" t="s">
-        <v>252</v>
-      </c>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
       <c r="O49" s="28"/>
       <c r="P49" s="28"/>
       <c r="Q49" s="28"/>
       <c r="R49" s="28"/>
       <c r="S49" s="28"/>
-      <c r="T49" s="27" t="b">
-        <v>1</v>
-      </c>
+      <c r="T49" s="27"/>
       <c r="U49" s="28"/>
       <c r="V49" s="28"/>
       <c r="W49" s="28"/>
       <c r="X49" s="28"/>
     </row>
-    <row r="50" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="29" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C50" s="27" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="E50" s="28"/>
-      <c r="F50" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="G50" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H50" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="7" t="s">
-        <v>250</v>
-      </c>
+      <c r="F50" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="I50" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="J50" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K50" s="27"/>
       <c r="L50" s="28"/>
-      <c r="M50" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="N50" s="29" t="s">
-        <v>257</v>
-      </c>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
       <c r="O50" s="28"/>
       <c r="P50" s="28"/>
       <c r="Q50" s="28"/>
       <c r="R50" s="28"/>
       <c r="S50" s="28"/>
-      <c r="T50" s="27" t="b">
-        <v>1</v>
-      </c>
+      <c r="T50" s="27"/>
       <c r="U50" s="28"/>
       <c r="V50" s="28"/>
       <c r="W50" s="28"/>
       <c r="X50" s="28"/>
     </row>
-    <row r="51" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="29" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>259</v>
+        <v>69</v>
       </c>
       <c r="C51" s="27" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="E51" s="28"/>
       <c r="F51" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="G51" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="H51" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
+        <v>250</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="H51" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="I51" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="J51" s="32" t="s">
+        <v>254</v>
+      </c>
       <c r="K51" s="27"/>
       <c r="L51" s="28"/>
       <c r="M51" s="28"/>
-      <c r="N51" s="28" t="s">
-        <v>239</v>
-      </c>
+      <c r="N51" s="28"/>
       <c r="O51" s="28"/>
       <c r="P51" s="28"/>
-      <c r="Q51" s="30" t="s">
-        <v>263</v>
-      </c>
+      <c r="Q51" s="28"/>
       <c r="R51" s="28"/>
       <c r="S51" s="28"/>
-      <c r="T51" s="27" t="b">
-        <v>1</v>
-      </c>
+      <c r="T51" s="27"/>
       <c r="U51" s="28"/>
       <c r="V51" s="28"/>
       <c r="W51" s="28"/>
       <c r="X51" s="28"/>
     </row>
-    <row r="52" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="29" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="C52" s="27" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="G52" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="H52" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
+        <v>256</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="I52" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="J52" s="29" t="s">
+        <v>260</v>
+      </c>
       <c r="K52" s="27"/>
       <c r="L52" s="28"/>
       <c r="M52" s="28"/>
-      <c r="N52" s="28" t="s">
-        <v>239</v>
-      </c>
+      <c r="N52" s="28"/>
       <c r="O52" s="28"/>
       <c r="P52" s="28"/>
       <c r="Q52" s="28"/>
       <c r="R52" s="28"/>
       <c r="S52" s="28"/>
-      <c r="T52" s="27" t="b">
-        <v>1</v>
-      </c>
+      <c r="T52" s="27"/>
       <c r="U52" s="28"/>
       <c r="V52" s="28"/>
       <c r="W52" s="28"/>
       <c r="X52" s="28"/>
     </row>
-    <row r="53" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="29" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>259</v>
+        <v>30</v>
       </c>
       <c r="C53" s="27" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="E53" s="28"/>
-      <c r="F53" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="G53" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="H53" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
+      <c r="F53" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="I53" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="J53" s="29" t="s">
+        <v>266</v>
+      </c>
       <c r="K53" s="27"/>
       <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="O53" s="28"/>
+      <c r="M53" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28" t="s">
+        <v>268</v>
+      </c>
       <c r="P53" s="28"/>
-      <c r="Q53" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="Q53" s="28"/>
       <c r="R53" s="28"/>
       <c r="S53" s="28"/>
       <c r="T53" s="27" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="U53" s="28"/>
@@ -5111,88 +5450,80 @@
       <c r="W53" s="28"/>
       <c r="X53" s="28"/>
     </row>
-    <row r="54" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="29" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>259</v>
+        <v>98</v>
       </c>
       <c r="C54" s="27" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="G54" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="H54" s="30" t="s">
-        <v>276</v>
+        <v>270</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="H54" s="27" t="s">
+        <v>272</v>
       </c>
       <c r="I54" s="27"/>
       <c r="J54" s="27"/>
       <c r="K54" s="27"/>
       <c r="L54" s="28"/>
       <c r="M54" s="28"/>
-      <c r="N54" s="28" t="s">
-        <v>239</v>
-      </c>
+      <c r="N54" s="28"/>
       <c r="O54" s="28"/>
       <c r="P54" s="28"/>
-      <c r="Q54" s="30" t="s">
-        <v>277</v>
-      </c>
+      <c r="Q54" s="28"/>
       <c r="R54" s="28"/>
       <c r="S54" s="28"/>
-      <c r="T54" s="27" t="b">
-        <v>1</v>
-      </c>
+      <c r="T54" s="27"/>
       <c r="U54" s="28"/>
       <c r="V54" s="28"/>
       <c r="W54" s="28"/>
       <c r="X54" s="28"/>
     </row>
-    <row r="55" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="29" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>259</v>
+        <v>35</v>
       </c>
       <c r="C55" s="27" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="E55" s="28"/>
       <c r="F55" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="G55" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="H55" s="30" t="s">
-        <v>281</v>
+        <v>273</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="H55" s="33" t="s">
+        <v>275</v>
       </c>
       <c r="I55" s="27"/>
       <c r="J55" s="27"/>
       <c r="K55" s="27"/>
       <c r="L55" s="28"/>
       <c r="M55" s="28"/>
-      <c r="N55" s="28" t="s">
-        <v>239</v>
-      </c>
+      <c r="N55" s="28"/>
       <c r="O55" s="28"/>
       <c r="P55" s="28"/>
-      <c r="Q55" s="30" t="s">
-        <v>282</v>
-      </c>
+      <c r="Q55" s="28"/>
       <c r="R55" s="28"/>
       <c r="S55" s="28"/>
       <c r="T55" s="27" t="b">
@@ -5203,74 +5534,72 @@
       <c r="W55" s="28"/>
       <c r="X55" s="28"/>
     </row>
-    <row r="56" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="29" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B56" s="27" t="s">
         <v>30</v>
       </c>
       <c r="C56" s="27" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="E56" s="28"/>
       <c r="F56" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="G56" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="H56" s="30" t="s">
-        <v>286</v>
+        <v>278</v>
+      </c>
+      <c r="G56" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="H56" s="27" t="s">
+        <v>280</v>
       </c>
       <c r="I56" s="27"/>
       <c r="J56" s="27"/>
       <c r="K56" s="27"/>
       <c r="L56" s="28"/>
       <c r="M56" s="28"/>
-      <c r="N56" s="28" t="s">
-        <v>239</v>
-      </c>
+      <c r="N56" s="28"/>
       <c r="O56" s="28" t="s">
-        <v>147</v>
+        <v>281</v>
       </c>
       <c r="P56" s="28"/>
       <c r="Q56" s="28"/>
       <c r="R56" s="28"/>
       <c r="S56" s="28"/>
-      <c r="T56" s="27" t="b">
-        <v>1</v>
-      </c>
+      <c r="T56" s="27"/>
       <c r="U56" s="28"/>
       <c r="V56" s="28"/>
       <c r="W56" s="28"/>
       <c r="X56" s="28"/>
     </row>
-    <row r="57" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="29" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>98</v>
+        <v>283</v>
       </c>
       <c r="C57" s="27" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="E57" s="28"/>
-      <c r="F57" s="29" t="s">
-        <v>287</v>
+      <c r="F57" s="28" t="s">
+        <v>284</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="H57" s="29" t="s">
-        <v>289</v>
+        <v>285</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>286</v>
       </c>
       <c r="I57" s="27"/>
       <c r="J57" s="27"/>
@@ -5278,43 +5607,700 @@
       <c r="L57" s="28"/>
       <c r="M57" s="28"/>
       <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
+      <c r="O57" s="34" t="s">
+        <v>287</v>
+      </c>
       <c r="P57" s="28"/>
       <c r="Q57" s="28"/>
       <c r="R57" s="28"/>
       <c r="S57" s="28"/>
-      <c r="T57" s="27"/>
+      <c r="T57" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
       <c r="U57" s="28"/>
       <c r="V57" s="28"/>
       <c r="W57" s="28"/>
       <c r="X57" s="28"/>
     </row>
-    <row r="58" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
+    <row r="58" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E58" s="28"/>
+      <c r="F58" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="G58" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="H58" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="28"/>
+      <c r="R58" s="28"/>
+      <c r="S58" s="28"/>
+      <c r="T58" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U58" s="28"/>
+      <c r="V58" s="28"/>
+      <c r="W58" s="28"/>
+      <c r="X58" s="28"/>
+    </row>
+    <row r="59" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E59" s="28"/>
+      <c r="F59" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="G59" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="H59" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="N59" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O59" s="28"/>
+      <c r="P59" s="28"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="28"/>
+      <c r="S59" s="28"/>
+      <c r="T59" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U59" s="28"/>
+      <c r="V59" s="28"/>
+      <c r="W59" s="28"/>
+      <c r="X59" s="28"/>
+    </row>
+    <row r="60" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="C60" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="G60" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="H60" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="O60" s="28"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U60" s="28"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="28"/>
+      <c r="X60" s="28"/>
+    </row>
+    <row r="61" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="L58" s="32"/>
-      <c r="M58" s="33"/>
-      <c r="T58" s="1" t="b">
+      <c r="C61" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="G61" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="28"/>
+      <c r="S61" s="28"/>
+      <c r="T61" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U61" s="28"/>
+      <c r="V61" s="28"/>
+      <c r="W61" s="28"/>
+      <c r="X61" s="28"/>
+    </row>
+    <row r="62" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E62" s="28"/>
+      <c r="F62" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="H62" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="28"/>
+      <c r="S62" s="28"/>
+      <c r="T62" s="27"/>
+      <c r="U62" s="28"/>
+      <c r="V62" s="28"/>
+      <c r="W62" s="28"/>
+      <c r="X62" s="28"/>
+    </row>
+    <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="G63" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="N63" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="O63" s="28"/>
+      <c r="P63" s="28"/>
+      <c r="Q63" s="28"/>
+      <c r="R63" s="28"/>
+      <c r="S63" s="28"/>
+      <c r="T63" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U63" s="28"/>
+      <c r="V63" s="28"/>
+      <c r="W63" s="28"/>
+      <c r="X63" s="28"/>
+    </row>
+    <row r="64" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="G64" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="H64" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="N64" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="O64" s="28"/>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="28"/>
+      <c r="S64" s="28"/>
+      <c r="T64" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U64" s="28"/>
+      <c r="V64" s="28"/>
+      <c r="W64" s="28"/>
+      <c r="X64" s="28"/>
+    </row>
+    <row r="65" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="C65" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="G65" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="H65" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="O65" s="28"/>
+      <c r="P65" s="28"/>
+      <c r="Q65" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="R65" s="28"/>
+      <c r="S65" s="28"/>
+      <c r="T65" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U65" s="28"/>
+      <c r="V65" s="28"/>
+      <c r="W65" s="28"/>
+      <c r="X65" s="28"/>
+    </row>
+    <row r="66" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="G66" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="H66" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="28"/>
+      <c r="T66" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U66" s="28"/>
+      <c r="V66" s="28"/>
+      <c r="W66" s="28"/>
+      <c r="X66" s="28"/>
+    </row>
+    <row r="67" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="C67" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="G67" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="H67" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="O67" s="28"/>
+      <c r="P67" s="28"/>
+      <c r="Q67" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="R67" s="28"/>
+      <c r="S67" s="28"/>
+      <c r="T67" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U67" s="28"/>
+      <c r="V67" s="28"/>
+      <c r="W67" s="28"/>
+      <c r="X67" s="28"/>
+    </row>
+    <row r="68" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="C68" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="G68" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="H68" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="O68" s="28"/>
+      <c r="P68" s="28"/>
+      <c r="Q68" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="R68" s="28"/>
+      <c r="S68" s="28"/>
+      <c r="T68" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U68" s="28"/>
+      <c r="V68" s="28"/>
+      <c r="W68" s="28"/>
+      <c r="X68" s="28"/>
+    </row>
+    <row r="69" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="C69" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="G69" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="H69" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="O69" s="28"/>
+      <c r="P69" s="28"/>
+      <c r="Q69" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="R69" s="28"/>
+      <c r="S69" s="28"/>
+      <c r="T69" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U69" s="28"/>
+      <c r="V69" s="28"/>
+      <c r="W69" s="28"/>
+      <c r="X69" s="28"/>
+    </row>
+    <row r="70" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="G70" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="H70" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="O70" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="P70" s="28"/>
+      <c r="Q70" s="28"/>
+      <c r="R70" s="28"/>
+      <c r="S70" s="28"/>
+      <c r="T70" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U70" s="28"/>
+      <c r="V70" s="28"/>
+      <c r="W70" s="28"/>
+      <c r="X70" s="28"/>
+    </row>
+    <row r="71" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="B71" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="27" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E71" s="28"/>
+      <c r="F71" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="G71" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="H71" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="28"/>
+      <c r="P71" s="28"/>
+      <c r="Q71" s="28"/>
+      <c r="R71" s="28"/>
+      <c r="S71" s="28"/>
+      <c r="T71" s="27"/>
+      <c r="U71" s="28"/>
+      <c r="V71" s="28"/>
+      <c r="W71" s="28"/>
+      <c r="X71" s="28"/>
+    </row>
+    <row r="72" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="L72" s="37"/>
+      <c r="M72" s="38"/>
+      <c r="T72" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5322,30 +6308,30 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:X1"/>
-  <conditionalFormatting sqref="N58:Q58">
+  <conditionalFormatting sqref="N72:Q72">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($B1048386="Custom",  $B1048386&lt;&gt;"", ROW(N1048386)&lt;&gt;1)</formula>
+      <formula>AND($B1048400="Custom",  $B1048400&lt;&gt;"", ROW(N1048400)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q58">
+  <conditionalFormatting sqref="Q72">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($B58&lt;&gt;"Range", $B58&lt;&gt;"", ROW(Q58)&lt;&gt;1)</formula>
+      <formula>AND($B72&lt;&gt;"Range", $B72&lt;&gt;"", ROW(Q72)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
+  <conditionalFormatting sqref="C72">
     <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="FALSE" dxfId="5">
-      <formula>NOT(ISERROR(SEARCH("FALSE",C58)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",C72)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="5" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="TRUE" dxfId="6">
-      <formula>NOT(ISERROR(SEARCH("TRUE",C58)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O58:P58">
+  <conditionalFormatting sqref="O72:P72">
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($B58&lt;&gt;"Select", $B58&lt;&gt;"Checkbox", $B58&lt;&gt;"Radio",  $B58&lt;&gt;"", ROW(O58)&lt;&gt;1)</formula>
+      <formula>AND($B72&lt;&gt;"Select", $B72&lt;&gt;"Checkbox", $B72&lt;&gt;"Radio",  $B72&lt;&gt;"", ROW(O72)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C1048576 C1:C57">
+  <conditionalFormatting sqref="C73:C1048576 C1:C71">
     <cfRule type="containsText" priority="7" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="FALSE" dxfId="8">
       <formula>NOT(ISERROR(SEARCH("FALSE",C1)))</formula>
     </cfRule>
@@ -5353,29 +6339,29 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q51">
+  <conditionalFormatting sqref="Q65">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND($B1048380="Custom",  $B1048380&lt;&gt;"", ROW(Q1048380)&lt;&gt;1)</formula>
+      <formula>AND($B1048394="Custom",  $B1048394&lt;&gt;"", ROW(Q1048394)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q51 Q54:Q55">
+  <conditionalFormatting sqref="Q65 Q68:Q69">
     <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($B51&lt;&gt;"Range", $B51&lt;&gt;"", ROW(Q51)&lt;&gt;1)</formula>
+      <formula>AND($B65&lt;&gt;"Range", $B65&lt;&gt;"", ROW(Q65)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q54:Q55">
+  <conditionalFormatting sqref="Q68:Q69">
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(#REF!="Custom",  #REF!&lt;&gt;"", ROW(#REF!)&lt;&gt;1)</formula>
+      <formula>AND(#ref!="Custom",  #ref!&lt;&gt;"", ROW(#ref!)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O43">
+  <conditionalFormatting sqref="O57">
     <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>AND($B43="Custom",  $B43&lt;&gt;"", ROW(O43)&lt;&gt;1)</formula>
+      <formula>AND($B57="Custom",  $B57&lt;&gt;"", ROW(O57)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O43">
+  <conditionalFormatting sqref="O57">
     <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND($B43&lt;&gt;"Select", $B43&lt;&gt;"Checkbox", $B43&lt;&gt;"Radio",  $B43&lt;&gt;"", ROW(O43)&lt;&gt;1)</formula>
+      <formula>AND($B57&lt;&gt;"Select", $B57&lt;&gt;"Checkbox", $B57&lt;&gt;"Radio",  $B57&lt;&gt;"", ROW(O57)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5394,540 +6380,577 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="27.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="15.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="35" width="20.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="34" width="19.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="34" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="36" width="27.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="15.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="36" width="31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="39" width="20.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="36" width="19.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="36" width="12.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
+    <row r="1" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="E3" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E5" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="E6" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="E7" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="E8" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="E9" s="29" t="n">
+        <v>13</v>
+      </c>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="E10" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="E11" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" s="29"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="E12" s="29" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="E13" s="29" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="E14" s="29" t="n">
+        <v>14</v>
+      </c>
+      <c r="F14" s="29"/>
+    </row>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="E15" s="29" t="n">
+        <v>15</v>
+      </c>
+      <c r="F15" s="29"/>
+    </row>
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="F16" s="29"/>
+    </row>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="E17" s="29" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" s="29"/>
+    </row>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="E18" s="29" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" s="29"/>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="E19" s="29" t="n">
+        <v>16</v>
+      </c>
+      <c r="F19" s="29"/>
+    </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="F20" s="29"/>
+    </row>
+    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="E21" s="29" t="n">
+        <v>40</v>
+      </c>
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="F22" s="29"/>
+    </row>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>297</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="E2" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="39"/>
-    </row>
-    <row r="3" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="E3" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="39"/>
-    </row>
-    <row r="4" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="F4" s="39"/>
-    </row>
-    <row r="5" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="E5" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="39"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="E6" s="39" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" s="39"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="E7" s="39" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" s="39"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="E8" s="39" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" s="39"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="E9" s="39" t="n">
-        <v>13</v>
-      </c>
-      <c r="F9" s="39"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="s">
-        <v>311</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="E10" s="39" t="n">
-        <v>5</v>
-      </c>
-      <c r="F10" s="39"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="E11" s="39" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" s="39"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="E12" s="39" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" s="39"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39" t="s">
+      <c r="C33" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="E13" s="39" t="n">
-        <v>11</v>
-      </c>
-      <c r="F13" s="39"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="E14" s="39" t="n">
-        <v>14</v>
-      </c>
-      <c r="F14" s="39"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="E15" s="39" t="n">
-        <v>15</v>
-      </c>
-      <c r="F15" s="39"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>314</v>
-      </c>
-      <c r="F16" s="39"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="39" t="s">
-        <v>315</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="E17" s="39" t="n">
-        <v>15</v>
-      </c>
-      <c r="F17" s="39"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="E18" s="39" t="n">
-        <v>16</v>
-      </c>
-      <c r="F18" s="39"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="39" t="s">
-        <v>316</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="E19" s="39" t="n">
-        <v>40</v>
-      </c>
-      <c r="F19" s="39"/>
-    </row>
-    <row r="20" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39" t="s">
-        <v>317</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="F20" s="39"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>324</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>324</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>324</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>301</v>
-      </c>
-      <c r="E31" s="43" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="E32" s="34" t="n">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="C34" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="E34" s="36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5944,149 +6967,239 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="39" width="10.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="39" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="39" width="12.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="39" width="10.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="39" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="39" width="15.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="39" width="10.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="29" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="29" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="29" width="12.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="29" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="29" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="29" width="15.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="29" width="10.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>329</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>330</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>331</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>333</v>
+      <c r="B1" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>394</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>395</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>336</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>337</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>338</v>
-      </c>
-      <c r="E2" s="46" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="46" t="b">
+      <c r="B2" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="E2" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="49" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G2" s="46" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
+      <c r="G2" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>339</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>340</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>341</v>
-      </c>
-      <c r="E3" s="46" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="46" t="b">
+      <c r="B3" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="E3" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="49" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G3" s="46" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>342</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>343</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>344</v>
-      </c>
-      <c r="E4" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>345</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>347</v>
-      </c>
-      <c r="E5" s="46" t="b">
+      <c r="G3" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="E4" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="49" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F5" s="46" t="b">
+      <c r="G4" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="E5" s="49" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G5" s="46" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F5" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="E6" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="E7" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="E8" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -6107,73 +7220,73 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D75" activeCellId="0" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="47" width="21.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="47" width="15.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="47" width="23.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="47" width="19.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="47" width="24.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="47" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="51" width="21.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="51" width="15.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="51" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="51" width="19.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="51" width="24.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="51" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="48" t="s">
-        <v>348</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="C1" s="48" t="s">
+      <c r="A1" s="52" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="52" t="s">
+        <v>420</v>
+      </c>
+      <c r="F1" s="52" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>351</v>
+        <v>422</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>352</v>
+        <v>423</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>352</v>
+        <v>423</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>353</v>
+        <v>424</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>354</v>
+        <v>425</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>137</v>
       </c>
@@ -6181,63 +7294,63 @@
         <v>137</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>355</v>
+        <v>426</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>356</v>
+        <v>427</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>357</v>
+        <v>428</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>358</v>
+        <v>429</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>359</v>
+        <v>430</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>360</v>
+        <v>431</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>360</v>
+        <v>431</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>361</v>
+        <v>432</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>362</v>
+        <v>433</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>363</v>
+        <v>434</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>363</v>
+        <v>434</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>364</v>
+        <v>435</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>365</v>
+        <v>436</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -6245,11 +7358,11 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -6257,11 +7370,11 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>352</v>
+        <v>423</v>
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>147</v>
       </c>
@@ -6273,7 +7386,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>147</v>
       </c>
@@ -6281,11 +7394,11 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>360</v>
+        <v>431</v>
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>96</v>
       </c>
@@ -6293,11 +7406,11 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>96</v>
       </c>
@@ -6305,11 +7418,11 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>352</v>
+        <v>423</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>96</v>
       </c>
@@ -6317,43 +7430,43 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>363</v>
+        <v>434</v>
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>366</v>
+        <v>437</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>367</v>
+        <v>438</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>368</v>
+        <v>439</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>369</v>
+        <v>440</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>370</v>
+        <v>441</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>371</v>
+        <v>442</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>116</v>
       </c>
@@ -6361,43 +7474,43 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>363</v>
+        <v>434</v>
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>372</v>
+        <v>443</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>373</v>
+        <v>444</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>374</v>
+        <v>445</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>375</v>
+        <v>446</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>376</v>
+        <v>447</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>377</v>
+        <v>448</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>125</v>
       </c>
@@ -6405,99 +7518,99 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>352</v>
+        <v>423</v>
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>378</v>
+        <v>449</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>379</v>
+        <v>450</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>380</v>
+        <v>451</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>381</v>
+        <v>452</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>382</v>
+        <v>453</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>383</v>
+        <v>454</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>384</v>
+        <v>455</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>385</v>
+        <v>456</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>387</v>
+        <v>458</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>388</v>
+        <v>459</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>389</v>
+        <v>460</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>390</v>
+        <v>461</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>391</v>
+        <v>462</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>392</v>
+        <v>463</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>132</v>
       </c>
@@ -6509,185 +7622,185 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>319</v>
+        <v>381</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>393</v>
+        <v>464</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>394</v>
+        <v>465</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>320</v>
+        <v>382</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>395</v>
+        <v>466</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>396</v>
+        <v>467</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>321</v>
+        <v>383</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>397</v>
+        <v>468</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>398</v>
+        <v>469</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>322</v>
+        <v>384</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>399</v>
+        <v>470</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>400</v>
+        <v>471</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>323</v>
+        <v>385</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>401</v>
+        <v>472</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>402</v>
+        <v>473</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>403</v>
+        <v>474</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>404</v>
+        <v>475</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>405</v>
+        <v>476</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>406</v>
+        <v>477</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>407</v>
+        <v>478</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>408</v>
+        <v>479</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>409</v>
+        <v>480</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>410</v>
+        <v>481</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>411</v>
+        <v>482</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>412</v>
+        <v>483</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>413</v>
+        <v>484</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>414</v>
+        <v>485</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>415</v>
+        <v>486</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>416</v>
+        <v>487</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>417</v>
+        <v>488</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>418</v>
+        <v>489</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>419</v>
+        <v>490</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>420</v>
+        <v>491</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>138</v>
       </c>
@@ -6695,31 +7808,31 @@
         <v>137</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>358</v>
+        <v>429</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>359</v>
+        <v>430</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>421</v>
+        <v>492</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>422</v>
+        <v>493</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>423</v>
+        <v>494</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>159</v>
       </c>
@@ -6727,43 +7840,43 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>352</v>
+        <v>423</v>
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>424</v>
+        <v>495</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>425</v>
+        <v>496</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>426</v>
+        <v>497</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>427</v>
+        <v>498</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>428</v>
+        <v>499</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>159</v>
       </c>
@@ -6771,398 +7884,537 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>360</v>
+        <v>431</v>
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>325</v>
+        <v>387</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>430</v>
+        <v>501</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>326</v>
+        <v>388</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>432</v>
+        <v>503</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>433</v>
+        <v>504</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>327</v>
+        <v>389</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>434</v>
+        <v>505</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>435</v>
+        <v>506</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>436</v>
+        <v>507</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>437</v>
+        <v>508</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>438</v>
+        <v>509</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>439</v>
+        <v>510</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>440</v>
+        <v>511</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>441</v>
+        <v>512</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="47" t="s">
+    <row r="49" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="B49" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>442</v>
-      </c>
-      <c r="D49" s="47" t="s">
+      <c r="B49" s="51" t="s">
+        <v>387</v>
+      </c>
+      <c r="C49" s="51" t="s">
+        <v>513</v>
+      </c>
+      <c r="D49" s="51" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="51" t="s">
+        <v>388</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>514</v>
+      </c>
+      <c r="D50" s="51" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" s="51" t="s">
+        <v>510</v>
+      </c>
+      <c r="C51" s="51" t="s">
+        <v>516</v>
+      </c>
+      <c r="D51" s="51" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="B52" s="51" t="s">
+        <v>518</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>519</v>
+      </c>
+      <c r="D52" s="51" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>521</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>522</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>534</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>536</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>539</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>540</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>546</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>548</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>549</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>551</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="B64" s="51" t="s">
+        <v>554</v>
+      </c>
+      <c r="C64" s="51" t="s">
+        <v>555</v>
+      </c>
+      <c r="D64" s="51" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="B65" s="51" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="B50" s="47" t="s">
-        <v>326</v>
-      </c>
-      <c r="C50" s="47" t="s">
-        <v>443</v>
-      </c>
-      <c r="D50" s="47" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="B51" s="47" t="s">
-        <v>439</v>
-      </c>
-      <c r="C51" s="47" t="s">
-        <v>445</v>
-      </c>
-      <c r="D51" s="47" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="B52" s="47" t="s">
-        <v>447</v>
-      </c>
-      <c r="C52" s="47" t="s">
-        <v>448</v>
-      </c>
-      <c r="D52" s="47" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>453</v>
-      </c>
-      <c r="C54" s="29" t="s">
-        <v>454</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>456</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>457</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>459</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>460</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>462</v>
-      </c>
-      <c r="C57" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="D57" s="29" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>465</v>
-      </c>
-      <c r="C58" s="29" t="s">
-        <v>466</v>
-      </c>
-      <c r="D58" s="29" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>468</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>469</v>
-      </c>
-      <c r="D59" s="29" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>471</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>472</v>
-      </c>
-      <c r="D60" s="29" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>474</v>
-      </c>
-      <c r="C61" s="29" t="s">
-        <v>475</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="B62" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>478</v>
-      </c>
-      <c r="D62" s="29" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="B63" s="29" t="s">
-        <v>480</v>
-      </c>
-      <c r="C63" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="D63" s="29" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="B64" s="47" t="s">
-        <v>483</v>
-      </c>
-      <c r="C64" s="47" t="s">
-        <v>484</v>
-      </c>
-      <c r="D64" s="47" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="B65" s="47" t="s">
-        <v>360</v>
-      </c>
-      <c r="C65" s="47" t="s">
-        <v>361</v>
-      </c>
-      <c r="D65" s="47" t="s">
-        <v>362</v>
+      <c r="C65" s="51" t="s">
+        <v>432</v>
+      </c>
+      <c r="D65" s="51" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="B66" s="47" t="s">
-        <v>486</v>
-      </c>
-      <c r="C66" s="47" t="s">
-        <v>364</v>
-      </c>
-      <c r="D66" s="47" t="s">
-        <v>487</v>
+      <c r="A66" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="B66" s="51" t="s">
+        <v>557</v>
+      </c>
+      <c r="C66" s="51" t="s">
+        <v>435</v>
+      </c>
+      <c r="D66" s="51" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="49" t="s">
-        <v>220</v>
+      <c r="A67" s="53" t="s">
+        <v>281</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>488</v>
-      </c>
-      <c r="C67" s="47" t="s">
-        <v>489</v>
-      </c>
-      <c r="D67" s="47" t="s">
-        <v>490</v>
+        <v>559</v>
+      </c>
+      <c r="C67" s="51" t="s">
+        <v>560</v>
+      </c>
+      <c r="D67" s="51" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="B68" s="47" t="s">
-        <v>491</v>
-      </c>
-      <c r="C68" s="47" t="s">
+      <c r="A68" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="B68" s="51" t="s">
+        <v>562</v>
+      </c>
+      <c r="C68" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="D68" s="51" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="B69" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="51" t="s">
+        <v>429</v>
+      </c>
+      <c r="D69" s="51" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="B70" s="51" t="s">
         <v>492</v>
       </c>
-      <c r="D68" s="47" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="B69" s="47" t="s">
+      <c r="C70" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B71" s="51" t="s">
+        <v>565</v>
+      </c>
+      <c r="C71" s="54" t="s">
+        <v>566</v>
+      </c>
+      <c r="D71" s="51" t="s">
+        <v>567</v>
+      </c>
+      <c r="F71" s="29" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B72" s="51" t="s">
+        <v>568</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D72" s="54" t="s">
+        <v>570</v>
+      </c>
+      <c r="F72" s="36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B73" s="51" t="s">
+        <v>571</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="D73" s="51" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B74" s="51" t="s">
+        <v>574</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>575</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B75" s="51" t="s">
+        <v>577</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>578</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B76" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>581</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>582</v>
+      </c>
+      <c r="F76" s="36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B77" s="51" t="s">
+        <v>583</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>584</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B78" s="51" t="s">
+        <v>586</v>
+      </c>
+      <c r="C78" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="F78" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B79" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="47" t="s">
-        <v>358</v>
-      </c>
-      <c r="D69" s="47" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="B70" s="47" t="s">
-        <v>421</v>
-      </c>
-      <c r="C70" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="D70" s="29" t="s">
-        <v>487</v>
-      </c>
-    </row>
+      <c r="C79" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="D79" s="51" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -7189,206 +8441,206 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="34" width="12.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="34" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="34" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="34" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="34" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="34" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="34" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="36" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="36" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="36" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="36" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="36" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="36" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="36" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="36" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="36" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="50" t="s">
-        <v>494</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>495</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>496</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>497</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>498</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>499</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>500</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>501</v>
-      </c>
-      <c r="I1" s="50" t="s">
-        <v>502</v>
-      </c>
-      <c r="J1" s="50" t="s">
-        <v>503</v>
-      </c>
-      <c r="K1" s="50" t="s">
-        <v>504</v>
-      </c>
-      <c r="L1" s="48" t="s">
-        <v>505</v>
+    <row r="1" s="52" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="55" t="s">
+        <v>589</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>590</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>591</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>593</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>594</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>595</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>596</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>597</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>598</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>599</v>
+      </c>
+      <c r="L1" s="52" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>506</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>508</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>509</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>510</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>511</v>
-      </c>
-      <c r="H2" s="30" t="n">
+      <c r="A2" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>602</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>603</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>604</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>605</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>606</v>
+      </c>
+      <c r="H2" s="34" t="n">
         <v>-10</v>
       </c>
-      <c r="I2" s="30" t="n">
+      <c r="I2" s="34" t="n">
         <v>100</v>
       </c>
-      <c r="J2" s="30" t="s">
-        <v>512</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>512</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>513</v>
+      <c r="J2" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>514</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>515</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>516</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>518</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>519</v>
-      </c>
-      <c r="H3" s="30" t="n">
+      <c r="A3" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>610</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>611</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>612</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>613</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>614</v>
+      </c>
+      <c r="H3" s="34" t="n">
         <v>-10</v>
       </c>
-      <c r="I3" s="30" t="n">
+      <c r="I3" s="34" t="n">
         <v>100</v>
       </c>
-      <c r="J3" s="30" t="s">
-        <v>512</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>512</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>520</v>
+      <c r="J3" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>521</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>522</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>523</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>524</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>525</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>526</v>
-      </c>
-      <c r="H4" s="30" t="n">
+      <c r="A4" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>617</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>618</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>619</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>620</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>621</v>
+      </c>
+      <c r="H4" s="34" t="n">
         <v>-10</v>
       </c>
-      <c r="I4" s="30" t="n">
+      <c r="I4" s="34" t="n">
         <v>100</v>
       </c>
-      <c r="J4" s="30" t="s">
-        <v>512</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>512</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>527</v>
+      <c r="J4" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>514</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>528</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>517</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>530</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>531</v>
-      </c>
-      <c r="H5" s="30" t="n">
+      <c r="A5" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>609</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>612</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>625</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>626</v>
+      </c>
+      <c r="H5" s="34" t="n">
         <v>-10</v>
       </c>
-      <c r="I5" s="30" t="n">
+      <c r="I5" s="34" t="n">
         <v>100</v>
       </c>
-      <c r="J5" s="30" t="s">
-        <v>512</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>512</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>527</v>
+      <c r="J5" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -7407,29 +8659,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34" t="s">
-        <v>532</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>533</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>534</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>535</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>536</v>
+      <c r="A1" s="36" t="s">
+        <v>627</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>628</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>629</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>630</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="36" t="s">
+        <v>632</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>633</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>634</v>
       </c>
     </row>
   </sheetData>

--- a/survey/references/OD_nationale_quebec_2025.xlsx
+++ b/survey/references/OD_nationale_quebec_2025.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="862">
   <si>
     <t xml:space="preserve">questionName</t>
   </si>
@@ -1218,6 +1218,275 @@
     <t xml:space="preserve">Custom because the NextButton does not support conditional</t>
   </si>
   <si>
+    <t xml:space="preserve">segmentsActivePersonTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom because it uses the builtin widget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segmentsButtonSwitchPerson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segmentsPersonTripsTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personTripsTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déplacements de {{nickname}} le {{assignedDate}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trips made by {{nickname}} on {{assignedDate}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vos déplacements le {{assignedDate}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trips you made on {{assignedDate}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segmentsMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carte de vos déplacements le {{assignedDate}}:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personTrips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household.persons.{_activePersonId}.journeys.{_activeJourneyId}.trips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segmentIntro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segmentsIntro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please indicate all modes of transport used for this trip (from {{originName}} to {{destinationName}}), in chronological order:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mode de transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mode of transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom because it’s a complex group and will probably use the builtin widget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segmentSameModeAsReverseTrip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sameModeAsReverseTrip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom because it uses the builtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segmentModePre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modePre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom because it uses the builtin widget, modified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segmentMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segmentHowToBus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">howToBus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment est-ce que {{nickname}} s'est rend{{gender :u/ue/u.e}} à l'arrêt/station de transport collectif?
+__Si le mode de déplacement n'est pas présent, créer un premier mode de transport avant le transport collectif.__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How did {{nickname}} reach the transit stop?
+__If the mode used is not present, create a first mode before the transit mode.__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment vous êtes-vous rend{{gender :u/ue/u.e}} à l'arrêt/station de transport collectif?
+__Si le mode de déplacement n'est pas présent, créer un premier mode de transport avant le transport collectif.__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How did you reach the transit stop?
+__If the mode used is not present, create a first mode before the transit mode.__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom because of the icons in the choices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segmentPaidForParking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paidForParking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stationnement payant?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid parking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isCarDriverAndDestinationWorkCustomConditional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segmentVehicleOccupancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vehicleOccupancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personne(s) dans le véhicule
+__Conducteur ou conductrice inclus(e).__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persons in the vehicle
+__Including the driver.__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min=1
+max=5
+overMaxAllowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isSelfDeclaredCarDriverCustomConditional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segmentDriver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qui conduisait ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who drove?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom because choices include household members with driver licence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segmentBusLines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">busLines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Ligne(s) de bus utilisée(s)** (dans l'ordre chronologique)
+__Pour chaque ligne utilisée, inscrivez le numéro de la ligne ou son nom puis sélectionnez-la dans la liste des résultats.__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Bus line(s) taken** (in chronological order)
+__For each line, begin by typing the number or name, then select it from the results shown.__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom because of the choices that include available bus routes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segmentBusLinesWarning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">busLinesWarning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certaines lignes de bus sélectionnés semblent invalides pour ce trajet aux heures mentionnées. Veuillez valider les lignes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some bus line(s) seem invalid for this trip. Please validate the lines.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom because of the color and size of the choices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segmentOnDemandType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onDemandType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est-ce un transport sur demande?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is this an on-demand service?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isTransitAndNotNationaleCustomConditional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onDemandChoices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tripJunctionQueryString</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiquez l'adresse ou le nom du lieu où s'est effectué le changement de mode de transport (terminus, arrêt, stationnement etc.) ou cliquez directement sur la carte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please specify the address or the name of the location where the change in mode of transport occurred (terminal, transit stop, parking lot, etc.) or click directly on map.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shouldAskTripJunctionCustomConditional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optionalValidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tripJunctionGeography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">junctionGeography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veuillez localiser **le point de jonction** (lieu où s'est effectué le changement de mode de transport):
+__Naviguez, zoomez, et cliquez sur la carte pour localiser le lieu. Une fois localisé, vous pourrez déplacer le point sur la carte pour davantage de précision.
+Vous pouvez également chercher le lieu sur la carte en utilisant le nom ou l'adresse (bouton "Chercher le lieu à partir du nom").__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please locate the **junction point** (location where the change in mode of transport occurred).
+__Navigate, zoom, and click on the map to identify the location. Once located, you can move the marker for greater precision.
+You can also search for the place on the map using the name or address indicated above ("Find the place from the name" button).__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom because it is a map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segmentHasNextMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buttonSaveTrip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trip.save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmer ce déplacement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm this trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buttonConfirmNextSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segments.save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom because the NextButton does not support conditional. The name has to be `buttonConfirmNextSection` because that’s what the template expects</t>
+  </si>
+  <si>
     <t xml:space="preserve">householdOwnership</t>
   </si>
   <si>
@@ -1292,9 +1561,6 @@
     <t xml:space="preserve">Your **comments and suggestions** about the survey (optional)</t>
   </si>
   <si>
-    <t xml:space="preserve">optionalValidation</t>
-  </si>
-  <si>
     <t xml:space="preserve">optionalIntroText</t>
   </si>
   <si>
@@ -1640,6 +1906,15 @@
     <t xml:space="preserve">vp_</t>
   </si>
   <si>
+    <t xml:space="preserve">s_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modes de transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modes of transport</t>
+  </si>
+  <si>
     <t xml:space="preserve">e_</t>
   </si>
   <si>
@@ -2198,6 +2473,36 @@
     <t xml:space="preserve">isLastPlaceCustomConditional</t>
   </si>
   <si>
+    <t xml:space="preserve">pickupAtOrigin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oui, il est venu chercher {{nickname}} à son lieu de départ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it picked {{nickname}} up at their departure location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oui, il est venu me chercher à mon lieu de départ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it picked me up at my departure location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joinedStop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oui, {{nickname}} a rejoint un arrêt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, {{nickname}} went to a stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oui, j'ai rejoint un arrêt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, I went to a stop</t>
+  </si>
+  <si>
     <t xml:space="preserve">inputRangeName</t>
   </si>
   <si>
@@ -2312,28 +2617,106 @@
     <t xml:space="preserve">Very burdensome</t>
   </si>
   <si>
-    <t xml:space="preserve">key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr_one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en_one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">error.mandatory._activePersonId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veuillez sélectionner une personne pour poursuivre.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please select a person to continue.</t>
+    <t xml:space="preserve">segmentsIntroOnTheRoad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veuillez indiquer tous les modes de transport utilisés pour effectuer les déplacements sur la route, dans l'ordre chronologique:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please indicate all modes of transport used to complete work trip on the road, in chronological order:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segmentsIntroStroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veuillez indiquer tous les modes de transport utilisés pour effectuer la promenade, dans l'ordre chronologique:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please indicate all modes of transport used to complete the stroll, in chronological order:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">junctionGeographyRefreshGeocodingLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chercher le lieu de jonction à partir du nom ou de l'adresse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search the junction location using the place name or address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driverFamily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ami ou famille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friend or family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driverColleague</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un collègue de travail ou d'études</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A work colleague or fellow classmate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driverTaxi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chauffeur Taxi ou Uber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxi or Uber driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driverTransitTaxi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chauffeur Taxi collectif / transport à la demande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxibus / On-demand transport driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driverParaTransit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chauffeur Transport adapté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para-transit driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driverCarpool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chauffeur Covoiturage (ex: Amigo Express, Kangaride)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carsharing driver (ex: Amigo Express, Kangaride)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driverOther</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une autre personne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driverDontKnow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driverFamilyMemberSeq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personne {{sequence}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person {{sequence}}</t>
   </si>
 </sst>
 </file>
@@ -2345,7 +2728,7 @@
     <numFmt numFmtId="165" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2456,6 +2839,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -2599,7 +2989,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2744,19 +3134,27 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2764,11 +3162,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2796,11 +3194,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2808,7 +3206,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2820,11 +3218,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3204,14 +3602,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD95"/>
+  <dimension ref="A1:XFD117"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D86" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A71" activeCellId="0" sqref="A71"/>
-      <selection pane="bottomRight" activeCell="M75" activeCellId="0" sqref="M75"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A86" activeCellId="0" sqref="A86"/>
+      <selection pane="bottomRight" activeCell="I89" activeCellId="0" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3346,7 +3744,7 @@
       <c r="XFC1" s="2"/>
       <c r="XFD1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -3390,7 +3788,7 @@
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="51.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
@@ -3435,7 +3833,7 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>35</v>
       </c>
@@ -3481,7 +3879,7 @@
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>40</v>
       </c>
@@ -3529,7 +3927,7 @@
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>44</v>
       </c>
@@ -3671,7 +4069,7 @@
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>56</v>
       </c>
@@ -3720,7 +4118,7 @@
       </c>
       <c r="X9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
         <v>60</v>
       </c>
@@ -3769,7 +4167,7 @@
       </c>
       <c r="X10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
         <v>65</v>
       </c>
@@ -4012,7 +4410,7 @@
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
         <v>90</v>
       </c>
@@ -4317,7 +4715,7 @@
       <c r="W21" s="19"/>
       <c r="X21" s="19"/>
     </row>
-    <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="s">
         <v>116</v>
       </c>
@@ -4367,7 +4765,7 @@
       <c r="W22" s="19"/>
       <c r="X22" s="19"/>
     </row>
-    <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="17" t="s">
         <v>121</v>
       </c>
@@ -4671,7 +5069,7 @@
       <c r="W28" s="19"/>
       <c r="X28" s="19"/>
     </row>
-    <row r="29" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="23" t="s">
         <v>154</v>
       </c>
@@ -4721,7 +5119,7 @@
       <c r="W29" s="19"/>
       <c r="X29" s="19"/>
     </row>
-    <row r="30" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="17" t="s">
         <v>161</v>
       </c>
@@ -4919,7 +5317,7 @@
       <c r="W33" s="19"/>
       <c r="X33" s="19"/>
     </row>
-    <row r="34" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="17" t="s">
         <v>182</v>
       </c>
@@ -5019,7 +5417,7 @@
       <c r="W35" s="19"/>
       <c r="X35" s="19"/>
     </row>
-    <row r="36" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="17" t="s">
         <v>193</v>
       </c>
@@ -5165,7 +5563,7 @@
       <c r="W38" s="19"/>
       <c r="X38" s="19"/>
     </row>
-    <row r="39" s="7" customFormat="true" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="7" customFormat="true" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="23" t="s">
         <v>207</v>
       </c>
@@ -5332,7 +5730,7 @@
       <c r="W41" s="29"/>
       <c r="X41" s="29"/>
     </row>
-    <row r="42" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="30" t="s">
         <v>216</v>
       </c>
@@ -5373,7 +5771,7 @@
       <c r="W42" s="29"/>
       <c r="X42" s="29"/>
     </row>
-    <row r="43" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="30" t="s">
         <v>221</v>
       </c>
@@ -5414,7 +5812,7 @@
       <c r="W43" s="29"/>
       <c r="X43" s="29"/>
     </row>
-    <row r="44" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="30" t="s">
         <v>225</v>
       </c>
@@ -5455,7 +5853,7 @@
       <c r="W44" s="29"/>
       <c r="X44" s="29"/>
     </row>
-    <row r="45" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="30" t="s">
         <v>228</v>
       </c>
@@ -5501,7 +5899,7 @@
       <c r="W45" s="29"/>
       <c r="X45" s="29"/>
     </row>
-    <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="30" t="s">
         <v>233</v>
       </c>
@@ -5542,7 +5940,7 @@
       <c r="W46" s="29"/>
       <c r="X46" s="29"/>
     </row>
-    <row r="47" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="30" t="s">
         <v>221</v>
       </c>
@@ -5583,7 +5981,7 @@
       <c r="W47" s="29"/>
       <c r="X47" s="29"/>
     </row>
-    <row r="48" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="30" t="s">
         <v>236</v>
       </c>
@@ -5624,7 +6022,7 @@
       <c r="W48" s="29"/>
       <c r="X48" s="29"/>
     </row>
-    <row r="49" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="30" t="s">
         <v>240</v>
       </c>
@@ -5669,7 +6067,7 @@
       <c r="W49" s="29"/>
       <c r="X49" s="29"/>
     </row>
-    <row r="50" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="30" t="s">
         <v>245</v>
       </c>
@@ -5714,7 +6112,7 @@
       <c r="W50" s="29"/>
       <c r="X50" s="29"/>
     </row>
-    <row r="51" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="377.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="30" t="s">
         <v>250</v>
       </c>
@@ -5759,7 +6157,7 @@
       <c r="W51" s="29"/>
       <c r="X51" s="29"/>
     </row>
-    <row r="52" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="30" t="s">
         <v>256</v>
       </c>
@@ -5804,7 +6202,7 @@
       <c r="W52" s="29"/>
       <c r="X52" s="29"/>
     </row>
-    <row r="53" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="30" t="s">
         <v>262</v>
       </c>
@@ -5856,7 +6254,7 @@
       <c r="W53" s="29"/>
       <c r="X53" s="29"/>
     </row>
-    <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="30" t="s">
         <v>270</v>
       </c>
@@ -5897,7 +6295,7 @@
       <c r="W54" s="29"/>
       <c r="X54" s="29"/>
     </row>
-    <row r="55" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="30" t="s">
         <v>274</v>
       </c>
@@ -5941,7 +6339,7 @@
       <c r="W55" s="29"/>
       <c r="X55" s="29"/>
     </row>
-    <row r="56" s="2" customFormat="true" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="2" customFormat="true" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="30" t="s">
         <v>277</v>
       </c>
@@ -5990,7 +6388,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="30" t="s">
         <v>280</v>
       </c>
@@ -6973,12 +7371,12 @@
         <v>367</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" s="2" customFormat="true" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="30" t="s">
         <v>368</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C79" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -6988,40 +7386,38 @@
         <v>369</v>
       </c>
       <c r="E79" s="29"/>
-      <c r="F79" s="29" t="s">
-        <v>370</v>
-      </c>
-      <c r="G79" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="H79" s="28" t="s">
-        <v>372</v>
-      </c>
+      <c r="F79" s="29"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="32"/>
       <c r="I79" s="28"/>
       <c r="J79" s="28"/>
       <c r="K79" s="28"/>
       <c r="L79" s="29"/>
-      <c r="M79" s="29"/>
+      <c r="M79" s="32"/>
       <c r="N79" s="29"/>
-      <c r="O79" s="29" t="s">
-        <v>373</v>
-      </c>
+      <c r="O79" s="29"/>
       <c r="P79" s="29"/>
       <c r="Q79" s="29"/>
       <c r="R79" s="29"/>
       <c r="S79" s="29"/>
-      <c r="T79" s="28"/>
+      <c r="T79" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
       <c r="U79" s="29"/>
       <c r="V79" s="29"/>
       <c r="W79" s="29"/>
       <c r="X79" s="29"/>
-    </row>
-    <row r="80" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y79" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="30" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>375</v>
+        <v>70</v>
       </c>
       <c r="C80" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -7032,13 +7428,13 @@
       </c>
       <c r="E80" s="29"/>
       <c r="F80" s="29" t="s">
-        <v>376</v>
+        <v>233</v>
       </c>
       <c r="G80" s="28" t="s">
-        <v>377</v>
+        <v>234</v>
       </c>
       <c r="H80" s="28" t="s">
-        <v>378</v>
+        <v>235</v>
       </c>
       <c r="I80" s="28"/>
       <c r="J80" s="28"/>
@@ -7046,28 +7442,26 @@
       <c r="L80" s="29"/>
       <c r="M80" s="29"/>
       <c r="N80" s="29"/>
-      <c r="O80" s="36" t="s">
-        <v>379</v>
-      </c>
+      <c r="O80" s="29"/>
       <c r="P80" s="29"/>
       <c r="Q80" s="29"/>
       <c r="R80" s="29"/>
       <c r="S80" s="29"/>
-      <c r="T80" s="28" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T80" s="28"/>
       <c r="U80" s="29"/>
       <c r="V80" s="29"/>
       <c r="W80" s="29"/>
       <c r="X80" s="29"/>
-    </row>
-    <row r="81" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y80" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="30" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C81" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -7078,23 +7472,25 @@
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="G81" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="H81" s="37" t="s">
-        <v>382</v>
-      </c>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
+        <v>373</v>
+      </c>
+      <c r="G81" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="H81" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="I81" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="J81" s="30" t="s">
+        <v>377</v>
+      </c>
       <c r="K81" s="28"/>
       <c r="L81" s="29"/>
       <c r="M81" s="29"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="29" t="s">
-        <v>34</v>
-      </c>
+      <c r="N81" s="29"/>
+      <c r="O81" s="29"/>
       <c r="P81" s="29"/>
       <c r="Q81" s="29"/>
       <c r="R81" s="29"/>
@@ -7107,13 +7503,16 @@
       <c r="V81" s="29"/>
       <c r="W81" s="29"/>
       <c r="X81" s="29"/>
-    </row>
-    <row r="82" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="30" t="s">
-        <v>383</v>
+      <c r="Y81" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="36" t="s">
+        <v>287</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C82" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -7124,46 +7523,46 @@
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="30" t="s">
-        <v>383</v>
-      </c>
-      <c r="G82" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="H82" s="37" t="s">
-        <v>385</v>
-      </c>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
+        <v>378</v>
+      </c>
+      <c r="G82" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="H82" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="I82" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="J82" s="34" t="s">
+        <v>291</v>
+      </c>
       <c r="K82" s="28"/>
       <c r="L82" s="29"/>
-      <c r="M82" s="29" t="s">
-        <v>386</v>
-      </c>
-      <c r="N82" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="M82" s="29"/>
+      <c r="N82" s="29"/>
       <c r="O82" s="29"/>
       <c r="P82" s="29"/>
       <c r="Q82" s="29"/>
       <c r="R82" s="29"/>
       <c r="S82" s="29"/>
-      <c r="T82" s="28" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T82" s="28"/>
       <c r="U82" s="29"/>
       <c r="V82" s="29"/>
       <c r="W82" s="29"/>
       <c r="X82" s="29"/>
-    </row>
-    <row r="83" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y82" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="30" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>388</v>
-      </c>
-      <c r="C83" s="28" t="b">
+        <v>70</v>
+      </c>
+      <c r="C83" s="35" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7171,60 +7570,56 @@
         <v>369</v>
       </c>
       <c r="E83" s="29"/>
-      <c r="F83" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="G83" s="36" t="s">
-        <v>390</v>
-      </c>
-      <c r="H83" s="36" t="s">
-        <v>391</v>
-      </c>
+      <c r="F83" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="G83" s="30"/>
+      <c r="H83" s="33"/>
       <c r="I83" s="28"/>
       <c r="J83" s="28"/>
       <c r="K83" s="28"/>
       <c r="L83" s="29"/>
       <c r="M83" s="29"/>
-      <c r="N83" s="29" t="s">
-        <v>392</v>
-      </c>
+      <c r="N83" s="29"/>
       <c r="O83" s="29"/>
       <c r="P83" s="29"/>
       <c r="Q83" s="29"/>
       <c r="R83" s="29"/>
       <c r="S83" s="29"/>
-      <c r="T83" s="28" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T83" s="28"/>
       <c r="U83" s="29"/>
       <c r="V83" s="29"/>
       <c r="W83" s="29"/>
       <c r="X83" s="29"/>
-    </row>
-    <row r="84" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y83" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="38.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="30" t="s">
-        <v>393</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C84" s="28" t="b">
+        <v>382</v>
+      </c>
+      <c r="B84" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" s="35" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D84" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="G84" s="28" t="s">
-        <v>394</v>
-      </c>
-      <c r="H84" s="28" t="s">
-        <v>395</v>
+      <c r="E84" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="F84" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="G84" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="H84" s="30" t="s">
+        <v>384</v>
       </c>
       <c r="I84" s="28"/>
       <c r="J84" s="28"/>
@@ -7237,38 +7632,40 @@
       <c r="Q84" s="29"/>
       <c r="R84" s="29"/>
       <c r="S84" s="29"/>
-      <c r="T84" s="28" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T84" s="28"/>
       <c r="U84" s="29"/>
       <c r="V84" s="29"/>
       <c r="W84" s="29"/>
       <c r="X84" s="29"/>
-    </row>
-    <row r="85" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y84" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="30" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C85" s="28" t="b">
+        <v>70</v>
+      </c>
+      <c r="C85" s="35" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D85" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="E85" s="29"/>
+      <c r="E85" s="29" t="s">
+        <v>380</v>
+      </c>
       <c r="F85" s="30" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="G85" s="30" t="s">
-        <v>397</v>
-      </c>
-      <c r="H85" s="30" t="s">
-        <v>398</v>
+        <v>385</v>
+      </c>
+      <c r="H85" s="33" t="s">
+        <v>386</v>
       </c>
       <c r="I85" s="28"/>
       <c r="J85" s="28"/>
@@ -7286,242 +7683,228 @@
       <c r="V85" s="29"/>
       <c r="W85" s="29"/>
       <c r="X85" s="29"/>
-    </row>
-    <row r="86" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y85" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="30" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C86" s="28" t="b">
+        <v>70</v>
+      </c>
+      <c r="C86" s="35" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D86" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29" t="s">
-        <v>400</v>
-      </c>
-      <c r="G86" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="H86" s="28" t="s">
-        <v>402</v>
-      </c>
+      <c r="E86" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="F86" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="G86" s="30"/>
+      <c r="H86" s="33"/>
       <c r="I86" s="28"/>
       <c r="J86" s="28"/>
-      <c r="K86" s="8" t="s">
-        <v>403</v>
-      </c>
+      <c r="K86" s="28"/>
       <c r="L86" s="29"/>
-      <c r="M86" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="N86" s="30" t="s">
-        <v>405</v>
-      </c>
+      <c r="M86" s="29"/>
+      <c r="N86" s="29"/>
       <c r="O86" s="29"/>
       <c r="P86" s="29"/>
       <c r="Q86" s="29"/>
       <c r="R86" s="29"/>
       <c r="S86" s="29"/>
-      <c r="T86" s="28" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T86" s="28"/>
       <c r="U86" s="29"/>
       <c r="V86" s="29"/>
       <c r="W86" s="29"/>
       <c r="X86" s="29"/>
-    </row>
-    <row r="87" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y86" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="30" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C87" s="28" t="b">
+        <v>70</v>
+      </c>
+      <c r="C87" s="35" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D87" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29" t="s">
-        <v>407</v>
-      </c>
-      <c r="G87" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="H87" s="28" t="s">
-        <v>409</v>
-      </c>
+      <c r="E87" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="F87" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="G87" s="30"/>
+      <c r="H87" s="33"/>
       <c r="I87" s="28"/>
       <c r="J87" s="28"/>
-      <c r="K87" s="8" t="s">
-        <v>403</v>
-      </c>
+      <c r="K87" s="28"/>
       <c r="L87" s="29"/>
-      <c r="M87" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="N87" s="30" t="s">
-        <v>410</v>
-      </c>
+      <c r="M87" s="29"/>
+      <c r="N87" s="29"/>
       <c r="O87" s="29"/>
       <c r="P87" s="29"/>
       <c r="Q87" s="29"/>
       <c r="R87" s="29"/>
       <c r="S87" s="29"/>
-      <c r="T87" s="28" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T87" s="28"/>
       <c r="U87" s="29"/>
       <c r="V87" s="29"/>
       <c r="W87" s="29"/>
       <c r="X87" s="29"/>
-    </row>
-    <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y87" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="30" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="C88" s="28" t="b">
+        <v>70</v>
+      </c>
+      <c r="C88" s="35" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D88" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="G88" s="36" t="s">
-        <v>414</v>
-      </c>
-      <c r="H88" s="36" t="s">
-        <v>415</v>
-      </c>
+      <c r="E88" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="F88" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="G88" s="30"/>
+      <c r="H88" s="33"/>
       <c r="I88" s="28"/>
       <c r="J88" s="28"/>
       <c r="K88" s="28"/>
       <c r="L88" s="29"/>
       <c r="M88" s="29"/>
-      <c r="N88" s="29" t="s">
-        <v>392</v>
-      </c>
+      <c r="N88" s="29"/>
       <c r="O88" s="29"/>
       <c r="P88" s="29"/>
-      <c r="Q88" s="36" t="s">
-        <v>416</v>
-      </c>
+      <c r="Q88" s="29"/>
       <c r="R88" s="29"/>
       <c r="S88" s="29"/>
-      <c r="T88" s="28" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T88" s="28"/>
       <c r="U88" s="29"/>
       <c r="V88" s="29"/>
       <c r="W88" s="29"/>
       <c r="X88" s="29"/>
-    </row>
-    <row r="89" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y88" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="71.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="30" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C89" s="28" t="b">
+        <v>70</v>
+      </c>
+      <c r="C89" s="35" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D89" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29" t="s">
-        <v>418</v>
-      </c>
-      <c r="G89" s="36" t="s">
-        <v>419</v>
-      </c>
-      <c r="H89" s="36" t="s">
-        <v>420</v>
-      </c>
-      <c r="I89" s="28"/>
-      <c r="J89" s="28"/>
-      <c r="K89" s="28"/>
+      <c r="E89" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="F89" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="G89" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="H89" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="I89" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="J89" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="K89" s="13"/>
       <c r="L89" s="29"/>
       <c r="M89" s="29"/>
-      <c r="N89" s="29" t="s">
-        <v>392</v>
-      </c>
+      <c r="N89" s="29"/>
       <c r="O89" s="29"/>
       <c r="P89" s="29"/>
       <c r="Q89" s="29"/>
       <c r="R89" s="29"/>
       <c r="S89" s="29"/>
-      <c r="T89" s="28" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T89" s="13"/>
       <c r="U89" s="29"/>
       <c r="V89" s="29"/>
       <c r="W89" s="29"/>
       <c r="X89" s="29"/>
-    </row>
-    <row r="90" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y89" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="30" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="C90" s="28" t="b">
+        <v>31</v>
+      </c>
+      <c r="C90" s="35" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D90" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="G90" s="36" t="s">
-        <v>423</v>
-      </c>
-      <c r="H90" s="36" t="s">
-        <v>424</v>
-      </c>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
-      <c r="K90" s="28"/>
+      <c r="E90" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="F90" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="G90" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="H90" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
       <c r="L90" s="29"/>
-      <c r="M90" s="29"/>
-      <c r="N90" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="O90" s="29"/>
+      <c r="M90" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="N90" s="29"/>
+      <c r="O90" s="29" t="s">
+        <v>148</v>
+      </c>
       <c r="P90" s="29"/>
-      <c r="Q90" s="36" t="s">
-        <v>425</v>
-      </c>
+      <c r="Q90" s="29"/>
       <c r="R90" s="29"/>
       <c r="S90" s="29"/>
-      <c r="T90" s="28" t="b">
-        <f aca="false">TRUE()</f>
+      <c r="T90" s="13" t="b">
         <v>1</v>
       </c>
       <c r="U90" s="29"/>
@@ -7529,47 +7912,48 @@
       <c r="W90" s="29"/>
       <c r="X90" s="29"/>
     </row>
-    <row r="91" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="30" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="C91" s="28" t="b">
+        <v>74</v>
+      </c>
+      <c r="C91" s="35" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D91" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="G91" s="36" t="s">
-        <v>428</v>
-      </c>
-      <c r="H91" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
+      <c r="E91" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="F91" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="G91" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="H91" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="8" t="s">
+        <v>412</v>
+      </c>
       <c r="L91" s="29"/>
-      <c r="M91" s="29"/>
-      <c r="N91" s="29" t="s">
-        <v>392</v>
-      </c>
+      <c r="M91" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="N91" s="29"/>
       <c r="O91" s="29"/>
       <c r="P91" s="29"/>
-      <c r="Q91" s="36" t="s">
-        <v>430</v>
-      </c>
+      <c r="Q91" s="29"/>
       <c r="R91" s="29"/>
       <c r="S91" s="29"/>
-      <c r="T91" s="28" t="b">
-        <f aca="false">TRUE()</f>
+      <c r="T91" s="13" t="b">
         <v>1</v>
       </c>
       <c r="U91" s="29"/>
@@ -7577,129 +7961,131 @@
       <c r="W91" s="29"/>
       <c r="X91" s="29"/>
     </row>
-    <row r="92" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="30" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="C92" s="28" t="b">
+        <v>70</v>
+      </c>
+      <c r="C92" s="35" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D92" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29" t="s">
-        <v>432</v>
-      </c>
-      <c r="G92" s="36" t="s">
-        <v>433</v>
-      </c>
-      <c r="H92" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="28"/>
+      <c r="E92" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="F92" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="G92" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="H92" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
       <c r="L92" s="29"/>
       <c r="M92" s="29"/>
-      <c r="N92" s="29" t="s">
-        <v>392</v>
-      </c>
+      <c r="N92" s="29"/>
       <c r="O92" s="29"/>
       <c r="P92" s="29"/>
-      <c r="Q92" s="36" t="s">
-        <v>435</v>
-      </c>
+      <c r="Q92" s="29"/>
       <c r="R92" s="29"/>
       <c r="S92" s="29"/>
-      <c r="T92" s="28" t="b">
-        <f aca="false">TRUE()</f>
+      <c r="T92" s="13" t="b">
         <v>1</v>
       </c>
       <c r="U92" s="29"/>
       <c r="V92" s="29"/>
       <c r="W92" s="29"/>
       <c r="X92" s="29"/>
-    </row>
-    <row r="93" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y92" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="30" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C93" s="28" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="C93" s="17" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="D93" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="G93" s="36" t="s">
-        <v>438</v>
-      </c>
-      <c r="H93" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="I93" s="28"/>
-      <c r="J93" s="28"/>
-      <c r="K93" s="28"/>
+      <c r="E93" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="F93" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="G93" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="H93" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
       <c r="L93" s="29"/>
       <c r="M93" s="29"/>
-      <c r="N93" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="O93" s="29" t="s">
-        <v>148</v>
-      </c>
+      <c r="N93" s="29"/>
+      <c r="O93" s="29"/>
       <c r="P93" s="29"/>
       <c r="Q93" s="29"/>
       <c r="R93" s="29"/>
       <c r="S93" s="29"/>
-      <c r="T93" s="28" t="b">
-        <f aca="false">TRUE()</f>
+      <c r="T93" s="13" t="b">
         <v>1</v>
       </c>
       <c r="U93" s="29"/>
       <c r="V93" s="29"/>
       <c r="W93" s="29"/>
       <c r="X93" s="29"/>
-    </row>
-    <row r="94" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y93" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="30" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C94" s="28" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="C94" s="17" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="D94" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="E94" s="29"/>
+      <c r="E94" s="29" t="s">
+        <v>369</v>
+      </c>
       <c r="F94" s="30" t="s">
-        <v>440</v>
-      </c>
-      <c r="G94" s="28" t="s">
-        <v>441</v>
+        <v>425</v>
+      </c>
+      <c r="G94" s="30" t="s">
+        <v>426</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>442</v>
-      </c>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
-      <c r="K94" s="28"/>
+        <v>427</v>
+      </c>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
       <c r="L94" s="29"/>
       <c r="M94" s="29"/>
       <c r="N94" s="29"/>
@@ -7708,68 +8094,1088 @@
       <c r="Q94" s="29"/>
       <c r="R94" s="29"/>
       <c r="S94" s="29"/>
-      <c r="T94" s="28"/>
+      <c r="T94" s="13" t="b">
+        <v>1</v>
+      </c>
       <c r="U94" s="29"/>
       <c r="V94" s="29"/>
       <c r="W94" s="29"/>
       <c r="X94" s="29"/>
-    </row>
-    <row r="95" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
+      <c r="Y94" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="B95" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C95" s="35" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D95" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="E95" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="F95" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="G95" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="H95" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="29"/>
+      <c r="M95" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="N95" s="29"/>
+      <c r="O95" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="P95" s="29"/>
+      <c r="Q95" s="29"/>
+      <c r="R95" s="29"/>
+      <c r="S95" s="29"/>
+      <c r="T95" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U95" s="29"/>
+      <c r="V95" s="29"/>
+      <c r="W95" s="29"/>
+      <c r="X95" s="29"/>
+    </row>
+    <row r="96" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="B96" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" s="35" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D96" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="E96" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="F96" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="G96" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="H96" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="29"/>
+      <c r="M96" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="N96" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="O96" s="29"/>
+      <c r="P96" s="29"/>
+      <c r="Q96" s="29"/>
+      <c r="R96" s="29"/>
+      <c r="S96" s="29"/>
+      <c r="T96" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="U96" s="29"/>
+      <c r="V96" s="29"/>
+      <c r="W96" s="29"/>
+      <c r="X96" s="29"/>
+    </row>
+    <row r="97" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="B97" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C97" s="35" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D97" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="E97" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="F97" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="G97" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="H97" s="30" t="s">
         <v>443</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="29"/>
+      <c r="M97" s="29"/>
+      <c r="N97" s="29"/>
+      <c r="O97" s="29"/>
+      <c r="P97" s="29"/>
+      <c r="Q97" s="29"/>
+      <c r="R97" s="29"/>
+      <c r="S97" s="29"/>
+      <c r="T97" s="13"/>
+      <c r="U97" s="29"/>
+      <c r="V97" s="29"/>
+      <c r="W97" s="29"/>
+      <c r="X97" s="29"/>
+      <c r="Y97" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="B98" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C98" s="35" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D98" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="E98" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="29"/>
+      <c r="M98" s="29"/>
+      <c r="N98" s="29"/>
+      <c r="O98" s="29"/>
+      <c r="P98" s="29"/>
+      <c r="Q98" s="29"/>
+      <c r="R98" s="29"/>
+      <c r="S98" s="29"/>
+      <c r="T98" s="13"/>
+      <c r="U98" s="29"/>
+      <c r="V98" s="29"/>
+      <c r="W98" s="29"/>
+      <c r="X98" s="29"/>
+      <c r="Y98" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="B99" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C99" s="35" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="E99" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="G99" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="H99" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="29"/>
+      <c r="M99" s="29"/>
+      <c r="N99" s="29"/>
+      <c r="O99" s="29"/>
+      <c r="P99" s="29"/>
+      <c r="Q99" s="29"/>
+      <c r="R99" s="29"/>
+      <c r="S99" s="29"/>
+      <c r="T99" s="13"/>
+      <c r="U99" s="29"/>
+      <c r="V99" s="29"/>
+      <c r="W99" s="29"/>
+      <c r="X99" s="29"/>
+    </row>
+    <row r="100" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="B100" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C100" s="35" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="G100" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="H100" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="29"/>
+      <c r="M100" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="N100" s="29"/>
+      <c r="O100" s="29"/>
+      <c r="P100" s="29"/>
+      <c r="Q100" s="29"/>
+      <c r="R100" s="29"/>
+      <c r="S100" s="29"/>
+      <c r="T100" s="13"/>
+      <c r="U100" s="29"/>
+      <c r="V100" s="29"/>
+      <c r="W100" s="29"/>
+      <c r="X100" s="29"/>
+      <c r="Y100" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="B101" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D101" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="G101" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="H101" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="29"/>
+      <c r="M101" s="29"/>
+      <c r="N101" s="29"/>
+      <c r="O101" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="P101" s="29"/>
+      <c r="Q101" s="29"/>
+      <c r="R101" s="29"/>
+      <c r="S101" s="29"/>
+      <c r="T101" s="13"/>
+      <c r="U101" s="29"/>
+      <c r="V101" s="29"/>
+      <c r="W101" s="29"/>
+      <c r="X101" s="29"/>
+    </row>
+    <row r="102" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="B102" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="C102" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D102" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="G102" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="H102" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="29"/>
+      <c r="M102" s="29"/>
+      <c r="N102" s="29"/>
+      <c r="O102" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="P102" s="29"/>
+      <c r="Q102" s="29"/>
+      <c r="R102" s="29"/>
+      <c r="S102" s="29"/>
+      <c r="T102" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U102" s="29"/>
+      <c r="V102" s="29"/>
+      <c r="W102" s="29"/>
+      <c r="X102" s="29"/>
+    </row>
+    <row r="103" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="B103" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D103" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E103" s="29"/>
+      <c r="F103" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="G103" s="39" t="s">
+        <v>466</v>
+      </c>
+      <c r="H103" s="39" t="s">
+        <v>467</v>
+      </c>
+      <c r="I103" s="13"/>
+      <c r="J103" s="13"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="29"/>
+      <c r="M103" s="29"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P103" s="29"/>
+      <c r="Q103" s="29"/>
+      <c r="R103" s="29"/>
+      <c r="S103" s="29"/>
+      <c r="T103" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U103" s="29"/>
+      <c r="V103" s="29"/>
+      <c r="W103" s="29"/>
+      <c r="X103" s="29"/>
+    </row>
+    <row r="104" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="B104" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E104" s="29"/>
+      <c r="F104" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="G104" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="H104" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="I104" s="13"/>
+      <c r="J104" s="13"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="29"/>
+      <c r="M104" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="N104" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O104" s="29"/>
+      <c r="P104" s="29"/>
+      <c r="Q104" s="29"/>
+      <c r="R104" s="29"/>
+      <c r="S104" s="29"/>
+      <c r="T104" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U104" s="29"/>
+      <c r="V104" s="29"/>
+      <c r="W104" s="29"/>
+      <c r="X104" s="29"/>
+    </row>
+    <row r="105" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="B105" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="C105" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="G105" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="H105" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="29"/>
+      <c r="M105" s="29"/>
+      <c r="N105" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="O105" s="29"/>
+      <c r="P105" s="29"/>
+      <c r="Q105" s="29"/>
+      <c r="R105" s="29"/>
+      <c r="S105" s="29"/>
+      <c r="T105" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U105" s="29"/>
+      <c r="V105" s="29"/>
+      <c r="W105" s="29"/>
+      <c r="X105" s="29"/>
+    </row>
+    <row r="106" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C95" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="L95" s="38"/>
-      <c r="M95" s="39"/>
-      <c r="T95" s="1" t="b">
+      <c r="C106" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="G106" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="H106" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="I106" s="13"/>
+      <c r="J106" s="13"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="29"/>
+      <c r="M106" s="29"/>
+      <c r="N106" s="29"/>
+      <c r="O106" s="29"/>
+      <c r="P106" s="29"/>
+      <c r="Q106" s="29"/>
+      <c r="R106" s="29"/>
+      <c r="S106" s="29"/>
+      <c r="T106" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U106" s="29"/>
+      <c r="V106" s="29"/>
+      <c r="W106" s="29"/>
+      <c r="X106" s="29"/>
+    </row>
+    <row r="107" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="B107" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C107" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E107" s="29"/>
+      <c r="F107" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="G107" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="H107" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="I107" s="13"/>
+      <c r="J107" s="13"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="29"/>
+      <c r="O107" s="29"/>
+      <c r="P107" s="29"/>
+      <c r="Q107" s="29"/>
+      <c r="R107" s="29"/>
+      <c r="S107" s="29"/>
+      <c r="T107" s="13"/>
+      <c r="U107" s="29"/>
+      <c r="V107" s="29"/>
+      <c r="W107" s="29"/>
+      <c r="X107" s="29"/>
+    </row>
+    <row r="108" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="B108" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C108" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D108" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29" t="s">
+        <v>484</v>
+      </c>
+      <c r="G108" s="28" t="s">
+        <v>485</v>
+      </c>
+      <c r="H108" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="L108" s="29"/>
+      <c r="M108" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="N108" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="O108" s="29"/>
+      <c r="P108" s="29"/>
+      <c r="Q108" s="29"/>
+      <c r="R108" s="29"/>
+      <c r="S108" s="29"/>
+      <c r="T108" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U108" s="29"/>
+      <c r="V108" s="29"/>
+      <c r="W108" s="29"/>
+      <c r="X108" s="29"/>
+    </row>
+    <row r="109" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="B109" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C109" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D109" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G109" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="H109" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="I109" s="13"/>
+      <c r="J109" s="13"/>
+      <c r="K109" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="L109" s="29"/>
+      <c r="M109" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="N109" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="O109" s="29"/>
+      <c r="P109" s="29"/>
+      <c r="Q109" s="29"/>
+      <c r="R109" s="29"/>
+      <c r="S109" s="29"/>
+      <c r="T109" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U109" s="29"/>
+      <c r="V109" s="29"/>
+      <c r="W109" s="29"/>
+      <c r="X109" s="29"/>
+    </row>
+    <row r="110" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="B110" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="C110" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D110" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="G110" s="38" t="s">
+        <v>498</v>
+      </c>
+      <c r="H110" s="38" t="s">
+        <v>499</v>
+      </c>
+      <c r="I110" s="13"/>
+      <c r="J110" s="13"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="29"/>
+      <c r="M110" s="29"/>
+      <c r="N110" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="O110" s="29"/>
+      <c r="P110" s="29"/>
+      <c r="Q110" s="38" t="s">
+        <v>500</v>
+      </c>
+      <c r="R110" s="29"/>
+      <c r="S110" s="29"/>
+      <c r="T110" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U110" s="29"/>
+      <c r="V110" s="29"/>
+      <c r="W110" s="29"/>
+      <c r="X110" s="29"/>
+    </row>
+    <row r="111" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="B111" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C111" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D111" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29" t="s">
+        <v>502</v>
+      </c>
+      <c r="G111" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="H111" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="I111" s="13"/>
+      <c r="J111" s="13"/>
+      <c r="K111" s="13"/>
+      <c r="L111" s="29"/>
+      <c r="M111" s="29"/>
+      <c r="N111" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="O111" s="29"/>
+      <c r="P111" s="29"/>
+      <c r="Q111" s="29"/>
+      <c r="R111" s="29"/>
+      <c r="S111" s="29"/>
+      <c r="T111" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U111" s="29"/>
+      <c r="V111" s="29"/>
+      <c r="W111" s="29"/>
+      <c r="X111" s="29"/>
+    </row>
+    <row r="112" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="B112" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="C112" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29" t="s">
+        <v>506</v>
+      </c>
+      <c r="G112" s="38" t="s">
+        <v>507</v>
+      </c>
+      <c r="H112" s="38" t="s">
+        <v>508</v>
+      </c>
+      <c r="I112" s="13"/>
+      <c r="J112" s="13"/>
+      <c r="K112" s="13"/>
+      <c r="L112" s="29"/>
+      <c r="M112" s="29"/>
+      <c r="N112" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="O112" s="29"/>
+      <c r="P112" s="29"/>
+      <c r="Q112" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="R112" s="29"/>
+      <c r="S112" s="29"/>
+      <c r="T112" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U112" s="29"/>
+      <c r="V112" s="29"/>
+      <c r="W112" s="29"/>
+      <c r="X112" s="29"/>
+    </row>
+    <row r="113" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="B113" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="C113" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D113" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="G113" s="38" t="s">
+        <v>512</v>
+      </c>
+      <c r="H113" s="38" t="s">
+        <v>513</v>
+      </c>
+      <c r="I113" s="13"/>
+      <c r="J113" s="13"/>
+      <c r="K113" s="13"/>
+      <c r="L113" s="29"/>
+      <c r="M113" s="29"/>
+      <c r="N113" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="O113" s="29"/>
+      <c r="P113" s="29"/>
+      <c r="Q113" s="38" t="s">
+        <v>514</v>
+      </c>
+      <c r="R113" s="29"/>
+      <c r="S113" s="29"/>
+      <c r="T113" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U113" s="29"/>
+      <c r="V113" s="29"/>
+      <c r="W113" s="29"/>
+      <c r="X113" s="29"/>
+    </row>
+    <row r="114" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="B114" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="C114" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D114" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E114" s="29"/>
+      <c r="F114" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="G114" s="38" t="s">
+        <v>517</v>
+      </c>
+      <c r="H114" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="I114" s="13"/>
+      <c r="J114" s="13"/>
+      <c r="K114" s="13"/>
+      <c r="L114" s="29"/>
+      <c r="M114" s="29"/>
+      <c r="N114" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="O114" s="29"/>
+      <c r="P114" s="29"/>
+      <c r="Q114" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="R114" s="29"/>
+      <c r="S114" s="29"/>
+      <c r="T114" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U114" s="29"/>
+      <c r="V114" s="29"/>
+      <c r="W114" s="29"/>
+      <c r="X114" s="29"/>
+    </row>
+    <row r="115" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="B115" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C115" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D115" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29" t="s">
+        <v>521</v>
+      </c>
+      <c r="G115" s="38" t="s">
+        <v>522</v>
+      </c>
+      <c r="H115" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="I115" s="13"/>
+      <c r="J115" s="13"/>
+      <c r="K115" s="13"/>
+      <c r="L115" s="29"/>
+      <c r="M115" s="29"/>
+      <c r="N115" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="O115" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="P115" s="29"/>
+      <c r="Q115" s="29"/>
+      <c r="R115" s="29"/>
+      <c r="S115" s="29"/>
+      <c r="T115" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U115" s="29"/>
+      <c r="V115" s="29"/>
+      <c r="W115" s="29"/>
+      <c r="X115" s="29"/>
+    </row>
+    <row r="116" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="30" t="s">
+        <v>524</v>
+      </c>
+      <c r="B116" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C116" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D116" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E116" s="29"/>
+      <c r="F116" s="30" t="s">
+        <v>524</v>
+      </c>
+      <c r="G116" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="H116" s="30" t="s">
+        <v>526</v>
+      </c>
+      <c r="I116" s="13"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="13"/>
+      <c r="L116" s="29"/>
+      <c r="M116" s="29"/>
+      <c r="N116" s="29"/>
+      <c r="O116" s="29"/>
+      <c r="P116" s="29"/>
+      <c r="Q116" s="29"/>
+      <c r="R116" s="29"/>
+      <c r="S116" s="29"/>
+      <c r="T116" s="13"/>
+      <c r="U116" s="29"/>
+      <c r="V116" s="29"/>
+      <c r="W116" s="29"/>
+      <c r="X116" s="29"/>
+    </row>
+    <row r="117" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C117" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="L117" s="40"/>
+      <c r="M117" s="41"/>
+      <c r="T117" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:X1"/>
-  <conditionalFormatting sqref="N95:Q95">
+  <conditionalFormatting sqref="N117:Q117">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($B1048423="Custom",  $B1048423&lt;&gt;"", ROW(N1048423)&lt;&gt;1)</formula>
+      <formula>AND($B1048445="Custom",  $B1048445&lt;&gt;"", ROW(N1048445)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q95">
+  <conditionalFormatting sqref="Q117">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($B95&lt;&gt;"Range", $B95&lt;&gt;"", ROW(Q95)&lt;&gt;1)</formula>
+      <formula>AND($B117&lt;&gt;"Range", $B117&lt;&gt;"", ROW(Q117)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C95">
+  <conditionalFormatting sqref="C117">
     <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="FALSE" dxfId="5">
-      <formula>NOT(ISERROR(SEARCH("FALSE",C95)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",C117)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="5" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="TRUE" dxfId="6">
-      <formula>NOT(ISERROR(SEARCH("TRUE",C95)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",C117)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O95:P95">
+  <conditionalFormatting sqref="O117:P117">
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($B95&lt;&gt;"Select", $B95&lt;&gt;"Checkbox", $B95&lt;&gt;"Radio",  $B95&lt;&gt;"", ROW(O95)&lt;&gt;1)</formula>
+      <formula>AND($B117&lt;&gt;"Select", $B117&lt;&gt;"Checkbox", $B117&lt;&gt;"Radio",  $B117&lt;&gt;"", ROW(O117)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C96:C1048576 C1:C59 C61:C94">
+  <conditionalFormatting sqref="C118:C1048576 C1:C59 C100:C116 C61:C82 C93:C94">
     <cfRule type="containsText" priority="7" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="FALSE" dxfId="8">
       <formula>NOT(ISERROR(SEARCH("FALSE",C1)))</formula>
     </cfRule>
@@ -7777,32 +9183,32 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q88">
+  <conditionalFormatting sqref="Q110">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND($B1048417="Custom",  $B1048417&lt;&gt;"", ROW(Q1048417)&lt;&gt;1)</formula>
+      <formula>AND($B1048439="Custom",  $B1048439&lt;&gt;"", ROW(Q1048439)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q88 Q91:Q92">
+  <conditionalFormatting sqref="Q110 Q113:Q114">
     <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($B88&lt;&gt;"Range", $B88&lt;&gt;"", ROW(Q88)&lt;&gt;1)</formula>
+      <formula>AND($B110&lt;&gt;"Range", $B110&lt;&gt;"", ROW(Q110)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q91:Q92">
+  <conditionalFormatting sqref="Q113:Q114">
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(#ref!="Custom",  #ref!&lt;&gt;"", ROW(#ref!)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O80">
+  <conditionalFormatting sqref="O102">
     <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>AND($B80="Custom",  $B80&lt;&gt;"", ROW(O80)&lt;&gt;1)</formula>
+      <formula>AND($B102="Custom",  $B102&lt;&gt;"", ROW(O102)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O80">
+  <conditionalFormatting sqref="O102">
     <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND($B80&lt;&gt;"Select", $B80&lt;&gt;"Checkbox", $B80&lt;&gt;"Radio",  $B80&lt;&gt;"", ROW(O80)&lt;&gt;1)</formula>
+      <formula>AND($B102&lt;&gt;"Select", $B102&lt;&gt;"Checkbox", $B102&lt;&gt;"Radio",  $B102&lt;&gt;"", ROW(O102)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61:C78">
+  <conditionalFormatting sqref="C61:C78 C100">
     <cfRule type="containsText" priority="14" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="FALSE" dxfId="8">
       <formula>NOT(ISERROR(SEARCH("FALSE",C61)))</formula>
     </cfRule>
@@ -7810,7 +9216,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60:C78">
+  <conditionalFormatting sqref="C60:C78 C95:C100 C83:C92">
     <cfRule type="containsText" priority="16" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="FALSE" dxfId="8">
       <formula>NOT(ISERROR(SEARCH("FALSE",C60)))</formula>
     </cfRule>
@@ -7836,7 +9242,7 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -7845,575 +9251,575 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="27.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="40" width="20.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="42" width="20.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="19.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41" t="s">
-        <v>447</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>448</v>
-      </c>
-      <c r="C1" s="41" t="s">
+    <row r="1" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="43" t="s">
+        <v>531</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>532</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="42" t="s">
-        <v>449</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>450</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="44" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>534</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="30" t="s">
-        <v>452</v>
+        <v>536</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30" t="s">
-        <v>453</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>454</v>
+        <v>537</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>538</v>
       </c>
       <c r="E2" s="30" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="30"/>
     </row>
-    <row r="3" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30" t="s">
-        <v>453</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>455</v>
+        <v>537</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>539</v>
       </c>
       <c r="E3" s="30" t="n">
         <v>2</v>
       </c>
       <c r="F3" s="30"/>
     </row>
-    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="s">
         <v>165</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30" t="s">
-        <v>456</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>454</v>
+        <v>540</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>538</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>457</v>
+        <v>541</v>
       </c>
       <c r="F4" s="30"/>
     </row>
-    <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="s">
         <v>165</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>458</v>
+        <v>542</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>453</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>454</v>
+        <v>537</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>538</v>
       </c>
       <c r="E5" s="30" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="30"/>
     </row>
-    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="30" t="s">
-        <v>459</v>
+        <v>543</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>455</v>
+        <v>544</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>539</v>
       </c>
       <c r="E6" s="30" t="n">
         <v>3</v>
       </c>
       <c r="F6" s="30"/>
     </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="30" t="s">
-        <v>459</v>
+        <v>543</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>461</v>
+        <v>545</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>462</v>
+        <v>544</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>546</v>
       </c>
       <c r="E7" s="30" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="30"/>
     </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="30" t="s">
-        <v>463</v>
+        <v>547</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>455</v>
+        <v>544</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>539</v>
       </c>
       <c r="E8" s="30" t="n">
         <v>4</v>
       </c>
       <c r="F8" s="30"/>
     </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="30" t="s">
-        <v>463</v>
+        <v>547</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>461</v>
+        <v>545</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>462</v>
+        <v>544</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>546</v>
       </c>
       <c r="E9" s="30" t="n">
         <v>13</v>
       </c>
       <c r="F9" s="30"/>
     </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="30" t="s">
-        <v>464</v>
+        <v>548</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>462</v>
+        <v>544</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>546</v>
       </c>
       <c r="E10" s="30" t="n">
         <v>5</v>
       </c>
       <c r="F10" s="30"/>
     </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="30" t="s">
         <v>120</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>455</v>
+        <v>544</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>539</v>
       </c>
       <c r="E11" s="30" t="n">
         <v>5</v>
       </c>
       <c r="F11" s="30"/>
     </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="30" t="s">
         <v>159</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>455</v>
+        <v>544</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>539</v>
       </c>
       <c r="E12" s="30" t="n">
         <v>6</v>
       </c>
       <c r="F12" s="30"/>
     </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="30" t="s">
-        <v>465</v>
+        <v>549</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>455</v>
+        <v>544</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>539</v>
       </c>
       <c r="E13" s="30" t="n">
         <v>11</v>
       </c>
       <c r="F13" s="30"/>
     </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="30" t="s">
         <v>125</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>455</v>
+        <v>544</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>539</v>
       </c>
       <c r="E14" s="30" t="n">
         <v>14</v>
       </c>
       <c r="F14" s="30"/>
     </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="s">
         <v>136</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>462</v>
+        <v>544</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>546</v>
       </c>
       <c r="E15" s="30" t="n">
         <v>15</v>
       </c>
       <c r="F15" s="30"/>
     </row>
-    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="30" t="s">
         <v>136</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>461</v>
+        <v>545</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>466</v>
+        <v>544</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>550</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>467</v>
+        <v>551</v>
       </c>
       <c r="F16" s="30"/>
     </row>
-    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="30" t="s">
-        <v>468</v>
+        <v>552</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>455</v>
+        <v>544</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>539</v>
       </c>
       <c r="E17" s="30" t="n">
         <v>15</v>
       </c>
       <c r="F17" s="30"/>
     </row>
-    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="30" t="s">
         <v>131</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>455</v>
+        <v>544</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>539</v>
       </c>
       <c r="E18" s="30" t="n">
         <v>16</v>
       </c>
       <c r="F18" s="30"/>
     </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="30" t="s">
-        <v>469</v>
+        <v>553</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>462</v>
+        <v>544</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>546</v>
       </c>
       <c r="E19" s="30" t="n">
         <v>16</v>
       </c>
       <c r="F19" s="30"/>
     </row>
-    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="30" t="s">
-        <v>469</v>
+        <v>553</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>461</v>
+        <v>545</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>466</v>
+        <v>544</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>550</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>467</v>
+        <v>551</v>
       </c>
       <c r="F20" s="30"/>
     </row>
-    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="30" t="s">
-        <v>470</v>
+        <v>554</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>455</v>
+        <v>544</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>539</v>
       </c>
       <c r="E21" s="30" t="n">
         <v>40</v>
       </c>
       <c r="F21" s="30"/>
     </row>
-    <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="30" t="s">
         <v>153</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>454</v>
+        <v>555</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>538</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>457</v>
+        <v>541</v>
       </c>
       <c r="F22" s="30"/>
     </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>454</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>556</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>538</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>458</v>
+        <v>542</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>454</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>556</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>538</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>458</v>
+        <v>542</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>454</v>
-      </c>
-      <c r="E25" s="40" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>556</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>538</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>454</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>556</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>538</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>458</v>
+        <v>542</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>454</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>556</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>538</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>458</v>
+        <v>542</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>454</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>556</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>538</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>181</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D29" s="44" t="s">
-        <v>454</v>
+        <v>562</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>538</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>458</v>
+        <v>542</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D30" s="44" t="s">
-        <v>454</v>
+        <v>562</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>538</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>458</v>
+        <v>542</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>454</v>
+        <v>562</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>538</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>481</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="40" t="s">
-        <v>454</v>
+      <c r="D32" s="42" t="s">
+        <v>538</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>457</v>
+        <v>541</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="29" t="s">
-        <v>386</v>
+        <v>471</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>454</v>
-      </c>
-      <c r="E33" s="47" t="s">
-        <v>457</v>
+        <v>465</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>538</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="29" t="s">
-        <v>404</v>
+        <v>488</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>455</v>
+        <v>566</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>539</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="48" t="s">
-        <v>483</v>
+      <c r="A35" s="50" t="s">
+        <v>567</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>454</v>
+        <v>562</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>538</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>481</v>
+        <v>565</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8435,10 +9841,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8454,246 +9860,272 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>484</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>485</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>487</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>488</v>
+      <c r="B1" s="52" t="s">
+        <v>568</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>569</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>570</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>571</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>572</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="H1" s="49" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>573</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="30" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>491</v>
+        <v>575</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>492</v>
+        <v>576</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>493</v>
-      </c>
-      <c r="E2" s="51" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="51" t="b">
+        <v>577</v>
+      </c>
+      <c r="E2" s="53" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="53" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G2" s="51" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G2" s="53" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="s">
         <v>103</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>494</v>
+        <v>578</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>495</v>
+        <v>579</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="E3" s="51" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="51" t="b">
+        <v>580</v>
+      </c>
+      <c r="E3" s="53" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="53" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G3" s="51" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="53" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="s">
-        <v>497</v>
+        <v>581</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>498</v>
+        <v>582</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>499</v>
+        <v>583</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>500</v>
-      </c>
-      <c r="E4" s="51" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="51" t="b">
+        <v>584</v>
+      </c>
+      <c r="E4" s="53" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="53" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G4" s="51" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="53" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="s">
         <v>217</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>501</v>
+        <v>585</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>502</v>
+        <v>586</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>503</v>
-      </c>
-      <c r="E5" s="51" t="b">
+        <v>587</v>
+      </c>
+      <c r="E5" s="53" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F5" s="51" t="b">
+      <c r="F5" s="53" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G5" s="51" t="b">
+      <c r="G5" s="53" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
         <v>229</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>504</v>
+        <v>588</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>505</v>
+        <v>589</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>500</v>
-      </c>
-      <c r="E6" s="51" t="b">
+        <v>584</v>
+      </c>
+      <c r="E6" s="53" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F6" s="51" t="b">
+      <c r="F6" s="53" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G6" s="51" t="b">
+      <c r="G6" s="53" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
         <v>278</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>506</v>
+        <v>590</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>499</v>
+        <v>583</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>499</v>
-      </c>
-      <c r="E7" s="51" t="b">
+        <v>583</v>
+      </c>
+      <c r="E7" s="53" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F7" s="51" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="51"/>
+      <c r="F7" s="53" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="53"/>
       <c r="H7" s="30" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="34" t="s">
         <v>369</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>507</v>
+        <v>591</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>508</v>
+        <v>592</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>509</v>
-      </c>
-      <c r="E8" s="51" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="51" t="b">
+        <v>593</v>
+      </c>
+      <c r="E8" s="53" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G8" s="51" t="b">
+      <c r="F8" s="53" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="30" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>595</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>596</v>
+      </c>
+      <c r="E9" s="53" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="53" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30" t="s">
-        <v>444</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>510</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>511</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>512</v>
-      </c>
-      <c r="E9" s="51" t="b">
+      <c r="G9" s="53" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F9" s="51" t="b">
+    </row>
+    <row r="10" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="30" t="s">
+        <v>528</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>597</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>598</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>599</v>
+      </c>
+      <c r="E10" s="53" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G9" s="51" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>369</v>
+      <c r="F10" s="53" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="53" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -8714,31 +10146,31 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H83" activeCellId="0" sqref="H83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F86" activeCellId="0" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="48" width="21.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="48" width="15.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="48" width="23.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="48" width="19.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="48" width="24.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="48" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="50" width="21.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="50" width="15.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="50" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="50" width="19.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="50" width="24.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="50" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="52" t="s">
-        <v>513</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>450</v>
-      </c>
-      <c r="C1" s="52" t="s">
+      <c r="A1" s="54" t="s">
+        <v>600</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="54" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -8747,50 +10179,50 @@
       <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="52" t="s">
-        <v>514</v>
-      </c>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="H1" s="54" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>457</v>
+        <v>541</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>457</v>
+        <v>541</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>515</v>
+        <v>602</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>516</v>
+        <v>603</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>517</v>
+        <v>604</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>517</v>
+        <v>604</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>518</v>
+        <v>605</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>519</v>
+        <v>606</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>138</v>
       </c>
@@ -8798,71 +10230,71 @@
         <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>520</v>
+        <v>607</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>521</v>
+        <v>608</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>522</v>
+        <v>609</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>523</v>
+        <v>610</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>524</v>
+        <v>611</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>525</v>
+        <v>612</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>525</v>
+        <v>612</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>526</v>
+        <v>613</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>527</v>
+        <v>614</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>528</v>
+        <v>615</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>528</v>
+        <v>615</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>529</v>
+        <v>616</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>530</v>
+        <v>617</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -8872,11 +10304,11 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>457</v>
+        <v>541</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -8886,11 +10318,11 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>517</v>
+        <v>604</v>
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>148</v>
       </c>
@@ -8904,7 +10336,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>148</v>
       </c>
@@ -8914,11 +10346,11 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>525</v>
+        <v>612</v>
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>97</v>
       </c>
@@ -8928,11 +10360,11 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>457</v>
+        <v>541</v>
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>97</v>
       </c>
@@ -8942,11 +10374,11 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>517</v>
+        <v>604</v>
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>97</v>
       </c>
@@ -8956,47 +10388,47 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>528</v>
+        <v>615</v>
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>531</v>
+        <v>618</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>532</v>
+        <v>619</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>533</v>
+        <v>620</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>534</v>
+        <v>621</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>535</v>
+        <v>622</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>536</v>
+        <v>623</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>117</v>
       </c>
@@ -9006,47 +10438,47 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>528</v>
+        <v>615</v>
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>537</v>
+        <v>624</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>538</v>
+        <v>625</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>539</v>
+        <v>626</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>540</v>
+        <v>627</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>541</v>
+        <v>628</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>542</v>
+        <v>629</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>126</v>
       </c>
@@ -9056,109 +10488,109 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>517</v>
+        <v>604</v>
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>543</v>
+        <v>630</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>544</v>
+        <v>631</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>545</v>
+        <v>632</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>546</v>
+        <v>633</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>547</v>
+        <v>634</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>548</v>
+        <v>635</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>549</v>
+        <v>636</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>550</v>
+        <v>637</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>551</v>
+        <v>638</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>552</v>
+        <v>639</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>553</v>
+        <v>640</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>554</v>
+        <v>641</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>555</v>
+        <v>642</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>556</v>
+        <v>643</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>557</v>
+        <v>644</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>133</v>
       </c>
@@ -9172,207 +10604,207 @@
       </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>473</v>
+        <v>557</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>558</v>
+        <v>645</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>559</v>
+        <v>646</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>474</v>
+        <v>558</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>560</v>
+        <v>647</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>561</v>
+        <v>648</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>475</v>
+        <v>559</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>562</v>
+        <v>649</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>563</v>
+        <v>650</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>476</v>
+        <v>560</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>564</v>
+        <v>651</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>565</v>
+        <v>652</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>477</v>
+        <v>561</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>566</v>
+        <v>653</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>567</v>
+        <v>654</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>568</v>
+        <v>655</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>569</v>
+        <v>656</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>570</v>
+        <v>657</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>571</v>
+        <v>658</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>572</v>
+        <v>659</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>573</v>
+        <v>660</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>574</v>
+        <v>661</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>575</v>
+        <v>662</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>576</v>
+        <v>663</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>577</v>
+        <v>664</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>578</v>
+        <v>665</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>579</v>
+        <v>666</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>580</v>
+        <v>667</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>581</v>
+        <v>668</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>582</v>
+        <v>669</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>583</v>
+        <v>670</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>584</v>
+        <v>671</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>585</v>
+        <v>672</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>139</v>
       </c>
@@ -9380,35 +10812,35 @@
         <v>138</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>523</v>
+        <v>610</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>524</v>
+        <v>611</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>586</v>
+        <v>673</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>587</v>
+        <v>674</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>588</v>
+        <v>675</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
@@ -9418,47 +10850,47 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>517</v>
+        <v>604</v>
       </c>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>589</v>
+        <v>676</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>590</v>
+        <v>677</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>591</v>
+        <v>678</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>592</v>
+        <v>679</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>593</v>
+        <v>680</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>594</v>
+        <v>681</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>160</v>
       </c>
@@ -9468,428 +10900,428 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>525</v>
+        <v>612</v>
       </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>479</v>
+        <v>563</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>595</v>
+        <v>682</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>596</v>
+        <v>683</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>480</v>
+        <v>564</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>597</v>
+        <v>684</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>598</v>
+        <v>685</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>481</v>
+        <v>565</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>599</v>
+        <v>686</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>600</v>
+        <v>687</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>601</v>
+        <v>688</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>602</v>
+        <v>689</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>603</v>
+        <v>690</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>604</v>
+        <v>691</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>605</v>
+        <v>692</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>606</v>
+        <v>693</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="48" t="s">
+    <row r="49" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="B49" s="48" t="s">
-        <v>479</v>
-      </c>
-      <c r="C49" s="48" t="s">
-        <v>607</v>
-      </c>
-      <c r="D49" s="48" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="48" t="s">
+      <c r="B49" s="50" t="s">
+        <v>563</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>694</v>
+      </c>
+      <c r="D49" s="50" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="B50" s="48" t="s">
-        <v>480</v>
-      </c>
-      <c r="C50" s="48" t="s">
-        <v>608</v>
-      </c>
-      <c r="D50" s="48" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="48" t="s">
+      <c r="B50" s="50" t="s">
+        <v>564</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>695</v>
+      </c>
+      <c r="D50" s="50" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="B51" s="48" t="s">
-        <v>604</v>
-      </c>
-      <c r="C51" s="48" t="s">
-        <v>610</v>
-      </c>
-      <c r="D51" s="48" t="s">
-        <v>611</v>
+      <c r="B51" s="50" t="s">
+        <v>691</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>697</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="B52" s="48" t="s">
-        <v>612</v>
-      </c>
-      <c r="C52" s="48" t="s">
-        <v>613</v>
-      </c>
-      <c r="D52" s="48" t="s">
-        <v>614</v>
+      <c r="A52" s="50" t="s">
+        <v>464</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>699</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>700</v>
+      </c>
+      <c r="D52" s="50" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="48" t="s">
-        <v>379</v>
+      <c r="A53" s="50" t="s">
+        <v>464</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>615</v>
+        <v>702</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>616</v>
+        <v>703</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>617</v>
+        <v>704</v>
       </c>
       <c r="E53" s="30"/>
       <c r="F53" s="30"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="48" t="s">
-        <v>379</v>
+      <c r="A54" s="50" t="s">
+        <v>464</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>618</v>
+        <v>705</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>619</v>
+        <v>706</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>620</v>
+        <v>707</v>
       </c>
       <c r="E54" s="30"/>
       <c r="F54" s="30"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="48" t="s">
-        <v>379</v>
+      <c r="A55" s="50" t="s">
+        <v>464</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>621</v>
+        <v>708</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>622</v>
+        <v>709</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>623</v>
+        <v>710</v>
       </c>
       <c r="E55" s="30"/>
       <c r="F55" s="30"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="48" t="s">
-        <v>379</v>
+      <c r="A56" s="50" t="s">
+        <v>464</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>624</v>
+        <v>711</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>625</v>
+        <v>712</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>626</v>
+        <v>713</v>
       </c>
       <c r="E56" s="30"/>
       <c r="F56" s="30"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="48" t="s">
-        <v>379</v>
+      <c r="A57" s="50" t="s">
+        <v>464</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>627</v>
+        <v>714</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>628</v>
+        <v>715</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>629</v>
+        <v>716</v>
       </c>
       <c r="E57" s="30"/>
       <c r="F57" s="30"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="48" t="s">
-        <v>379</v>
+      <c r="A58" s="50" t="s">
+        <v>464</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>630</v>
+        <v>717</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>631</v>
+        <v>718</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>632</v>
+        <v>719</v>
       </c>
       <c r="E58" s="30"/>
       <c r="F58" s="30"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="48" t="s">
-        <v>379</v>
+      <c r="A59" s="50" t="s">
+        <v>464</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>633</v>
+        <v>720</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>634</v>
+        <v>721</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>635</v>
+        <v>722</v>
       </c>
       <c r="E59" s="30"/>
       <c r="F59" s="30"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="48" t="s">
-        <v>379</v>
+      <c r="A60" s="50" t="s">
+        <v>464</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>636</v>
+        <v>723</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>637</v>
+        <v>724</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>638</v>
+        <v>725</v>
       </c>
       <c r="E60" s="30"/>
       <c r="F60" s="30"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="48" t="s">
-        <v>379</v>
+      <c r="A61" s="50" t="s">
+        <v>464</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>639</v>
+        <v>726</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>640</v>
+        <v>727</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>641</v>
+        <v>728</v>
       </c>
       <c r="E61" s="30"/>
       <c r="F61" s="30"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="48" t="s">
-        <v>379</v>
+      <c r="A62" s="50" t="s">
+        <v>464</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>642</v>
+        <v>729</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>643</v>
+        <v>730</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>644</v>
+        <v>731</v>
       </c>
       <c r="E62" s="30"/>
       <c r="F62" s="30"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="48" t="s">
-        <v>379</v>
+      <c r="A63" s="50" t="s">
+        <v>464</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>645</v>
+        <v>732</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>646</v>
+        <v>733</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>647</v>
+        <v>734</v>
       </c>
       <c r="E63" s="30"/>
       <c r="F63" s="30"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="B64" s="48" t="s">
-        <v>648</v>
-      </c>
-      <c r="C64" s="48" t="s">
-        <v>649</v>
-      </c>
-      <c r="D64" s="48" t="s">
-        <v>650</v>
+      <c r="A64" s="50" t="s">
+        <v>464</v>
+      </c>
+      <c r="B64" s="50" t="s">
+        <v>735</v>
+      </c>
+      <c r="C64" s="50" t="s">
+        <v>736</v>
+      </c>
+      <c r="D64" s="50" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="B65" s="48" t="s">
-        <v>525</v>
-      </c>
-      <c r="C65" s="48" t="s">
-        <v>526</v>
-      </c>
-      <c r="D65" s="48" t="s">
-        <v>527</v>
+      <c r="A65" s="50" t="s">
+        <v>464</v>
+      </c>
+      <c r="B65" s="50" t="s">
+        <v>612</v>
+      </c>
+      <c r="C65" s="50" t="s">
+        <v>613</v>
+      </c>
+      <c r="D65" s="50" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="B66" s="48" t="s">
-        <v>651</v>
-      </c>
-      <c r="C66" s="48" t="s">
-        <v>529</v>
-      </c>
-      <c r="D66" s="48" t="s">
-        <v>652</v>
+      <c r="A66" s="50" t="s">
+        <v>464</v>
+      </c>
+      <c r="B66" s="50" t="s">
+        <v>738</v>
+      </c>
+      <c r="C66" s="50" t="s">
+        <v>616</v>
+      </c>
+      <c r="D66" s="50" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="53" t="s">
-        <v>373</v>
+      <c r="A67" s="55" t="s">
+        <v>458</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>653</v>
-      </c>
-      <c r="C67" s="48" t="s">
-        <v>654</v>
-      </c>
-      <c r="D67" s="48" t="s">
-        <v>655</v>
+        <v>740</v>
+      </c>
+      <c r="C67" s="50" t="s">
+        <v>741</v>
+      </c>
+      <c r="D67" s="50" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="53" t="s">
-        <v>373</v>
-      </c>
-      <c r="B68" s="48" t="s">
-        <v>656</v>
-      </c>
-      <c r="C68" s="48" t="s">
-        <v>657</v>
-      </c>
-      <c r="D68" s="48" t="s">
-        <v>658</v>
+      <c r="A68" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B68" s="50" t="s">
+        <v>743</v>
+      </c>
+      <c r="C68" s="50" t="s">
+        <v>744</v>
+      </c>
+      <c r="D68" s="50" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="53" t="s">
-        <v>373</v>
-      </c>
-      <c r="B69" s="48" t="s">
+      <c r="A69" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B69" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="48" t="s">
-        <v>523</v>
-      </c>
-      <c r="D69" s="48" t="s">
-        <v>524</v>
+      <c r="C69" s="50" t="s">
+        <v>610</v>
+      </c>
+      <c r="D69" s="50" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="53" t="s">
-        <v>373</v>
-      </c>
-      <c r="B70" s="48" t="s">
-        <v>586</v>
+      <c r="A70" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B70" s="50" t="s">
+        <v>673</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>529</v>
+        <v>616</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>652</v>
+        <v>739</v>
       </c>
       <c r="E70" s="30"/>
       <c r="F70" s="30"/>
@@ -9898,34 +11330,34 @@
       <c r="A71" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="B71" s="48" t="s">
-        <v>659</v>
-      </c>
-      <c r="C71" s="54" t="s">
-        <v>660</v>
-      </c>
-      <c r="D71" s="48" t="s">
-        <v>661</v>
+      <c r="B71" s="50" t="s">
+        <v>746</v>
+      </c>
+      <c r="C71" s="56" t="s">
+        <v>747</v>
+      </c>
+      <c r="D71" s="50" t="s">
+        <v>748</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>469</v>
+        <v>553</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="B72" s="48" t="s">
-        <v>662</v>
+      <c r="B72" s="50" t="s">
+        <v>749</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="D72" s="54" t="s">
-        <v>664</v>
-      </c>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
+        <v>750</v>
+      </c>
+      <c r="D72" s="56" t="s">
+        <v>751</v>
+      </c>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
       <c r="H72" s="2" t="s">
         <v>170</v>
       </c>
@@ -9934,28 +11366,28 @@
       <c r="A73" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="B73" s="48" t="s">
-        <v>665</v>
+      <c r="B73" s="50" t="s">
+        <v>752</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>666</v>
-      </c>
-      <c r="D73" s="48" t="s">
-        <v>667</v>
+        <v>753</v>
+      </c>
+      <c r="D73" s="50" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="B74" s="48" t="s">
-        <v>668</v>
+      <c r="B74" s="50" t="s">
+        <v>755</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>669</v>
+        <v>756</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>670</v>
+        <v>757</v>
       </c>
       <c r="E74" s="30"/>
       <c r="F74" s="30"/>
@@ -9964,14 +11396,14 @@
       <c r="A75" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="B75" s="48" t="s">
-        <v>671</v>
+      <c r="B75" s="50" t="s">
+        <v>758</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>672</v>
+        <v>759</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>673</v>
+        <v>760</v>
       </c>
       <c r="E75" s="30"/>
       <c r="F75" s="30"/>
@@ -9980,14 +11412,14 @@
       <c r="A76" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="B76" s="48" t="s">
-        <v>674</v>
+      <c r="B76" s="50" t="s">
+        <v>761</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>675</v>
+        <v>762</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>676</v>
+        <v>763</v>
       </c>
       <c r="E76" s="30"/>
       <c r="F76" s="30"/>
@@ -9999,14 +11431,14 @@
       <c r="A77" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="B77" s="48" t="s">
-        <v>677</v>
+      <c r="B77" s="50" t="s">
+        <v>764</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>678</v>
+        <v>765</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>679</v>
+        <v>766</v>
       </c>
       <c r="E77" s="30"/>
       <c r="F77" s="30"/>
@@ -10015,14 +11447,14 @@
       <c r="A78" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="B78" s="48" t="s">
-        <v>680</v>
+      <c r="B78" s="50" t="s">
+        <v>767</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>681</v>
+        <v>768</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>682</v>
+        <v>769</v>
       </c>
       <c r="E78" s="30"/>
       <c r="F78" s="30"/>
@@ -10034,59 +11466,59 @@
       <c r="A79" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="B79" s="48" t="s">
+      <c r="B79" s="50" t="s">
         <v>138</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>523</v>
-      </c>
-      <c r="D79" s="48" t="s">
-        <v>524</v>
+        <v>610</v>
+      </c>
+      <c r="D79" s="50" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="B80" s="48" t="s">
+      <c r="B80" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C80" s="48" t="s">
-        <v>492</v>
-      </c>
-      <c r="D80" s="48" t="s">
-        <v>493</v>
+      <c r="C80" s="50" t="s">
+        <v>576</v>
+      </c>
+      <c r="D80" s="50" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="B81" s="48" t="s">
-        <v>683</v>
-      </c>
-      <c r="C81" s="48" t="s">
-        <v>684</v>
-      </c>
-      <c r="D81" s="48" t="s">
-        <v>685</v>
-      </c>
-      <c r="H81" s="48" t="s">
-        <v>483</v>
+      <c r="B81" s="50" t="s">
+        <v>770</v>
+      </c>
+      <c r="C81" s="50" t="s">
+        <v>771</v>
+      </c>
+      <c r="D81" s="50" t="s">
+        <v>772</v>
+      </c>
+      <c r="H81" s="50" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="B82" s="48" t="s">
+      <c r="B82" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="C82" s="48" t="s">
-        <v>686</v>
-      </c>
-      <c r="D82" s="48" t="s">
-        <v>687</v>
+      <c r="C82" s="50" t="s">
+        <v>773</v>
+      </c>
+      <c r="D82" s="50" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10094,19 +11526,73 @@
         <v>314</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>688</v>
+        <v>775</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>689</v>
+        <v>776</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>690</v>
+        <v>777</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>691</v>
-      </c>
-      <c r="H83" s="48" t="s">
-        <v>692</v>
+        <v>778</v>
+      </c>
+      <c r="H83" s="50" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="B84" s="50" t="s">
+        <v>780</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>781</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="F84" s="30" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="B85" s="50" t="s">
+        <v>785</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="E85" s="30" t="s">
+        <v>788</v>
+      </c>
+      <c r="F85" s="30" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="B86" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="C86" s="50" t="s">
+        <v>605</v>
+      </c>
+      <c r="D86" s="50" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -10148,194 +11634,194 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" s="52" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="55" t="s">
-        <v>693</v>
-      </c>
-      <c r="B1" s="55" t="s">
-        <v>694</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>695</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>696</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>697</v>
-      </c>
-      <c r="F1" s="55" t="s">
-        <v>698</v>
-      </c>
-      <c r="G1" s="55" t="s">
-        <v>699</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>700</v>
-      </c>
-      <c r="I1" s="55" t="s">
-        <v>701</v>
-      </c>
-      <c r="J1" s="55" t="s">
-        <v>702</v>
-      </c>
-      <c r="K1" s="55" t="s">
-        <v>703</v>
-      </c>
-      <c r="L1" s="52" t="s">
-        <v>704</v>
+    <row r="1" s="54" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="57" t="s">
+        <v>790</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>792</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>793</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>794</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>795</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>796</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>797</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>798</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>799</v>
+      </c>
+      <c r="K1" s="57" t="s">
+        <v>800</v>
+      </c>
+      <c r="L1" s="54" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
-        <v>416</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>705</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>706</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>707</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>708</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>709</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>710</v>
-      </c>
-      <c r="H2" s="36" t="n">
+      <c r="A2" s="38" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>802</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>803</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>804</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>805</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>806</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>807</v>
+      </c>
+      <c r="H2" s="38" t="n">
         <v>-10</v>
       </c>
-      <c r="I2" s="36" t="n">
+      <c r="I2" s="38" t="n">
         <v>100</v>
       </c>
-      <c r="J2" s="36" t="s">
-        <v>711</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>711</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>712</v>
+      <c r="J2" s="38" t="s">
+        <v>808</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>808</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
-        <v>425</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>713</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>714</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>715</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>716</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>717</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>718</v>
-      </c>
-      <c r="H3" s="36" t="n">
+      <c r="A3" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>810</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>811</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>812</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>813</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>814</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>815</v>
+      </c>
+      <c r="H3" s="38" t="n">
         <v>-10</v>
       </c>
-      <c r="I3" s="36" t="n">
+      <c r="I3" s="38" t="n">
         <v>100</v>
       </c>
-      <c r="J3" s="36" t="s">
-        <v>711</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>711</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>719</v>
+      <c r="J3" s="38" t="s">
+        <v>808</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>808</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>720</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>722</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>724</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>725</v>
-      </c>
-      <c r="H4" s="36" t="n">
+      <c r="A4" s="38" t="s">
+        <v>514</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>817</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>818</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>819</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>820</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>821</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>822</v>
+      </c>
+      <c r="H4" s="38" t="n">
         <v>-10</v>
       </c>
-      <c r="I4" s="36" t="n">
+      <c r="I4" s="38" t="n">
         <v>100</v>
       </c>
-      <c r="J4" s="36" t="s">
-        <v>711</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>711</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>726</v>
+      <c r="J4" s="38" t="s">
+        <v>808</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>808</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="s">
-        <v>435</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>713</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>727</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>728</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>716</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>729</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>730</v>
-      </c>
-      <c r="H5" s="36" t="n">
+      <c r="A5" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>810</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>824</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>825</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>813</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>826</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>827</v>
+      </c>
+      <c r="H5" s="38" t="n">
         <v>-10</v>
       </c>
-      <c r="I5" s="36" t="n">
+      <c r="I5" s="38" t="n">
         <v>100</v>
       </c>
-      <c r="J5" s="36" t="s">
-        <v>711</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>711</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>726</v>
+      <c r="J5" s="38" t="s">
+        <v>808</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>808</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>823</v>
       </c>
     </row>
   </sheetData>
@@ -10354,42 +11840,213 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.43"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>731</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>735</v>
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>736</v>
+        <v>369</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>737</v>
+        <v>828</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>829</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>738</v>
-      </c>
-    </row>
+        <v>830</v>
+      </c>
+      <c r="E2" s="30"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>835</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>838</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>841</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>844</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>847</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>850</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>853</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>856</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>613</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/survey/references/OD_nationale_quebec_2025.xlsx
+++ b/survey/references/OD_nationale_quebec_2025.xlsx
@@ -499,10 +499,10 @@
     <t xml:space="preserve">personOccupationCustomConditional</t>
   </si>
   <si>
-    <t xml:space="preserve">personDrivingLicenseOwner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drivingLicenseOwner</t>
+    <t xml:space="preserve">personDrivingLicenseOwnership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drivingLicenseOwnership</t>
   </si>
   <si>
     <t xml:space="preserve">**Permis de conduire**
@@ -1928,7 +1928,7 @@
     <t xml:space="preserve">ifAge40OrMoreConditional</t>
   </si>
   <si>
-    <t xml:space="preserve">${currentPerson}.drivingLicenseOwner</t>
+    <t xml:space="preserve">${currentPerson}.drivingLicenseOwnership</t>
   </si>
   <si>
     <t xml:space="preserve">${currentPerson}.occupation</t>
@@ -3807,10 +3807,10 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J98" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A102" activeCellId="0" sqref="A102"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A98" activeCellId="0" sqref="A98"/>
       <selection pane="bottomRight" activeCell="T106" activeCellId="0" sqref="T106"/>
     </sheetView>
   </sheetViews>
@@ -9877,8 +9877,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10257,7 +10257,7 @@
       </c>
       <c r="F22" s="30"/>
     </row>
-    <row r="23" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="30" t="s">
         <v>155</v>
       </c>
@@ -12668,7 +12668,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/survey/references/OD_nationale_quebec_2025.xlsx
+++ b/survey/references/OD_nationale_quebec_2025.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="920">
   <si>
     <t xml:space="preserve">questionName</t>
   </si>
@@ -745,9 +745,6 @@
     <t xml:space="preserve">selectPerson</t>
   </si>
   <si>
-    <t xml:space="preserve">tripsSelectPerson</t>
-  </si>
-  <si>
     <t xml:space="preserve">_activePersonId</t>
   </si>
   <si>
@@ -778,19 +775,19 @@
     <t xml:space="preserve">Select this person and continue</t>
   </si>
   <si>
-    <t xml:space="preserve">tripsIntroActivePersonTitle</t>
+    <t xml:space="preserve">activePersonTitle</t>
   </si>
   <si>
     <t xml:space="preserve">tripsIntro</t>
   </si>
   <si>
-    <t xml:space="preserve">activePersonTitle</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;p class="_center _em" style="margin-bottom: 0;"&gt;Entrevue de **{{nickname}}**&lt;/p&gt;&lt;p class="_center _pale"&gt;•&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;p class="_center _em" style="margin-bottom: 0;"&gt;**{{nickname}}**’s interview&lt;/p&gt;&lt;p class="_center _pale"&gt;•&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom because it uses the builtin widget</t>
   </si>
   <si>
     <t xml:space="preserve">buttonSwitchPerson</t>
@@ -945,16 +942,10 @@
     <t xml:space="preserve">__Your answers will be used to assess the use and traffic of the road and public transit networks and will remain entirely confidential.__</t>
   </si>
   <si>
-    <t xml:space="preserve">visitedPlacesActivePersonTitle</t>
-  </si>
-  <si>
     <t xml:space="preserve">visitedPlaces</t>
   </si>
   <si>
     <t xml:space="preserve">Same as the one from tripsIntro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visitedPlacesButtonSwitchPerson</t>
   </si>
   <si>
     <t xml:space="preserve">personVisitedPlacesTitle</t>
@@ -1228,16 +1219,7 @@
     <t xml:space="preserve">Custom because the NextButton does not support conditional</t>
   </si>
   <si>
-    <t xml:space="preserve">segmentsActivePersonTitle</t>
-  </si>
-  <si>
     <t xml:space="preserve">segments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Custom because it uses the builtin widget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">segmentsButtonSwitchPerson</t>
   </si>
   <si>
     <t xml:space="preserve">segmentsPersonTripsTitle</t>
@@ -1497,13 +1479,7 @@
     <t xml:space="preserve">Custom because the NextButton does not support conditional. The name has to be `buttonConfirmNextSection` because that’s what the template expects</t>
   </si>
   <si>
-    <t xml:space="preserve">travelBehaviorActivePersonTitle</t>
-  </si>
-  <si>
     <t xml:space="preserve">travelBehavior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">travelBehaviorButtonSwitchPerson</t>
   </si>
   <si>
     <t xml:space="preserve">personNoWorkTripIntro</t>
@@ -2021,7 +1997,7 @@
     <t xml:space="preserve">Trips introduction</t>
   </si>
   <si>
-    <t xml:space="preserve">ts_</t>
+    <t xml:space="preserve">sp_</t>
   </si>
   <si>
     <t xml:space="preserve">Sélection du membre du ménage</t>
@@ -3810,11 +3786,11 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D83" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A95" activeCellId="0" sqref="A95"/>
-      <selection pane="bottomRight" activeCell="T106" activeCellId="0" sqref="T106"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A83" activeCellId="0" sqref="A83"/>
+      <selection pane="bottomRight" activeCell="A101" activeCellId="0" sqref="A101:A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5951,17 +5927,17 @@
         <v>1</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E42" s="30"/>
       <c r="F42" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G42" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="H42" s="24" t="s">
         <v>222</v>
-      </c>
-      <c r="H42" s="24" t="s">
-        <v>223</v>
       </c>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
@@ -5982,7 +5958,7 @@
     </row>
     <row r="43" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B43" s="29" t="s">
         <v>70</v>
@@ -5992,17 +5968,17 @@
         <v>1</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E43" s="30"/>
       <c r="F43" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="G43" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="H43" s="24" t="s">
         <v>226</v>
-      </c>
-      <c r="H43" s="24" t="s">
-        <v>227</v>
       </c>
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
@@ -6023,7 +5999,7 @@
     </row>
     <row r="44" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>101</v>
@@ -6033,17 +6009,17 @@
         <v>1</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G44" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="H44" s="24" t="s">
         <v>229</v>
-      </c>
-      <c r="H44" s="24" t="s">
-        <v>230</v>
       </c>
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
@@ -6064,27 +6040,27 @@
     </row>
     <row r="45" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="29" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D45" s="29" t="s">
         <v>231</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="29" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>232</v>
       </c>
       <c r="E45" s="30"/>
       <c r="F45" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="H45" s="32" t="s">
         <v>233</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="H45" s="32" t="s">
-        <v>235</v>
       </c>
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
@@ -6107,10 +6083,13 @@
       <c r="V45" s="30"/>
       <c r="W45" s="30"/>
       <c r="X45" s="30"/>
+      <c r="Y45" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B46" s="29" t="s">
         <v>70</v>
@@ -6120,17 +6099,17 @@
         <v>1</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E46" s="30"/>
       <c r="F46" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G46" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="H46" s="29" t="s">
         <v>237</v>
-      </c>
-      <c r="H46" s="29" t="s">
-        <v>238</v>
       </c>
       <c r="I46" s="29"/>
       <c r="J46" s="29"/>
@@ -6151,7 +6130,7 @@
     </row>
     <row r="47" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B47" s="29" t="s">
         <v>70</v>
@@ -6161,17 +6140,17 @@
         <v>1</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E47" s="30"/>
       <c r="F47" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="G47" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="G47" s="24" t="s">
+      <c r="H47" s="24" t="s">
         <v>226</v>
-      </c>
-      <c r="H47" s="24" t="s">
-        <v>227</v>
       </c>
       <c r="I47" s="29"/>
       <c r="J47" s="29"/>
@@ -6192,7 +6171,7 @@
     </row>
     <row r="48" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B48" s="29" t="s">
         <v>70</v>
@@ -6202,17 +6181,17 @@
         <v>1</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E48" s="30"/>
       <c r="F48" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="G48" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="H48" s="24" t="s">
         <v>241</v>
-      </c>
-      <c r="H48" s="24" t="s">
-        <v>242</v>
       </c>
       <c r="I48" s="29"/>
       <c r="J48" s="29"/>
@@ -6233,7 +6212,7 @@
     </row>
     <row r="49" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B49" s="29" t="s">
         <v>70</v>
@@ -6243,23 +6222,23 @@
         <v>1</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E49" s="30"/>
       <c r="F49" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="G49" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="G49" s="24" t="s">
+      <c r="H49" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="H49" s="24" t="s">
+      <c r="I49" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="I49" s="24" t="s">
+      <c r="J49" s="24" t="s">
         <v>246</v>
-      </c>
-      <c r="J49" s="24" t="s">
-        <v>247</v>
       </c>
       <c r="K49" s="29"/>
       <c r="L49" s="30"/>
@@ -6278,7 +6257,7 @@
     </row>
     <row r="50" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B50" s="29" t="s">
         <v>70</v>
@@ -6288,23 +6267,23 @@
         <v>1</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E50" s="30"/>
       <c r="F50" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="G50" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="G50" s="24" t="s">
+      <c r="H50" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="H50" s="24" t="s">
+      <c r="I50" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="I50" s="24" t="s">
+      <c r="J50" s="24" t="s">
         <v>251</v>
-      </c>
-      <c r="J50" s="24" t="s">
-        <v>252</v>
       </c>
       <c r="K50" s="29"/>
       <c r="L50" s="30"/>
@@ -6323,7 +6302,7 @@
     </row>
     <row r="51" customFormat="false" ht="377.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B51" s="29" t="s">
         <v>70</v>
@@ -6333,23 +6312,23 @@
         <v>1</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E51" s="30"/>
       <c r="F51" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G51" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="G51" s="24" t="s">
+      <c r="H51" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="H51" s="24" t="s">
+      <c r="I51" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="I51" s="24" t="s">
+      <c r="J51" s="24" t="s">
         <v>257</v>
-      </c>
-      <c r="J51" s="24" t="s">
-        <v>258</v>
       </c>
       <c r="K51" s="29"/>
       <c r="L51" s="30"/>
@@ -6368,7 +6347,7 @@
     </row>
     <row r="52" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B52" s="29" t="s">
         <v>70</v>
@@ -6378,23 +6357,23 @@
         <v>1</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E52" s="30"/>
       <c r="F52" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G52" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="G52" s="24" t="s">
+      <c r="H52" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="H52" s="24" t="s">
+      <c r="I52" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="I52" s="24" t="s">
+      <c r="J52" s="24" t="s">
         <v>263</v>
-      </c>
-      <c r="J52" s="24" t="s">
-        <v>264</v>
       </c>
       <c r="K52" s="29"/>
       <c r="L52" s="30"/>
@@ -6413,7 +6392,7 @@
     </row>
     <row r="53" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B53" s="29" t="s">
         <v>31</v>
@@ -6423,32 +6402,32 @@
         <v>1</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E53" s="30"/>
       <c r="F53" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="G53" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="G53" s="24" t="s">
+      <c r="H53" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="H53" s="24" t="s">
+      <c r="I53" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="I53" s="24" t="s">
+      <c r="J53" s="24" t="s">
         <v>269</v>
-      </c>
-      <c r="J53" s="24" t="s">
-        <v>270</v>
       </c>
       <c r="K53" s="29"/>
       <c r="L53" s="30"/>
       <c r="M53" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N53" s="30"/>
       <c r="O53" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P53" s="30"/>
       <c r="Q53" s="30"/>
@@ -6465,7 +6444,7 @@
     </row>
     <row r="54" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B54" s="29" t="s">
         <v>101</v>
@@ -6475,17 +6454,17 @@
         <v>1</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E54" s="30"/>
       <c r="F54" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="G54" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="G54" s="29" t="s">
+      <c r="H54" s="29" t="s">
         <v>275</v>
-      </c>
-      <c r="H54" s="29" t="s">
-        <v>276</v>
       </c>
       <c r="I54" s="29"/>
       <c r="J54" s="29"/>
@@ -6506,7 +6485,7 @@
     </row>
     <row r="55" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B55" s="29" t="s">
         <v>36</v>
@@ -6516,17 +6495,17 @@
         <v>1</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E55" s="30"/>
       <c r="F55" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="G55" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="G55" s="24" t="s">
+      <c r="H55" s="33" t="s">
         <v>278</v>
-      </c>
-      <c r="H55" s="33" t="s">
-        <v>279</v>
       </c>
       <c r="I55" s="29"/>
       <c r="J55" s="29"/>
@@ -6550,27 +6529,27 @@
     </row>
     <row r="56" s="2" customFormat="true" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="24" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C56" s="29" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E56" s="30"/>
       <c r="F56" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="H56" s="32" t="s">
         <v>233</v>
-      </c>
-      <c r="G56" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="H56" s="32" t="s">
-        <v>235</v>
       </c>
       <c r="I56" s="29"/>
       <c r="J56" s="29"/>
@@ -6594,12 +6573,12 @@
       <c r="W56" s="30"/>
       <c r="X56" s="30"/>
       <c r="Y56" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="24" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="B57" s="29" t="s">
         <v>70</v>
@@ -6609,17 +6588,17 @@
         <v>1</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E57" s="30"/>
       <c r="F57" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G57" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="G57" s="29" t="s">
+      <c r="H57" s="29" t="s">
         <v>237</v>
-      </c>
-      <c r="H57" s="29" t="s">
-        <v>238</v>
       </c>
       <c r="I57" s="29"/>
       <c r="J57" s="29"/>
@@ -6638,12 +6617,12 @@
       <c r="W57" s="30"/>
       <c r="X57" s="30"/>
       <c r="Y57" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="24" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B58" s="29" t="s">
         <v>70</v>
@@ -6653,23 +6632,23 @@
         <v>1</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E58" s="30"/>
       <c r="F58" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="H58" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="I58" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="G58" s="24" t="s">
+      <c r="J58" s="24" t="s">
         <v>285</v>
-      </c>
-      <c r="H58" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="I58" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="J58" s="24" t="s">
-        <v>288</v>
       </c>
       <c r="K58" s="29"/>
       <c r="L58" s="30"/>
@@ -6689,12 +6668,12 @@
       <c r="W58" s="30"/>
       <c r="X58" s="30"/>
       <c r="Y58" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="24" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B59" s="29" t="s">
         <v>70</v>
@@ -6704,21 +6683,21 @@
         <v>1</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E59" s="30"/>
       <c r="F59" s="24" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H59" s="24" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I59" s="24"/>
       <c r="J59" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K59" s="29"/>
       <c r="L59" s="30"/>
@@ -6735,12 +6714,12 @@
       <c r="W59" s="30"/>
       <c r="X59" s="30"/>
       <c r="Y59" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="24" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B60" s="29" t="s">
         <v>70</v>
@@ -6750,11 +6729,11 @@
         <v>1</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E60" s="30"/>
       <c r="F60" s="24" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G60" s="24"/>
       <c r="H60" s="33"/>
@@ -6777,7 +6756,7 @@
     </row>
     <row r="61" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="24" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B61" s="29" t="s">
         <v>70</v>
@@ -6787,13 +6766,13 @@
         <v>1</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E61" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="F61" s="30" t="s">
         <v>296</v>
-      </c>
-      <c r="F61" s="30" t="s">
-        <v>299</v>
       </c>
       <c r="G61" s="24"/>
       <c r="H61" s="33"/>
@@ -6814,12 +6793,12 @@
       <c r="W61" s="30"/>
       <c r="X61" s="30"/>
       <c r="Y61" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B62" s="29" t="s">
         <v>70</v>
@@ -6829,13 +6808,13 @@
         <v>1</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F62" s="30" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G62" s="24"/>
       <c r="H62" s="33"/>
@@ -6856,12 +6835,12 @@
       <c r="W62" s="30"/>
       <c r="X62" s="30"/>
       <c r="Y62" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="24" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B63" s="29" t="s">
         <v>70</v>
@@ -6871,25 +6850,25 @@
         <v>1</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F63" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="H63" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I63" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="G63" s="24" t="s">
+      <c r="J63" s="24" t="s">
         <v>306</v>
-      </c>
-      <c r="H63" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="I63" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="J63" s="24" t="s">
-        <v>309</v>
       </c>
       <c r="K63" s="29"/>
       <c r="L63" s="30"/>
@@ -6908,7 +6887,7 @@
     </row>
     <row r="64" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="24" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B64" s="29" t="s">
         <v>31</v>
@@ -6918,34 +6897,34 @@
         <v>1</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F64" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="G64" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="H64" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="I64" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="G64" s="24" t="s">
+      <c r="J64" s="24" t="s">
         <v>312</v>
-      </c>
-      <c r="H64" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="I64" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="J64" s="24" t="s">
-        <v>315</v>
       </c>
       <c r="K64" s="29"/>
       <c r="L64" s="30"/>
       <c r="M64" s="30" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="N64" s="30"/>
       <c r="O64" s="30" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P64" s="30"/>
       <c r="Q64" s="30"/>
@@ -6957,12 +6936,12 @@
       <c r="W64" s="30"/>
       <c r="X64" s="30"/>
       <c r="Y64" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="69.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="24" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B65" s="29" t="s">
         <v>31</v>
@@ -6972,30 +6951,30 @@
         <v>1</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E65" s="30" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F65" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="H65" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="I65" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="G65" s="24" t="s">
+      <c r="J65" s="24" t="s">
         <v>321</v>
-      </c>
-      <c r="H65" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="I65" s="24" t="s">
-        <v>323</v>
-      </c>
-      <c r="J65" s="24" t="s">
-        <v>324</v>
       </c>
       <c r="K65" s="29"/>
       <c r="L65" s="30"/>
       <c r="M65" s="30" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="N65" s="30"/>
       <c r="O65" s="30" t="s">
@@ -7016,7 +6995,7 @@
     </row>
     <row r="66" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="24" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B66" s="29" t="s">
         <v>70</v>
@@ -7026,19 +7005,19 @@
         <v>1</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H66" s="24" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I66" s="29"/>
       <c r="J66" s="29"/>
@@ -7057,12 +7036,12 @@
       <c r="W66" s="30"/>
       <c r="X66" s="30"/>
       <c r="Y66" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="24" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B67" s="29" t="s">
         <v>70</v>
@@ -7072,13 +7051,13 @@
         <v>1</v>
       </c>
       <c r="D67" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F67" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G67" s="24"/>
       <c r="H67" s="33"/>
@@ -7099,12 +7078,12 @@
       <c r="W67" s="30"/>
       <c r="X67" s="30"/>
       <c r="Y67" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="24" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B68" s="29" t="s">
         <v>70</v>
@@ -7114,19 +7093,19 @@
         <v>1</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H68" s="24" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I68" s="29"/>
       <c r="J68" s="29"/>
@@ -7145,12 +7124,12 @@
       <c r="W68" s="30"/>
       <c r="X68" s="30"/>
       <c r="Y68" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="24" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B69" s="29" t="s">
         <v>70</v>
@@ -7160,25 +7139,25 @@
         <v>1</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F69" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="H69" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="I69" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="G69" s="24" t="s">
+      <c r="J69" s="24" t="s">
         <v>341</v>
-      </c>
-      <c r="H69" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="I69" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="J69" s="24" t="s">
-        <v>344</v>
       </c>
       <c r="K69" s="29"/>
       <c r="L69" s="30"/>
@@ -7195,12 +7174,12 @@
       <c r="W69" s="30"/>
       <c r="X69" s="30"/>
       <c r="Y69" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="24" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B70" s="29" t="s">
         <v>70</v>
@@ -7210,13 +7189,13 @@
         <v>1</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G70" s="24"/>
       <c r="H70" s="33"/>
@@ -7237,12 +7216,12 @@
       <c r="W70" s="30"/>
       <c r="X70" s="30"/>
       <c r="Y70" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="24" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B71" s="29" t="s">
         <v>70</v>
@@ -7252,13 +7231,13 @@
         <v>1</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G71" s="24"/>
       <c r="H71" s="33"/>
@@ -7279,12 +7258,12 @@
       <c r="W71" s="30"/>
       <c r="X71" s="30"/>
       <c r="Y71" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="24" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B72" s="29" t="s">
         <v>70</v>
@@ -7294,13 +7273,13 @@
         <v>1</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F72" s="30" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G72" s="24"/>
       <c r="H72" s="33"/>
@@ -7321,12 +7300,12 @@
       <c r="W72" s="30"/>
       <c r="X72" s="30"/>
       <c r="Y72" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B73" s="29" t="s">
         <v>70</v>
@@ -7336,13 +7315,13 @@
         <v>1</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G73" s="24"/>
       <c r="H73" s="33"/>
@@ -7363,12 +7342,12 @@
       <c r="W73" s="30"/>
       <c r="X73" s="30"/>
       <c r="Y73" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="24" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B74" s="29" t="s">
         <v>70</v>
@@ -7378,13 +7357,13 @@
         <v>1</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G74" s="24"/>
       <c r="H74" s="33"/>
@@ -7405,12 +7384,12 @@
       <c r="W74" s="30"/>
       <c r="X74" s="30"/>
       <c r="Y74" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="24" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B75" s="29" t="s">
         <v>70</v>
@@ -7420,19 +7399,19 @@
         <v>1</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F75" s="30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G75" s="24" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H75" s="33" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I75" s="29"/>
       <c r="J75" s="29"/>
@@ -7451,12 +7430,12 @@
       <c r="W75" s="30"/>
       <c r="X75" s="30"/>
       <c r="Y75" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="24" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B76" s="29" t="s">
         <v>70</v>
@@ -7466,10 +7445,10 @@
         <v>1</v>
       </c>
       <c r="D76" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F76" s="30"/>
       <c r="G76" s="24"/>
@@ -7491,12 +7470,12 @@
       <c r="W76" s="30"/>
       <c r="X76" s="30"/>
       <c r="Y76" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="24" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B77" s="29" t="s">
         <v>70</v>
@@ -7506,10 +7485,10 @@
         <v>1</v>
       </c>
       <c r="D77" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F77" s="30"/>
       <c r="G77" s="24"/>
@@ -7531,12 +7510,12 @@
       <c r="W77" s="30"/>
       <c r="X77" s="30"/>
       <c r="Y77" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="24" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B78" s="29" t="s">
         <v>70</v>
@@ -7546,24 +7525,24 @@
         <v>1</v>
       </c>
       <c r="D78" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E78" s="30"/>
       <c r="F78" s="30" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G78" s="24" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I78" s="29"/>
       <c r="J78" s="29"/>
       <c r="K78" s="29"/>
       <c r="L78" s="30"/>
       <c r="M78" s="30" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="N78" s="30"/>
       <c r="O78" s="30"/>
@@ -7577,12 +7556,12 @@
       <c r="W78" s="30"/>
       <c r="X78" s="30"/>
       <c r="Y78" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="79" s="2" customFormat="true" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="79" s="2" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="24" t="s">
-        <v>371</v>
+        <v>230</v>
       </c>
       <c r="B79" s="29" t="s">
         <v>70</v>
@@ -7592,7 +7571,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E79" s="30"/>
       <c r="F79" s="30"/>
@@ -7618,12 +7597,12 @@
       <c r="W79" s="30"/>
       <c r="X79" s="30"/>
       <c r="Y79" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="24" t="s">
-        <v>374</v>
+        <v>235</v>
       </c>
       <c r="B80" s="29" t="s">
         <v>70</v>
@@ -7633,17 +7612,17 @@
         <v>1</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E80" s="30"/>
       <c r="F80" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G80" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="G80" s="29" t="s">
+      <c r="H80" s="29" t="s">
         <v>237</v>
-      </c>
-      <c r="H80" s="29" t="s">
-        <v>238</v>
       </c>
       <c r="I80" s="29"/>
       <c r="J80" s="29"/>
@@ -7662,12 +7641,12 @@
       <c r="W80" s="30"/>
       <c r="X80" s="30"/>
       <c r="Y80" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="24" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B81" s="29" t="s">
         <v>70</v>
@@ -7677,23 +7656,23 @@
         <v>1</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E81" s="30"/>
       <c r="F81" s="24" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G81" s="24" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I81" s="24" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="J81" s="24" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="K81" s="29"/>
       <c r="L81" s="30"/>
@@ -7713,12 +7692,12 @@
       <c r="W81" s="30"/>
       <c r="X81" s="30"/>
       <c r="Y81" s="1" t="s">
-        <v>373</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="24" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B82" s="29" t="s">
         <v>70</v>
@@ -7728,23 +7707,23 @@
         <v>1</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E82" s="30"/>
       <c r="F82" s="24" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H82" s="24" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I82" s="24" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="J82" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K82" s="29"/>
       <c r="L82" s="30"/>
@@ -7761,12 +7740,12 @@
       <c r="W82" s="30"/>
       <c r="X82" s="30"/>
       <c r="Y82" s="1" t="s">
-        <v>373</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="24" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B83" s="29" t="s">
         <v>70</v>
@@ -7776,11 +7755,11 @@
         <v>1</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E83" s="30"/>
       <c r="F83" s="24" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G83" s="24"/>
       <c r="H83" s="33"/>
@@ -7801,12 +7780,12 @@
       <c r="W83" s="30"/>
       <c r="X83" s="30"/>
       <c r="Y83" s="1" t="s">
-        <v>373</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="38.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="24" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B84" s="29" t="s">
         <v>70</v>
@@ -7816,19 +7795,19 @@
         <v>1</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G84" s="24" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H84" s="24" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="I84" s="29"/>
       <c r="J84" s="29"/>
@@ -7847,12 +7826,12 @@
       <c r="W84" s="30"/>
       <c r="X84" s="30"/>
       <c r="Y84" s="1" t="s">
-        <v>373</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="24" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B85" s="29" t="s">
         <v>70</v>
@@ -7862,19 +7841,19 @@
         <v>1</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E85" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="G85" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="H85" s="33" t="s">
         <v>383</v>
-      </c>
-      <c r="F85" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="G85" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="H85" s="33" t="s">
-        <v>389</v>
       </c>
       <c r="I85" s="29"/>
       <c r="J85" s="29"/>
@@ -7893,12 +7872,12 @@
       <c r="W85" s="30"/>
       <c r="X85" s="30"/>
       <c r="Y85" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="24" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B86" s="29" t="s">
         <v>70</v>
@@ -7908,13 +7887,13 @@
         <v>1</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G86" s="24"/>
       <c r="H86" s="33"/>
@@ -7935,12 +7914,12 @@
       <c r="W86" s="30"/>
       <c r="X86" s="30"/>
       <c r="Y86" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="24" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B87" s="29" t="s">
         <v>70</v>
@@ -7950,13 +7929,13 @@
         <v>1</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G87" s="24"/>
       <c r="H87" s="33"/>
@@ -7977,12 +7956,12 @@
       <c r="W87" s="30"/>
       <c r="X87" s="30"/>
       <c r="Y87" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="24" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B88" s="29" t="s">
         <v>70</v>
@@ -7992,13 +7971,13 @@
         <v>1</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E88" s="30" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G88" s="24"/>
       <c r="H88" s="33"/>
@@ -8019,12 +7998,12 @@
       <c r="W88" s="30"/>
       <c r="X88" s="30"/>
       <c r="Y88" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="71.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="24" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B89" s="29" t="s">
         <v>70</v>
@@ -8034,25 +8013,25 @@
         <v>1</v>
       </c>
       <c r="D89" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E89" s="30" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G89" s="24" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H89" s="24" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="I89" s="24" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="J89" s="13" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="K89" s="13"/>
       <c r="L89" s="30"/>
@@ -8069,12 +8048,12 @@
       <c r="W89" s="30"/>
       <c r="X89" s="30"/>
       <c r="Y89" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="24" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B90" s="29" t="s">
         <v>31</v>
@@ -8084,26 +8063,26 @@
         <v>1</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E90" s="30" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G90" s="24" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="H90" s="24" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="I90" s="13"/>
       <c r="J90" s="13"/>
       <c r="K90" s="13"/>
       <c r="L90" s="30"/>
       <c r="M90" s="30" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="N90" s="30"/>
       <c r="O90" s="30" t="s">
@@ -8124,7 +8103,7 @@
     </row>
     <row r="91" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="24" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B91" s="29" t="s">
         <v>74</v>
@@ -8134,28 +8113,28 @@
         <v>1</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E91" s="30" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G91" s="24" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="H91" s="24" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="I91" s="13"/>
       <c r="J91" s="13"/>
       <c r="K91" s="8" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="L91" s="30"/>
       <c r="M91" s="30" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="N91" s="30"/>
       <c r="O91" s="30"/>
@@ -8174,7 +8153,7 @@
     </row>
     <row r="92" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="24" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B92" s="29" t="s">
         <v>70</v>
@@ -8184,19 +8163,19 @@
         <v>1</v>
       </c>
       <c r="D92" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E92" s="30" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G92" s="36" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H92" s="24" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="I92" s="13"/>
       <c r="J92" s="13"/>
@@ -8218,12 +8197,12 @@
       <c r="W92" s="30"/>
       <c r="X92" s="30"/>
       <c r="Y92" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="24" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B93" s="29" t="s">
         <v>70</v>
@@ -8233,19 +8212,19 @@
         <v>0</v>
       </c>
       <c r="D93" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E93" s="30" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F93" s="24" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G93" s="24" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H93" s="24" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="I93" s="13"/>
       <c r="J93" s="13"/>
@@ -8267,12 +8246,12 @@
       <c r="W93" s="30"/>
       <c r="X93" s="30"/>
       <c r="Y93" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="24" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B94" s="29" t="s">
         <v>70</v>
@@ -8282,19 +8261,19 @@
         <v>0</v>
       </c>
       <c r="D94" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E94" s="30" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F94" s="24" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G94" s="24" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="H94" s="24" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="I94" s="13"/>
       <c r="J94" s="13"/>
@@ -8316,12 +8295,12 @@
       <c r="W94" s="30"/>
       <c r="X94" s="30"/>
       <c r="Y94" s="1" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="24" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B95" s="29" t="s">
         <v>31</v>
@@ -8331,30 +8310,30 @@
         <v>1</v>
       </c>
       <c r="D95" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E95" s="30" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F95" s="24" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G95" s="24" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="H95" s="24" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I95" s="13"/>
       <c r="J95" s="13"/>
       <c r="K95" s="13"/>
       <c r="L95" s="30"/>
       <c r="M95" s="30" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="N95" s="30"/>
       <c r="O95" s="30" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="P95" s="30"/>
       <c r="Q95" s="30"/>
@@ -8371,7 +8350,7 @@
     </row>
     <row r="96" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="24" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B96" s="29" t="s">
         <v>26</v>
@@ -8381,29 +8360,29 @@
         <v>1</v>
       </c>
       <c r="D96" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E96" s="30" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F96" s="24" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G96" s="24" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="H96" s="24" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="I96" s="13"/>
       <c r="J96" s="13"/>
       <c r="K96" s="13"/>
       <c r="L96" s="30"/>
       <c r="M96" s="30" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="N96" s="30" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="O96" s="30"/>
       <c r="P96" s="30"/>
@@ -8421,7 +8400,7 @@
     </row>
     <row r="97" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="24" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B97" s="29" t="s">
         <v>70</v>
@@ -8431,19 +8410,19 @@
         <v>1</v>
       </c>
       <c r="D97" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E97" s="30" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F97" s="24" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G97" s="24" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H97" s="24" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
@@ -8462,12 +8441,12 @@
       <c r="W97" s="30"/>
       <c r="X97" s="30"/>
       <c r="Y97" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="24" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B98" s="29" t="s">
         <v>70</v>
@@ -8477,10 +8456,10 @@
         <v>1</v>
       </c>
       <c r="D98" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E98" s="30" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F98" s="24"/>
       <c r="G98" s="24"/>
@@ -8502,12 +8481,12 @@
       <c r="W98" s="30"/>
       <c r="X98" s="30"/>
       <c r="Y98" s="1" t="s">
-        <v>373</v>
+        <v>234</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="24" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B99" s="29" t="s">
         <v>70</v>
@@ -8517,19 +8496,19 @@
         <v>1</v>
       </c>
       <c r="D99" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F99" s="24" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G99" s="24" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H99" s="24" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I99" s="13"/>
       <c r="J99" s="13"/>
@@ -8550,7 +8529,7 @@
     </row>
     <row r="100" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="24" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B100" s="29" t="s">
         <v>70</v>
@@ -8560,24 +8539,24 @@
         <v>1</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E100" s="30"/>
       <c r="F100" s="30" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G100" s="24" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H100" s="24" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I100" s="13"/>
       <c r="J100" s="13"/>
       <c r="K100" s="13"/>
       <c r="L100" s="30"/>
       <c r="M100" s="30" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="N100" s="30"/>
       <c r="O100" s="30"/>
@@ -8591,12 +8570,12 @@
       <c r="W100" s="30"/>
       <c r="X100" s="30"/>
       <c r="Y100" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="101" s="2" customFormat="true" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="101" s="2" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="24" t="s">
-        <v>456</v>
+        <v>230</v>
       </c>
       <c r="B101" s="29" t="s">
         <v>70</v>
@@ -8606,7 +8585,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E101" s="30"/>
       <c r="F101" s="30"/>
@@ -8632,12 +8611,12 @@
       <c r="W101" s="30"/>
       <c r="X101" s="30"/>
       <c r="Y101" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="24" t="s">
-        <v>458</v>
+        <v>235</v>
       </c>
       <c r="B102" s="29" t="s">
         <v>70</v>
@@ -8647,17 +8626,17 @@
         <v>1</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E102" s="30"/>
       <c r="F102" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G102" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="G102" s="29" t="s">
+      <c r="H102" s="29" t="s">
         <v>237</v>
-      </c>
-      <c r="H102" s="29" t="s">
-        <v>238</v>
       </c>
       <c r="I102" s="29"/>
       <c r="J102" s="29"/>
@@ -8676,12 +8655,12 @@
       <c r="W102" s="30"/>
       <c r="X102" s="30"/>
       <c r="Y102" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="24" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B103" s="29" t="s">
         <v>70</v>
@@ -8691,17 +8670,17 @@
         <v>1</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E103" s="30"/>
       <c r="F103" s="30" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="G103" s="24" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="H103" s="24" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
@@ -8723,45 +8702,45 @@
       <c r="W103" s="30"/>
       <c r="X103" s="30"/>
       <c r="Y103" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="24" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C104" s="35" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E104" s="30"/>
       <c r="F104" s="24" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="G104" s="24" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="H104" s="24" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="I104" s="13"/>
       <c r="J104" s="13"/>
       <c r="K104" s="13"/>
       <c r="L104" s="30"/>
       <c r="M104" s="30" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="N104" s="30" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="O104" s="30" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="P104" s="30"/>
       <c r="Q104" s="30"/>
@@ -8775,7 +8754,7 @@
     </row>
     <row r="105" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="24" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B105" s="29" t="s">
         <v>70</v>
@@ -8785,31 +8764,31 @@
         <v>1</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E105" s="30"/>
       <c r="F105" s="24" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G105" s="24" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H105" s="24" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="I105" s="24" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="J105" s="24" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="K105" s="13"/>
       <c r="L105" s="30"/>
       <c r="M105" s="30" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="N105" s="30" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="O105" s="30"/>
       <c r="P105" s="30"/>
@@ -8824,12 +8803,12 @@
       <c r="W105" s="30"/>
       <c r="X105" s="30"/>
       <c r="Y105" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="24" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B106" s="29" t="s">
         <v>70</v>
@@ -8839,17 +8818,17 @@
         <v>1</v>
       </c>
       <c r="D106" s="29" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E106" s="30"/>
       <c r="F106" s="30" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G106" s="24" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="H106" s="24" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="I106" s="13"/>
       <c r="J106" s="13"/>
@@ -8871,45 +8850,45 @@
       <c r="W106" s="30"/>
       <c r="X106" s="30"/>
       <c r="Y106" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="24" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C107" s="35" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E107" s="30"/>
       <c r="F107" s="24" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G107" s="24" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="H107" s="24" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="I107" s="13"/>
       <c r="J107" s="13"/>
       <c r="K107" s="13"/>
       <c r="L107" s="30"/>
       <c r="M107" s="30" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="N107" s="30" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="O107" s="30" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="P107" s="30"/>
       <c r="Q107" s="30"/>
@@ -8923,7 +8902,7 @@
     </row>
     <row r="108" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="24" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B108" s="29" t="s">
         <v>70</v>
@@ -8933,31 +8912,31 @@
         <v>1</v>
       </c>
       <c r="D108" s="29" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E108" s="30"/>
       <c r="F108" s="24" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="G108" s="24" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="H108" s="24" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="I108" s="24" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="J108" s="24" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="K108" s="0"/>
       <c r="L108" s="30"/>
       <c r="M108" s="30" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="N108" s="30" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="O108" s="30"/>
       <c r="P108" s="30"/>
@@ -8972,12 +8951,12 @@
       <c r="W108" s="30"/>
       <c r="X108" s="30"/>
       <c r="Y108" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="24" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B109" s="29" t="s">
         <v>101</v>
@@ -8987,17 +8966,17 @@
         <v>1</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E109" s="30"/>
       <c r="F109" s="30" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G109" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="H109" s="29" t="s">
         <v>275</v>
-      </c>
-      <c r="H109" s="29" t="s">
-        <v>276</v>
       </c>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
@@ -9018,7 +8997,7 @@
     </row>
     <row r="110" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="24" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B110" s="29" t="s">
         <v>31</v>
@@ -9028,17 +9007,17 @@
         <v>1</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E110" s="30"/>
       <c r="F110" s="30" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="G110" s="29" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="H110" s="29" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="I110" s="13"/>
       <c r="J110" s="13"/>
@@ -9047,7 +9026,7 @@
       <c r="M110" s="30"/>
       <c r="N110" s="30"/>
       <c r="O110" s="30" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="P110" s="30"/>
       <c r="Q110" s="30"/>
@@ -9061,27 +9040,27 @@
     </row>
     <row r="111" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="24" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C111" s="29" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E111" s="30"/>
       <c r="F111" s="30" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G111" s="29" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="H111" s="29" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="I111" s="13"/>
       <c r="J111" s="13"/>
@@ -9090,7 +9069,7 @@
       <c r="M111" s="30"/>
       <c r="N111" s="30"/>
       <c r="O111" s="37" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="P111" s="30"/>
       <c r="Q111" s="30"/>
@@ -9107,7 +9086,7 @@
     </row>
     <row r="112" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="24" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B112" s="29" t="s">
         <v>31</v>
@@ -9117,17 +9096,17 @@
         <v>1</v>
       </c>
       <c r="D112" s="29" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E112" s="30"/>
       <c r="F112" s="24" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G112" s="38" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="H112" s="38" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="I112" s="13"/>
       <c r="J112" s="13"/>
@@ -9153,7 +9132,7 @@
     </row>
     <row r="113" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="24" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B113" s="29" t="s">
         <v>26</v>
@@ -9163,24 +9142,24 @@
         <v>1</v>
       </c>
       <c r="D113" s="29" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E113" s="30"/>
       <c r="F113" s="24" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="G113" s="38" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="H113" s="38" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="I113" s="13"/>
       <c r="J113" s="13"/>
       <c r="K113" s="13"/>
       <c r="L113" s="30"/>
       <c r="M113" s="30" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="N113" s="8" t="s">
         <v>43</v>
@@ -9201,27 +9180,27 @@
     </row>
     <row r="114" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="24" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C114" s="29" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E114" s="30"/>
       <c r="F114" s="30" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="G114" s="37" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="H114" s="37" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="I114" s="13"/>
       <c r="J114" s="13"/>
@@ -9229,7 +9208,7 @@
       <c r="L114" s="30"/>
       <c r="M114" s="30"/>
       <c r="N114" s="30" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="O114" s="30"/>
       <c r="P114" s="30"/>
@@ -9247,7 +9226,7 @@
     </row>
     <row r="115" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="24" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>36</v>
@@ -9257,17 +9236,17 @@
         <v>1</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E115" s="30"/>
       <c r="F115" s="30" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G115" s="29" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="H115" s="29" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="I115" s="13"/>
       <c r="J115" s="13"/>
@@ -9291,7 +9270,7 @@
     </row>
     <row r="116" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="24" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B116" s="29" t="s">
         <v>101</v>
@@ -9301,17 +9280,17 @@
         <v>1</v>
       </c>
       <c r="D116" s="29" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E116" s="30"/>
       <c r="F116" s="24" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="G116" s="24" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="H116" s="24" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="I116" s="13"/>
       <c r="J116" s="13"/>
@@ -9332,7 +9311,7 @@
     </row>
     <row r="117" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="24" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B117" s="29" t="s">
         <v>74</v>
@@ -9342,29 +9321,29 @@
         <v>1</v>
       </c>
       <c r="D117" s="29" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E117" s="30"/>
       <c r="F117" s="30" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="G117" s="29" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="H117" s="29" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="I117" s="13"/>
       <c r="J117" s="13"/>
       <c r="K117" s="8" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="L117" s="30"/>
       <c r="M117" s="30" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="N117" s="24" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="O117" s="30"/>
       <c r="P117" s="30"/>
@@ -9382,7 +9361,7 @@
     </row>
     <row r="118" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="24" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B118" s="29" t="s">
         <v>74</v>
@@ -9392,29 +9371,29 @@
         <v>1</v>
       </c>
       <c r="D118" s="29" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E118" s="30"/>
       <c r="F118" s="30" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G118" s="29" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="H118" s="29" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="I118" s="13"/>
       <c r="J118" s="13"/>
       <c r="K118" s="8" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="L118" s="30"/>
       <c r="M118" s="30" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="N118" s="24" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="O118" s="30"/>
       <c r="P118" s="30"/>
@@ -9432,27 +9411,27 @@
     </row>
     <row r="119" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="24" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C119" s="29" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E119" s="30"/>
       <c r="F119" s="30" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G119" s="37" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="H119" s="37" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="I119" s="13"/>
       <c r="J119" s="13"/>
@@ -9460,12 +9439,12 @@
       <c r="L119" s="30"/>
       <c r="M119" s="30"/>
       <c r="N119" s="30" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="O119" s="30"/>
       <c r="P119" s="30"/>
       <c r="Q119" s="37" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="R119" s="30"/>
       <c r="S119" s="30"/>
@@ -9480,7 +9459,7 @@
     </row>
     <row r="120" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="24" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B120" s="29" t="s">
         <v>111</v>
@@ -9490,17 +9469,17 @@
         <v>1</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E120" s="30"/>
       <c r="F120" s="30" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="G120" s="37" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="H120" s="37" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="I120" s="13"/>
       <c r="J120" s="13"/>
@@ -9508,7 +9487,7 @@
       <c r="L120" s="30"/>
       <c r="M120" s="30"/>
       <c r="N120" s="30" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="O120" s="30"/>
       <c r="P120" s="30"/>
@@ -9526,27 +9505,27 @@
     </row>
     <row r="121" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="24" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B121" s="29" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C121" s="29" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E121" s="30"/>
       <c r="F121" s="30" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="G121" s="37" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="H121" s="37" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="I121" s="13"/>
       <c r="J121" s="13"/>
@@ -9554,12 +9533,12 @@
       <c r="L121" s="30"/>
       <c r="M121" s="30"/>
       <c r="N121" s="30" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="O121" s="30"/>
       <c r="P121" s="30"/>
       <c r="Q121" s="37" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="R121" s="30"/>
       <c r="S121" s="30"/>
@@ -9574,27 +9553,27 @@
     </row>
     <row r="122" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="24" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C122" s="29" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E122" s="30"/>
       <c r="F122" s="30" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G122" s="37" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="H122" s="37" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="I122" s="13"/>
       <c r="J122" s="13"/>
@@ -9602,12 +9581,12 @@
       <c r="L122" s="30"/>
       <c r="M122" s="30"/>
       <c r="N122" s="30" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="O122" s="30"/>
       <c r="P122" s="30"/>
       <c r="Q122" s="37" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="R122" s="30"/>
       <c r="S122" s="30"/>
@@ -9622,27 +9601,27 @@
     </row>
     <row r="123" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="24" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C123" s="29" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E123" s="30"/>
       <c r="F123" s="30" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="G123" s="37" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="H123" s="37" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="I123" s="13"/>
       <c r="J123" s="13"/>
@@ -9650,12 +9629,12 @@
       <c r="L123" s="30"/>
       <c r="M123" s="30"/>
       <c r="N123" s="30" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="O123" s="30"/>
       <c r="P123" s="30"/>
       <c r="Q123" s="37" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="R123" s="30"/>
       <c r="S123" s="30"/>
@@ -9670,7 +9649,7 @@
     </row>
     <row r="124" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="24" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B124" s="29" t="s">
         <v>31</v>
@@ -9680,17 +9659,17 @@
         <v>1</v>
       </c>
       <c r="D124" s="29" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E124" s="30"/>
       <c r="F124" s="30" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G124" s="37" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="H124" s="37" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="I124" s="13"/>
       <c r="J124" s="13"/>
@@ -9698,7 +9677,7 @@
       <c r="L124" s="30"/>
       <c r="M124" s="30"/>
       <c r="N124" s="30" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="O124" s="30" t="s">
         <v>150</v>
@@ -9718,7 +9697,7 @@
     </row>
     <row r="125" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="24" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B125" s="29" t="s">
         <v>101</v>
@@ -9728,17 +9707,17 @@
         <v>1</v>
       </c>
       <c r="D125" s="29" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E125" s="30"/>
       <c r="F125" s="24" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="G125" s="29" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="H125" s="24" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="I125" s="13"/>
       <c r="J125" s="13"/>
@@ -9759,7 +9738,7 @@
     </row>
     <row r="126" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>36</v>
@@ -9769,16 +9748,16 @@
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="L126" s="39"/>
       <c r="M126" s="40"/>
@@ -9881,7 +9860,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="topLeft" activeCell="A30" activeCellId="1" sqref="A101:A102 A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9896,34 +9875,34 @@
   <sheetData>
     <row r="1" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="42" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="C1" s="42" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E2" s="24" t="n">
         <v>1</v>
@@ -9936,10 +9915,10 @@
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="24" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E3" s="24" t="n">
         <v>2</v>
@@ -9952,13 +9931,13 @@
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="F4" s="24"/>
     </row>
@@ -9967,13 +9946,13 @@
         <v>167</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E5" s="24" t="n">
         <v>1</v>
@@ -9986,10 +9965,10 @@
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E6" s="24" t="n">
         <v>1</v>
@@ -9998,14 +9977,14 @@
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E7" s="24" t="n">
         <v>3</v>
@@ -10014,16 +9993,16 @@
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="E8" s="24" t="n">
         <v>5</v>
@@ -10032,14 +10011,14 @@
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E9" s="24" t="n">
         <v>4</v>
@@ -10048,16 +10027,16 @@
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="E10" s="24" t="n">
         <v>13</v>
@@ -10066,14 +10045,14 @@
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="24" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="E11" s="24" t="n">
         <v>5</v>
@@ -10086,10 +10065,10 @@
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="24" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E12" s="24" t="n">
         <v>5</v>
@@ -10102,10 +10081,10 @@
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="24" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E13" s="24" t="n">
         <v>6</v>
@@ -10114,14 +10093,14 @@
     </row>
     <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="24" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E14" s="24" t="n">
         <v>11</v>
@@ -10134,10 +10113,10 @@
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="24" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E15" s="24" t="n">
         <v>14</v>
@@ -10150,10 +10129,10 @@
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="E16" s="24" t="n">
         <v>15</v>
@@ -10165,29 +10144,29 @@
         <v>138</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F17" s="24"/>
     </row>
     <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E18" s="24" t="n">
         <v>15</v>
@@ -10200,10 +10179,10 @@
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="24" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E19" s="24" t="n">
         <v>16</v>
@@ -10212,14 +10191,14 @@
     </row>
     <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="24" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="E20" s="24" t="n">
         <v>16</v>
@@ -10228,32 +10207,32 @@
     </row>
     <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="24" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E22" s="24" t="n">
         <v>40</v>
@@ -10266,13 +10245,13 @@
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="24" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="F23" s="24"/>
     </row>
@@ -10281,13 +10260,13 @@
         <v>172</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10295,16 +10274,16 @@
         <v>172</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10312,16 +10291,16 @@
         <v>172</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10329,13 +10308,13 @@
         <v>178</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10343,16 +10322,16 @@
         <v>178</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10360,16 +10339,16 @@
         <v>178</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10377,13 +10356,13 @@
         <v>184</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10391,16 +10370,16 @@
         <v>184</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10408,16 +10387,16 @@
         <v>184</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="D32" s="45" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10428,35 +10407,35 @@
         <v>30</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="47" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="47" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>1</v>
@@ -10464,16 +10443,16 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="50" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -10499,7 +10478,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="A101:A102 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10519,25 +10498,25 @@
         <v>3</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F1" s="51" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10545,13 +10524,13 @@
         <v>27</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E2" s="53" t="b">
         <f aca="false">TRUE()</f>
@@ -10571,13 +10550,13 @@
         <v>105</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E3" s="53" t="b">
         <f aca="false">TRUE()</f>
@@ -10594,16 +10573,16 @@
     </row>
     <row r="4" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="E4" s="53" t="b">
         <f aca="false">TRUE()</f>
@@ -10620,16 +10599,16 @@
     </row>
     <row r="5" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="E5" s="53" t="b">
         <f aca="false">FALSE()</f>
@@ -10644,21 +10623,21 @@
         <v>1</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="E6" s="53" t="b">
         <f aca="false">FALSE()</f>
@@ -10673,21 +10652,21 @@
         <v>1</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="E7" s="53" t="b">
         <f aca="false">FALSE()</f>
@@ -10699,21 +10678,21 @@
       </c>
       <c r="G7" s="53"/>
       <c r="H7" s="24" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="34" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="E8" s="53" t="b">
         <f aca="false">FALSE()</f>
@@ -10725,21 +10704,21 @@
       </c>
       <c r="G8" s="53"/>
       <c r="H8" s="24" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="E9" s="53" t="b">
         <f aca="false">FALSE()</f>
@@ -10754,21 +10733,21 @@
         <v>0</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="E10" s="53" t="b">
         <f aca="false">TRUE()</f>
@@ -10785,16 +10764,16 @@
     </row>
     <row r="11" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="E11" s="53" t="b">
         <f aca="false">FALSE()</f>
@@ -10809,7 +10788,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -10831,7 +10810,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
+      <selection pane="topLeft" activeCell="B50" activeCellId="1" sqref="A101:A102 B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10846,10 +10825,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="54" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="C1" s="54" t="s">
         <v>6</v>
@@ -10864,7 +10843,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="54" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="H1" s="54" t="s">
         <v>12</v>
@@ -10872,16 +10851,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -10890,16 +10869,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -10914,10 +10893,10 @@
         <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -10926,16 +10905,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -10944,16 +10923,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -10962,16 +10941,16 @@
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -10988,7 +10967,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -11002,7 +10981,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -11030,7 +11009,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -11044,7 +11023,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -11058,7 +11037,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -11072,7 +11051,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -11081,13 +11060,13 @@
         <v>119</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -11099,13 +11078,13 @@
         <v>119</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -11122,7 +11101,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -11131,13 +11110,13 @@
         <v>128</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -11149,13 +11128,13 @@
         <v>128</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -11172,7 +11151,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="H20" s="1"/>
     </row>
@@ -11181,19 +11160,19 @@
         <v>135</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11201,19 +11180,19 @@
         <v>135</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11221,19 +11200,19 @@
         <v>135</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11241,13 +11220,13 @@
         <v>135</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -11259,19 +11238,19 @@
         <v>135</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11293,13 +11272,13 @@
         <v>141</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -11311,13 +11290,13 @@
         <v>141</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -11329,13 +11308,13 @@
         <v>141</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -11347,13 +11326,13 @@
         <v>141</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -11365,13 +11344,13 @@
         <v>141</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -11383,19 +11362,19 @@
         <v>141</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11403,13 +11382,13 @@
         <v>141</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -11421,13 +11400,13 @@
         <v>141</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -11439,13 +11418,13 @@
         <v>141</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -11457,13 +11436,13 @@
         <v>141</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -11475,13 +11454,13 @@
         <v>141</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -11496,10 +11475,10 @@
         <v>140</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -11511,13 +11490,13 @@
         <v>141</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -11534,7 +11513,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="H40" s="1"/>
     </row>
@@ -11543,13 +11522,13 @@
         <v>162</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -11561,13 +11540,13 @@
         <v>162</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -11584,7 +11563,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="H43" s="1"/>
     </row>
@@ -11593,13 +11572,13 @@
         <v>173</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -11611,13 +11590,13 @@
         <v>173</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -11629,13 +11608,13 @@
         <v>173</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -11647,13 +11626,13 @@
         <v>173</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -11665,13 +11644,13 @@
         <v>173</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -11683,13 +11662,13 @@
         <v>179</v>
       </c>
       <c r="B49" s="50" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="C49" s="50" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="D49" s="50" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11697,13 +11676,13 @@
         <v>179</v>
       </c>
       <c r="B50" s="50" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C50" s="50" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="D50" s="50" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11711,334 +11690,334 @@
         <v>179</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="D51" s="50" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="50" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="C52" s="50" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="D52" s="50" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="50" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="50" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="50" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="50" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="50" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="50" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="50" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="24"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="50" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="50" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="24"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="50" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="50" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="50" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="C64" s="50" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="D64" s="50" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="50" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B65" s="50" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="C65" s="50" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="D65" s="50" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="50" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B66" s="50" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="C66" s="50" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="D66" s="50" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="55" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="C67" s="50" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="D67" s="50" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="55" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B68" s="50" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="C68" s="50" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="D68" s="50" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="55" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B69" s="50" t="s">
         <v>140</v>
       </c>
       <c r="C69" s="50" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="D69" s="50" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="55" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B70" s="50" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="C71" s="56" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="D71" s="50" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="D72" s="56" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="E72" s="56"/>
       <c r="F72" s="56"/>
@@ -12048,62 +12027,62 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B73" s="50" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D73" s="50" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B74" s="50" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="E74" s="24"/>
       <c r="F74" s="24"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B75" s="50" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B76" s="50" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="E76" s="24"/>
       <c r="F76" s="24"/>
@@ -12113,32 +12092,32 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B77" s="50" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E77" s="24"/>
       <c r="F77" s="24"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B78" s="50" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="E78" s="24"/>
       <c r="F78" s="24"/>
@@ -12148,279 +12127,279 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B79" s="50" t="s">
         <v>140</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="D79" s="50" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="30" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B80" s="50" t="s">
         <v>27</v>
       </c>
       <c r="C80" s="50" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="D80" s="50" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="30" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B81" s="50" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="C81" s="50" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="D81" s="50" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="H81" s="50" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="30" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B82" s="50" t="s">
         <v>140</v>
       </c>
       <c r="C82" s="50" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="D82" s="50" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="30" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="H83" s="50" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="30" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B84" s="50" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="30" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B85" s="50" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="30" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B86" s="50" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C86" s="50" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="D86" s="50" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="30" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="30" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="30" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="30" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="30" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="30" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="30" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="30" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="30" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="30" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="30" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="30" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -12445,7 +12424,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="A101:A102 F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12464,63 +12443,63 @@
   <sheetData>
     <row r="1" s="54" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="57" t="s">
+        <v>848</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>849</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>850</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>851</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>852</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>853</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>854</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>855</v>
+      </c>
+      <c r="I1" s="57" t="s">
         <v>856</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="J1" s="57" t="s">
         <v>857</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="K1" s="57" t="s">
         <v>858</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="L1" s="54" t="s">
         <v>859</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>860</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>861</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>862</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>863</v>
-      </c>
-      <c r="I1" s="57" t="s">
-        <v>864</v>
-      </c>
-      <c r="J1" s="57" t="s">
-        <v>865</v>
-      </c>
-      <c r="K1" s="57" t="s">
-        <v>866</v>
-      </c>
-      <c r="L1" s="54" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="37" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="H2" s="37" t="n">
         <v>-10</v>
@@ -12529,36 +12508,36 @@
         <v>100</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="K2" s="37" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="37" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="H3" s="37" t="n">
         <v>-10</v>
@@ -12567,36 +12546,36 @@
         <v>100</v>
       </c>
       <c r="J3" s="37" t="s">
+        <v>866</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>866</v>
+      </c>
+      <c r="L3" s="37" t="s">
         <v>874</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>874</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="37" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="H4" s="37" t="n">
         <v>-10</v>
@@ -12605,36 +12584,36 @@
         <v>100</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="K4" s="37" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="37" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="H5" s="37" t="n">
         <v>-10</v>
@@ -12643,13 +12622,13 @@
         <v>100</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="K5" s="37" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
     </row>
   </sheetData>
@@ -12671,7 +12650,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="1" sqref="A101:A102 C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12703,171 +12682,171 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="E2" s="24"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/survey/references/OD_nationale_quebec_2025.xlsx
+++ b/survey/references/OD_nationale_quebec_2025.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Widgets" sheetId="1" state="visible" r:id="rId3"/>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">Woman</t>
   </si>
   <si>
-    <t xml:space="preserve">yesFullTime</t>
+    <t xml:space="preserve">fullTime</t>
   </si>
   <si>
     <t xml:space="preserve">Oui, à temps plein</t>
@@ -2132,7 +2132,7 @@
     <t xml:space="preserve">Yes, full time</t>
   </si>
   <si>
-    <t xml:space="preserve">yesPartTime</t>
+    <t xml:space="preserve">partTime</t>
   </si>
   <si>
     <t xml:space="preserve">Oui, à temps partiel</t>
@@ -3785,12 +3785,12 @@
   </sheetPr>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D83" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A83" activeCellId="0" sqref="A83"/>
-      <selection pane="bottomRight" activeCell="A101" activeCellId="0" sqref="A101:A102"/>
+      <selection pane="bottomRight" activeCell="H104" activeCellId="0" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8796,6 +8796,7 @@
       <c r="R105" s="30"/>
       <c r="S105" s="30"/>
       <c r="T105" s="13" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="U105" s="30"/>
@@ -8930,7 +8931,7 @@
       <c r="J108" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="K108" s="0"/>
+      <c r="K108" s="2"/>
       <c r="L108" s="30"/>
       <c r="M108" s="30" t="s">
         <v>484</v>
@@ -8944,6 +8945,7 @@
       <c r="R108" s="30"/>
       <c r="S108" s="30"/>
       <c r="T108" s="13" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="U108" s="30"/>
@@ -9860,7 +9862,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="1" sqref="A101:A102 A30"/>
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10478,7 +10480,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="A101:A102 A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10809,8 +10811,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B50" activeCellId="1" sqref="A101:A102 B50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12424,7 +12426,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="A101:A102 F4"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12650,7 +12652,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="1" sqref="A101:A102 C29"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/survey/references/OD_nationale_quebec_2025.xlsx
+++ b/survey/references/OD_nationale_quebec_2025.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="922">
   <si>
     <t xml:space="preserve">questionName</t>
   </si>
@@ -2057,6 +2057,9 @@
     <t xml:space="preserve">spreadChoicesName</t>
   </si>
   <si>
+    <t xml:space="preserve">hidden</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oui</t>
   </si>
   <si>
@@ -2192,6 +2195,9 @@
     <t xml:space="preserve">Employed full-time (30h and more/week)</t>
   </si>
   <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
     <t xml:space="preserve">Travail à temps partiel (moins de 30h/semaine)</t>
   </si>
   <si>
@@ -2243,7 +2249,7 @@
     <t xml:space="preserve">Unemployed / searching for a job</t>
   </si>
   <si>
-    <t xml:space="preserve">sickOrParentalLeave</t>
+    <t xml:space="preserve">parentalOrSickLeave</t>
   </si>
   <si>
     <t xml:space="preserve">Congé de maladie ou congé parental</t>
@@ -3170,7 +3176,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3389,6 +3395,10 @@
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -3786,11 +3796,11 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A83" activeCellId="0" sqref="A83"/>
-      <selection pane="bottomRight" activeCell="H104" activeCellId="0" sqref="H104"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="O26" activeCellId="0" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9861,8 +9871,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10457,6 +10467,8 @@
         <v>599</v>
       </c>
     </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -10809,10 +10821,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="I32" activeCellId="0" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10825,7 +10837,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="50" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="54" t="s">
         <v>637</v>
       </c>
@@ -10849,6 +10861,9 @@
       </c>
       <c r="H1" s="54" t="s">
         <v>12</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10859,10 +10874,10 @@
         <v>574</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -10871,16 +10886,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -10895,10 +10910,10 @@
         <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -10907,16 +10922,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -10925,16 +10940,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -10943,16 +10958,16 @@
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -10983,7 +10998,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -11011,7 +11026,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -11039,7 +11054,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -11053,7 +11068,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -11062,13 +11077,13 @@
         <v>119</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -11080,13 +11095,13 @@
         <v>119</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -11103,7 +11118,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -11112,13 +11127,13 @@
         <v>128</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -11130,13 +11145,13 @@
         <v>128</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -11153,7 +11168,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H20" s="1"/>
     </row>
@@ -11162,13 +11177,13 @@
         <v>135</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -11182,13 +11197,13 @@
         <v>135</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -11202,13 +11217,13 @@
         <v>135</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -11222,13 +11237,13 @@
         <v>135</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -11240,13 +11255,13 @@
         <v>135</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -11277,15 +11292,18 @@
         <v>591</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
+      <c r="I27" s="50" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
@@ -11295,15 +11313,18 @@
         <v>592</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="50" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
@@ -11313,15 +11334,18 @@
         <v>593</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
+      <c r="I29" s="50" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
@@ -11331,15 +11355,18 @@
         <v>594</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
+      <c r="I30" s="50" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
@@ -11349,28 +11376,31 @@
         <v>595</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
+      <c r="I31" s="50" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -11384,13 +11414,13 @@
         <v>141</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -11402,13 +11432,13 @@
         <v>141</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -11419,14 +11449,14 @@
       <c r="A35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>701</v>
+      <c r="B35" s="55" t="s">
+        <v>703</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -11438,13 +11468,13 @@
         <v>141</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -11456,13 +11486,13 @@
         <v>141</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -11477,10 +11507,10 @@
         <v>140</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -11492,13 +11522,13 @@
         <v>141</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -11515,7 +11545,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H40" s="1"/>
     </row>
@@ -11524,13 +11554,13 @@
         <v>162</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -11542,13 +11572,13 @@
         <v>162</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -11565,7 +11595,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H43" s="1"/>
     </row>
@@ -11577,10 +11607,10 @@
         <v>597</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -11595,10 +11625,10 @@
         <v>598</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -11613,10 +11643,10 @@
         <v>599</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -11628,13 +11658,13 @@
         <v>173</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -11646,13 +11676,13 @@
         <v>173</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -11667,10 +11697,10 @@
         <v>597</v>
       </c>
       <c r="C49" s="50" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D49" s="50" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11681,10 +11711,10 @@
         <v>598</v>
       </c>
       <c r="C50" s="50" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D50" s="50" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11692,13 +11722,13 @@
         <v>179</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D51" s="50" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11706,13 +11736,13 @@
         <v>497</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C52" s="50" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D52" s="50" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11720,13 +11750,13 @@
         <v>497</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
@@ -11736,13 +11766,13 @@
         <v>497</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
@@ -11752,13 +11782,13 @@
         <v>497</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
@@ -11768,13 +11798,13 @@
         <v>497</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
@@ -11784,13 +11814,13 @@
         <v>497</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
@@ -11800,13 +11830,13 @@
         <v>497</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
@@ -11816,13 +11846,13 @@
         <v>497</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="24"/>
@@ -11832,13 +11862,13 @@
         <v>497</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
@@ -11848,13 +11878,13 @@
         <v>497</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="24"/>
@@ -11864,13 +11894,13 @@
         <v>497</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
@@ -11880,13 +11910,13 @@
         <v>497</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
@@ -11896,13 +11926,13 @@
         <v>497</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C64" s="50" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D64" s="50" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11910,13 +11940,13 @@
         <v>497</v>
       </c>
       <c r="B65" s="50" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C65" s="50" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D65" s="50" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11924,69 +11954,69 @@
         <v>497</v>
       </c>
       <c r="B66" s="50" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C66" s="50" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D66" s="50" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="55" t="s">
+      <c r="A67" s="56" t="s">
         <v>492</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C67" s="50" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="D67" s="50" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="55" t="s">
+      <c r="A68" s="56" t="s">
         <v>492</v>
       </c>
       <c r="B68" s="50" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C68" s="50" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D68" s="50" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="55" t="s">
+      <c r="A69" s="56" t="s">
         <v>492</v>
       </c>
       <c r="B69" s="50" t="s">
         <v>140</v>
       </c>
       <c r="C69" s="50" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D69" s="50" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="55" t="s">
+      <c r="A70" s="56" t="s">
         <v>492</v>
       </c>
       <c r="B70" s="50" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
@@ -11996,13 +12026,13 @@
         <v>271</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>783</v>
-      </c>
-      <c r="C71" s="56" t="s">
-        <v>784</v>
+        <v>785</v>
+      </c>
+      <c r="C71" s="57" t="s">
+        <v>786</v>
       </c>
       <c r="D71" s="50" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H71" s="24" t="s">
         <v>587</v>
@@ -12013,16 +12043,16 @@
         <v>271</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>787</v>
-      </c>
-      <c r="D72" s="56" t="s">
-        <v>788</v>
-      </c>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
+        <v>789</v>
+      </c>
+      <c r="D72" s="57" t="s">
+        <v>790</v>
+      </c>
+      <c r="E72" s="57"/>
+      <c r="F72" s="57"/>
       <c r="H72" s="2" t="s">
         <v>172</v>
       </c>
@@ -12032,13 +12062,13 @@
         <v>271</v>
       </c>
       <c r="B73" s="50" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="D73" s="50" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12046,13 +12076,13 @@
         <v>271</v>
       </c>
       <c r="B74" s="50" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="E74" s="24"/>
       <c r="F74" s="24"/>
@@ -12062,13 +12092,13 @@
         <v>271</v>
       </c>
       <c r="B75" s="50" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
@@ -12078,13 +12108,13 @@
         <v>271</v>
       </c>
       <c r="B76" s="50" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="E76" s="24"/>
       <c r="F76" s="24"/>
@@ -12097,13 +12127,13 @@
         <v>271</v>
       </c>
       <c r="B77" s="50" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="E77" s="24"/>
       <c r="F77" s="24"/>
@@ -12113,13 +12143,13 @@
         <v>271</v>
       </c>
       <c r="B78" s="50" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E78" s="24"/>
       <c r="F78" s="24"/>
@@ -12135,10 +12165,10 @@
         <v>140</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D79" s="50" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12160,13 +12190,13 @@
         <v>314</v>
       </c>
       <c r="B81" s="50" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C81" s="50" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D81" s="50" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H81" s="50" t="s">
         <v>601</v>
@@ -12180,10 +12210,10 @@
         <v>140</v>
       </c>
       <c r="C82" s="50" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D82" s="50" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12191,19 +12221,19 @@
         <v>314</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="H83" s="50" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12211,19 +12241,19 @@
         <v>431</v>
       </c>
       <c r="B84" s="50" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12231,19 +12261,19 @@
         <v>431</v>
       </c>
       <c r="B85" s="50" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12251,13 +12281,13 @@
         <v>431</v>
       </c>
       <c r="B86" s="50" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C86" s="50" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D86" s="50" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12265,13 +12295,13 @@
         <v>462</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12279,13 +12309,13 @@
         <v>462</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12293,13 +12323,13 @@
         <v>462</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12307,13 +12337,13 @@
         <v>462</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12321,7 +12351,7 @@
         <v>462</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12329,7 +12359,7 @@
         <v>462</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12337,13 +12367,13 @@
         <v>477</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12351,13 +12381,13 @@
         <v>477</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12365,13 +12395,13 @@
         <v>477</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12379,13 +12409,13 @@
         <v>477</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12393,7 +12423,7 @@
         <v>477</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12401,7 +12431,7 @@
         <v>477</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -12444,41 +12474,41 @@
   </cols>
   <sheetData>
     <row r="1" s="54" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="57" t="s">
-        <v>848</v>
-      </c>
-      <c r="B1" s="57" t="s">
-        <v>849</v>
-      </c>
-      <c r="C1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>850</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>851</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>852</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>853</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="E1" s="58" t="s">
         <v>854</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>855</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>856</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>857</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>858</v>
       </c>
+      <c r="J1" s="58" t="s">
+        <v>859</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>860</v>
+      </c>
       <c r="L1" s="54" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12486,22 +12516,22 @@
         <v>533</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="H2" s="37" t="n">
         <v>-10</v>
@@ -12510,13 +12540,13 @@
         <v>100</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="K2" s="37" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12524,22 +12554,22 @@
         <v>542</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>869</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>870</v>
-      </c>
-      <c r="E3" s="58" t="s">
         <v>871</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="D3" s="59" t="s">
         <v>872</v>
       </c>
+      <c r="E3" s="59" t="s">
+        <v>873</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>874</v>
+      </c>
       <c r="G3" s="37" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="H3" s="37" t="n">
         <v>-10</v>
@@ -12548,13 +12578,13 @@
         <v>100</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="K3" s="37" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="L3" s="37" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12562,22 +12592,22 @@
         <v>547</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="H4" s="37" t="n">
         <v>-10</v>
@@ -12586,13 +12616,13 @@
         <v>100</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="K4" s="37" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12600,22 +12630,22 @@
         <v>552</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="H5" s="37" t="n">
         <v>-10</v>
@@ -12624,13 +12654,13 @@
         <v>100</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="K5" s="37" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
   </sheetData>
@@ -12687,13 +12717,13 @@
         <v>368</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="E2" s="24"/>
     </row>
@@ -12702,13 +12732,13 @@
         <v>368</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12716,13 +12746,13 @@
         <v>368</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12730,13 +12760,13 @@
         <v>368</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12744,13 +12774,13 @@
         <v>368</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12758,13 +12788,13 @@
         <v>368</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12772,13 +12802,13 @@
         <v>368</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12786,13 +12816,13 @@
         <v>368</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12800,13 +12830,13 @@
         <v>368</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12814,13 +12844,13 @@
         <v>368</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12828,13 +12858,13 @@
         <v>368</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12842,13 +12872,13 @@
         <v>368</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/survey/references/OD_nationale_quebec_2025.xlsx
+++ b/survey/references/OD_nationale_quebec_2025.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Widgets" sheetId="1" state="visible" r:id="rId3"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="1088">
   <si>
     <t xml:space="preserve">questionName</t>
   </si>
@@ -1162,6 +1162,18 @@
     <t xml:space="preserve">arrivalTime</t>
   </si>
   <si>
+    <t xml:space="preserve">{{nickname}} est arriv{{gender :é/ée/é.e}} {{atPlace}} à:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{nickname}} arrived {{atPlace}} at:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous êtes arriv{{gender :é/ée/é.e}} {{atPlace}} à:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You arrived {{atPlace}} at:</t>
+  </si>
+  <si>
     <t xml:space="preserve">Custom because it’s a time widget, not supported by generator</t>
   </si>
   <si>
@@ -1171,6 +1183,22 @@
     <t xml:space="preserve">nextPlaceCategory</t>
   </si>
   <si>
+    <t xml:space="preserve">Après avoir été {{atPlace}}, {{nickname}} est…
+__Si {{nickname}} a quitté le lieu après 4h du matin le lendemain, merci de considérer pour l'enquête qu'{{gender :il/elle/iel}} y est rest{{gender :é/ée/é.e}} jusqu'au lendemain et de sélectionner la réponse adaptée.__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After being {{atPlace}}, {{nickname}}…
+__If {{nickname}} left this place after 4 AM the following day, please consider for the purposes of the survey that they stayed there until the next day and select the appropriate answer.__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Après avoir été {{atPlace}}, vous êtes…
+__Si {{nickname}} a quitté le lieu après 4h du matin le lendemain, merci de considérer pour l'enquête qu'{{gender :il/elle/iel}} y est rest{{gender :é/ée/é.e}} jusqu'au lendemain et de sélectionner la réponse adaptée.__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After being {{atPlace}}, you…
+__If {{nickname}} left this place after 4 AM the following day, please consider for the purposes of the survey that they stayed there until the next day and select the appropriate answer.__</t>
+  </si>
+  <si>
     <t xml:space="preserve">Custom because of the labels that include the visited place</t>
   </si>
   <si>
@@ -1178,6 +1206,18 @@
   </si>
   <si>
     <t xml:space="preserve">departureTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{nickname}} a quitté {{place}} à:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{nickname}} left {{place}} at:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous avez quitté {{place}} à:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You left {{place}} at:</t>
   </si>
   <si>
     <t xml:space="preserve">buttonSaveVisitedPlace</t>
@@ -2804,6 +2844,24 @@
     <t xml:space="preserve">Very burdensome</t>
   </si>
   <si>
+    <t xml:space="preserve">addGroupedObject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter une personne manquante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add a missing person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deleteThisGroupedObject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supprimer cette personne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete this person</t>
+  </si>
+  <si>
     <t xml:space="preserve">segmentsIntroOnTheRoad</t>
   </si>
   <si>
@@ -2904,6 +2962,450 @@
   </si>
   <si>
     <t xml:space="preserve">Person {{sequence}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PreviousDepartureTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel}} quitté le lieu précédent ({{previousVisitedPlaceDescription}})?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did {{nickname}} leave the previous location ({{previousVisitedPlaceDescription}})?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure avez-vous quitté le lieu précédent ({{previousVisitedPlaceDescription}})?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did you leave the previous location ({{previousVisitedPlaceDescription}})?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PreviousDepartureTime_home_workUsual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel}} quitté le domicile pour aller au travail?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did {{nickname}} leave home before going to work?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure avez-vous quitté le domicile pour aller au travail?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did you leave home before going to work?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PreviousDepartureTime_home_schoolUsual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel}} quitté le domicile pour aller au lieu d'études/école?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did {{nickname}} leave home before going to school?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure avez-vous quitté le domicile pour aller au lieu d'études/école?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did you leave home before going to school?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PreviousDepartureTime_home_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel}} quitté le domicile pour aller à cet endroit ({{visitedPlaceDescription}})?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did {{nickname}} leave home before going to this place ({{visitedPlaceDescription}})?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure avez-vous quitté le domicile pour aller à cet endroit ({{visitedPlaceDescription}})?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did you leave home before going to this place ({{visitedPlaceDescription}})?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PreviousDepartureTime_home_workOnTheRoad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel}} quitté le domicile avant de débuter ses déplacements sur la route?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did {{nickname}} leave home before starting {{gender :his/her/their}} on the road trips?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure avez-vous quitté le domicile avant de débuter vos déplacements sur la route?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did you leave home before starting your on the road trips?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PreviousDepartureTime_usualWorkPlace_workOnTheRoad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel}} quitté son lieu de travail habituel avant de débuter ses déplacements sur la route?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t what time did {{nickname}} leave {{gender :his/her/their}} usual work place before starting {{gender :his/her/their}} on the road trips?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure avez-vous quitté votre lieu de travail habituel avant de débuter vos déplacements sur la route?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did you leave your usual work place before starting your on the road trips?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spécifier :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specify :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActivityCategoryFirstLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activité principale au lieu de départ de la journée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main activity carried out at the starting point of the day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActivityCategoryAfterHome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activité principale au premier lieu visité dans la journée après avoir quitté le domicile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main activity carried out at the first location visited after leaving home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActivityCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activité principale à ce lieu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main activity carried out at this location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VisitedPlaceSequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lieu {{count}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location #{{count}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lieu de départ de la journée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departure place for this day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfirmDeleteVisitedPlace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmez-vous que vous voulez retirer ce lieu?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you confirm that you want to remove this location?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom ou adresse du lieu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name or address of the place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_workUsual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Édifice du Phare, CPE les petits génies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lighthouse building, Les Petits génies CPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_workUsual_onTheRoadOften</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centre de distribution Rivières, Resto St-Hubert Alma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rivière distribution center, Alma St-Hubert BBQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_workNotUsual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palais des congrès de Montréal, Le Co-work du lac Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chateau Frontenac, Co-work on the Long lake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_schoolUsual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">École Marguerite-Bourgeoys, Collège CDI Québec, UQAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marguerite-Bourgeoys school, CDI College Québec, UQAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_schoolNotUsual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bibliothèque à Livre ouvert, École de musique Dorémi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National library, music school Doremi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_shopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centre d’achat Le Carrefour, Provigo St-Félicien, IKEA Boucherville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Carrefour shopping mall, Provigo St-Félicien, IKEA Boucherville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normandin de Lévis, Snack bar chez Raymond, Resto Subway de Rawdon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normandin in Lévis, Snack bar chez Raymond, Subway restaurant in Rawdon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_dropSomeone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gare d’autocar, Aréna des Collines, École des Pionniers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central bus station, des Collines arena, des Pionniers high school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_fetchSomeone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_leisureArtsMusicCulture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinéma des chutes, Théâtre de Verdure, Musée national des petits pots Masson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Des chutes cinema, de Verdure Theatre, Mason Jar National Museum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_leisureSports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nautilus St-Georges, Escalade La Grimpe, Parc de la Rose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nautilus St-Georges, Climbing La Grimpe, de la Rose Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_leisureTourism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camping Ste-Madeleine, Paris France, Hôtel Days Inn St-Flavien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camping Ste-Madeleine, Paris*France, Hotel Days Inn St-Flavien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_leisureStroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parc au bord de l’eau, Petit train du nord, Stroll de la Montagne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waterside park, Petit train du nord, de la Montagne promenade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_visiting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addresse de la personne visitée, Coin des Rossignols et de l’Étang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address of the visited person, corner des Rossignols and de l’Étang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_medical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinique Médicale des Marguerites, Hôpital régional de Rimouski, CLSC des Rivières</t>
+  </si>
+  <si>
+    <t xml:space="preserve">des Marguerites medical clinic, Rimouski regional hospital, des Rivières CLSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coiffure Dans le Vent, Caisse Desjardins de Limoilou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High class Hair saloon, Caisse Desjardins Limoilou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_worship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Église Saint-Nicéphore, Mosquée de la Capitale, Synagogue Maison Chabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint-Nicéphore church, de la Capitale mosque, Congregation Beth Israel Ohev Sholem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_secondaryHome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adresse de la résidence secondaire, nom du chalet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary home address, name of the chalet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_schoolNotStudent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institut Linguistique, École de conduite Tecnic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">language centre, Tecnic driving school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_previousPreviousDepartureTimeHomeToUsualWorkplace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{nickname}} a quitté le domicile pour aller à son lieu habituel de travail à?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{nickname}} left home to go to {{gender :his/her/their}} usual work place?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous avez quitté le domicile pour aller à votre lieu habituel de travail à?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You left home to go to your usual work place at?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_previousArrivalTimeDepartureTypeHome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure {{nickname}} est-{{gender :il/elle/iel}} arriv{{gender :é/ée/é.e}} au domicile avant de débuter ses déplacements sur la route?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did {{nickname}} arrive home before starting {{gender :his/her/their}} on the road trips?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure êtes-vous arriv{{gender :é/ée/é.e}} au domicile avant de débuter vos déplacements sur la route?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did you arrive home before starting your on the road trips?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_previousArrivalTimeDepartureTypeUsualWorkPlace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure {{nickname}} est-{{gender :il/elle/iel}} arriv{{gender :é/ée/é.e}} à son lieu de travail habituel avant de débuter ses déplacements sur la route?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did {{nickname}} arrive at his usual work place before starting {{gender :his/her/their}} on the road trips?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure êtes-vous arriv{{gender :é/ée/é.e}} à votre lieu de travail habituel avant de débuter vos déplacements sur la route?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did you arrive at your usual work place before starting your on the road trips?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_previousArrivalTimeDepartureTypeOther</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure {{nickname}} est-{{gender :il/elle/iel}} arriv{{gender :é/ée/é.e}} au lieu précédent (${visitedPlaceDescription}) avant de débuter ses déplacements sur la route?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did {{nickname}} arrive at the previous location ({{visitedPlaceDescription}}) before starting {{gender :his/her/their}} on the road trips?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure êtes-vous arriv{{gender :é/ée/é.e}} au le lieu précédent ({{visitedPlaceDescription}}) avant de débuter vos déplacements sur la route?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did you arrive at the previous location ({{visitedPlaceDescription}}) before starting your on the road trips?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrivalTimeOnTheRoad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{nickname}} a commencé ses déplacements sur la route à: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{nickname}} started their work trip on the road at:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous avez commencé vos déplacements sur la route à:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You started your work trip on the road at:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrivalTimeStroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{nickname}} a commencé sa promenade à:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{nickname}} started their stroll at:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous avez commencé votre promenade à: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You started your stroll at:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">departureTimeStroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{nickname}} a terminé sa promenade à:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{nickname}} finished their stroll at:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous avez terminé votre promenade à:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You finished your stroll at:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">departureTimeOnTheRoad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{nickname}} a terminé ses déplacements sur la route à:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{nickname}} finished their work on the road at:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous avez terminé vos déplacements sur la route à:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You finished your work on the road at:</t>
   </si>
 </sst>
 </file>
@@ -3176,7 +3678,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3395,10 +3897,6 @@
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -3796,11 +4294,11 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="O26" activeCellId="0" sqref="O26"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
+      <selection pane="bottomRight" activeCell="I70" activeCellId="0" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7291,10 +7789,18 @@
       <c r="F72" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="G72" s="24"/>
-      <c r="H72" s="33"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
+      <c r="G72" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="H72" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="I72" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="J72" s="24" t="s">
+        <v>352</v>
+      </c>
       <c r="K72" s="29"/>
       <c r="L72" s="30"/>
       <c r="M72" s="30"/>
@@ -7310,12 +7816,12 @@
       <c r="W72" s="30"/>
       <c r="X72" s="30"/>
       <c r="Y72" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="24" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B73" s="29" t="s">
         <v>70</v>
@@ -7331,12 +7837,20 @@
         <v>293</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>351</v>
-      </c>
-      <c r="G73" s="24"/>
-      <c r="H73" s="33"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
+        <v>355</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="H73" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="I73" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="J73" s="24" t="s">
+        <v>359</v>
+      </c>
       <c r="K73" s="29"/>
       <c r="L73" s="30"/>
       <c r="M73" s="30"/>
@@ -7352,12 +7866,12 @@
       <c r="W73" s="30"/>
       <c r="X73" s="30"/>
       <c r="Y73" s="1" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="24" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B74" s="29" t="s">
         <v>70</v>
@@ -7373,12 +7887,20 @@
         <v>293</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="G74" s="24"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
+        <v>362</v>
+      </c>
+      <c r="G74" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="H74" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="I74" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="J74" s="24" t="s">
+        <v>366</v>
+      </c>
       <c r="K74" s="29"/>
       <c r="L74" s="30"/>
       <c r="M74" s="30"/>
@@ -7394,12 +7916,12 @@
       <c r="W74" s="30"/>
       <c r="X74" s="30"/>
       <c r="Y74" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="24" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="B75" s="29" t="s">
         <v>70</v>
@@ -7415,13 +7937,13 @@
         <v>293</v>
       </c>
       <c r="F75" s="30" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="G75" s="24" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="H75" s="33" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="I75" s="29"/>
       <c r="J75" s="29"/>
@@ -7440,12 +7962,12 @@
       <c r="W75" s="30"/>
       <c r="X75" s="30"/>
       <c r="Y75" s="1" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="24" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B76" s="29" t="s">
         <v>70</v>
@@ -7480,12 +8002,12 @@
       <c r="W76" s="30"/>
       <c r="X76" s="30"/>
       <c r="Y76" s="1" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="24" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B77" s="29" t="s">
         <v>70</v>
@@ -7520,12 +8042,12 @@
       <c r="W77" s="30"/>
       <c r="X77" s="30"/>
       <c r="Y77" s="1" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="24" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="B78" s="29" t="s">
         <v>70</v>
@@ -7539,20 +8061,20 @@
       </c>
       <c r="E78" s="30"/>
       <c r="F78" s="30" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="G78" s="24" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="I78" s="29"/>
       <c r="J78" s="29"/>
       <c r="K78" s="29"/>
       <c r="L78" s="30"/>
       <c r="M78" s="30" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="N78" s="30"/>
       <c r="O78" s="30"/>
@@ -7566,7 +8088,7 @@
       <c r="W78" s="30"/>
       <c r="X78" s="30"/>
       <c r="Y78" s="1" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7581,7 +8103,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E79" s="30"/>
       <c r="F79" s="30"/>
@@ -7622,7 +8144,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E80" s="30"/>
       <c r="F80" s="30" t="s">
@@ -7656,7 +8178,7 @@
     </row>
     <row r="81" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="24" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="B81" s="29" t="s">
         <v>70</v>
@@ -7666,23 +8188,23 @@
         <v>1</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E81" s="30"/>
       <c r="F81" s="24" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="G81" s="24" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="I81" s="24" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="J81" s="24" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="K81" s="29"/>
       <c r="L81" s="30"/>
@@ -7717,11 +8239,11 @@
         <v>1</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E82" s="30"/>
       <c r="F82" s="24" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="G82" s="24" t="s">
         <v>289</v>
@@ -7730,7 +8252,7 @@
         <v>290</v>
       </c>
       <c r="I82" s="24" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="J82" s="34" t="s">
         <v>291</v>
@@ -7755,7 +8277,7 @@
     </row>
     <row r="83" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="24" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="B83" s="29" t="s">
         <v>70</v>
@@ -7765,11 +8287,11 @@
         <v>1</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E83" s="30"/>
       <c r="F83" s="24" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="G83" s="24"/>
       <c r="H83" s="33"/>
@@ -7795,7 +8317,7 @@
     </row>
     <row r="84" customFormat="false" ht="38.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="24" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="B84" s="29" t="s">
         <v>70</v>
@@ -7805,19 +8327,19 @@
         <v>1</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="G84" s="24" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="H84" s="24" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="I84" s="29"/>
       <c r="J84" s="29"/>
@@ -7841,7 +8363,7 @@
     </row>
     <row r="85" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="24" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B85" s="29" t="s">
         <v>70</v>
@@ -7851,19 +8373,19 @@
         <v>1</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="H85" s="33" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="I85" s="29"/>
       <c r="J85" s="29"/>
@@ -7882,12 +8404,12 @@
       <c r="W85" s="30"/>
       <c r="X85" s="30"/>
       <c r="Y85" s="1" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="24" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="B86" s="29" t="s">
         <v>70</v>
@@ -7897,13 +8419,13 @@
         <v>1</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="G86" s="24"/>
       <c r="H86" s="33"/>
@@ -7924,12 +8446,12 @@
       <c r="W86" s="30"/>
       <c r="X86" s="30"/>
       <c r="Y86" s="1" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="24" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B87" s="29" t="s">
         <v>70</v>
@@ -7939,13 +8461,13 @@
         <v>1</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="G87" s="24"/>
       <c r="H87" s="33"/>
@@ -7966,12 +8488,12 @@
       <c r="W87" s="30"/>
       <c r="X87" s="30"/>
       <c r="Y87" s="1" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="24" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="B88" s="29" t="s">
         <v>70</v>
@@ -7981,13 +8503,13 @@
         <v>1</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E88" s="30" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="G88" s="24"/>
       <c r="H88" s="33"/>
@@ -8008,12 +8530,12 @@
       <c r="W88" s="30"/>
       <c r="X88" s="30"/>
       <c r="Y88" s="1" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="71.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="24" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B89" s="29" t="s">
         <v>70</v>
@@ -8023,25 +8545,25 @@
         <v>1</v>
       </c>
       <c r="D89" s="29" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E89" s="30" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="G89" s="24" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="H89" s="24" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="I89" s="24" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="J89" s="13" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="K89" s="13"/>
       <c r="L89" s="30"/>
@@ -8058,12 +8580,12 @@
       <c r="W89" s="30"/>
       <c r="X89" s="30"/>
       <c r="Y89" s="1" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="24" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B90" s="29" t="s">
         <v>31</v>
@@ -8073,26 +8595,26 @@
         <v>1</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E90" s="30" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="G90" s="24" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="H90" s="24" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="I90" s="13"/>
       <c r="J90" s="13"/>
       <c r="K90" s="13"/>
       <c r="L90" s="30"/>
       <c r="M90" s="30" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="N90" s="30"/>
       <c r="O90" s="30" t="s">
@@ -8113,7 +8635,7 @@
     </row>
     <row r="91" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="24" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B91" s="29" t="s">
         <v>74</v>
@@ -8123,28 +8645,28 @@
         <v>1</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E91" s="30" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="G91" s="24" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="H91" s="24" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="I91" s="13"/>
       <c r="J91" s="13"/>
       <c r="K91" s="8" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="L91" s="30"/>
       <c r="M91" s="30" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="N91" s="30"/>
       <c r="O91" s="30"/>
@@ -8163,7 +8685,7 @@
     </row>
     <row r="92" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="24" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B92" s="29" t="s">
         <v>70</v>
@@ -8173,19 +8695,19 @@
         <v>1</v>
       </c>
       <c r="D92" s="29" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E92" s="30" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="G92" s="36" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="H92" s="24" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="I92" s="13"/>
       <c r="J92" s="13"/>
@@ -8207,12 +8729,12 @@
       <c r="W92" s="30"/>
       <c r="X92" s="30"/>
       <c r="Y92" s="1" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="24" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="B93" s="29" t="s">
         <v>70</v>
@@ -8222,19 +8744,19 @@
         <v>0</v>
       </c>
       <c r="D93" s="29" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E93" s="30" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="F93" s="24" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="G93" s="24" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="H93" s="24" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="I93" s="13"/>
       <c r="J93" s="13"/>
@@ -8256,12 +8778,12 @@
       <c r="W93" s="30"/>
       <c r="X93" s="30"/>
       <c r="Y93" s="1" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="24" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="B94" s="29" t="s">
         <v>70</v>
@@ -8271,19 +8793,19 @@
         <v>0</v>
       </c>
       <c r="D94" s="29" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E94" s="30" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="F94" s="24" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="G94" s="24" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="H94" s="24" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="I94" s="13"/>
       <c r="J94" s="13"/>
@@ -8305,12 +8827,12 @@
       <c r="W94" s="30"/>
       <c r="X94" s="30"/>
       <c r="Y94" s="1" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="24" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="B95" s="29" t="s">
         <v>31</v>
@@ -8320,30 +8842,30 @@
         <v>1</v>
       </c>
       <c r="D95" s="29" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E95" s="30" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="F95" s="24" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="G95" s="24" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="H95" s="24" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="I95" s="13"/>
       <c r="J95" s="13"/>
       <c r="K95" s="13"/>
       <c r="L95" s="30"/>
       <c r="M95" s="30" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="N95" s="30"/>
       <c r="O95" s="30" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="P95" s="30"/>
       <c r="Q95" s="30"/>
@@ -8360,7 +8882,7 @@
     </row>
     <row r="96" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="24" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="B96" s="29" t="s">
         <v>26</v>
@@ -8370,29 +8892,29 @@
         <v>1</v>
       </c>
       <c r="D96" s="29" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E96" s="30" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="F96" s="24" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="G96" s="24" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="H96" s="24" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="I96" s="13"/>
       <c r="J96" s="13"/>
       <c r="K96" s="13"/>
       <c r="L96" s="30"/>
       <c r="M96" s="30" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="N96" s="30" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="O96" s="30"/>
       <c r="P96" s="30"/>
@@ -8410,7 +8932,7 @@
     </row>
     <row r="97" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="24" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="B97" s="29" t="s">
         <v>70</v>
@@ -8420,19 +8942,19 @@
         <v>1</v>
       </c>
       <c r="D97" s="29" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E97" s="30" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="F97" s="24" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="G97" s="24" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="H97" s="24" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
@@ -8451,12 +8973,12 @@
       <c r="W97" s="30"/>
       <c r="X97" s="30"/>
       <c r="Y97" s="1" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="24" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="B98" s="29" t="s">
         <v>70</v>
@@ -8466,10 +8988,10 @@
         <v>1</v>
       </c>
       <c r="D98" s="29" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E98" s="30" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="F98" s="24"/>
       <c r="G98" s="24"/>
@@ -8496,7 +9018,7 @@
     </row>
     <row r="99" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="24" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="B99" s="29" t="s">
         <v>70</v>
@@ -8506,19 +9028,19 @@
         <v>1</v>
       </c>
       <c r="D99" s="29" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F99" s="24" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="G99" s="24" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="H99" s="24" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="I99" s="13"/>
       <c r="J99" s="13"/>
@@ -8539,7 +9061,7 @@
     </row>
     <row r="100" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="24" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="B100" s="29" t="s">
         <v>70</v>
@@ -8549,24 +9071,24 @@
         <v>1</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E100" s="30"/>
       <c r="F100" s="30" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="G100" s="24" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="H100" s="24" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="I100" s="13"/>
       <c r="J100" s="13"/>
       <c r="K100" s="13"/>
       <c r="L100" s="30"/>
       <c r="M100" s="30" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="N100" s="30"/>
       <c r="O100" s="30"/>
@@ -8580,7 +9102,7 @@
       <c r="W100" s="30"/>
       <c r="X100" s="30"/>
       <c r="Y100" s="1" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="101" s="2" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8595,7 +9117,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="E101" s="30"/>
       <c r="F101" s="30"/>
@@ -8636,7 +9158,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="E102" s="30"/>
       <c r="F102" s="30" t="s">
@@ -8670,7 +9192,7 @@
     </row>
     <row r="103" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="24" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="B103" s="29" t="s">
         <v>70</v>
@@ -8680,17 +9202,17 @@
         <v>1</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="E103" s="30"/>
       <c r="F103" s="30" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="G103" s="24" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="H103" s="24" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
@@ -8712,45 +9234,45 @@
       <c r="W103" s="30"/>
       <c r="X103" s="30"/>
       <c r="Y103" s="1" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="24" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="C104" s="35" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="E104" s="30"/>
       <c r="F104" s="24" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="G104" s="24" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="H104" s="24" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="I104" s="13"/>
       <c r="J104" s="13"/>
       <c r="K104" s="13"/>
       <c r="L104" s="30"/>
       <c r="M104" s="30" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="N104" s="30" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="O104" s="30" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="P104" s="30"/>
       <c r="Q104" s="30"/>
@@ -8764,7 +9286,7 @@
     </row>
     <row r="105" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="24" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="B105" s="29" t="s">
         <v>70</v>
@@ -8774,31 +9296,31 @@
         <v>1</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="E105" s="30"/>
       <c r="F105" s="24" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="G105" s="24" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="H105" s="24" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="I105" s="24" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="J105" s="24" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="K105" s="13"/>
       <c r="L105" s="30"/>
       <c r="M105" s="30" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="N105" s="30" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="O105" s="30"/>
       <c r="P105" s="30"/>
@@ -8814,12 +9336,12 @@
       <c r="W105" s="30"/>
       <c r="X105" s="30"/>
       <c r="Y105" s="1" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="24" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="B106" s="29" t="s">
         <v>70</v>
@@ -8829,17 +9351,17 @@
         <v>1</v>
       </c>
       <c r="D106" s="29" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="E106" s="30"/>
       <c r="F106" s="30" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="G106" s="24" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="H106" s="24" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="I106" s="13"/>
       <c r="J106" s="13"/>
@@ -8861,45 +9383,45 @@
       <c r="W106" s="30"/>
       <c r="X106" s="30"/>
       <c r="Y106" s="1" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="24" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="C107" s="35" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="E107" s="30"/>
       <c r="F107" s="24" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="G107" s="24" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="H107" s="24" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="I107" s="13"/>
       <c r="J107" s="13"/>
       <c r="K107" s="13"/>
       <c r="L107" s="30"/>
       <c r="M107" s="30" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="N107" s="30" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="O107" s="30" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="P107" s="30"/>
       <c r="Q107" s="30"/>
@@ -8913,7 +9435,7 @@
     </row>
     <row r="108" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="24" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="B108" s="29" t="s">
         <v>70</v>
@@ -8923,31 +9445,31 @@
         <v>1</v>
       </c>
       <c r="D108" s="29" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="E108" s="30"/>
       <c r="F108" s="24" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="G108" s="24" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="H108" s="24" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="I108" s="24" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="J108" s="24" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="30"/>
       <c r="M108" s="30" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="N108" s="30" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="O108" s="30"/>
       <c r="P108" s="30"/>
@@ -8963,12 +9485,12 @@
       <c r="W108" s="30"/>
       <c r="X108" s="30"/>
       <c r="Y108" s="1" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="24" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="B109" s="29" t="s">
         <v>101</v>
@@ -8978,11 +9500,11 @@
         <v>1</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="E109" s="30"/>
       <c r="F109" s="30" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="G109" s="29" t="s">
         <v>274</v>
@@ -9009,7 +9531,7 @@
     </row>
     <row r="110" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="24" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="B110" s="29" t="s">
         <v>31</v>
@@ -9019,17 +9541,17 @@
         <v>1</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="E110" s="30"/>
       <c r="F110" s="30" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="G110" s="29" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="H110" s="29" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="I110" s="13"/>
       <c r="J110" s="13"/>
@@ -9038,7 +9560,7 @@
       <c r="M110" s="30"/>
       <c r="N110" s="30"/>
       <c r="O110" s="30" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="P110" s="30"/>
       <c r="Q110" s="30"/>
@@ -9052,27 +9574,27 @@
     </row>
     <row r="111" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="24" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="C111" s="29" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="E111" s="30"/>
       <c r="F111" s="30" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="G111" s="29" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="H111" s="29" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="I111" s="13"/>
       <c r="J111" s="13"/>
@@ -9081,7 +9603,7 @@
       <c r="M111" s="30"/>
       <c r="N111" s="30"/>
       <c r="O111" s="37" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="P111" s="30"/>
       <c r="Q111" s="30"/>
@@ -9098,7 +9620,7 @@
     </row>
     <row r="112" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="24" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="B112" s="29" t="s">
         <v>31</v>
@@ -9108,17 +9630,17 @@
         <v>1</v>
       </c>
       <c r="D112" s="29" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="E112" s="30"/>
       <c r="F112" s="24" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="G112" s="38" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="H112" s="38" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="I112" s="13"/>
       <c r="J112" s="13"/>
@@ -9144,7 +9666,7 @@
     </row>
     <row r="113" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="24" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="B113" s="29" t="s">
         <v>26</v>
@@ -9154,24 +9676,24 @@
         <v>1</v>
       </c>
       <c r="D113" s="29" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="E113" s="30"/>
       <c r="F113" s="24" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="G113" s="38" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="H113" s="38" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="I113" s="13"/>
       <c r="J113" s="13"/>
       <c r="K113" s="13"/>
       <c r="L113" s="30"/>
       <c r="M113" s="30" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="N113" s="8" t="s">
         <v>43</v>
@@ -9192,27 +9714,27 @@
     </row>
     <row r="114" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="24" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="C114" s="29" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="E114" s="30"/>
       <c r="F114" s="30" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="G114" s="37" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="H114" s="37" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="I114" s="13"/>
       <c r="J114" s="13"/>
@@ -9220,7 +9742,7 @@
       <c r="L114" s="30"/>
       <c r="M114" s="30"/>
       <c r="N114" s="30" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="O114" s="30"/>
       <c r="P114" s="30"/>
@@ -9238,7 +9760,7 @@
     </row>
     <row r="115" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="24" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>36</v>
@@ -9248,17 +9770,17 @@
         <v>1</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="E115" s="30"/>
       <c r="F115" s="30" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="G115" s="29" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="H115" s="29" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="I115" s="13"/>
       <c r="J115" s="13"/>
@@ -9282,7 +9804,7 @@
     </row>
     <row r="116" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="24" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="B116" s="29" t="s">
         <v>101</v>
@@ -9292,17 +9814,17 @@
         <v>1</v>
       </c>
       <c r="D116" s="29" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="E116" s="30"/>
       <c r="F116" s="24" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="G116" s="24" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="H116" s="24" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="I116" s="13"/>
       <c r="J116" s="13"/>
@@ -9323,7 +9845,7 @@
     </row>
     <row r="117" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="24" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="B117" s="29" t="s">
         <v>74</v>
@@ -9333,29 +9855,29 @@
         <v>1</v>
       </c>
       <c r="D117" s="29" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="E117" s="30"/>
       <c r="F117" s="30" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="G117" s="29" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="H117" s="29" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="I117" s="13"/>
       <c r="J117" s="13"/>
       <c r="K117" s="8" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="L117" s="30"/>
       <c r="M117" s="30" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="N117" s="24" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="O117" s="30"/>
       <c r="P117" s="30"/>
@@ -9373,7 +9895,7 @@
     </row>
     <row r="118" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="24" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="B118" s="29" t="s">
         <v>74</v>
@@ -9383,29 +9905,29 @@
         <v>1</v>
       </c>
       <c r="D118" s="29" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="E118" s="30"/>
       <c r="F118" s="30" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="G118" s="29" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="H118" s="29" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="I118" s="13"/>
       <c r="J118" s="13"/>
       <c r="K118" s="8" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="L118" s="30"/>
       <c r="M118" s="30" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="N118" s="24" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="O118" s="30"/>
       <c r="P118" s="30"/>
@@ -9423,27 +9945,27 @@
     </row>
     <row r="119" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="24" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="C119" s="29" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="E119" s="30"/>
       <c r="F119" s="30" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="G119" s="37" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="H119" s="37" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="I119" s="13"/>
       <c r="J119" s="13"/>
@@ -9451,12 +9973,12 @@
       <c r="L119" s="30"/>
       <c r="M119" s="30"/>
       <c r="N119" s="30" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="O119" s="30"/>
       <c r="P119" s="30"/>
       <c r="Q119" s="37" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="R119" s="30"/>
       <c r="S119" s="30"/>
@@ -9471,7 +9993,7 @@
     </row>
     <row r="120" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="24" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="B120" s="29" t="s">
         <v>111</v>
@@ -9481,17 +10003,17 @@
         <v>1</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="E120" s="30"/>
       <c r="F120" s="30" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="G120" s="37" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="H120" s="37" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="I120" s="13"/>
       <c r="J120" s="13"/>
@@ -9499,7 +10021,7 @@
       <c r="L120" s="30"/>
       <c r="M120" s="30"/>
       <c r="N120" s="30" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="O120" s="30"/>
       <c r="P120" s="30"/>
@@ -9517,27 +10039,27 @@
     </row>
     <row r="121" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="24" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="B121" s="29" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="C121" s="29" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="E121" s="30"/>
       <c r="F121" s="30" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="G121" s="37" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="H121" s="37" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="I121" s="13"/>
       <c r="J121" s="13"/>
@@ -9545,12 +10067,12 @@
       <c r="L121" s="30"/>
       <c r="M121" s="30"/>
       <c r="N121" s="30" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="O121" s="30"/>
       <c r="P121" s="30"/>
       <c r="Q121" s="37" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="R121" s="30"/>
       <c r="S121" s="30"/>
@@ -9565,27 +10087,27 @@
     </row>
     <row r="122" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="24" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="C122" s="29" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="E122" s="30"/>
       <c r="F122" s="30" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G122" s="37" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="H122" s="37" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="I122" s="13"/>
       <c r="J122" s="13"/>
@@ -9593,12 +10115,12 @@
       <c r="L122" s="30"/>
       <c r="M122" s="30"/>
       <c r="N122" s="30" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="O122" s="30"/>
       <c r="P122" s="30"/>
       <c r="Q122" s="37" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="R122" s="30"/>
       <c r="S122" s="30"/>
@@ -9613,27 +10135,27 @@
     </row>
     <row r="123" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="24" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="C123" s="29" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="E123" s="30"/>
       <c r="F123" s="30" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="G123" s="37" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="H123" s="37" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="I123" s="13"/>
       <c r="J123" s="13"/>
@@ -9641,12 +10163,12 @@
       <c r="L123" s="30"/>
       <c r="M123" s="30"/>
       <c r="N123" s="30" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="O123" s="30"/>
       <c r="P123" s="30"/>
       <c r="Q123" s="37" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="R123" s="30"/>
       <c r="S123" s="30"/>
@@ -9661,7 +10183,7 @@
     </row>
     <row r="124" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="24" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="B124" s="29" t="s">
         <v>31</v>
@@ -9671,17 +10193,17 @@
         <v>1</v>
       </c>
       <c r="D124" s="29" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="E124" s="30"/>
       <c r="F124" s="30" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="G124" s="37" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="H124" s="37" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="I124" s="13"/>
       <c r="J124" s="13"/>
@@ -9689,7 +10211,7 @@
       <c r="L124" s="30"/>
       <c r="M124" s="30"/>
       <c r="N124" s="30" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="O124" s="30" t="s">
         <v>150</v>
@@ -9709,7 +10231,7 @@
     </row>
     <row r="125" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="24" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="B125" s="29" t="s">
         <v>101</v>
@@ -9719,17 +10241,17 @@
         <v>1</v>
       </c>
       <c r="D125" s="29" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="E125" s="30"/>
       <c r="F125" s="24" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="G125" s="29" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="H125" s="24" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="I125" s="13"/>
       <c r="J125" s="13"/>
@@ -9750,7 +10272,7 @@
     </row>
     <row r="126" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>36</v>
@@ -9760,16 +10282,16 @@
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="L126" s="39"/>
       <c r="M126" s="40"/>
@@ -9887,34 +10409,34 @@
   <sheetData>
     <row r="1" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="42" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="C1" s="42" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E2" s="24" t="n">
         <v>1</v>
@@ -9927,10 +10449,10 @@
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="24" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="E3" s="24" t="n">
         <v>2</v>
@@ -9943,13 +10465,13 @@
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="F4" s="24"/>
     </row>
@@ -9958,13 +10480,13 @@
         <v>167</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E5" s="24" t="n">
         <v>1</v>
@@ -9977,10 +10499,10 @@
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="E6" s="24" t="n">
         <v>1</v>
@@ -9989,14 +10511,14 @@
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="E7" s="24" t="n">
         <v>3</v>
@@ -10005,16 +10527,16 @@
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="E8" s="24" t="n">
         <v>5</v>
@@ -10023,14 +10545,14 @@
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="E9" s="24" t="n">
         <v>4</v>
@@ -10039,16 +10561,16 @@
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="E10" s="24" t="n">
         <v>13</v>
@@ -10057,14 +10579,14 @@
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="24" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="E11" s="24" t="n">
         <v>5</v>
@@ -10077,10 +10599,10 @@
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="24" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="E12" s="24" t="n">
         <v>5</v>
@@ -10093,10 +10615,10 @@
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="24" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="E13" s="24" t="n">
         <v>6</v>
@@ -10105,14 +10627,14 @@
     </row>
     <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="24" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="E14" s="24" t="n">
         <v>11</v>
@@ -10125,10 +10647,10 @@
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="24" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="E15" s="24" t="n">
         <v>14</v>
@@ -10141,10 +10663,10 @@
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="E16" s="24" t="n">
         <v>15</v>
@@ -10156,29 +10678,29 @@
         <v>138</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="F17" s="24"/>
     </row>
     <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="E18" s="24" t="n">
         <v>15</v>
@@ -10191,10 +10713,10 @@
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="24" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="E19" s="24" t="n">
         <v>16</v>
@@ -10203,14 +10725,14 @@
     </row>
     <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="24" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="E20" s="24" t="n">
         <v>16</v>
@@ -10219,32 +10741,32 @@
     </row>
     <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="F21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="24" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="E22" s="24" t="n">
         <v>40</v>
@@ -10257,13 +10779,13 @@
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="24" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="F23" s="24"/>
     </row>
@@ -10272,13 +10794,13 @@
         <v>172</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10286,16 +10808,16 @@
         <v>172</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10303,16 +10825,16 @@
         <v>172</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10320,13 +10842,13 @@
         <v>178</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10334,16 +10856,16 @@
         <v>178</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10351,16 +10873,16 @@
         <v>178</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10368,13 +10890,13 @@
         <v>184</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10382,16 +10904,16 @@
         <v>184</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10399,16 +10921,16 @@
         <v>184</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="D32" s="45" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10419,35 +10941,35 @@
         <v>30</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="47" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="47" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>1</v>
@@ -10455,16 +10977,16 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="50" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -10512,25 +11034,25 @@
         <v>3</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="F1" s="51" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10538,13 +11060,13 @@
         <v>27</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="E2" s="53" t="b">
         <f aca="false">TRUE()</f>
@@ -10564,13 +11086,13 @@
         <v>105</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="E3" s="53" t="b">
         <f aca="false">TRUE()</f>
@@ -10587,16 +11109,16 @@
     </row>
     <row r="4" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="E4" s="53" t="b">
         <f aca="false">TRUE()</f>
@@ -10616,13 +11138,13 @@
         <v>219</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="E5" s="53" t="b">
         <f aca="false">FALSE()</f>
@@ -10637,7 +11159,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10645,13 +11167,13 @@
         <v>231</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="E6" s="53" t="b">
         <f aca="false">FALSE()</f>
@@ -10666,7 +11188,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10674,13 +11196,13 @@
         <v>279</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="E7" s="53" t="b">
         <f aca="false">FALSE()</f>
@@ -10692,21 +11214,21 @@
       </c>
       <c r="G7" s="53"/>
       <c r="H7" s="24" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="34" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="E8" s="53" t="b">
         <f aca="false">FALSE()</f>
@@ -10718,21 +11240,21 @@
       </c>
       <c r="G8" s="53"/>
       <c r="H8" s="24" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="E9" s="53" t="b">
         <f aca="false">FALSE()</f>
@@ -10747,21 +11269,21 @@
         <v>0</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="E10" s="53" t="b">
         <f aca="false">TRUE()</f>
@@ -10778,16 +11300,16 @@
     </row>
     <row r="11" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="E11" s="53" t="b">
         <f aca="false">FALSE()</f>
@@ -10802,7 +11324,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -10823,7 +11345,7 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I32" activeCellId="0" sqref="I32"/>
     </sheetView>
   </sheetViews>
@@ -10839,10 +11361,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="54" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="C1" s="54" t="s">
         <v>6</v>
@@ -10857,27 +11379,27 @@
         <v>9</v>
       </c>
       <c r="G1" s="54" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="H1" s="54" t="s">
         <v>12</v>
       </c>
       <c r="I1" s="50" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -10886,16 +11408,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -10910,10 +11432,10 @@
         <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -10922,16 +11444,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -10940,16 +11462,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -10958,16 +11480,16 @@
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -10984,7 +11506,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -10998,7 +11520,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -11026,7 +11548,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -11040,7 +11562,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -11054,7 +11576,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -11068,7 +11590,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -11077,13 +11599,13 @@
         <v>119</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -11095,13 +11617,13 @@
         <v>119</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -11118,7 +11640,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -11127,13 +11649,13 @@
         <v>128</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -11145,13 +11667,13 @@
         <v>128</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -11168,7 +11690,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="H20" s="1"/>
     </row>
@@ -11177,19 +11699,19 @@
         <v>135</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11197,19 +11719,19 @@
         <v>135</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11217,19 +11739,19 @@
         <v>135</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11237,13 +11759,13 @@
         <v>135</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -11255,19 +11777,19 @@
         <v>135</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11289,20 +11811,20 @@
         <v>141</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="50" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11310,20 +11832,20 @@
         <v>141</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="50" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11331,20 +11853,20 @@
         <v>141</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="50" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11352,20 +11874,20 @@
         <v>141</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="50" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11373,20 +11895,20 @@
         <v>141</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="50" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11394,19 +11916,19 @@
         <v>141</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11414,13 +11936,13 @@
         <v>141</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -11432,13 +11954,13 @@
         <v>141</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -11449,14 +11971,14 @@
       <c r="A35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="55" t="s">
-        <v>703</v>
+      <c r="B35" s="24" t="s">
+        <v>715</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -11468,13 +11990,13 @@
         <v>141</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -11486,13 +12008,13 @@
         <v>141</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -11507,10 +12029,10 @@
         <v>140</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -11522,13 +12044,13 @@
         <v>141</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -11545,7 +12067,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="H40" s="1"/>
     </row>
@@ -11554,13 +12076,13 @@
         <v>162</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -11572,13 +12094,13 @@
         <v>162</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -11595,7 +12117,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="H43" s="1"/>
     </row>
@@ -11604,13 +12126,13 @@
         <v>173</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -11622,13 +12144,13 @@
         <v>173</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -11640,13 +12162,13 @@
         <v>173</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -11658,13 +12180,13 @@
         <v>173</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -11676,13 +12198,13 @@
         <v>173</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -11694,13 +12216,13 @@
         <v>179</v>
       </c>
       <c r="B49" s="50" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="C49" s="50" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="D49" s="50" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11708,13 +12230,13 @@
         <v>179</v>
       </c>
       <c r="B50" s="50" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="C50" s="50" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="D50" s="50" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11722,301 +12244,301 @@
         <v>179</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="D51" s="50" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="50" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="C52" s="50" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="D52" s="50" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="50" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="50" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="50" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="50" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="50" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="50" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="50" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="24"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="50" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="50" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="24"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="50" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="50" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="50" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="C64" s="50" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="D64" s="50" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="50" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B65" s="50" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="C65" s="50" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="D65" s="50" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="50" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B66" s="50" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="C66" s="50" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="D66" s="50" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="56" t="s">
-        <v>492</v>
+      <c r="A67" s="55" t="s">
+        <v>504</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="C67" s="50" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="D67" s="50" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="56" t="s">
-        <v>492</v>
+      <c r="A68" s="55" t="s">
+        <v>504</v>
       </c>
       <c r="B68" s="50" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C68" s="50" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="D68" s="50" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="56" t="s">
-        <v>492</v>
+      <c r="A69" s="55" t="s">
+        <v>504</v>
       </c>
       <c r="B69" s="50" t="s">
         <v>140</v>
       </c>
       <c r="C69" s="50" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="D69" s="50" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="56" t="s">
-        <v>492</v>
+      <c r="A70" s="55" t="s">
+        <v>504</v>
       </c>
       <c r="B70" s="50" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
@@ -12026,16 +12548,16 @@
         <v>271</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>785</v>
-      </c>
-      <c r="C71" s="57" t="s">
-        <v>786</v>
+        <v>797</v>
+      </c>
+      <c r="C71" s="56" t="s">
+        <v>798</v>
       </c>
       <c r="D71" s="50" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12043,16 +12565,16 @@
         <v>271</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>789</v>
-      </c>
-      <c r="D72" s="57" t="s">
-        <v>790</v>
-      </c>
-      <c r="E72" s="57"/>
-      <c r="F72" s="57"/>
+        <v>801</v>
+      </c>
+      <c r="D72" s="56" t="s">
+        <v>802</v>
+      </c>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
       <c r="H72" s="2" t="s">
         <v>172</v>
       </c>
@@ -12062,13 +12584,13 @@
         <v>271</v>
       </c>
       <c r="B73" s="50" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="D73" s="50" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12076,13 +12598,13 @@
         <v>271</v>
       </c>
       <c r="B74" s="50" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="E74" s="24"/>
       <c r="F74" s="24"/>
@@ -12092,13 +12614,13 @@
         <v>271</v>
       </c>
       <c r="B75" s="50" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
@@ -12108,13 +12630,13 @@
         <v>271</v>
       </c>
       <c r="B76" s="50" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="E76" s="24"/>
       <c r="F76" s="24"/>
@@ -12127,13 +12649,13 @@
         <v>271</v>
       </c>
       <c r="B77" s="50" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="E77" s="24"/>
       <c r="F77" s="24"/>
@@ -12143,13 +12665,13 @@
         <v>271</v>
       </c>
       <c r="B78" s="50" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="E78" s="24"/>
       <c r="F78" s="24"/>
@@ -12165,10 +12687,10 @@
         <v>140</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="D79" s="50" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12179,10 +12701,10 @@
         <v>27</v>
       </c>
       <c r="C80" s="50" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="D80" s="50" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12190,16 +12712,16 @@
         <v>314</v>
       </c>
       <c r="B81" s="50" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="C81" s="50" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="D81" s="50" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="H81" s="50" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12210,10 +12732,10 @@
         <v>140</v>
       </c>
       <c r="C82" s="50" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
       <c r="D82" s="50" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12221,217 +12743,217 @@
         <v>314</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
       <c r="H83" s="50" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="30" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="B84" s="50" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="30" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="B85" s="50" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="30" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="B86" s="50" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="C86" s="50" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="D86" s="50" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="30" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="30" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="30" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="30" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="30" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="30" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="30" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="30" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="30" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="30" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="30" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="30" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -12474,64 +12996,64 @@
   </cols>
   <sheetData>
     <row r="1" s="54" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="58" t="s">
-        <v>850</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>851</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>852</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>853</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>854</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>855</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>856</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>857</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>858</v>
-      </c>
-      <c r="J1" s="58" t="s">
-        <v>859</v>
-      </c>
-      <c r="K1" s="58" t="s">
-        <v>860</v>
+      <c r="A1" s="57" t="s">
+        <v>862</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>863</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>866</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>869</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>870</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="K1" s="57" t="s">
+        <v>872</v>
       </c>
       <c r="L1" s="54" t="s">
-        <v>861</v>
+        <v>873</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="37" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>865</v>
+        <v>877</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="H2" s="37" t="n">
         <v>-10</v>
@@ -12540,36 +13062,36 @@
         <v>100</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="K2" s="37" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="37" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>871</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>872</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>873</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>874</v>
+        <v>883</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>884</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>885</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>886</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="H3" s="37" t="n">
         <v>-10</v>
@@ -12578,36 +13100,36 @@
         <v>100</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="K3" s="37" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="L3" s="37" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="37" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>881</v>
+        <v>893</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="H4" s="37" t="n">
         <v>-10</v>
@@ -12616,36 +13138,36 @@
         <v>100</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="K4" s="37" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="37" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="D5" s="37" t="s">
+        <v>897</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>885</v>
       </c>
-      <c r="E5" s="37" t="s">
-        <v>873</v>
-      </c>
       <c r="F5" s="37" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="H5" s="37" t="n">
         <v>-10</v>
@@ -12654,13 +13176,13 @@
         <v>100</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="K5" s="37" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
     </row>
   </sheetData>
@@ -12681,12 +13203,13 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="16.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.43"/>
@@ -12712,175 +13235,858 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>888</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>889</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>890</v>
-      </c>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>891</v>
+        <v>105</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>903</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>893</v>
-      </c>
+        <v>905</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>894</v>
+        <v>380</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>906</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>895</v>
+        <v>907</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>896</v>
-      </c>
+        <v>908</v>
+      </c>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>897</v>
+        <v>380</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>909</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>898</v>
+        <v>910</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>900</v>
+        <v>912</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>902</v>
+        <v>914</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>911</v>
+        <v>923</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>912</v>
+        <v>924</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>913</v>
+        <v>925</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>914</v>
+        <v>926</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>915</v>
+        <v>927</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>916</v>
+        <v>928</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>651</v>
+        <v>931</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>652</v>
+        <v>932</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>919</v>
+        <v>933</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>920</v>
+        <v>934</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>921</v>
-      </c>
-    </row>
+        <v>935</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>663</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>938</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>940</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>941</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>942</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>943</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>945</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>946</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>947</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>948</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>950</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>951</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>953</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>955</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>956</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>957</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>958</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>960</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>961</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>962</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>963</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>965</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>966</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>967</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>968</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>970</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>973</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>976</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>977</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>979</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>980</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>982</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>983</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>984</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>985</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>987</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>988</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>990</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>991</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>993</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>994</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>996</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>997</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>999</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/survey/references/OD_nationale_quebec_2025.xlsx
+++ b/survey/references/OD_nationale_quebec_2025.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Widgets" sheetId="1" state="visible" r:id="rId3"/>
@@ -1039,7 +1039,7 @@
     <t xml:space="preserve">À quel endroit {{nickname}} a-t-{{gender :il/elle/iel}} terminé ses déplacements sur la route?</t>
   </si>
   <si>
-    <t xml:space="preserve">Where did {{nickname}} end {{gender:his:her:their}} work trip on the road?</t>
+    <t xml:space="preserve">Where did {{nickname}} end {{gender:his/her/their}} work trip on the road?</t>
   </si>
   <si>
     <t xml:space="preserve">À quel endroit avez-vous terminé vos déplacements sur la route?</t>
@@ -4293,12 +4293,12 @@
   </sheetPr>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F59" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
-      <selection pane="bottomRight" activeCell="I70" activeCellId="0" sqref="I70"/>
+      <selection pane="bottomRight" activeCell="H66" activeCellId="0" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13203,8 +13203,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/survey/references/OD_nationale_quebec_2025.xlsx
+++ b/survey/references/OD_nationale_quebec_2025.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="1091">
   <si>
     <t xml:space="preserve">questionName</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t xml:space="preserve">**Postal Code**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formatter=canadianPostalCodeFormatter</t>
   </si>
   <si>
     <t xml:space="preserve">postalCodeValidation</t>
@@ -4310,11 +4313,11 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M3" activeCellId="0" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4903,11 +4906,13 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="K11" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
@@ -4925,10 +4930,10 @@
     </row>
     <row r="12" customFormat="false" ht="117.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" s="8" t="b">
         <f aca="false">TRUE()</f>
@@ -4943,10 +4948,10 @@
         <v>home.geography</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -4970,10 +4975,10 @@
     </row>
     <row r="13" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" s="8" t="b">
         <f aca="false">TRUE()</f>
@@ -4988,24 +4993,24 @@
         <v>household.size</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O13" s="8"/>
       <c r="P13" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
@@ -5021,10 +5026,10 @@
     </row>
     <row r="14" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" s="8" t="b">
         <f aca="false">TRUE()</f>
@@ -5039,24 +5044,24 @@
         <v>household.carNumber</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O14" s="8"/>
       <c r="P14" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
@@ -5072,10 +5077,10 @@
     </row>
     <row r="15" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" s="8" t="b">
         <f aca="false">TRUE()</f>
@@ -5090,20 +5095,20 @@
         <v>household.bicycleNumber</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
@@ -5121,10 +5126,10 @@
     </row>
     <row r="16" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" s="8" t="b">
         <f aca="false">TRUE()</f>
@@ -5139,22 +5144,22 @@
         <v>household.electricBicycleNumber</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -5172,7 +5177,7 @@
     </row>
     <row r="17" s="12" customFormat="true" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>33</v>
@@ -5190,21 +5195,21 @@
         <v>household.atLeastOnePersonWithDisability</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
@@ -5247,10 +5252,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C18" s="13" t="b">
         <f aca="false">TRUE()</f>
@@ -5265,10 +5270,10 @@
         <v>home.save</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -5292,17 +5297,17 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" s="16" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
@@ -5330,7 +5335,7 @@
     </row>
     <row r="20" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>26</v>
@@ -5340,26 +5345,26 @@
         <v>1</v>
       </c>
       <c r="D20" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="F20" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="20"/>
       <c r="M20" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N20" s="21"/>
       <c r="O20" s="20"/>
@@ -5378,41 +5383,41 @@
     </row>
     <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C21" s="18" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D21" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="F21" s="20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K21" s="18"/>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
       <c r="N21" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O21" s="20"/>
       <c r="P21" s="20"/>
@@ -5430,7 +5435,7 @@
     </row>
     <row r="22" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>33</v>
@@ -5440,30 +5445,30 @@
         <v>1</v>
       </c>
       <c r="D22" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="F22" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
       <c r="L22" s="20"/>
       <c r="M22" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N22" s="20"/>
       <c r="O22" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P22" s="20"/>
       <c r="Q22" s="20"/>
@@ -5480,7 +5485,7 @@
     </row>
     <row r="23" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>33</v>
@@ -5490,30 +5495,30 @@
         <v>1</v>
       </c>
       <c r="D23" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="F23" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
       <c r="L23" s="20"/>
       <c r="M23" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N23" s="20"/>
       <c r="O23" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P23" s="20"/>
       <c r="Q23" s="20"/>
@@ -5530,7 +5535,7 @@
     </row>
     <row r="24" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>33</v>
@@ -5540,30 +5545,30 @@
         <v>1</v>
       </c>
       <c r="D24" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="F24" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
       <c r="L24" s="20"/>
       <c r="M24" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N24" s="20"/>
       <c r="O24" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P24" s="21"/>
       <c r="Q24" s="20"/>
@@ -5580,7 +5585,7 @@
     </row>
     <row r="25" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>33</v>
@@ -5590,30 +5595,30 @@
         <v>1</v>
       </c>
       <c r="D25" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="F25" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="20"/>
       <c r="M25" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N25" s="20"/>
       <c r="O25" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P25" s="20"/>
       <c r="Q25" s="20"/>
@@ -5624,17 +5629,17 @@
         <v>1</v>
       </c>
       <c r="U25" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="V25" s="20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="W25" s="20"/>
       <c r="X25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>33</v>
@@ -5644,30 +5649,30 @@
         <v>1</v>
       </c>
       <c r="D26" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="F26" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
       <c r="L26" s="20"/>
       <c r="M26" s="20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N26" s="20"/>
       <c r="O26" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P26" s="20"/>
       <c r="Q26" s="20"/>
@@ -5684,7 +5689,7 @@
     </row>
     <row r="27" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>33</v>
@@ -5694,30 +5699,30 @@
         <v>1</v>
       </c>
       <c r="D27" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="F27" s="20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
       <c r="L27" s="20"/>
       <c r="M27" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N27" s="20"/>
       <c r="O27" s="20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P27" s="20"/>
       <c r="Q27" s="20"/>
@@ -5734,7 +5739,7 @@
     </row>
     <row r="28" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>33</v>
@@ -5744,30 +5749,30 @@
         <v>1</v>
       </c>
       <c r="D28" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="F28" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
       <c r="L28" s="20"/>
       <c r="M28" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N28" s="20"/>
       <c r="O28" s="20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P28" s="20"/>
       <c r="Q28" s="20"/>
@@ -5784,40 +5789,40 @@
     </row>
     <row r="29" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C29" s="18" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D29" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="F29" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
       <c r="L29" s="20"/>
       <c r="M29" s="20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N29" s="21"/>
       <c r="O29" s="20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P29" s="20"/>
       <c r="Q29" s="20"/>
@@ -5834,7 +5839,7 @@
     </row>
     <row r="30" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>33</v>
@@ -5844,30 +5849,30 @@
         <v>1</v>
       </c>
       <c r="D30" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="F30" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
       <c r="L30" s="20"/>
       <c r="M30" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N30" s="20"/>
       <c r="O30" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P30" s="20"/>
       <c r="Q30" s="20"/>
@@ -5884,7 +5889,7 @@
     </row>
     <row r="31" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>33</v>
@@ -5894,30 +5899,30 @@
         <v>1</v>
       </c>
       <c r="D31" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="F31" s="25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
       <c r="K31" s="18"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N31" s="20"/>
       <c r="O31" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P31" s="20"/>
       <c r="Q31" s="20"/>
@@ -5934,7 +5939,7 @@
     </row>
     <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>33</v>
@@ -5944,30 +5949,30 @@
         <v>1</v>
       </c>
       <c r="D32" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E32" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="F32" s="25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
       <c r="L32" s="20"/>
       <c r="M32" s="20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N32" s="20"/>
       <c r="O32" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P32" s="20"/>
       <c r="Q32" s="20"/>
@@ -5984,7 +5989,7 @@
     </row>
     <row r="33" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>26</v>
@@ -5994,26 +5999,26 @@
         <v>1</v>
       </c>
       <c r="D33" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="F33" s="20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
       <c r="L33" s="20"/>
       <c r="M33" s="18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N33" s="20"/>
       <c r="O33" s="20"/>
@@ -6032,40 +6037,40 @@
     </row>
     <row r="34" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="18" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D34" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E34" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="F34" s="20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K34" s="18"/>
       <c r="L34" s="20"/>
       <c r="M34" s="18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N34" s="20"/>
       <c r="O34" s="20"/>
@@ -6084,7 +6089,7 @@
     </row>
     <row r="35" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>26</v>
@@ -6094,26 +6099,26 @@
         <v>1</v>
       </c>
       <c r="D35" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="F35" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
       <c r="L35" s="20"/>
       <c r="M35" s="18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N35" s="20"/>
       <c r="O35" s="20"/>
@@ -6132,35 +6137,35 @@
     </row>
     <row r="36" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="18" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D36" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="F36" s="20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K36" s="27"/>
       <c r="L36" s="28"/>
@@ -6182,29 +6187,29 @@
     </row>
     <row r="37" customFormat="false" ht="86.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C37" s="18" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D37" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E37" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="F37" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
@@ -6213,7 +6218,7 @@
       <c r="M37" s="21"/>
       <c r="N37" s="21"/>
       <c r="O37" s="29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P37" s="20"/>
       <c r="Q37" s="20"/>
@@ -6230,29 +6235,29 @@
     </row>
     <row r="38" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C38" s="18" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D38" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="F38" s="20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
@@ -6261,7 +6266,7 @@
       <c r="M38" s="21"/>
       <c r="N38" s="21"/>
       <c r="O38" s="29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P38" s="20"/>
       <c r="Q38" s="20"/>
@@ -6278,29 +6283,29 @@
     </row>
     <row r="39" s="7" customFormat="true" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C39" s="18" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D39" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="F39" s="20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
@@ -6309,7 +6314,7 @@
       <c r="M39" s="21"/>
       <c r="N39" s="21"/>
       <c r="O39" s="29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P39" s="20"/>
       <c r="Q39" s="20"/>
@@ -6352,29 +6357,29 @@
     </row>
     <row r="40" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C40" s="18" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D40" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="F40" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
@@ -6383,7 +6388,7 @@
       <c r="M40" s="21"/>
       <c r="N40" s="21"/>
       <c r="O40" s="29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P40" s="20"/>
       <c r="Q40" s="20"/>
@@ -6400,17 +6405,17 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C41" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="31" t="str">
@@ -6418,10 +6423,10 @@
         <v>household.save</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I41" s="30"/>
       <c r="J41" s="30"/>
@@ -6445,27 +6450,27 @@
     </row>
     <row r="42" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C42" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E42" s="31"/>
       <c r="F42" s="25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I42" s="30"/>
       <c r="J42" s="30"/>
@@ -6486,27 +6491,27 @@
     </row>
     <row r="43" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C43" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E43" s="31"/>
       <c r="F43" s="25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I43" s="30"/>
       <c r="J43" s="30"/>
@@ -6527,27 +6532,27 @@
     </row>
     <row r="44" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C44" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E44" s="25"/>
       <c r="F44" s="25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I44" s="30"/>
       <c r="J44" s="30"/>
@@ -6568,34 +6573,34 @@
     </row>
     <row r="45" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C45" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E45" s="31"/>
       <c r="F45" s="31" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H45" s="33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
       <c r="K45" s="30"/>
       <c r="L45" s="31"/>
       <c r="M45" s="33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N45" s="31"/>
       <c r="O45" s="31"/>
@@ -6612,32 +6617,32 @@
       <c r="W45" s="31"/>
       <c r="X45" s="31"/>
       <c r="Y45" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C46" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E46" s="31"/>
       <c r="F46" s="31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G46" s="30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H46" s="30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
@@ -6658,27 +6663,27 @@
     </row>
     <row r="47" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C47" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
@@ -6699,27 +6704,27 @@
     </row>
     <row r="48" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C48" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I48" s="30"/>
       <c r="J48" s="30"/>
@@ -6740,33 +6745,33 @@
     </row>
     <row r="49" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="25" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C49" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E49" s="31"/>
       <c r="F49" s="25" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I49" s="25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J49" s="25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K49" s="30"/>
       <c r="L49" s="31"/>
@@ -6785,33 +6790,33 @@
     </row>
     <row r="50" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E50" s="31"/>
       <c r="F50" s="25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I50" s="25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J50" s="25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K50" s="30"/>
       <c r="L50" s="31"/>
@@ -6830,33 +6835,33 @@
     </row>
     <row r="51" customFormat="false" ht="377.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C51" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E51" s="31"/>
       <c r="F51" s="31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I51" s="25" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J51" s="25" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K51" s="30"/>
       <c r="L51" s="31"/>
@@ -6875,33 +6880,33 @@
     </row>
     <row r="52" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="25" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C52" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E52" s="31"/>
       <c r="F52" s="31" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I52" s="25" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J52" s="25" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K52" s="30"/>
       <c r="L52" s="31"/>
@@ -6920,7 +6925,7 @@
     </row>
     <row r="53" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="25" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B53" s="30" t="s">
         <v>33</v>
@@ -6930,32 +6935,32 @@
         <v>1</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E53" s="31"/>
       <c r="F53" s="25" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I53" s="25" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J53" s="25" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K53" s="30"/>
       <c r="L53" s="31"/>
       <c r="M53" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N53" s="31"/>
       <c r="O53" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P53" s="31"/>
       <c r="Q53" s="31"/>
@@ -6972,27 +6977,27 @@
     </row>
     <row r="54" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="25" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C54" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E54" s="31"/>
       <c r="F54" s="31" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G54" s="30" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H54" s="30" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I54" s="30"/>
       <c r="J54" s="30"/>
@@ -7013,7 +7018,7 @@
     </row>
     <row r="55" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="25" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B55" s="30" t="s">
         <v>38</v>
@@ -7023,17 +7028,17 @@
         <v>1</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E55" s="31"/>
       <c r="F55" s="31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H55" s="34" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I55" s="30"/>
       <c r="J55" s="30"/>
@@ -7057,34 +7062,34 @@
     </row>
     <row r="56" s="2" customFormat="true" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C56" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="31" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H56" s="33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I56" s="30"/>
       <c r="J56" s="30"/>
       <c r="K56" s="30"/>
       <c r="L56" s="31"/>
       <c r="M56" s="33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N56" s="31"/>
       <c r="O56" s="31"/>
@@ -7101,32 +7106,32 @@
       <c r="W56" s="31"/>
       <c r="X56" s="31"/>
       <c r="Y56" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C57" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E57" s="31"/>
       <c r="F57" s="31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G57" s="30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H57" s="30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I57" s="30"/>
       <c r="J57" s="30"/>
@@ -7145,38 +7150,38 @@
       <c r="W57" s="31"/>
       <c r="X57" s="31"/>
       <c r="Y57" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="25" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" s="30" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E58" s="31"/>
       <c r="F58" s="25" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I58" s="25" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J58" s="25" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K58" s="30"/>
       <c r="L58" s="31"/>
@@ -7196,36 +7201,36 @@
       <c r="W58" s="31"/>
       <c r="X58" s="31"/>
       <c r="Y58" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="25" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C59" s="30" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E59" s="31"/>
       <c r="F59" s="25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I59" s="25"/>
       <c r="J59" s="35" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K59" s="30"/>
       <c r="L59" s="31"/>
@@ -7242,26 +7247,26 @@
       <c r="W59" s="31"/>
       <c r="X59" s="31"/>
       <c r="Y59" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="25" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C60" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E60" s="31"/>
       <c r="F60" s="25" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G60" s="25"/>
       <c r="H60" s="34"/>
@@ -7284,23 +7289,23 @@
     </row>
     <row r="61" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="25" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C61" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F61" s="31" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G61" s="25"/>
       <c r="H61" s="34"/>
@@ -7321,28 +7326,28 @@
       <c r="W61" s="31"/>
       <c r="X61" s="31"/>
       <c r="Y61" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C62" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F62" s="31" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G62" s="25"/>
       <c r="H62" s="34"/>
@@ -7363,40 +7368,40 @@
       <c r="W62" s="31"/>
       <c r="X62" s="31"/>
       <c r="Y62" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="25" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C63" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I63" s="25" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J63" s="25" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K63" s="30"/>
       <c r="L63" s="31"/>
@@ -7415,7 +7420,7 @@
     </row>
     <row r="64" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="25" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B64" s="30" t="s">
         <v>33</v>
@@ -7425,34 +7430,34 @@
         <v>1</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I64" s="25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J64" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K64" s="30"/>
       <c r="L64" s="31"/>
       <c r="M64" s="31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N64" s="31"/>
       <c r="O64" s="31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P64" s="31"/>
       <c r="Q64" s="31"/>
@@ -7464,12 +7469,12 @@
       <c r="W64" s="31"/>
       <c r="X64" s="31"/>
       <c r="Y64" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="69.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="25" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B65" s="30" t="s">
         <v>33</v>
@@ -7479,30 +7484,30 @@
         <v>1</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I65" s="25" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J65" s="25" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K65" s="30"/>
       <c r="L65" s="31"/>
       <c r="M65" s="31" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N65" s="31"/>
       <c r="O65" s="31" t="s">
@@ -7523,29 +7528,29 @@
     </row>
     <row r="66" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="25" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C66" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F66" s="31" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I66" s="30"/>
       <c r="J66" s="30"/>
@@ -7564,28 +7569,28 @@
       <c r="W66" s="31"/>
       <c r="X66" s="31"/>
       <c r="Y66" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="25" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C67" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F67" s="31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G67" s="25"/>
       <c r="H67" s="34"/>
@@ -7606,34 +7611,34 @@
       <c r="W67" s="31"/>
       <c r="X67" s="31"/>
       <c r="Y67" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C68" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I68" s="30"/>
       <c r="J68" s="30"/>
@@ -7652,40 +7657,40 @@
       <c r="W68" s="31"/>
       <c r="X68" s="31"/>
       <c r="Y68" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="25" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C69" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I69" s="25" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J69" s="25" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K69" s="30"/>
       <c r="L69" s="31"/>
@@ -7702,28 +7707,28 @@
       <c r="W69" s="31"/>
       <c r="X69" s="31"/>
       <c r="Y69" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="25" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G70" s="25"/>
       <c r="H70" s="34"/>
@@ -7744,28 +7749,28 @@
       <c r="W70" s="31"/>
       <c r="X70" s="31"/>
       <c r="Y70" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="25" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C71" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G71" s="25"/>
       <c r="H71" s="34"/>
@@ -7786,40 +7791,40 @@
       <c r="W71" s="31"/>
       <c r="X71" s="31"/>
       <c r="Y71" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="25" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C72" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F72" s="31" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I72" s="25" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J72" s="25" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K72" s="30"/>
       <c r="L72" s="31"/>
@@ -7836,40 +7841,40 @@
       <c r="W72" s="31"/>
       <c r="X72" s="31"/>
       <c r="Y72" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="25" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C73" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G73" s="25" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H73" s="25" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I73" s="25" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J73" s="25" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K73" s="30"/>
       <c r="L73" s="31"/>
@@ -7886,40 +7891,40 @@
       <c r="W73" s="31"/>
       <c r="X73" s="31"/>
       <c r="Y73" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="25" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C74" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G74" s="25" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H74" s="25" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I74" s="25" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J74" s="25" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K74" s="30"/>
       <c r="L74" s="31"/>
@@ -7936,34 +7941,34 @@
       <c r="W74" s="31"/>
       <c r="X74" s="31"/>
       <c r="Y74" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="25" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C75" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F75" s="31" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G75" s="25" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H75" s="34" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I75" s="30"/>
       <c r="J75" s="30"/>
@@ -7982,25 +7987,25 @@
       <c r="W75" s="31"/>
       <c r="X75" s="31"/>
       <c r="Y75" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="25" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C76" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F76" s="31"/>
       <c r="G76" s="25"/>
@@ -8022,25 +8027,25 @@
       <c r="W76" s="31"/>
       <c r="X76" s="31"/>
       <c r="Y76" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="25" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C77" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F77" s="31"/>
       <c r="G77" s="25"/>
@@ -8062,39 +8067,39 @@
       <c r="W77" s="31"/>
       <c r="X77" s="31"/>
       <c r="Y77" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="25" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C78" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E78" s="31"/>
       <c r="F78" s="31" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G78" s="25" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H78" s="25" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I78" s="30"/>
       <c r="J78" s="30"/>
       <c r="K78" s="30"/>
       <c r="L78" s="31"/>
       <c r="M78" s="31" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N78" s="31"/>
       <c r="O78" s="31"/>
@@ -8108,22 +8113,22 @@
       <c r="W78" s="31"/>
       <c r="X78" s="31"/>
       <c r="Y78" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C79" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E79" s="31"/>
       <c r="F79" s="31"/>
@@ -8149,32 +8154,32 @@
       <c r="W79" s="31"/>
       <c r="X79" s="31"/>
       <c r="Y79" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C80" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E80" s="31"/>
       <c r="F80" s="31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G80" s="30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I80" s="30"/>
       <c r="J80" s="30"/>
@@ -8193,38 +8198,38 @@
       <c r="W80" s="31"/>
       <c r="X80" s="31"/>
       <c r="Y80" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" s="30" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D81" s="30" t="s">
         <v>383</v>
-      </c>
-      <c r="B81" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C81" s="30" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D81" s="30" t="s">
-        <v>382</v>
       </c>
       <c r="E81" s="31"/>
       <c r="F81" s="25" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G81" s="25" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H81" s="25" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I81" s="25" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J81" s="25" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K81" s="30"/>
       <c r="L81" s="31"/>
@@ -8244,38 +8249,38 @@
       <c r="W81" s="31"/>
       <c r="X81" s="31"/>
       <c r="Y81" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="25" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C82" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E82" s="31"/>
       <c r="F82" s="25" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G82" s="25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H82" s="25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I82" s="25" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J82" s="35" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K82" s="30"/>
       <c r="L82" s="31"/>
@@ -8292,26 +8297,26 @@
       <c r="W82" s="31"/>
       <c r="X82" s="31"/>
       <c r="Y82" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="25" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C83" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E83" s="31"/>
       <c r="F83" s="25" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G83" s="25"/>
       <c r="H83" s="34"/>
@@ -8332,34 +8337,34 @@
       <c r="W83" s="31"/>
       <c r="X83" s="31"/>
       <c r="Y83" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="38.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="25" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C84" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G84" s="25" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H84" s="25" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I84" s="30"/>
       <c r="J84" s="30"/>
@@ -8378,34 +8383,34 @@
       <c r="W84" s="31"/>
       <c r="X84" s="31"/>
       <c r="Y84" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="25" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C85" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F85" s="25" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G85" s="25" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H85" s="34" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I85" s="30"/>
       <c r="J85" s="30"/>
@@ -8424,28 +8429,28 @@
       <c r="W85" s="31"/>
       <c r="X85" s="31"/>
       <c r="Y85" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C86" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G86" s="25"/>
       <c r="H86" s="34"/>
@@ -8466,28 +8471,28 @@
       <c r="W86" s="31"/>
       <c r="X86" s="31"/>
       <c r="Y86" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="25" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C87" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G87" s="25"/>
       <c r="H87" s="34"/>
@@ -8508,28 +8513,28 @@
       <c r="W87" s="31"/>
       <c r="X87" s="31"/>
       <c r="Y87" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="25" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C88" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G88" s="25"/>
       <c r="H88" s="34"/>
@@ -8550,40 +8555,40 @@
       <c r="W88" s="31"/>
       <c r="X88" s="31"/>
       <c r="Y88" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="71.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="25" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C89" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G89" s="25" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H89" s="25" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I89" s="25" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J89" s="14" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K89" s="14"/>
       <c r="L89" s="31"/>
@@ -8600,12 +8605,12 @@
       <c r="W89" s="31"/>
       <c r="X89" s="31"/>
       <c r="Y89" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="25" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B90" s="30" t="s">
         <v>33</v>
@@ -8615,30 +8620,30 @@
         <v>1</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F90" s="25" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G90" s="25" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H90" s="25" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I90" s="14"/>
       <c r="J90" s="14"/>
       <c r="K90" s="14"/>
       <c r="L90" s="31"/>
       <c r="M90" s="31" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N90" s="31"/>
       <c r="O90" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P90" s="31"/>
       <c r="Q90" s="31"/>
@@ -8655,38 +8660,38 @@
     </row>
     <row r="91" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="25" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C91" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G91" s="25" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H91" s="25" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I91" s="14"/>
       <c r="J91" s="14"/>
       <c r="K91" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L91" s="31"/>
       <c r="M91" s="31" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N91" s="31"/>
       <c r="O91" s="31"/>
@@ -8705,29 +8710,29 @@
     </row>
     <row r="92" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="25" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C92" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F92" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G92" s="37" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H92" s="25" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I92" s="14"/>
       <c r="J92" s="14"/>
@@ -8749,34 +8754,34 @@
       <c r="W92" s="31"/>
       <c r="X92" s="31"/>
       <c r="Y92" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="25" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C93" s="18" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G93" s="25" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H93" s="25" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I93" s="14"/>
       <c r="J93" s="14"/>
@@ -8798,34 +8803,34 @@
       <c r="W93" s="31"/>
       <c r="X93" s="31"/>
       <c r="Y93" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="25" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C94" s="18" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F94" s="25" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G94" s="25" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H94" s="25" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I94" s="14"/>
       <c r="J94" s="14"/>
@@ -8847,12 +8852,12 @@
       <c r="W94" s="31"/>
       <c r="X94" s="31"/>
       <c r="Y94" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="25" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B95" s="30" t="s">
         <v>33</v>
@@ -8862,30 +8867,30 @@
         <v>1</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G95" s="25" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H95" s="25" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I95" s="14"/>
       <c r="J95" s="14"/>
       <c r="K95" s="14"/>
       <c r="L95" s="31"/>
       <c r="M95" s="31" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N95" s="31"/>
       <c r="O95" s="31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P95" s="31"/>
       <c r="Q95" s="31"/>
@@ -8902,7 +8907,7 @@
     </row>
     <row r="96" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="25" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B96" s="30" t="s">
         <v>26</v>
@@ -8912,29 +8917,29 @@
         <v>1</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G96" s="25" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H96" s="25" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I96" s="14"/>
       <c r="J96" s="14"/>
       <c r="K96" s="14"/>
       <c r="L96" s="31"/>
       <c r="M96" s="31" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N96" s="31" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O96" s="31"/>
       <c r="P96" s="31"/>
@@ -8952,29 +8957,29 @@
     </row>
     <row r="97" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="25" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C97" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G97" s="25" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H97" s="25" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I97" s="14"/>
       <c r="J97" s="14"/>
@@ -8993,25 +8998,25 @@
       <c r="W97" s="31"/>
       <c r="X97" s="31"/>
       <c r="Y97" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="25" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C98" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F98" s="25"/>
       <c r="G98" s="25"/>
@@ -9033,34 +9038,34 @@
       <c r="W98" s="31"/>
       <c r="X98" s="31"/>
       <c r="Y98" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="25" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C99" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F99" s="25" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G99" s="25" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H99" s="25" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I99" s="14"/>
       <c r="J99" s="14"/>
@@ -9081,34 +9086,34 @@
     </row>
     <row r="100" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="25" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C100" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E100" s="31"/>
       <c r="F100" s="31" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G100" s="25" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H100" s="25" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I100" s="14"/>
       <c r="J100" s="14"/>
       <c r="K100" s="14"/>
       <c r="L100" s="31"/>
       <c r="M100" s="31" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N100" s="31"/>
       <c r="O100" s="31"/>
@@ -9122,22 +9127,22 @@
       <c r="W100" s="31"/>
       <c r="X100" s="31"/>
       <c r="Y100" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="101" s="2" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C101" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E101" s="31"/>
       <c r="F101" s="31"/>
@@ -9163,32 +9168,32 @@
       <c r="W101" s="31"/>
       <c r="X101" s="31"/>
       <c r="Y101" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C102" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E102" s="31"/>
       <c r="F102" s="31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H102" s="30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I102" s="30"/>
       <c r="J102" s="30"/>
@@ -9207,32 +9212,32 @@
       <c r="W102" s="31"/>
       <c r="X102" s="31"/>
       <c r="Y102" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C103" s="36" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D103" s="30" t="s">
         <v>465</v>
-      </c>
-      <c r="B103" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C103" s="36" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D103" s="30" t="s">
-        <v>464</v>
       </c>
       <c r="E103" s="31"/>
       <c r="F103" s="31" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G103" s="25" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H103" s="25" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I103" s="14"/>
       <c r="J103" s="14"/>
@@ -9254,45 +9259,45 @@
       <c r="W103" s="31"/>
       <c r="X103" s="31"/>
       <c r="Y103" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="25" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C104" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E104" s="31"/>
       <c r="F104" s="25" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G104" s="25" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H104" s="25" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I104" s="14"/>
       <c r="J104" s="14"/>
       <c r="K104" s="14"/>
       <c r="L104" s="31"/>
       <c r="M104" s="31" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N104" s="31" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O104" s="31" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P104" s="31"/>
       <c r="Q104" s="31"/>
@@ -9306,41 +9311,41 @@
     </row>
     <row r="105" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C105" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E105" s="31"/>
       <c r="F105" s="25" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G105" s="25" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H105" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I105" s="25" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J105" s="25" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K105" s="14"/>
       <c r="L105" s="31"/>
       <c r="M105" s="31" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N105" s="31" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O105" s="31"/>
       <c r="P105" s="31"/>
@@ -9356,32 +9361,32 @@
       <c r="W105" s="31"/>
       <c r="X105" s="31"/>
       <c r="Y105" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="25" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C106" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E106" s="31"/>
       <c r="F106" s="31" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G106" s="25" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H106" s="25" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I106" s="14"/>
       <c r="J106" s="14"/>
@@ -9403,45 +9408,45 @@
       <c r="W106" s="31"/>
       <c r="X106" s="31"/>
       <c r="Y106" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="25" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C107" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E107" s="31"/>
       <c r="F107" s="25" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G107" s="25" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H107" s="25" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
       <c r="K107" s="14"/>
       <c r="L107" s="31"/>
       <c r="M107" s="31" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N107" s="31" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O107" s="31" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="P107" s="31"/>
       <c r="Q107" s="31"/>
@@ -9455,41 +9460,41 @@
     </row>
     <row r="108" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="25" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C108" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E108" s="31"/>
       <c r="F108" s="25" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G108" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H108" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I108" s="25" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J108" s="25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="31"/>
       <c r="M108" s="31" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N108" s="31" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O108" s="31"/>
       <c r="P108" s="31"/>
@@ -9505,32 +9510,32 @@
       <c r="W108" s="31"/>
       <c r="X108" s="31"/>
       <c r="Y108" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="25" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C109" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E109" s="31"/>
       <c r="F109" s="31" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G109" s="30" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H109" s="30" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I109" s="31"/>
       <c r="J109" s="31"/>
@@ -9551,7 +9556,7 @@
     </row>
     <row r="110" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="25" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B110" s="30" t="s">
         <v>33</v>
@@ -9561,17 +9566,17 @@
         <v>1</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E110" s="31"/>
       <c r="F110" s="31" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G110" s="30" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H110" s="30" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I110" s="14"/>
       <c r="J110" s="14"/>
@@ -9580,7 +9585,7 @@
       <c r="M110" s="31"/>
       <c r="N110" s="31"/>
       <c r="O110" s="31" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P110" s="31"/>
       <c r="Q110" s="31"/>
@@ -9594,27 +9599,27 @@
     </row>
     <row r="111" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="25" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C111" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E111" s="31"/>
       <c r="F111" s="31" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G111" s="30" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H111" s="30" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I111" s="14"/>
       <c r="J111" s="14"/>
@@ -9623,7 +9628,7 @@
       <c r="M111" s="31"/>
       <c r="N111" s="31"/>
       <c r="O111" s="38" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P111" s="31"/>
       <c r="Q111" s="31"/>
@@ -9640,7 +9645,7 @@
     </row>
     <row r="112" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="25" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B112" s="30" t="s">
         <v>33</v>
@@ -9650,17 +9655,17 @@
         <v>1</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E112" s="31"/>
       <c r="F112" s="25" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G112" s="39" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H112" s="39" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I112" s="14"/>
       <c r="J112" s="14"/>
@@ -9686,7 +9691,7 @@
     </row>
     <row r="113" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="25" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B113" s="30" t="s">
         <v>26</v>
@@ -9696,24 +9701,24 @@
         <v>1</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E113" s="31"/>
       <c r="F113" s="25" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G113" s="39" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H113" s="39" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I113" s="14"/>
       <c r="J113" s="14"/>
       <c r="K113" s="14"/>
       <c r="L113" s="31"/>
       <c r="M113" s="31" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N113" s="8" t="s">
         <v>45</v>
@@ -9734,27 +9739,27 @@
     </row>
     <row r="114" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="25" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C114" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E114" s="31"/>
       <c r="F114" s="31" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G114" s="38" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H114" s="38" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I114" s="14"/>
       <c r="J114" s="14"/>
@@ -9762,7 +9767,7 @@
       <c r="L114" s="31"/>
       <c r="M114" s="31"/>
       <c r="N114" s="31" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O114" s="31"/>
       <c r="P114" s="31"/>
@@ -9780,7 +9785,7 @@
     </row>
     <row r="115" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="25" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>38</v>
@@ -9790,17 +9795,17 @@
         <v>1</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E115" s="31"/>
       <c r="F115" s="31" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G115" s="30" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H115" s="30" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I115" s="14"/>
       <c r="J115" s="14"/>
@@ -9824,27 +9829,27 @@
     </row>
     <row r="116" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="25" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C116" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E116" s="31"/>
       <c r="F116" s="25" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G116" s="25" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H116" s="25" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I116" s="14"/>
       <c r="J116" s="14"/>
@@ -9865,39 +9870,39 @@
     </row>
     <row r="117" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="25" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C117" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E117" s="31"/>
       <c r="F117" s="31" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G117" s="30" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H117" s="30" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I117" s="14"/>
       <c r="J117" s="14"/>
       <c r="K117" s="8" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L117" s="31"/>
       <c r="M117" s="31" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N117" s="25" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O117" s="31"/>
       <c r="P117" s="31"/>
@@ -9915,39 +9920,39 @@
     </row>
     <row r="118" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="25" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C118" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D118" s="30" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E118" s="31"/>
       <c r="F118" s="31" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G118" s="30" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H118" s="30" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I118" s="14"/>
       <c r="J118" s="14"/>
       <c r="K118" s="8" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L118" s="31"/>
       <c r="M118" s="31" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N118" s="25" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O118" s="31"/>
       <c r="P118" s="31"/>
@@ -9965,27 +9970,27 @@
     </row>
     <row r="119" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="25" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C119" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E119" s="31"/>
       <c r="F119" s="31" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G119" s="38" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H119" s="38" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I119" s="14"/>
       <c r="J119" s="14"/>
@@ -9993,12 +9998,12 @@
       <c r="L119" s="31"/>
       <c r="M119" s="31"/>
       <c r="N119" s="31" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O119" s="31"/>
       <c r="P119" s="31"/>
       <c r="Q119" s="38" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="R119" s="31"/>
       <c r="S119" s="31"/>
@@ -10013,27 +10018,27 @@
     </row>
     <row r="120" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="25" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C120" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D120" s="30" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E120" s="31"/>
       <c r="F120" s="31" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G120" s="38" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H120" s="38" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I120" s="14"/>
       <c r="J120" s="14"/>
@@ -10041,7 +10046,7 @@
       <c r="L120" s="31"/>
       <c r="M120" s="31"/>
       <c r="N120" s="31" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O120" s="31"/>
       <c r="P120" s="31"/>
@@ -10059,27 +10064,27 @@
     </row>
     <row r="121" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C121" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D121" s="30" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E121" s="31"/>
       <c r="F121" s="31" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G121" s="38" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H121" s="38" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I121" s="14"/>
       <c r="J121" s="14"/>
@@ -10087,12 +10092,12 @@
       <c r="L121" s="31"/>
       <c r="M121" s="31"/>
       <c r="N121" s="31" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O121" s="31"/>
       <c r="P121" s="31"/>
       <c r="Q121" s="38" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="R121" s="31"/>
       <c r="S121" s="31"/>
@@ -10107,27 +10112,27 @@
     </row>
     <row r="122" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="25" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C122" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D122" s="30" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E122" s="31"/>
       <c r="F122" s="31" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G122" s="38" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H122" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="I122" s="14"/>
       <c r="J122" s="14"/>
@@ -10135,12 +10140,12 @@
       <c r="L122" s="31"/>
       <c r="M122" s="31"/>
       <c r="N122" s="31" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O122" s="31"/>
       <c r="P122" s="31"/>
       <c r="Q122" s="38" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="R122" s="31"/>
       <c r="S122" s="31"/>
@@ -10155,27 +10160,27 @@
     </row>
     <row r="123" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="25" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C123" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D123" s="30" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E123" s="31"/>
       <c r="F123" s="31" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G123" s="38" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H123" s="38" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I123" s="14"/>
       <c r="J123" s="14"/>
@@ -10183,12 +10188,12 @@
       <c r="L123" s="31"/>
       <c r="M123" s="31"/>
       <c r="N123" s="31" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O123" s="31"/>
       <c r="P123" s="31"/>
       <c r="Q123" s="38" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="R123" s="31"/>
       <c r="S123" s="31"/>
@@ -10203,7 +10208,7 @@
     </row>
     <row r="124" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="25" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B124" s="30" t="s">
         <v>33</v>
@@ -10213,17 +10218,17 @@
         <v>1</v>
       </c>
       <c r="D124" s="30" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E124" s="31"/>
       <c r="F124" s="31" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G124" s="38" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H124" s="38" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="I124" s="14"/>
       <c r="J124" s="14"/>
@@ -10231,10 +10236,10 @@
       <c r="L124" s="31"/>
       <c r="M124" s="31"/>
       <c r="N124" s="31" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O124" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P124" s="31"/>
       <c r="Q124" s="31"/>
@@ -10251,27 +10256,27 @@
     </row>
     <row r="125" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="25" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C125" s="30" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D125" s="30" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E125" s="31"/>
       <c r="F125" s="25" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G125" s="30" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H125" s="25" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I125" s="14"/>
       <c r="J125" s="14"/>
@@ -10292,7 +10297,7 @@
     </row>
     <row r="126" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>38</v>
@@ -10302,16 +10307,16 @@
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>574</v>
-      </c>
       <c r="G126" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L126" s="40"/>
       <c r="M126" s="41"/>
@@ -10429,34 +10434,34 @@
   <sheetData>
     <row r="1" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="43" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C1" s="43" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E2" s="25" t="n">
         <v>1</v>
@@ -10465,14 +10470,14 @@
     </row>
     <row r="3" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E3" s="25" t="n">
         <v>2</v>
@@ -10481,32 +10486,32 @@
     </row>
     <row r="4" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F4" s="25"/>
     </row>
     <row r="5" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E5" s="25" t="n">
         <v>1</v>
@@ -10515,14 +10520,14 @@
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E6" s="25" t="n">
         <v>1</v>
@@ -10531,14 +10536,14 @@
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E7" s="25" t="n">
         <v>3</v>
@@ -10547,16 +10552,16 @@
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B8" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>593</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>592</v>
-      </c>
       <c r="D8" s="46" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E8" s="25" t="n">
         <v>5</v>
@@ -10565,14 +10570,14 @@
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E9" s="25" t="n">
         <v>4</v>
@@ -10581,16 +10586,16 @@
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="D10" s="46" t="s">
         <v>595</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>593</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>592</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>594</v>
       </c>
       <c r="E10" s="25" t="n">
         <v>13</v>
@@ -10599,14 +10604,14 @@
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="25" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E11" s="25" t="n">
         <v>5</v>
@@ -10615,14 +10620,14 @@
     </row>
     <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="25" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E12" s="25" t="n">
         <v>5</v>
@@ -10631,14 +10636,14 @@
     </row>
     <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E13" s="25" t="n">
         <v>6</v>
@@ -10647,14 +10652,14 @@
     </row>
     <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E14" s="25" t="n">
         <v>11</v>
@@ -10663,14 +10668,14 @@
     </row>
     <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E15" s="25" t="n">
         <v>14</v>
@@ -10679,14 +10684,14 @@
     </row>
     <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="25" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E16" s="25" t="n">
         <v>15</v>
@@ -10695,32 +10700,32 @@
     </row>
     <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B17" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>593</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>592</v>
-      </c>
       <c r="D17" s="46" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="25" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="25" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E18" s="25" t="n">
         <v>15</v>
@@ -10729,14 +10734,14 @@
     </row>
     <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="25" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E19" s="25" t="n">
         <v>16</v>
@@ -10745,14 +10750,14 @@
     </row>
     <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="25" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="25" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E20" s="25" t="n">
         <v>16</v>
@@ -10761,32 +10766,32 @@
     </row>
     <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="25" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B21" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>593</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>592</v>
-      </c>
       <c r="D21" s="46" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F21" s="25"/>
     </row>
     <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="25" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E22" s="25" t="n">
         <v>40</v>
@@ -10795,162 +10800,162 @@
     </row>
     <row r="23" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F23" s="25"/>
     </row>
     <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10961,35 +10966,35 @@
         <v>32</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="48" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D34" s="49" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E34" s="50" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="48" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>1</v>
@@ -10997,16 +11002,16 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="51" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -11054,25 +11059,25 @@
         <v>3</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11080,13 +11085,13 @@
         <v>27</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E2" s="54" t="b">
         <f aca="false">TRUE()</f>
@@ -11103,16 +11108,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E3" s="54" t="b">
         <f aca="false">TRUE()</f>
@@ -11129,16 +11134,16 @@
     </row>
     <row r="4" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E4" s="54" t="b">
         <f aca="false">TRUE()</f>
@@ -11155,16 +11160,16 @@
     </row>
     <row r="5" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E5" s="54" t="b">
         <f aca="false">FALSE()</f>
@@ -11179,21 +11184,21 @@
         <v>1</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="35" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E6" s="54" t="b">
         <f aca="false">FALSE()</f>
@@ -11208,21 +11213,21 @@
         <v>1</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="35" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E7" s="54" t="b">
         <f aca="false">FALSE()</f>
@@ -11234,21 +11239,21 @@
       </c>
       <c r="G7" s="54"/>
       <c r="H7" s="25" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="35" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E8" s="54" t="b">
         <f aca="false">FALSE()</f>
@@ -11260,21 +11265,21 @@
       </c>
       <c r="G8" s="54"/>
       <c r="H8" s="25" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E9" s="54" t="b">
         <f aca="false">FALSE()</f>
@@ -11289,21 +11294,21 @@
         <v>0</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="25" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E10" s="54" t="b">
         <f aca="false">TRUE()</f>
@@ -11320,16 +11325,16 @@
     </row>
     <row r="11" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E11" s="54" t="b">
         <f aca="false">FALSE()</f>
@@ -11344,7 +11349,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -11381,10 +11386,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="55" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C1" s="55" t="s">
         <v>6</v>
@@ -11399,27 +11404,27 @@
         <v>9</v>
       </c>
       <c r="G1" s="55" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1" s="55" t="s">
         <v>12</v>
       </c>
       <c r="I1" s="51" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -11428,16 +11433,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -11446,16 +11451,16 @@
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -11464,16 +11469,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -11482,16 +11487,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -11500,16 +11505,16 @@
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -11526,7 +11531,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -11540,13 +11545,13 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -11560,7 +11565,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -11568,13 +11573,13 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -11582,13 +11587,13 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -11596,13 +11601,13 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -11610,22 +11615,22 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -11634,16 +11639,16 @@
     </row>
     <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -11652,7 +11657,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -11660,22 +11665,22 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -11684,16 +11689,16 @@
     </row>
     <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -11702,7 +11707,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -11710,82 +11715,82 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -11794,27 +11799,27 @@
     </row>
     <row r="25" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -11822,147 +11827,147 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="51" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="51" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="51" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="51" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="51" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -11971,16 +11976,16 @@
     </row>
     <row r="34" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -11989,16 +11994,16 @@
     </row>
     <row r="35" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -12007,16 +12012,16 @@
     </row>
     <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -12025,16 +12030,16 @@
     </row>
     <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -12043,16 +12048,16 @@
     </row>
     <row r="38" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -12061,16 +12066,16 @@
     </row>
     <row r="39" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -12079,7 +12084,7 @@
     </row>
     <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -12087,22 +12092,22 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -12111,16 +12116,16 @@
     </row>
     <row r="42" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -12129,7 +12134,7 @@
     </row>
     <row r="43" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -12137,22 +12142,22 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -12161,16 +12166,16 @@
     </row>
     <row r="45" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -12179,16 +12184,16 @@
     </row>
     <row r="46" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -12197,16 +12202,16 @@
     </row>
     <row r="47" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -12215,16 +12220,16 @@
     </row>
     <row r="48" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -12233,747 +12238,747 @@
     </row>
     <row r="49" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B49" s="51" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C49" s="51" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D49" s="51" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B50" s="51" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C50" s="51" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D50" s="51" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B51" s="51" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C51" s="51" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D51" s="51" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="51" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B52" s="51" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C52" s="51" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D52" s="51" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="51" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E53" s="25"/>
       <c r="F53" s="25"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="51" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E54" s="25"/>
       <c r="F54" s="25"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="51" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="51" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E56" s="25"/>
       <c r="F56" s="25"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="51" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E57" s="25"/>
       <c r="F57" s="25"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="51" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E58" s="25"/>
       <c r="F58" s="25"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="51" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E59" s="25"/>
       <c r="F59" s="25"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="51" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E60" s="25"/>
       <c r="F60" s="25"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="51" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E61" s="25"/>
       <c r="F61" s="25"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="51" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E62" s="25"/>
       <c r="F62" s="25"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="51" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E63" s="25"/>
       <c r="F63" s="25"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="51" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B64" s="51" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C64" s="51" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D64" s="51" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="51" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B65" s="51" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C65" s="51" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D65" s="51" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="51" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B66" s="51" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C66" s="51" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D66" s="51" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="56" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C67" s="51" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D67" s="51" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="56" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B68" s="51" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C68" s="51" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D68" s="51" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="56" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B69" s="51" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C69" s="51" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D69" s="51" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="56" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B70" s="51" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E70" s="25"/>
       <c r="F70" s="25"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B71" s="51" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C71" s="57" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D71" s="51" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B72" s="51" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D72" s="57" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E72" s="57"/>
       <c r="F72" s="57"/>
       <c r="H72" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B73" s="51" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D73" s="51" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B74" s="51" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E74" s="25"/>
       <c r="F74" s="25"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B75" s="51" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E75" s="25"/>
       <c r="F75" s="25"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B76" s="51" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E76" s="25"/>
       <c r="F76" s="25"/>
       <c r="H76" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B77" s="51" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E77" s="25"/>
       <c r="F77" s="25"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B78" s="51" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E78" s="25"/>
       <c r="F78" s="25"/>
       <c r="H78" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B79" s="51" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D79" s="51" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B80" s="51" t="s">
         <v>27</v>
       </c>
       <c r="C80" s="51" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D80" s="51" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B81" s="51" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C81" s="51" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D81" s="51" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H81" s="51" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B82" s="51" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C82" s="51" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D82" s="51" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H83" s="51" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B84" s="51" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B85" s="51" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F85" s="25" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B86" s="51" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C86" s="51" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D86" s="51" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="31" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="31" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="31" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="31" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="31" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="31" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="31" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="31" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="31" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="31" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="31" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="31" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -13017,63 +13022,63 @@
   <sheetData>
     <row r="1" s="55" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="58" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E1" s="58" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F1" s="58" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="G1" s="58" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1" s="58" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="I1" s="58" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="J1" s="58" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="K1" s="58" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="L1" s="55" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H2" s="38" t="n">
         <v>-10</v>
@@ -13082,36 +13087,36 @@
         <v>100</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="38" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H3" s="38" t="n">
         <v>-10</v>
@@ -13120,36 +13125,36 @@
         <v>100</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="38" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H4" s="38" t="n">
         <v>-10</v>
@@ -13158,36 +13163,36 @@
         <v>100</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="38" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H5" s="38" t="n">
         <v>-10</v>
@@ -13196,13 +13201,13 @@
         <v>100</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
   </sheetData>
@@ -13257,853 +13262,853 @@
     </row>
     <row r="2" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E4" s="25"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B37" s="25" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D37" s="25" t="s">
         <v>1019</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/survey/references/OD_nationale_quebec_2025.xlsx
+++ b/survey/references/OD_nationale_quebec_2025.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Widgets" sheetId="1" state="visible" r:id="rId3"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="1153">
   <si>
     <t xml:space="preserve">questionName</t>
   </si>
@@ -1123,7 +1123,7 @@
     <t xml:space="preserve">currentPlaceWorkOnTheRoadAndNoNextPlaceCustomConditional</t>
   </si>
   <si>
-    <t xml:space="preserve">onTheRoadArrivalTypeChoices</t>
+    <t xml:space="preserve">onTheRoadArrivalTypeCustomChoices</t>
   </si>
   <si>
     <t xml:space="preserve">À transformer en custom si les libellés avec nickname ne viennet pas dans el générateur</t>
@@ -1530,7 +1530,7 @@
     <t xml:space="preserve">isTransitAndNotNationaleCustomConditional</t>
   </si>
   <si>
-    <t xml:space="preserve">onDemandChoices</t>
+    <t xml:space="preserve">onDemandCustomChoices</t>
   </si>
   <si>
     <t xml:space="preserve">tripJunctionQueryString</t>
@@ -2679,6 +2679,9 @@
     <t xml:space="preserve">**School / place of study**: studied or slept there</t>
   </si>
   <si>
+    <t xml:space="preserve">onTheRoadArrivalTypeChoices</t>
+  </si>
+  <si>
     <t xml:space="preserve">usualWorkPlace</t>
   </si>
   <si>
@@ -2700,847 +2703,907 @@
     <t xml:space="preserve">{{nickname}} a complété ses déplacements sur la route après 4:00 du matin le lendemain</t>
   </si>
   <si>
+    <t xml:space="preserve">{{nickname}} completed {{gender :his/her/their}} work on the road trips after 4AM the next day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai complété mes déplacements sur la route après 4:00 du matin le lendemain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I completed my work on the road trips after 4AM the next day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isLastPlaceCustomConditional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onDemandChoices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pickupAtOrigin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oui, il est venu chercher {{nickname}} à son lieu de départ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it picked {{nickname}} up at their departure location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oui, il est venu me chercher à mon lieu de départ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it picked me up at my departure location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joinedStop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oui, {{nickname}} a rejoint un arrêt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, {{nickname}} went to a stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oui, j'ai rejoint un arrêt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, I went to a stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remoteWorkOrWorkAtHome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Télétravail / travail à la maison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remote work / work from home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onStrike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En grève</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaveSicknessPersonalReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congé (maladie, personnel, autre)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave (sick, personal, other)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noWork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de travail prévu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No work planned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distanceLearning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cours à distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schoolWasClosedStrike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">École fermée (grève)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School was closed (strike)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noSchool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de cours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inputRangeName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labelFrMin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labelFrMiddle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labelFrMax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labelEnMin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labelEnMiddle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labelEnMax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unitFr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unitEn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input_color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trop court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juste comme il faut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trop long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Too short</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Too long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas du tout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Très intéressante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not at all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very interesting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red-yellow-green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Très facile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modérément difficile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Très difficile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderately difficult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very difficult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green-yellow-red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modérément pénible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Très pénible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderately burdensome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very burdensome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addGroupedObject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter une personne manquante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add a missing person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deleteThisGroupedObject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supprimer cette personne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete this person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segmentsIntroOnTheRoad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veuillez indiquer tous les modes de transport utilisés pour effectuer les déplacements sur la route, dans l'ordre chronologique:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please indicate all modes of transport used to complete work trip on the road, in chronological order:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segmentsIntroStroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veuillez indiquer tous les modes de transport utilisés pour effectuer la promenade, dans l'ordre chronologique:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please indicate all modes of transport used to complete the stroll, in chronological order:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">junctionGeographyRefreshGeocodingLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chercher le lieu de jonction à partir du nom ou de l'adresse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search the junction location using the place name or address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driverFamily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ami ou famille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friend or family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driverColleague</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un collègue de travail ou d'études</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A work colleague or fellow classmate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driverTaxi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chauffeur Taxi ou Uber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxi or Uber driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driverTransitTaxi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chauffeur Taxi collectif / transport à la demande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxibus / On-demand transport driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driverParaTransit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chauffeur Transport adapté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para-transit driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driverCarpool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chauffeur Covoiturage (ex: Amigo Express, Kangaride)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carsharing driver (ex: Amigo Express, Kangaride)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driverOther</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une autre personne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driverDontKnow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driverFamilyMemberSeq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personne {{sequence}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person {{sequence}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PreviousDepartureTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel}} quitté le lieu précédent ({{previousVisitedPlaceDescription}})?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did {{nickname}} leave the previous location ({{previousVisitedPlaceDescription}})?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure avez-vous quitté le lieu précédent ({{previousVisitedPlaceDescription}})?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did you leave the previous location ({{previousVisitedPlaceDescription}})?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PreviousDepartureTime_home_workUsual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel}} quitté le domicile pour aller au travail?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did {{nickname}} leave home before going to work?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure avez-vous quitté le domicile pour aller au travail?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did you leave home before going to work?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PreviousDepartureTime_home_schoolUsual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel}} quitté le domicile pour aller au lieu d'études/école?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did {{nickname}} leave home before going to school?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure avez-vous quitté le domicile pour aller au lieu d'études/école?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did you leave home before going to school?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PreviousDepartureTime_home_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel}} quitté le domicile pour aller à cet endroit ({{visitedPlaceDescription}})?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did {{nickname}} leave home before going to this place ({{visitedPlaceDescription}})?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure avez-vous quitté le domicile pour aller à cet endroit ({{visitedPlaceDescription}})?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did you leave home before going to this place ({{visitedPlaceDescription}})?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PreviousDepartureTime_home_workOnTheRoad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel}} quitté le domicile avant de débuter ses déplacements sur la route?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did {{nickname}} leave home before starting {{gender :his/her/their}} on the road trips?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure avez-vous quitté le domicile avant de débuter vos déplacements sur la route?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did you leave home before starting your on the road trips?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PreviousDepartureTime_usualWorkPlace_workOnTheRoad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel}} quitté son lieu de travail habituel avant de débuter ses déplacements sur la route?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t what time did {{nickname}} leave {{gender :his/her/their}} usual work place before starting {{gender :his/her/their}} on the road trips?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure avez-vous quitté votre lieu de travail habituel avant de débuter vos déplacements sur la route?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did you leave your usual work place before starting your on the road trips?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spécifier :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specify :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActivityCategoryFirstLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activité principale au lieu de départ de la journée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main activity carried out at the starting point of the day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActivityCategoryAfterHome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activité principale au premier lieu visité dans la journée après avoir quitté le domicile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main activity carried out at the first location visited after leaving home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActivityCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activité principale à ce lieu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main activity carried out at this location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VisitedPlaceSequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lieu {{count}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location #{{count}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lieu de départ de la journée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departure place for this day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfirmDeleteVisitedPlace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmez-vous que vous voulez retirer ce lieu?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you confirm that you want to remove this location?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom ou adresse du lieu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name or address of the place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_workUsual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Édifice du Phare, CPE les petits génies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lighthouse building, Les Petits génies CPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_workUsual_onTheRoadOften</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centre de distribution Rivières, Resto St-Hubert Alma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rivière distribution center, Alma St-Hubert BBQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_workNotUsual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palais des congrès de Montréal, Le Co-work du lac Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chateau Frontenac, Co-work on the Long lake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_schoolUsual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">École Marguerite-Bourgeoys, Collège CDI Québec, UQAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marguerite-Bourgeoys school, CDI College Québec, UQAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_schoolNotUsual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bibliothèque à Livre ouvert, École de musique Dorémi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National library, music school Doremi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_shopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centre d’achat Le Carrefour, Provigo St-Félicien, IKEA Boucherville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Carrefour shopping mall, Provigo St-Félicien, IKEA Boucherville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normandin de Lévis, Snack bar chez Raymond, Resto Subway de Rawdon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normandin in Lévis, Snack bar chez Raymond, Subway restaurant in Rawdon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_dropSomeone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gare d’autocar, Aréna des Collines, École des Pionniers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central bus station, des Collines arena, des Pionniers high school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_fetchSomeone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_leisureArtsMusicCulture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinéma des chutes, Théâtre de Verdure, Musée national des petits pots Masson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Des chutes cinema, de Verdure Theatre, Mason Jar National Museum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_leisureSports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nautilus St-Georges, Escalade La Grimpe, Parc de la Rose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nautilus St-Georges, Climbing La Grimpe, de la Rose Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_leisureTourism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camping Ste-Madeleine, Paris France, Hôtel Days Inn St-Flavien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camping Ste-Madeleine, Paris*France, Hotel Days Inn St-Flavien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_leisureStroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parc au bord de l’eau, Petit train du nord, Stroll de la Montagne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waterside park, Petit train du nord, de la Montagne promenade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_visiting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addresse de la personne visitée, Coin des Rossignols et de l’Étang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address of the visited person, corner des Rossignols and de l’Étang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_medical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinique Médicale des Marguerites, Hôpital régional de Rimouski, CLSC des Rivières</t>
+  </si>
+  <si>
+    <t xml:space="preserve">des Marguerites medical clinic, Rimouski regional hospital, des Rivières CLSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coiffure Dans le Vent, Caisse Desjardins de Limoilou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High class Hair saloon, Caisse Desjardins Limoilou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_worship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Église Saint-Nicéphore, Mosquée de la Capitale, Synagogue Maison Chabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint-Nicéphore church, de la Capitale mosque, Congregation Beth Israel Ohev Sholem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_secondaryHome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adresse de la résidence secondaire, nom du chalet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary home address, name of the chalet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationNameAddressExample_schoolNotStudent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institut Linguistique, École de conduite Tecnic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">language centre, Tecnic driving school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_previousPreviousDepartureTimeHomeToUsualWorkplace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{nickname}} a quitté le domicile pour aller à son lieu habituel de travail à?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{nickname}} left home to go to {{gender :his/her/their}} usual work place?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous avez quitté le domicile pour aller à votre lieu habituel de travail à?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You left home to go to your usual work place at?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_previousArrivalTimeDepartureTypeHome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure {{nickname}} est-{{gender :il/elle/iel}} arriv{{gender :é/ée/é.e}} au domicile avant de débuter ses déplacements sur la route?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did {{nickname}} arrive home before starting {{gender :his/her/their}} on the road trips?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure êtes-vous arriv{{gender :é/ée/é.e}} au domicile avant de débuter vos déplacements sur la route?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did you arrive home before starting your on the road trips?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_previousArrivalTimeDepartureTypeUsualWorkPlace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure {{nickname}} est-{{gender :il/elle/iel}} arriv{{gender :é/ée/é.e}} à son lieu de travail habituel avant de débuter ses déplacements sur la route?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did {{nickname}} arrive at his usual work place before starting {{gender :his/her/their}} on the road trips?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure êtes-vous arriv{{gender :é/ée/é.e}} à votre lieu de travail habituel avant de débuter vos déplacements sur la route?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did you arrive at your usual work place before starting your on the road trips?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_previousArrivalTimeDepartureTypeOther</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure {{nickname}} est-{{gender :il/elle/iel}} arriv{{gender :é/ée/é.e}} au lieu précédent ({{visitedPlaceDescription}}) avant de débuter ses déplacements sur la route?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did {{nickname}} arrive at the previous location ({{visitedPlaceDescription}}) before starting {{gender :his/her/their}} on the road trips?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle heure êtes-vous arriv{{gender :é/ée/é.e}} au le lieu précédent ({{visitedPlaceDescription}}) avant de débuter vos déplacements sur la route?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time did you arrive at the previous location ({{visitedPlaceDescription}}) before starting your on the road trips?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrivalTimeOnTheRoad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{nickname}} a commencé ses déplacements sur la route à: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{nickname}} started their work trip on the road at:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous avez commencé vos déplacements sur la route à:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You started your work trip on the road at:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrivalTimeStroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{nickname}} a commencé sa promenade à:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{nickname}} started their stroll at:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous avez commencé votre promenade à: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You started your stroll at:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">departureTimeStroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{nickname}} a terminé sa promenade à:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{nickname}} finished their stroll at:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous avez terminé votre promenade à:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You finished your stroll at:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">departureTimeOnTheRoad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{nickname}} a terminé ses déplacements sur la route à:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{nickname}} finished their work on the road at:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous avez terminé vos déplacements sur la route à:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You finished your work on the road at:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">errors.selectDontKnowWhenNoOtherChoiceSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sélectionnez "Je ne sais pas" seulement si aucun autre choix n'est sélectionné.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select "I don't know" only if no other choice is selected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">errors.selectNoWhenNoOtherChoiceSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sélectionnez "Non" seulement si aucun autre choix n'est sélectionné.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select "no" only if no other choice is selected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">errors.selectPreferNotToAnswerWhenNoOtherChoiceSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sélectionnez "Préfère ne pas répondre" seulement si aucun autre choix n'est sélectionné.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select "Prefer not to answer" only if no other choice is selected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">errors.selectNoTravelWhenNoOtherChoiceSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sélectionnez "Pas de déplacement" seulement si aucun autre choix n'est sélectionné.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select "No Travel" only if no other choice is selected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">errors.selectOneOrMoreAnswer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sélectionnez une ou des réponses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select one or multiple choices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">errors.selectNoRemoteWorkWhenNoOtherChoiceSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sélectionnez "Pas de télé-travail" seulement si aucun autre choix n'est sélectionné.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select "No remote work" only if no other choice is selected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">errors.selectNoRemoteStudyWhenNoOtherChoiceSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sélectionnez "Pas de télé-études" seulement si aucun autre choix n'est sélectionné.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select "No remote studies" only if no other choice is selected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onTheRoadArrivalTypeHome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onTheRoadArrivalTypeUsualWorkPlace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onTheRoadArrivalTypeOther</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onTheRoadArrivalTypeStayedThereUntilTheNextDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onDemandChoicesPickupAtOrigin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onDemandChoicesJoinedStop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nextPlaceRadioChoices.stayedHomeUntilTheNextDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rest{{gender :é/ée/é.e}} au domicile jusqu'au lendemain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed home until the next day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nextPlaceRadioChoices.stayedThereUntilTheNextDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rest{{gender :é/ée/é.e}} à cet endroit jusqu'au lendemain</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stayed at this place until the next day</t>
   </si>
   <si>
-    <t xml:space="preserve">J'ai complété mes déplacements sur la route après 4:00 du matin le lendemain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isLastPlaceCustomConditional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pickupAtOrigin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oui, il est venu chercher {{nickname}} à son lieu de départ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, it picked {{nickname}} up at their departure location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oui, il est venu me chercher à mon lieu de départ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, it picked me up at my departure location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">joinedStop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oui, {{nickname}} a rejoint un arrêt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, {{nickname}} went to a stop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oui, j'ai rejoint un arrêt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, I went to a stop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remoteWorkOrWorkAtHome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Télétravail / travail à la maison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remote work / work from home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onStrike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En grève</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On strike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leaveSicknessPersonalReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congé (maladie, personnel, autre)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leave (sick, personal, other)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noWork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pas de travail prévu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No work planned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distanceLearning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cours à distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distance learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schoolWasClosedStrike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">École fermée (grève)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">School was closed (strike)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noSchool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pas de cours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No classes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inputRangeName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">labelFrMin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">labelFrMiddle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">labelFrMax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">labelEnMin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">labelEnMiddle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">labelEnMax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unitFr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unitEn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input_color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trop court</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juste comme il faut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trop long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Too short</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Just right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Too long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pas du tout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neutre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Très intéressante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not at all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neutral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very interesting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red-yellow-green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Très facile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modérément difficile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Très difficile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very easy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moderately difficult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very difficult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">green-yellow-red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modérément pénible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Très pénible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moderately burdensome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very burdensome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addGroupedObject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajouter une personne manquante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add a missing person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deleteThisGroupedObject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supprimer cette personne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete this person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">segmentsIntroOnTheRoad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veuillez indiquer tous les modes de transport utilisés pour effectuer les déplacements sur la route, dans l'ordre chronologique:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please indicate all modes of transport used to complete work trip on the road, in chronological order:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">segmentsIntroStroll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veuillez indiquer tous les modes de transport utilisés pour effectuer la promenade, dans l'ordre chronologique:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please indicate all modes of transport used to complete the stroll, in chronological order:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">junctionGeographyRefreshGeocodingLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chercher le lieu de jonction à partir du nom ou de l'adresse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search the junction location using the place name or address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">driverFamily</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ami ou famille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friend or family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">driverColleague</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un collègue de travail ou d'études</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A work colleague or fellow classmate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">driverTaxi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chauffeur Taxi ou Uber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxi or Uber driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">driverTransitTaxi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chauffeur Taxi collectif / transport à la demande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxibus / On-demand transport driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">driverParaTransit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chauffeur Transport adapté</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para-transit driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">driverCarpool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chauffeur Covoiturage (ex: Amigo Express, Kangaride)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carsharing driver (ex: Amigo Express, Kangaride)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">driverOther</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Une autre personne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">driverDontKnow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">driverFamilyMemberSeq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personne {{sequence}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Person {{sequence}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PreviousDepartureTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel}} quitté le lieu précédent ({{previousVisitedPlaceDescription}})?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At what time did {{nickname}} leave the previous location ({{previousVisitedPlaceDescription}})?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À quelle heure avez-vous quitté le lieu précédent ({{previousVisitedPlaceDescription}})?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At what time did you leave the previous location ({{previousVisitedPlaceDescription}})?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PreviousDepartureTime_home_workUsual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel}} quitté le domicile pour aller au travail?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At what time did {{nickname}} leave home before going to work?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À quelle heure avez-vous quitté le domicile pour aller au travail?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At what time did you leave home before going to work?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PreviousDepartureTime_home_schoolUsual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel}} quitté le domicile pour aller au lieu d'études/école?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At what time did {{nickname}} leave home before going to school?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À quelle heure avez-vous quitté le domicile pour aller au lieu d'études/école?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At what time did you leave home before going to school?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PreviousDepartureTime_home_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel}} quitté le domicile pour aller à cet endroit ({{visitedPlaceDescription}})?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At what time did {{nickname}} leave home before going to this place ({{visitedPlaceDescription}})?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À quelle heure avez-vous quitté le domicile pour aller à cet endroit ({{visitedPlaceDescription}})?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At what time did you leave home before going to this place ({{visitedPlaceDescription}})?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PreviousDepartureTime_home_workOnTheRoad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel}} quitté le domicile avant de débuter ses déplacements sur la route?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At what time did {{nickname}} leave home before starting {{gender :his/her/their}} on the road trips?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À quelle heure avez-vous quitté le domicile avant de débuter vos déplacements sur la route?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At what time did you leave home before starting your on the road trips?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PreviousDepartureTime_usualWorkPlace_workOnTheRoad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel}} quitté son lieu de travail habituel avant de débuter ses déplacements sur la route?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t what time did {{nickname}} leave {{gender :his/her/their}} usual work place before starting {{gender :his/her/their}} on the road trips?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À quelle heure avez-vous quitté votre lieu de travail habituel avant de débuter vos déplacements sur la route?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At what time did you leave your usual work place before starting your on the road trips?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spécifier :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specify :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActivityCategoryFirstLocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activité principale au lieu de départ de la journée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main activity carried out at the starting point of the day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActivityCategoryAfterHome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activité principale au premier lieu visité dans la journée après avoir quitté le domicile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main activity carried out at the first location visited after leaving home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActivityCategory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activité principale à ce lieu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main activity carried out at this location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VisitedPlaceSequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lieu {{count}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location #{{count}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lieu de départ de la journée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departure place for this day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfirmDeleteVisitedPlace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirmez-vous que vous voulez retirer ce lieu?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you confirm that you want to remove this location?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LocationNameAddress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom ou adresse du lieu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name or address of the place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LocationNameAddressExample_workUsual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Édifice du Phare, CPE les petits génies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lighthouse building, Les Petits génies CPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LocationNameAddressExample_workUsual_onTheRoadOften</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre de distribution Rivières, Resto St-Hubert Alma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rivière distribution center, Alma St-Hubert BBQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LocationNameAddressExample_workNotUsual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palais des congrès de Montréal, Le Co-work du lac Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chateau Frontenac, Co-work on the Long lake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LocationNameAddressExample_schoolUsual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">École Marguerite-Bourgeoys, Collège CDI Québec, UQAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marguerite-Bourgeoys school, CDI College Québec, UQAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LocationNameAddressExample_schoolNotUsual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bibliothèque à Livre ouvert, École de musique Dorémi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National library, music school Doremi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LocationNameAddressExample_shopping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre d’achat Le Carrefour, Provigo St-Félicien, IKEA Boucherville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Carrefour shopping mall, Provigo St-Félicien, IKEA Boucherville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LocationNameAddressExample_restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normandin de Lévis, Snack bar chez Raymond, Resto Subway de Rawdon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normandin in Lévis, Snack bar chez Raymond, Subway restaurant in Rawdon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LocationNameAddressExample_dropSomeone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gare d’autocar, Aréna des Collines, École des Pionniers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central bus station, des Collines arena, des Pionniers high school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LocationNameAddressExample_fetchSomeone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LocationNameAddressExample_leisureArtsMusicCulture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cinéma des chutes, Théâtre de Verdure, Musée national des petits pots Masson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Des chutes cinema, de Verdure Theatre, Mason Jar National Museum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LocationNameAddressExample_leisureSports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nautilus St-Georges, Escalade La Grimpe, Parc de la Rose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nautilus St-Georges, Climbing La Grimpe, de la Rose Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LocationNameAddressExample_leisureTourism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camping Ste-Madeleine, Paris France, Hôtel Days Inn St-Flavien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camping Ste-Madeleine, Paris*France, Hotel Days Inn St-Flavien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LocationNameAddressExample_leisureStroll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parc au bord de l’eau, Petit train du nord, Stroll de la Montagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waterside park, Petit train du nord, de la Montagne promenade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LocationNameAddressExample_visiting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Addresse de la personne visitée, Coin des Rossignols et de l’Étang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address of the visited person, corner des Rossignols and de l’Étang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LocationNameAddressExample_medical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinique Médicale des Marguerites, Hôpital régional de Rimouski, CLSC des Rivières</t>
-  </si>
-  <si>
-    <t xml:space="preserve">des Marguerites medical clinic, Rimouski regional hospital, des Rivières CLSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LocationNameAddressExample_service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coiffure Dans le Vent, Caisse Desjardins de Limoilou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High class Hair saloon, Caisse Desjardins Limoilou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LocationNameAddressExample_worship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Église Saint-Nicéphore, Mosquée de la Capitale, Synagogue Maison Chabad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint-Nicéphore church, de la Capitale mosque, Congregation Beth Israel Ohev Sholem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LocationNameAddressExample_secondaryHome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adresse de la résidence secondaire, nom du chalet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secondary home address, name of the chalet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LocationNameAddressExample_schoolNotStudent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institut Linguistique, École de conduite Tecnic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">language centre, Tecnic driving school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_previousPreviousDepartureTimeHomeToUsualWorkplace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{nickname}} a quitté le domicile pour aller à son lieu habituel de travail à?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{nickname}} left home to go to {{gender :his/her/their}} usual work place?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vous avez quitté le domicile pour aller à votre lieu habituel de travail à?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You left home to go to your usual work place at?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_previousArrivalTimeDepartureTypeHome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À quelle heure {{nickname}} est-{{gender :il/elle/iel}} arriv{{gender :é/ée/é.e}} au domicile avant de débuter ses déplacements sur la route?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At what time did {{nickname}} arrive home before starting {{gender :his/her/their}} on the road trips?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À quelle heure êtes-vous arriv{{gender :é/ée/é.e}} au domicile avant de débuter vos déplacements sur la route?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At what time did you arrive home before starting your on the road trips?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_previousArrivalTimeDepartureTypeUsualWorkPlace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À quelle heure {{nickname}} est-{{gender :il/elle/iel}} arriv{{gender :é/ée/é.e}} à son lieu de travail habituel avant de débuter ses déplacements sur la route?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At what time did {{nickname}} arrive at his usual work place before starting {{gender :his/her/their}} on the road trips?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À quelle heure êtes-vous arriv{{gender :é/ée/é.e}} à votre lieu de travail habituel avant de débuter vos déplacements sur la route?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At what time did you arrive at your usual work place before starting your on the road trips?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_previousArrivalTimeDepartureTypeOther</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À quelle heure {{nickname}} est-{{gender :il/elle/iel}} arriv{{gender :é/ée/é.e}} au lieu précédent (${visitedPlaceDescription}) avant de débuter ses déplacements sur la route?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At what time did {{nickname}} arrive at the previous location ({{visitedPlaceDescription}}) before starting {{gender :his/her/their}} on the road trips?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À quelle heure êtes-vous arriv{{gender :é/ée/é.e}} au le lieu précédent ({{visitedPlaceDescription}}) avant de débuter vos déplacements sur la route?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At what time did you arrive at the previous location ({{visitedPlaceDescription}}) before starting your on the road trips?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arrivalTimeOnTheRoad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{nickname}} a commencé ses déplacements sur la route à: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{nickname}} started their work trip on the road at:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vous avez commencé vos déplacements sur la route à:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You started your work trip on the road at:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arrivalTimeStroll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{nickname}} a commencé sa promenade à:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{nickname}} started their stroll at:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vous avez commencé votre promenade à: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">You started your stroll at:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">departureTimeStroll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{nickname}} a terminé sa promenade à:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{nickname}} finished their stroll at:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vous avez terminé votre promenade à:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You finished your stroll at:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">departureTimeOnTheRoad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{nickname}} a terminé ses déplacements sur la route à:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{nickname}} finished their work on the road at:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vous avez terminé vos déplacements sur la route à:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You finished your work on the road at:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">errors.selectDontKnowWhenNoOtherChoiceSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sélectionnez "Je ne sais pas" seulement si aucun autre choix n'est sélectionné.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select "I don't know" only if no other choice is selected.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">errors.selectNoWhenNoOtherChoiceSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sélectionnez "Non" seulement si aucun autre choix n'est sélectionné.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select "no" only if no other choice is selected.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">errors.selectPreferNotToAnswerWhenNoOtherChoiceSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sélectionnez "Préfère ne pas répondre" seulement si aucun autre choix n'est sélectionné.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select "Prefer not to answer" only if no other choice is selected.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">errors.selectNoTravelWhenNoOtherChoiceSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sélectionnez "Pas de déplacement" seulement si aucun autre choix n'est sélectionné.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select "No Travel" only if no other choice is selected.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">errors.selectOneOrMoreAnswer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sélectionnez une ou des réponses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select one or multiple choices.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">errors.selectNoRemoteWorkWhenNoOtherChoiceSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sélectionnez "Pas de télé-travail" seulement si aucun autre choix n'est sélectionné.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select "No remote work" only if no other choice is selected.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">errors.selectNoRemoteStudyWhenNoOtherChoiceSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sélectionnez "Pas de télé-études" seulement si aucun autre choix n'est sélectionné.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select "No remote studies" only if no other choice is selected.</t>
+    <t xml:space="preserve">nextPlaceRadioChoices.visitedAnotherPlace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All{{gender :é/ée/é.e}} ou arrét{{gender :é/ée/é.e}} à un autre endroit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Went or stopped elsewhere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nextPlaceRadioChoices.wentBackHome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retourn{{gender :é/ée/é.e}} au domicile directement ({{address}})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returned home directly ({{address}})</t>
   </si>
 </sst>
 </file>
@@ -4457,11 +4520,11 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K85" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
-      <selection pane="bottomRight" activeCell="G40" activeCellId="0" sqref="G40"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A85" activeCellId="0" sqref="A85"/>
+      <selection pane="bottomRight" activeCell="O96" activeCellId="0" sqref="O96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11705,8 +11768,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C85" activeCellId="0" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13055,7 +13118,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="33" t="s">
-        <v>337</v>
+        <v>844</v>
       </c>
       <c r="B80" s="53" t="s">
         <v>27</v>
@@ -13069,16 +13132,16 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="33" t="s">
-        <v>337</v>
+        <v>844</v>
       </c>
       <c r="B81" s="53" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C81" s="53" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D81" s="53" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H81" s="53" t="s">
         <v>636</v>
@@ -13086,81 +13149,84 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="33" t="s">
-        <v>337</v>
+        <v>844</v>
       </c>
       <c r="B82" s="53" t="s">
         <v>143</v>
       </c>
       <c r="C82" s="53" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D82" s="53" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="33" t="s">
-        <v>337</v>
+        <v>844</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>852</v>
+        <v>853</v>
+      </c>
+      <c r="F83" s="26" t="s">
+        <v>854</v>
       </c>
       <c r="H83" s="53" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="33" t="s">
-        <v>466</v>
+        <v>856</v>
       </c>
       <c r="B84" s="53" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F84" s="26" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="33" t="s">
-        <v>466</v>
+        <v>856</v>
       </c>
       <c r="B85" s="53" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="F85" s="26" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="33" t="s">
-        <v>466</v>
+        <v>856</v>
       </c>
       <c r="B86" s="53" t="s">
         <v>680</v>
@@ -13177,13 +13243,13 @@
         <v>497</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13191,13 +13257,13 @@
         <v>497</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13205,13 +13271,13 @@
         <v>497</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13219,13 +13285,13 @@
         <v>497</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13249,13 +13315,13 @@
         <v>512</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13263,13 +13329,13 @@
         <v>512</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13277,13 +13343,13 @@
         <v>512</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13291,13 +13357,13 @@
         <v>512</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13357,40 +13423,40 @@
   <sheetData>
     <row r="1" s="57" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="60" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="E1" s="60" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="G1" s="60" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="H1" s="60" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="I1" s="60" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="J1" s="60" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="K1" s="60" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="L1" s="57" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13398,22 +13464,22 @@
         <v>568</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="H2" s="40" t="n">
         <v>-10</v>
@@ -13422,13 +13488,13 @@
         <v>100</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="L2" s="40" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13436,22 +13502,22 @@
         <v>577</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="H3" s="40" t="n">
         <v>-10</v>
@@ -13460,13 +13526,13 @@
         <v>100</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="K3" s="40" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="L3" s="40" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13474,22 +13540,22 @@
         <v>582</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="H4" s="40" t="n">
         <v>-10</v>
@@ -13498,13 +13564,13 @@
         <v>100</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="L4" s="40" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13512,22 +13578,22 @@
         <v>587</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H5" s="40" t="n">
         <v>-10</v>
@@ -13536,13 +13602,13 @@
         <v>100</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="K5" s="40" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="L5" s="40" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -13563,8 +13629,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C67" activeCellId="0" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13600,13 +13666,13 @@
         <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -13616,13 +13682,13 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -13632,13 +13698,13 @@
         <v>403</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="E4" s="26"/>
     </row>
@@ -13647,13 +13713,13 @@
         <v>403</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13661,13 +13727,13 @@
         <v>403</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13675,13 +13741,13 @@
         <v>403</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13689,13 +13755,13 @@
         <v>403</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13703,13 +13769,13 @@
         <v>403</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13717,13 +13783,13 @@
         <v>403</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13731,13 +13797,13 @@
         <v>403</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13745,13 +13811,13 @@
         <v>403</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13759,13 +13825,13 @@
         <v>403</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13773,7 +13839,7 @@
         <v>403</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>689</v>
@@ -13787,13 +13853,13 @@
         <v>403</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13801,19 +13867,19 @@
         <v>302</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13821,19 +13887,19 @@
         <v>302</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13841,19 +13907,19 @@
         <v>302</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13861,19 +13927,19 @@
         <v>302</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13881,19 +13947,19 @@
         <v>302</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13901,19 +13967,19 @@
         <v>302</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13921,13 +13987,13 @@
         <v>302</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13935,13 +14001,13 @@
         <v>302</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13949,13 +14015,13 @@
         <v>302</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13963,13 +14029,13 @@
         <v>302</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13977,19 +14043,19 @@
         <v>302</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13997,13 +14063,13 @@
         <v>302</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14011,13 +14077,13 @@
         <v>302</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14025,13 +14091,13 @@
         <v>302</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14039,13 +14105,13 @@
         <v>302</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14053,13 +14119,13 @@
         <v>302</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14067,13 +14133,13 @@
         <v>302</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14081,13 +14147,13 @@
         <v>302</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14095,13 +14161,13 @@
         <v>302</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14109,13 +14175,13 @@
         <v>302</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14123,13 +14189,13 @@
         <v>302</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14137,13 +14203,13 @@
         <v>302</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14151,13 +14217,13 @@
         <v>302</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14165,13 +14231,13 @@
         <v>302</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14179,13 +14245,13 @@
         <v>302</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14193,13 +14259,13 @@
         <v>302</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14207,13 +14273,13 @@
         <v>302</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14221,13 +14287,13 @@
         <v>302</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14235,13 +14301,13 @@
         <v>302</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14249,13 +14315,13 @@
         <v>302</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14263,13 +14329,13 @@
         <v>302</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14277,13 +14343,13 @@
         <v>302</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14291,19 +14357,19 @@
         <v>302</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14311,19 +14377,19 @@
         <v>302</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14331,19 +14397,19 @@
         <v>302</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14351,19 +14417,19 @@
         <v>302</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14371,19 +14437,19 @@
         <v>302</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14391,19 +14457,19 @@
         <v>302</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14411,19 +14477,19 @@
         <v>302</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14431,19 +14497,19 @@
         <v>302</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14451,13 +14517,13 @@
         <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14465,13 +14531,13 @@
         <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14479,13 +14545,13 @@
         <v>108</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14493,13 +14559,13 @@
         <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14507,13 +14573,13 @@
         <v>108</v>
       </c>
       <c r="B60" s="62" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14521,13 +14587,13 @@
         <v>108</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14535,15 +14601,181 @@
         <v>108</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>1131</v>
-      </c>
-    </row>
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="B63" s="53" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C63" s="53" t="s">
+        <v>648</v>
+      </c>
+      <c r="D63" s="53" t="s">
+        <v>649</v>
+      </c>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="B64" s="53" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C64" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="D64" s="53" t="s">
+        <v>847</v>
+      </c>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="B65" s="53" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C65" s="53" t="s">
+        <v>848</v>
+      </c>
+      <c r="D65" s="53" t="s">
+        <v>849</v>
+      </c>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>851</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>852</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>853</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="B67" s="53" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>858</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>859</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>860</v>
+      </c>
+      <c r="F67" s="26" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="B68" s="53" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>863</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>864</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>865</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C72" s="31" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/survey/references/OD_nationale_quebec_2025.xlsx
+++ b/survey/references/OD_nationale_quebec_2025.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="1181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="1181">
   <si>
     <t xml:space="preserve">questionName</t>
   </si>
@@ -880,49 +880,51 @@
     <t xml:space="preserve">Who do you want to continue the interview for?</t>
   </si>
   <si>
+    <t xml:space="preserve">buttonSelectPersonConfirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sélectionner cette personne et continuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select this person and continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activePersonTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tripsIntro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p class="_center _em" style="margin-bottom: 0;"&gt;Entrevue de **{{nickname}}**&lt;/p&gt;&lt;p class="_center _pale"&gt;•&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p class="_center _em" style="margin-bottom: 0;"&gt;**{{nickname}}**’s interview&lt;/p&gt;&lt;p class="_center _pale"&gt;•&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom because it uses the builtin widget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buttonSwitchPerson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changer de personne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change person</t>
+  </si>
+  <si>
     <t xml:space="preserve">personNewPerson</t>
   </si>
   <si>
     <t xml:space="preserve">_showNewPersonPopupButton</t>
   </si>
   <si>
-    <t xml:space="preserve">Nous allons débuter avec les déplacements de {{nickname}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We'll start with the trips made by {{nickname}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buttonSelectPersonConfirm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sélectionner cette personne et continuer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select this person and continue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">activePersonTitle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tripsIntro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p class="_center _em" style="margin-bottom: 0;"&gt;Entrevue de **{{nickname}}**&lt;/p&gt;&lt;p class="_center _pale"&gt;•&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p class="_center _em" style="margin-bottom: 0;"&gt;**{{nickname}}**’s interview&lt;/p&gt;&lt;p class="_center _pale"&gt;•&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Custom because it uses the builtin widget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buttonSwitchPerson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changer de personne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change person</t>
+    <t xml:space="preserve">Nous allons vous demander de spécifier les déplacements de **{{nickname}}**.
+L’ordre des personnes interviewées est aléatoire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will ask you to specify **{{nickname}}**’s trips.
+The order of the interviewed persons was randomly selected.</t>
   </si>
   <si>
     <t xml:space="preserve">personWhoWillAnswerForThisPerson</t>
@@ -4613,14 +4615,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD128"/>
+  <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
-      <selection pane="bottomRight" activeCell="M40" activeCellId="0" sqref="M40"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="H48" activeCellId="0" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6935,7 +6937,7 @@
         <v>257</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C45" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -6944,15 +6946,15 @@
       <c r="D45" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="E45" s="29"/>
+      <c r="E45" s="10"/>
       <c r="F45" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="H45" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>260</v>
       </c>
       <c r="I45" s="28"/>
       <c r="J45" s="28"/>
@@ -6971,50 +6973,58 @@
       <c r="W45" s="29"/>
       <c r="X45" s="29"/>
     </row>
-    <row r="46" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D46" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="B46" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" s="28" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10" t="s">
-        <v>261</v>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29" t="s">
+        <v>260</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H46" s="31" t="s">
         <v>263</v>
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
       <c r="K46" s="28"/>
       <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
+      <c r="M46" s="31" t="s">
+        <v>101</v>
+      </c>
       <c r="N46" s="29"/>
       <c r="O46" s="29"/>
       <c r="P46" s="29"/>
       <c r="Q46" s="29"/>
       <c r="R46" s="29"/>
       <c r="S46" s="29"/>
-      <c r="T46" s="28"/>
+      <c r="T46" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
       <c r="U46" s="29"/>
       <c r="V46" s="29"/>
       <c r="W46" s="29"/>
       <c r="X46" s="29"/>
-    </row>
-    <row r="47" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y46" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B47" s="28" t="s">
         <v>73</v>
@@ -7024,46 +7034,38 @@
         <v>1</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E47" s="29"/>
       <c r="F47" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="G47" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="G47" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="H47" s="31" t="s">
+      <c r="H47" s="28" t="s">
         <v>267</v>
       </c>
       <c r="I47" s="28"/>
       <c r="J47" s="28"/>
       <c r="K47" s="28"/>
       <c r="L47" s="29"/>
-      <c r="M47" s="31" t="s">
-        <v>101</v>
-      </c>
+      <c r="M47" s="29"/>
       <c r="N47" s="29"/>
       <c r="O47" s="29"/>
       <c r="P47" s="29"/>
       <c r="Q47" s="29"/>
       <c r="R47" s="29"/>
       <c r="S47" s="29"/>
-      <c r="T47" s="28" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T47" s="28"/>
       <c r="U47" s="29"/>
       <c r="V47" s="29"/>
       <c r="W47" s="29"/>
       <c r="X47" s="29"/>
-      <c r="Y47" s="2" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="10" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
-        <v>269</v>
       </c>
       <c r="B48" s="28" t="s">
         <v>73</v>
@@ -7073,16 +7075,16 @@
         <v>1</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E48" s="29"/>
-      <c r="F48" s="29" t="s">
+      <c r="F48" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="G48" s="28" t="s">
+      <c r="G48" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="H48" s="28" t="s">
+      <c r="H48" s="10" t="s">
         <v>271</v>
       </c>
       <c r="I48" s="28"/>
@@ -7104,7 +7106,7 @@
     </row>
     <row r="49" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="B49" s="28" t="s">
         <v>73</v>
@@ -7114,17 +7116,17 @@
         <v>1</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E49" s="29"/>
       <c r="F49" s="10" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="I49" s="28"/>
       <c r="J49" s="28"/>
@@ -7143,9 +7145,9 @@
       <c r="W49" s="29"/>
       <c r="X49" s="29"/>
     </row>
-    <row r="50" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B50" s="28" t="s">
         <v>73</v>
@@ -7155,20 +7157,24 @@
         <v>1</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E50" s="29"/>
       <c r="F50" s="10" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
+        <v>278</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>280</v>
+      </c>
       <c r="K50" s="28"/>
       <c r="L50" s="29"/>
       <c r="M50" s="29"/>
@@ -7184,9 +7190,9 @@
       <c r="W50" s="29"/>
       <c r="X50" s="29"/>
     </row>
-    <row r="51" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B51" s="28" t="s">
         <v>73</v>
@@ -7196,23 +7202,23 @@
         <v>1</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E51" s="29"/>
       <c r="F51" s="10" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K51" s="28"/>
       <c r="L51" s="29"/>
@@ -7229,9 +7235,9 @@
       <c r="W51" s="29"/>
       <c r="X51" s="29"/>
     </row>
-    <row r="52" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="377.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B52" s="28" t="s">
         <v>73</v>
@@ -7241,23 +7247,23 @@
         <v>1</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E52" s="29"/>
-      <c r="F52" s="10" t="s">
-        <v>281</v>
+      <c r="F52" s="29" t="s">
+        <v>287</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="K52" s="28"/>
       <c r="L52" s="29"/>
@@ -7274,9 +7280,9 @@
       <c r="W52" s="29"/>
       <c r="X52" s="29"/>
     </row>
-    <row r="53" customFormat="false" ht="377.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B53" s="28" t="s">
         <v>73</v>
@@ -7286,23 +7292,23 @@
         <v>1</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E53" s="29"/>
       <c r="F53" s="29" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="K53" s="28"/>
       <c r="L53" s="29"/>
@@ -7319,126 +7325,122 @@
       <c r="W53" s="29"/>
       <c r="X53" s="29"/>
     </row>
-    <row r="54" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="C54" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E54" s="29"/>
-      <c r="F54" s="29" t="s">
-        <v>293</v>
+      <c r="F54" s="10" t="s">
+        <v>299</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="K54" s="28"/>
       <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
+      <c r="M54" s="29" t="s">
+        <v>304</v>
+      </c>
       <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
+      <c r="O54" s="29" t="s">
+        <v>305</v>
+      </c>
       <c r="P54" s="29"/>
       <c r="Q54" s="29"/>
       <c r="R54" s="29"/>
       <c r="S54" s="29"/>
-      <c r="T54" s="28"/>
+      <c r="T54" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
       <c r="U54" s="29"/>
       <c r="V54" s="29"/>
       <c r="W54" s="29"/>
       <c r="X54" s="29"/>
     </row>
-    <row r="55" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="C55" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E55" s="29"/>
-      <c r="F55" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="J55" s="10" t="s">
-        <v>303</v>
-      </c>
+      <c r="F55" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
       <c r="K55" s="28"/>
       <c r="L55" s="29"/>
-      <c r="M55" s="29" t="s">
-        <v>304</v>
-      </c>
+      <c r="M55" s="29"/>
       <c r="N55" s="29"/>
-      <c r="O55" s="29" t="s">
-        <v>305</v>
-      </c>
+      <c r="O55" s="29"/>
       <c r="P55" s="29"/>
       <c r="Q55" s="29"/>
       <c r="R55" s="29"/>
       <c r="S55" s="29"/>
-      <c r="T55" s="28" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T55" s="28"/>
       <c r="U55" s="29"/>
       <c r="V55" s="29"/>
       <c r="W55" s="29"/>
       <c r="X55" s="29"/>
     </row>
-    <row r="56" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="C56" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E56" s="29"/>
       <c r="F56" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="G56" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="H56" s="28" t="s">
-        <v>309</v>
+        <v>310</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="H56" s="32" t="s">
+        <v>312</v>
       </c>
       <c r="I56" s="28"/>
       <c r="J56" s="28"/>
@@ -7451,41 +7453,46 @@
       <c r="Q56" s="29"/>
       <c r="R56" s="29"/>
       <c r="S56" s="29"/>
-      <c r="T56" s="28"/>
+      <c r="T56" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
       <c r="U56" s="29"/>
       <c r="V56" s="29"/>
       <c r="W56" s="29"/>
       <c r="X56" s="29"/>
     </row>
-    <row r="57" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" s="2" customFormat="true" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C57" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="E57" s="29"/>
       <c r="F57" s="29" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="H57" s="32" t="s">
-        <v>312</v>
+        <v>262</v>
+      </c>
+      <c r="H57" s="31" t="s">
+        <v>263</v>
       </c>
       <c r="I57" s="28"/>
       <c r="J57" s="28"/>
       <c r="K57" s="28"/>
       <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
+      <c r="M57" s="31" t="s">
+        <v>101</v>
+      </c>
       <c r="N57" s="29"/>
       <c r="O57" s="29"/>
       <c r="P57" s="29"/>
@@ -7500,10 +7507,13 @@
       <c r="V57" s="29"/>
       <c r="W57" s="29"/>
       <c r="X57" s="29"/>
-    </row>
-    <row r="58" s="2" customFormat="true" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y57" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B58" s="28" t="s">
         <v>73</v>
@@ -7517,47 +7527,42 @@
       </c>
       <c r="E58" s="29"/>
       <c r="F58" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="G58" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="G58" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="H58" s="31" t="s">
+      <c r="H58" s="28" t="s">
         <v>267</v>
       </c>
       <c r="I58" s="28"/>
       <c r="J58" s="28"/>
       <c r="K58" s="28"/>
       <c r="L58" s="29"/>
-      <c r="M58" s="31" t="s">
-        <v>101</v>
-      </c>
+      <c r="M58" s="29"/>
       <c r="N58" s="29"/>
       <c r="O58" s="29"/>
       <c r="P58" s="29"/>
       <c r="Q58" s="29"/>
       <c r="R58" s="29"/>
       <c r="S58" s="29"/>
-      <c r="T58" s="28" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T58" s="28"/>
       <c r="U58" s="29"/>
       <c r="V58" s="29"/>
       <c r="W58" s="29"/>
       <c r="X58" s="29"/>
-      <c r="Y58" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y58" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="B59" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="28" t="b">
+      <c r="C59" s="28" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7565,17 +7570,21 @@
         <v>313</v>
       </c>
       <c r="E59" s="29"/>
-      <c r="F59" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="G59" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="H59" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
+      <c r="F59" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>319</v>
+      </c>
       <c r="K59" s="28"/>
       <c r="L59" s="29"/>
       <c r="M59" s="29"/>
@@ -7585,18 +7594,21 @@
       <c r="Q59" s="29"/>
       <c r="R59" s="29"/>
       <c r="S59" s="29"/>
-      <c r="T59" s="28"/>
+      <c r="T59" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
       <c r="U59" s="29"/>
       <c r="V59" s="29"/>
       <c r="W59" s="29"/>
       <c r="X59" s="29"/>
       <c r="Y59" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B60" s="28" t="s">
         <v>73</v>
@@ -7610,19 +7622,17 @@
       </c>
       <c r="E60" s="29"/>
       <c r="F60" s="10" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="J60" s="10" t="s">
-        <v>319</v>
+        <v>324</v>
+      </c>
+      <c r="I60" s="10"/>
+      <c r="J60" s="33" t="s">
+        <v>325</v>
       </c>
       <c r="K60" s="28"/>
       <c r="L60" s="29"/>
@@ -7633,26 +7643,23 @@
       <c r="Q60" s="29"/>
       <c r="R60" s="29"/>
       <c r="S60" s="29"/>
-      <c r="T60" s="28" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T60" s="28"/>
       <c r="U60" s="29"/>
       <c r="V60" s="29"/>
       <c r="W60" s="29"/>
       <c r="X60" s="29"/>
       <c r="Y60" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B61" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="28" t="n">
+      <c r="C61" s="34" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7661,18 +7668,12 @@
       </c>
       <c r="E61" s="29"/>
       <c r="F61" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="I61" s="10"/>
-      <c r="J61" s="33" t="s">
-        <v>325</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="G61" s="10"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
       <c r="K61" s="28"/>
       <c r="L61" s="29"/>
       <c r="M61" s="29"/>
@@ -7687,13 +7688,10 @@
       <c r="V61" s="29"/>
       <c r="W61" s="29"/>
       <c r="X61" s="29"/>
-      <c r="Y61" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="62" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B62" s="28" t="s">
         <v>73</v>
@@ -7705,9 +7703,11 @@
       <c r="D62" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="E62" s="29"/>
-      <c r="F62" s="10" t="s">
-        <v>328</v>
+      <c r="E62" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>330</v>
       </c>
       <c r="G62" s="10"/>
       <c r="H62" s="32"/>
@@ -7727,10 +7727,13 @@
       <c r="V62" s="29"/>
       <c r="W62" s="29"/>
       <c r="X62" s="29"/>
-    </row>
-    <row r="63" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Y62" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B63" s="28" t="s">
         <v>73</v>
@@ -7746,7 +7749,7 @@
         <v>327</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="32"/>
@@ -7767,12 +7770,12 @@
       <c r="W63" s="29"/>
       <c r="X63" s="29"/>
       <c r="Y63" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B64" s="28" t="s">
         <v>73</v>
@@ -7787,13 +7790,21 @@
       <c r="E64" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="F64" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="G64" s="10"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
+      <c r="F64" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="H64" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>340</v>
+      </c>
       <c r="K64" s="28"/>
       <c r="L64" s="29"/>
       <c r="M64" s="29"/>
@@ -7808,16 +7819,13 @@
       <c r="V64" s="29"/>
       <c r="W64" s="29"/>
       <c r="X64" s="29"/>
-      <c r="Y64" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="65" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="C65" s="34" t="n">
         <f aca="false">TRUE()</f>
@@ -7830,25 +7838,29 @@
         <v>327</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="H65" s="32" t="s">
-        <v>338</v>
+        <v>343</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K65" s="28"/>
       <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
+      <c r="M65" s="29" t="s">
+        <v>347</v>
+      </c>
       <c r="N65" s="29"/>
-      <c r="O65" s="29"/>
+      <c r="O65" s="29" t="s">
+        <v>348</v>
+      </c>
       <c r="P65" s="29"/>
       <c r="Q65" s="29"/>
       <c r="R65" s="29"/>
@@ -7858,10 +7870,13 @@
       <c r="V65" s="29"/>
       <c r="W65" s="29"/>
       <c r="X65" s="29"/>
-    </row>
-    <row r="66" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Y65" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="69.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="B66" s="28" t="s">
         <v>33</v>
@@ -7877,48 +7892,48 @@
         <v>327</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="K66" s="28"/>
       <c r="L66" s="29"/>
       <c r="M66" s="29" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="N66" s="29"/>
       <c r="O66" s="29" t="s">
-        <v>348</v>
+        <v>36</v>
       </c>
       <c r="P66" s="29"/>
       <c r="Q66" s="29"/>
       <c r="R66" s="29"/>
       <c r="S66" s="29"/>
-      <c r="T66" s="28"/>
+      <c r="T66" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
       <c r="U66" s="29"/>
       <c r="V66" s="29"/>
       <c r="W66" s="29"/>
       <c r="X66" s="29"/>
-      <c r="Y66" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="69.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="67" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C67" s="34" t="n">
         <f aca="false">TRUE()</f>
@@ -7930,46 +7945,38 @@
       <c r="E67" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="F67" s="10" t="s">
-        <v>351</v>
+      <c r="F67" s="29" t="s">
+        <v>358</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="I67" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="J67" s="10" t="s">
-        <v>355</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
       <c r="K67" s="28"/>
       <c r="L67" s="29"/>
-      <c r="M67" s="29" t="s">
-        <v>356</v>
-      </c>
+      <c r="M67" s="29"/>
       <c r="N67" s="29"/>
-      <c r="O67" s="29" t="s">
-        <v>36</v>
-      </c>
+      <c r="O67" s="29"/>
       <c r="P67" s="29"/>
       <c r="Q67" s="29"/>
       <c r="R67" s="29"/>
       <c r="S67" s="29"/>
-      <c r="T67" s="28" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T67" s="28"/>
       <c r="U67" s="29"/>
       <c r="V67" s="29"/>
       <c r="W67" s="29"/>
       <c r="X67" s="29"/>
+      <c r="Y67" s="1" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B68" s="28" t="s">
         <v>73</v>
@@ -7985,14 +7992,10 @@
         <v>327</v>
       </c>
       <c r="F68" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>360</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="G68" s="10"/>
+      <c r="H68" s="32"/>
       <c r="I68" s="28"/>
       <c r="J68" s="28"/>
       <c r="K68" s="28"/>
@@ -8010,12 +8013,12 @@
       <c r="W68" s="29"/>
       <c r="X68" s="29"/>
       <c r="Y68" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B69" s="28" t="s">
         <v>73</v>
@@ -8030,11 +8033,15 @@
       <c r="E69" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="F69" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="G69" s="10"/>
-      <c r="H69" s="32"/>
+      <c r="F69" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>368</v>
+      </c>
       <c r="I69" s="28"/>
       <c r="J69" s="28"/>
       <c r="K69" s="28"/>
@@ -8052,12 +8059,12 @@
       <c r="W69" s="29"/>
       <c r="X69" s="29"/>
       <c r="Y69" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B70" s="28" t="s">
         <v>73</v>
@@ -8073,16 +8080,20 @@
         <v>327</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
+        <v>373</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>375</v>
+      </c>
       <c r="K70" s="28"/>
       <c r="L70" s="29"/>
       <c r="M70" s="29"/>
@@ -8098,12 +8109,12 @@
       <c r="W70" s="29"/>
       <c r="X70" s="29"/>
       <c r="Y70" s="1" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B71" s="28" t="s">
         <v>73</v>
@@ -8119,20 +8130,12 @@
         <v>327</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="H71" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="I71" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="J71" s="10" t="s">
-        <v>375</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G71" s="10"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
       <c r="K71" s="28"/>
       <c r="L71" s="29"/>
       <c r="M71" s="29"/>
@@ -8151,9 +8154,9 @@
         <v>376</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B72" s="28" t="s">
         <v>73</v>
@@ -8169,7 +8172,7 @@
         <v>327</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G72" s="10"/>
       <c r="H72" s="32"/>
@@ -8193,9 +8196,9 @@
         <v>376</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B73" s="28" t="s">
         <v>73</v>
@@ -8210,13 +8213,21 @@
       <c r="E73" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="F73" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="G73" s="10"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
+      <c r="F73" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="J73" s="10" t="s">
+        <v>386</v>
+      </c>
       <c r="K73" s="28"/>
       <c r="L73" s="29"/>
       <c r="M73" s="29"/>
@@ -8232,12 +8243,12 @@
       <c r="W73" s="29"/>
       <c r="X73" s="29"/>
       <c r="Y73" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="10" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B74" s="28" t="s">
         <v>73</v>
@@ -8252,20 +8263,20 @@
       <c r="E74" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="F74" s="29" t="s">
-        <v>382</v>
+      <c r="F74" s="10" t="s">
+        <v>389</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K74" s="28"/>
       <c r="L74" s="29"/>
@@ -8282,12 +8293,12 @@
       <c r="W74" s="29"/>
       <c r="X74" s="29"/>
       <c r="Y74" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B75" s="28" t="s">
         <v>73</v>
@@ -8303,19 +8314,19 @@
         <v>327</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="K75" s="28"/>
       <c r="L75" s="29"/>
@@ -8332,12 +8343,12 @@
       <c r="W75" s="29"/>
       <c r="X75" s="29"/>
       <c r="Y75" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="10" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B76" s="28" t="s">
         <v>73</v>
@@ -8352,21 +8363,17 @@
       <c r="E76" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="F76" s="10" t="s">
-        <v>396</v>
+      <c r="F76" s="29" t="s">
+        <v>402</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="H76" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="I76" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="J76" s="10" t="s">
-        <v>400</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="H76" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
       <c r="K76" s="28"/>
       <c r="L76" s="29"/>
       <c r="M76" s="29"/>
@@ -8382,12 +8389,12 @@
       <c r="W76" s="29"/>
       <c r="X76" s="29"/>
       <c r="Y76" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="10" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B77" s="28" t="s">
         <v>73</v>
@@ -8402,15 +8409,9 @@
       <c r="E77" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="F77" s="29" t="s">
-        <v>402</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="H77" s="32" t="s">
-        <v>404</v>
-      </c>
+      <c r="F77" s="29"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="32"/>
       <c r="I77" s="28"/>
       <c r="J77" s="28"/>
       <c r="K77" s="28"/>
@@ -8431,9 +8432,9 @@
         <v>405</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B78" s="28" t="s">
         <v>73</v>
@@ -8471,9 +8472,9 @@
         <v>405</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B79" s="28" t="s">
         <v>73</v>
@@ -8485,17 +8486,23 @@
       <c r="D79" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="E79" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="F79" s="29"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="32"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>411</v>
+      </c>
       <c r="I79" s="28"/>
       <c r="J79" s="28"/>
       <c r="K79" s="28"/>
       <c r="L79" s="29"/>
-      <c r="M79" s="29"/>
+      <c r="M79" s="29" t="s">
+        <v>412</v>
+      </c>
       <c r="N79" s="29"/>
       <c r="O79" s="29"/>
       <c r="P79" s="29"/>
@@ -8508,58 +8515,53 @@
       <c r="W79" s="29"/>
       <c r="X79" s="29"/>
       <c r="Y79" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="80" s="2" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="10" t="s">
-        <v>408</v>
+        <v>260</v>
       </c>
       <c r="B80" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C80" s="34" t="n">
+      <c r="C80" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>313</v>
+        <v>414</v>
       </c>
       <c r="E80" s="29"/>
-      <c r="F80" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="H80" s="10" t="s">
-        <v>411</v>
-      </c>
+      <c r="F80" s="29"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="31"/>
       <c r="I80" s="28"/>
       <c r="J80" s="28"/>
       <c r="K80" s="28"/>
       <c r="L80" s="29"/>
-      <c r="M80" s="29" t="s">
-        <v>412</v>
-      </c>
+      <c r="M80" s="31"/>
       <c r="N80" s="29"/>
       <c r="O80" s="29"/>
       <c r="P80" s="29"/>
       <c r="Q80" s="29"/>
       <c r="R80" s="29"/>
       <c r="S80" s="29"/>
-      <c r="T80" s="28"/>
+      <c r="T80" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
       <c r="U80" s="29"/>
       <c r="V80" s="29"/>
       <c r="W80" s="29"/>
       <c r="X80" s="29"/>
-      <c r="Y80" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="81" s="2" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y80" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B81" s="28" t="s">
         <v>73</v>
@@ -8572,35 +8574,38 @@
         <v>414</v>
       </c>
       <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="31"/>
+      <c r="F81" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G81" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="H81" s="28" t="s">
+        <v>267</v>
+      </c>
       <c r="I81" s="28"/>
       <c r="J81" s="28"/>
       <c r="K81" s="28"/>
       <c r="L81" s="29"/>
-      <c r="M81" s="31"/>
+      <c r="M81" s="29"/>
       <c r="N81" s="29"/>
       <c r="O81" s="29"/>
       <c r="P81" s="29"/>
       <c r="Q81" s="29"/>
       <c r="R81" s="29"/>
       <c r="S81" s="29"/>
-      <c r="T81" s="28" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T81" s="28"/>
       <c r="U81" s="29"/>
       <c r="V81" s="29"/>
       <c r="W81" s="29"/>
       <c r="X81" s="29"/>
-      <c r="Y81" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y81" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="10" t="s">
-        <v>269</v>
+        <v>415</v>
       </c>
       <c r="B82" s="28" t="s">
         <v>73</v>
@@ -8613,17 +8618,21 @@
         <v>414</v>
       </c>
       <c r="E82" s="29"/>
-      <c r="F82" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="G82" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="H82" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
+      <c r="F82" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>420</v>
+      </c>
       <c r="K82" s="28"/>
       <c r="L82" s="29"/>
       <c r="M82" s="29"/>
@@ -8633,18 +8642,21 @@
       <c r="Q82" s="29"/>
       <c r="R82" s="29"/>
       <c r="S82" s="29"/>
-      <c r="T82" s="28"/>
+      <c r="T82" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
       <c r="U82" s="29"/>
       <c r="V82" s="29"/>
       <c r="W82" s="29"/>
       <c r="X82" s="29"/>
       <c r="Y82" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
-        <v>415</v>
+        <v>321</v>
       </c>
       <c r="B83" s="28" t="s">
         <v>73</v>
@@ -8658,19 +8670,19 @@
       </c>
       <c r="E83" s="29"/>
       <c r="F83" s="10" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>417</v>
+        <v>323</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>418</v>
+        <v>324</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="J83" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="J83" s="33" t="s">
+        <v>325</v>
       </c>
       <c r="K83" s="28"/>
       <c r="L83" s="29"/>
@@ -8681,26 +8693,23 @@
       <c r="Q83" s="29"/>
       <c r="R83" s="29"/>
       <c r="S83" s="29"/>
-      <c r="T83" s="28" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T83" s="28"/>
       <c r="U83" s="29"/>
       <c r="V83" s="29"/>
       <c r="W83" s="29"/>
       <c r="X83" s="29"/>
       <c r="Y83" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
-        <v>321</v>
+        <v>423</v>
       </c>
       <c r="B84" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C84" s="28" t="b">
+      <c r="C84" s="34" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8709,20 +8718,12 @@
       </c>
       <c r="E84" s="29"/>
       <c r="F84" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="H84" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="I84" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="J84" s="33" t="s">
-        <v>325</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="G84" s="10"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
       <c r="K84" s="28"/>
       <c r="L84" s="29"/>
       <c r="M84" s="29"/>
@@ -8738,12 +8739,12 @@
       <c r="W84" s="29"/>
       <c r="X84" s="29"/>
       <c r="Y84" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="38.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B85" s="28" t="s">
         <v>73</v>
@@ -8755,12 +8756,18 @@
       <c r="D85" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="E85" s="29"/>
+      <c r="E85" s="29" t="s">
+        <v>423</v>
+      </c>
       <c r="F85" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="G85" s="10"/>
-      <c r="H85" s="32"/>
+        <v>426</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>427</v>
+      </c>
       <c r="I85" s="28"/>
       <c r="J85" s="28"/>
       <c r="K85" s="28"/>
@@ -8778,12 +8785,12 @@
       <c r="W85" s="29"/>
       <c r="X85" s="29"/>
       <c r="Y85" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="38.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="10" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="B86" s="28" t="s">
         <v>73</v>
@@ -8799,13 +8806,13 @@
         <v>423</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="H86" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
+      </c>
+      <c r="H86" s="32" t="s">
+        <v>429</v>
       </c>
       <c r="I86" s="28"/>
       <c r="J86" s="28"/>
@@ -8824,12 +8831,12 @@
       <c r="W86" s="29"/>
       <c r="X86" s="29"/>
       <c r="Y86" s="1" t="s">
-        <v>268</v>
+        <v>430</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="B87" s="28" t="s">
         <v>73</v>
@@ -8842,17 +8849,13 @@
         <v>414</v>
       </c>
       <c r="E87" s="29" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="H87" s="32" t="s">
-        <v>429</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="G87" s="10"/>
+      <c r="H87" s="32"/>
       <c r="I87" s="28"/>
       <c r="J87" s="28"/>
       <c r="K87" s="28"/>
@@ -8870,12 +8873,12 @@
       <c r="W87" s="29"/>
       <c r="X87" s="29"/>
       <c r="Y87" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B88" s="28" t="s">
         <v>73</v>
@@ -8891,7 +8894,7 @@
         <v>414</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G88" s="10"/>
       <c r="H88" s="32"/>
@@ -8912,12 +8915,12 @@
       <c r="W88" s="29"/>
       <c r="X88" s="29"/>
       <c r="Y88" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B89" s="28" t="s">
         <v>73</v>
@@ -8933,7 +8936,7 @@
         <v>414</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G89" s="10"/>
       <c r="H89" s="32"/>
@@ -8957,9 +8960,9 @@
         <v>436</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="71.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="10" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B90" s="28" t="s">
         <v>73</v>
@@ -8975,13 +8978,21 @@
         <v>414</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="G90" s="10"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
-      <c r="K90" s="28"/>
+        <v>440</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="I90" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="J90" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="K90" s="15"/>
       <c r="L90" s="29"/>
       <c r="M90" s="29"/>
       <c r="N90" s="29"/>
@@ -8990,21 +9001,21 @@
       <c r="Q90" s="29"/>
       <c r="R90" s="29"/>
       <c r="S90" s="29"/>
-      <c r="T90" s="28"/>
+      <c r="T90" s="15"/>
       <c r="U90" s="29"/>
       <c r="V90" s="29"/>
       <c r="W90" s="29"/>
       <c r="X90" s="29"/>
       <c r="Y90" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="71.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="10" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="C91" s="34" t="n">
         <f aca="false">TRUE()</f>
@@ -9017,44 +9028,44 @@
         <v>414</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="I91" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="J91" s="15" t="s">
-        <v>444</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
       <c r="K91" s="15"/>
       <c r="L91" s="29"/>
-      <c r="M91" s="29"/>
+      <c r="M91" s="29" t="s">
+        <v>450</v>
+      </c>
       <c r="N91" s="29"/>
-      <c r="O91" s="29"/>
+      <c r="O91" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="P91" s="29"/>
       <c r="Q91" s="29"/>
       <c r="R91" s="29"/>
       <c r="S91" s="29"/>
-      <c r="T91" s="15"/>
+      <c r="T91" s="15" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
       <c r="U91" s="29"/>
       <c r="V91" s="29"/>
       <c r="W91" s="29"/>
       <c r="X91" s="29"/>
-      <c r="Y91" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="92" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="10" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="C92" s="34" t="n">
         <f aca="false">TRUE()</f>
@@ -9067,25 +9078,25 @@
         <v>414</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="I92" s="15"/>
       <c r="J92" s="15"/>
-      <c r="K92" s="15"/>
+      <c r="K92" s="8" t="s">
+        <v>455</v>
+      </c>
       <c r="L92" s="29"/>
       <c r="M92" s="29" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="N92" s="29"/>
-      <c r="O92" s="29" t="s">
-        <v>165</v>
-      </c>
+      <c r="O92" s="29"/>
       <c r="P92" s="29"/>
       <c r="Q92" s="29"/>
       <c r="R92" s="29"/>
@@ -9099,12 +9110,12 @@
       <c r="W92" s="29"/>
       <c r="X92" s="29"/>
     </row>
-    <row r="93" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="10" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C93" s="34" t="n">
         <f aca="false">TRUE()</f>
@@ -9117,23 +9128,19 @@
         <v>414</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>453</v>
+        <v>458</v>
+      </c>
+      <c r="G93" s="35" t="s">
+        <v>459</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="I93" s="15"/>
       <c r="J93" s="15"/>
-      <c r="K93" s="8" t="s">
-        <v>455</v>
-      </c>
+      <c r="K93" s="15"/>
       <c r="L93" s="29"/>
-      <c r="M93" s="29" t="s">
-        <v>456</v>
-      </c>
+      <c r="M93" s="29"/>
       <c r="N93" s="29"/>
       <c r="O93" s="29"/>
       <c r="P93" s="29"/>
@@ -9148,17 +9155,20 @@
       <c r="V93" s="29"/>
       <c r="W93" s="29"/>
       <c r="X93" s="29"/>
+      <c r="Y93" s="1" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="10" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B94" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C94" s="34" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="C94" s="19" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="D94" s="28" t="s">
         <v>414</v>
@@ -9167,13 +9177,13 @@
         <v>414</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="G94" s="35" t="s">
-        <v>459</v>
+        <v>463</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>464</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="I94" s="15"/>
       <c r="J94" s="15"/>
@@ -9195,12 +9205,12 @@
       <c r="W94" s="29"/>
       <c r="X94" s="29"/>
       <c r="Y94" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="10" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B95" s="28" t="s">
         <v>73</v>
@@ -9216,13 +9226,13 @@
         <v>414</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="I95" s="15"/>
       <c r="J95" s="15"/>
@@ -9244,19 +9254,19 @@
       <c r="W95" s="29"/>
       <c r="X95" s="29"/>
       <c r="Y95" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="10" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C96" s="19" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="C96" s="34" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="D96" s="28" t="s">
         <v>414</v>
@@ -9265,26 +9275,30 @@
         <v>414</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="I96" s="15"/>
       <c r="J96" s="15"/>
       <c r="K96" s="15"/>
       <c r="L96" s="29"/>
-      <c r="M96" s="29"/>
+      <c r="M96" s="29" t="s">
+        <v>476</v>
+      </c>
       <c r="N96" s="29"/>
-      <c r="O96" s="29"/>
+      <c r="O96" s="29" t="s">
+        <v>477</v>
+      </c>
       <c r="P96" s="29"/>
       <c r="Q96" s="29"/>
       <c r="R96" s="29"/>
       <c r="S96" s="29"/>
-      <c r="T96" s="15" t="b">
+      <c r="T96" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -9292,16 +9306,13 @@
       <c r="V96" s="29"/>
       <c r="W96" s="29"/>
       <c r="X96" s="29"/>
-      <c r="Y96" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="97" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="10" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C97" s="34" t="n">
         <f aca="false">TRUE()</f>
@@ -9314,30 +9325,30 @@
         <v>414</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="I97" s="15"/>
       <c r="J97" s="15"/>
       <c r="K97" s="15"/>
       <c r="L97" s="29"/>
       <c r="M97" s="29" t="s">
-        <v>476</v>
-      </c>
-      <c r="N97" s="29"/>
-      <c r="O97" s="29" t="s">
-        <v>477</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="N97" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="O97" s="29"/>
       <c r="P97" s="29"/>
       <c r="Q97" s="29"/>
       <c r="R97" s="29"/>
       <c r="S97" s="29"/>
-      <c r="T97" s="28" t="b">
+      <c r="T97" s="15" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -9346,12 +9357,12 @@
       <c r="W97" s="29"/>
       <c r="X97" s="29"/>
     </row>
-    <row r="98" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="10" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C98" s="34" t="n">
         <f aca="false">TRUE()</f>
@@ -9364,41 +9375,37 @@
         <v>414</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="I98" s="15"/>
       <c r="J98" s="15"/>
       <c r="K98" s="15"/>
       <c r="L98" s="29"/>
-      <c r="M98" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="N98" s="29" t="s">
-        <v>482</v>
-      </c>
+      <c r="M98" s="29"/>
+      <c r="N98" s="29"/>
       <c r="O98" s="29"/>
       <c r="P98" s="29"/>
       <c r="Q98" s="29"/>
       <c r="R98" s="29"/>
       <c r="S98" s="29"/>
-      <c r="T98" s="15" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T98" s="15"/>
       <c r="U98" s="29"/>
       <c r="V98" s="29"/>
       <c r="W98" s="29"/>
       <c r="X98" s="29"/>
-    </row>
-    <row r="99" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Y98" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B99" s="28" t="s">
         <v>73</v>
@@ -9413,15 +9420,9 @@
       <c r="E99" s="29" t="s">
         <v>414</v>
       </c>
-      <c r="F99" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="G99" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="H99" s="10" t="s">
-        <v>486</v>
-      </c>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="32"/>
       <c r="I99" s="15"/>
       <c r="J99" s="15"/>
       <c r="K99" s="15"/>
@@ -9439,12 +9440,12 @@
       <c r="W99" s="29"/>
       <c r="X99" s="29"/>
       <c r="Y99" s="1" t="s">
-        <v>487</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B100" s="28" t="s">
         <v>73</v>
@@ -9457,11 +9458,17 @@
         <v>414</v>
       </c>
       <c r="E100" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="32"/>
+        <v>423</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>492</v>
+      </c>
       <c r="I100" s="15"/>
       <c r="J100" s="15"/>
       <c r="K100" s="15"/>
@@ -9478,13 +9485,10 @@
       <c r="V100" s="29"/>
       <c r="W100" s="29"/>
       <c r="X100" s="29"/>
-      <c r="Y100" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="101" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="10" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B101" s="28" t="s">
         <v>73</v>
@@ -9496,23 +9500,23 @@
       <c r="D101" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="E101" s="29" t="s">
-        <v>423</v>
-      </c>
-      <c r="F101" s="10" t="s">
-        <v>490</v>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29" t="s">
+        <v>494</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>491</v>
+        <v>410</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>492</v>
+        <v>411</v>
       </c>
       <c r="I101" s="15"/>
       <c r="J101" s="15"/>
       <c r="K101" s="15"/>
       <c r="L101" s="29"/>
-      <c r="M101" s="29"/>
+      <c r="M101" s="29" t="s">
+        <v>412</v>
+      </c>
       <c r="N101" s="29"/>
       <c r="O101" s="29"/>
       <c r="P101" s="29"/>
@@ -9524,56 +9528,54 @@
       <c r="V101" s="29"/>
       <c r="W101" s="29"/>
       <c r="X101" s="29"/>
-    </row>
-    <row r="102" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Y101" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="102" s="2" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="10" t="s">
-        <v>493</v>
+        <v>260</v>
       </c>
       <c r="B102" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C102" s="34" t="n">
+      <c r="C102" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>414</v>
+        <v>496</v>
       </c>
       <c r="E102" s="29"/>
-      <c r="F102" s="29" t="s">
-        <v>494</v>
-      </c>
-      <c r="G102" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="H102" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="15"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="31"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="28"/>
+      <c r="K102" s="28"/>
       <c r="L102" s="29"/>
-      <c r="M102" s="29" t="s">
-        <v>412</v>
-      </c>
+      <c r="M102" s="31"/>
       <c r="N102" s="29"/>
       <c r="O102" s="29"/>
       <c r="P102" s="29"/>
       <c r="Q102" s="29"/>
       <c r="R102" s="29"/>
       <c r="S102" s="29"/>
-      <c r="T102" s="15"/>
+      <c r="T102" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
       <c r="U102" s="29"/>
       <c r="V102" s="29"/>
       <c r="W102" s="29"/>
       <c r="X102" s="29"/>
-      <c r="Y102" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="103" s="2" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y102" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B103" s="28" t="s">
         <v>73</v>
@@ -9586,40 +9588,43 @@
         <v>496</v>
       </c>
       <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="31"/>
+      <c r="F103" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G103" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="H103" s="28" t="s">
+        <v>267</v>
+      </c>
       <c r="I103" s="28"/>
       <c r="J103" s="28"/>
       <c r="K103" s="28"/>
       <c r="L103" s="29"/>
-      <c r="M103" s="31"/>
+      <c r="M103" s="29"/>
       <c r="N103" s="29"/>
       <c r="O103" s="29"/>
       <c r="P103" s="29"/>
       <c r="Q103" s="29"/>
       <c r="R103" s="29"/>
       <c r="S103" s="29"/>
-      <c r="T103" s="28" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T103" s="28"/>
       <c r="U103" s="29"/>
       <c r="V103" s="29"/>
       <c r="W103" s="29"/>
       <c r="X103" s="29"/>
-      <c r="Y103" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y103" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="10" t="s">
-        <v>269</v>
+        <v>497</v>
       </c>
       <c r="B104" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C104" s="28" t="b">
+      <c r="C104" s="34" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -9628,17 +9633,17 @@
       </c>
       <c r="E104" s="29"/>
       <c r="F104" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="G104" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="H104" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="I104" s="28"/>
-      <c r="J104" s="28"/>
-      <c r="K104" s="28"/>
+        <v>497</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="I104" s="15"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="15"/>
       <c r="L104" s="29"/>
       <c r="M104" s="29"/>
       <c r="N104" s="29"/>
@@ -9647,21 +9652,24 @@
       <c r="Q104" s="29"/>
       <c r="R104" s="29"/>
       <c r="S104" s="29"/>
-      <c r="T104" s="28"/>
+      <c r="T104" s="15" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
       <c r="U104" s="29"/>
       <c r="V104" s="29"/>
       <c r="W104" s="29"/>
       <c r="X104" s="29"/>
       <c r="Y104" s="1" t="s">
-        <v>314</v>
+        <v>500</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="10" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>73</v>
+        <v>502</v>
       </c>
       <c r="C105" s="34" t="n">
         <f aca="false">TRUE()</f>
@@ -9671,44 +9679,44 @@
         <v>496</v>
       </c>
       <c r="E105" s="29"/>
-      <c r="F105" s="29" t="s">
-        <v>497</v>
+      <c r="F105" s="10" t="s">
+        <v>503</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="I105" s="15"/>
       <c r="J105" s="15"/>
       <c r="K105" s="15"/>
       <c r="L105" s="29"/>
-      <c r="M105" s="29"/>
-      <c r="N105" s="29"/>
-      <c r="O105" s="29"/>
+      <c r="M105" s="29" t="s">
+        <v>506</v>
+      </c>
+      <c r="N105" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="O105" s="29" t="s">
+        <v>508</v>
+      </c>
       <c r="P105" s="29"/>
       <c r="Q105" s="29"/>
       <c r="R105" s="29"/>
       <c r="S105" s="29"/>
-      <c r="T105" s="15" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T105" s="15"/>
       <c r="U105" s="29"/>
       <c r="V105" s="29"/>
       <c r="W105" s="29"/>
       <c r="X105" s="29"/>
-      <c r="Y105" s="1" t="s">
-        <v>500</v>
-      </c>
     </row>
     <row r="106" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="10" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>502</v>
+        <v>73</v>
       </c>
       <c r="C106" s="34" t="n">
         <f aca="false">TRUE()</f>
@@ -9719,40 +9727,48 @@
       </c>
       <c r="E106" s="29"/>
       <c r="F106" s="10" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="I106" s="15"/>
-      <c r="J106" s="15"/>
+        <v>512</v>
+      </c>
+      <c r="I106" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="J106" s="10" t="s">
+        <v>514</v>
+      </c>
       <c r="K106" s="15"/>
       <c r="L106" s="29"/>
       <c r="M106" s="29" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="N106" s="29" t="s">
-        <v>507</v>
-      </c>
-      <c r="O106" s="29" t="s">
-        <v>508</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="O106" s="29"/>
       <c r="P106" s="29"/>
       <c r="Q106" s="29"/>
       <c r="R106" s="29"/>
       <c r="S106" s="29"/>
-      <c r="T106" s="15"/>
+      <c r="T106" s="15" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
       <c r="U106" s="29"/>
       <c r="V106" s="29"/>
       <c r="W106" s="29"/>
       <c r="X106" s="29"/>
+      <c r="Y106" s="1" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="10" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B107" s="28" t="s">
         <v>73</v>
@@ -9765,29 +9781,21 @@
         <v>496</v>
       </c>
       <c r="E107" s="29"/>
-      <c r="F107" s="10" t="s">
-        <v>510</v>
+      <c r="F107" s="29" t="s">
+        <v>517</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="I107" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="J107" s="10" t="s">
-        <v>514</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="I107" s="15"/>
+      <c r="J107" s="15"/>
       <c r="K107" s="15"/>
       <c r="L107" s="29"/>
-      <c r="M107" s="29" t="s">
-        <v>515</v>
-      </c>
-      <c r="N107" s="29" t="s">
-        <v>482</v>
-      </c>
+      <c r="M107" s="29"/>
+      <c r="N107" s="29"/>
       <c r="O107" s="29"/>
       <c r="P107" s="29"/>
       <c r="Q107" s="29"/>
@@ -9802,15 +9810,15 @@
       <c r="W107" s="29"/>
       <c r="X107" s="29"/>
       <c r="Y107" s="1" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="10" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>73</v>
+        <v>502</v>
       </c>
       <c r="C108" s="34" t="n">
         <f aca="false">TRUE()</f>
@@ -9820,44 +9828,44 @@
         <v>496</v>
       </c>
       <c r="E108" s="29"/>
-      <c r="F108" s="29" t="s">
-        <v>517</v>
+      <c r="F108" s="10" t="s">
+        <v>521</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="I108" s="15"/>
       <c r="J108" s="15"/>
       <c r="K108" s="15"/>
       <c r="L108" s="29"/>
-      <c r="M108" s="29"/>
-      <c r="N108" s="29"/>
-      <c r="O108" s="29"/>
+      <c r="M108" s="29" t="s">
+        <v>522</v>
+      </c>
+      <c r="N108" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="O108" s="29" t="s">
+        <v>523</v>
+      </c>
       <c r="P108" s="29"/>
       <c r="Q108" s="29"/>
       <c r="R108" s="29"/>
       <c r="S108" s="29"/>
-      <c r="T108" s="15" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T108" s="15"/>
       <c r="U108" s="29"/>
       <c r="V108" s="29"/>
       <c r="W108" s="29"/>
       <c r="X108" s="29"/>
-      <c r="Y108" s="1" t="s">
-        <v>500</v>
-      </c>
     </row>
     <row r="109" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="10" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>502</v>
+        <v>73</v>
       </c>
       <c r="C109" s="34" t="n">
         <f aca="false">TRUE()</f>
@@ -9868,43 +9876,51 @@
       </c>
       <c r="E109" s="29"/>
       <c r="F109" s="10" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="I109" s="15"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="15"/>
+        <v>527</v>
+      </c>
+      <c r="I109" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="J109" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="K109" s="2"/>
       <c r="L109" s="29"/>
       <c r="M109" s="29" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="N109" s="29" t="s">
-        <v>507</v>
-      </c>
-      <c r="O109" s="29" t="s">
-        <v>523</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="O109" s="29"/>
       <c r="P109" s="29"/>
       <c r="Q109" s="29"/>
       <c r="R109" s="29"/>
       <c r="S109" s="29"/>
-      <c r="T109" s="15"/>
+      <c r="T109" s="15" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
       <c r="U109" s="29"/>
       <c r="V109" s="29"/>
       <c r="W109" s="29"/>
       <c r="X109" s="29"/>
+      <c r="Y109" s="1" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="10" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C110" s="34" t="n">
         <f aca="false">TRUE()</f>
@@ -9914,93 +9930,81 @@
         <v>496</v>
       </c>
       <c r="E110" s="29"/>
-      <c r="F110" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="G110" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="H110" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="I110" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="J110" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="K110" s="2"/>
+      <c r="F110" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="G110" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="H110" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="I110" s="29"/>
+      <c r="J110" s="29"/>
+      <c r="K110" s="29"/>
       <c r="L110" s="29"/>
-      <c r="M110" s="29" t="s">
-        <v>530</v>
-      </c>
-      <c r="N110" s="29" t="s">
-        <v>482</v>
-      </c>
+      <c r="M110" s="29"/>
+      <c r="N110" s="29"/>
       <c r="O110" s="29"/>
-      <c r="P110" s="29"/>
+      <c r="P110" s="15"/>
       <c r="Q110" s="29"/>
       <c r="R110" s="29"/>
       <c r="S110" s="29"/>
-      <c r="T110" s="15" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="U110" s="29"/>
-      <c r="V110" s="29"/>
-      <c r="W110" s="29"/>
-      <c r="X110" s="29"/>
-      <c r="Y110" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T110" s="29"/>
+      <c r="XEA110" s="2"/>
+      <c r="XEB110" s="2"/>
+      <c r="XEC110" s="2"/>
+      <c r="XED110" s="2"/>
+    </row>
+    <row r="111" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="10" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C111" s="34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C111" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="E111" s="29"/>
       <c r="F111" s="29" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="G111" s="28" t="s">
-        <v>308</v>
+        <v>536</v>
       </c>
       <c r="H111" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="I111" s="29"/>
-      <c r="J111" s="29"/>
-      <c r="K111" s="29"/>
+        <v>537</v>
+      </c>
+      <c r="I111" s="15"/>
+      <c r="J111" s="15"/>
+      <c r="K111" s="15"/>
       <c r="L111" s="29"/>
       <c r="M111" s="29"/>
       <c r="N111" s="29"/>
-      <c r="O111" s="29"/>
-      <c r="P111" s="15"/>
+      <c r="O111" s="29" t="s">
+        <v>538</v>
+      </c>
+      <c r="P111" s="29"/>
       <c r="Q111" s="29"/>
       <c r="R111" s="29"/>
       <c r="S111" s="29"/>
-      <c r="T111" s="29"/>
-      <c r="XEA111" s="2"/>
-      <c r="XEB111" s="2"/>
-      <c r="XEC111" s="2"/>
-      <c r="XED111" s="2"/>
-    </row>
-    <row r="112" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T111" s="15"/>
+      <c r="U111" s="29"/>
+      <c r="V111" s="29"/>
+      <c r="W111" s="29"/>
+      <c r="X111" s="29"/>
+    </row>
+    <row r="112" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="10" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>33</v>
+        <v>502</v>
       </c>
       <c r="C112" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -10011,13 +10015,13 @@
       </c>
       <c r="E112" s="29"/>
       <c r="F112" s="29" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="G112" s="28" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="H112" s="28" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="I112" s="15"/>
       <c r="J112" s="15"/>
@@ -10025,25 +10029,28 @@
       <c r="L112" s="29"/>
       <c r="M112" s="29"/>
       <c r="N112" s="29"/>
-      <c r="O112" s="29" t="s">
-        <v>538</v>
+      <c r="O112" s="36" t="s">
+        <v>543</v>
       </c>
       <c r="P112" s="29"/>
       <c r="Q112" s="29"/>
       <c r="R112" s="29"/>
       <c r="S112" s="29"/>
-      <c r="T112" s="15"/>
+      <c r="T112" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
       <c r="U112" s="29"/>
       <c r="V112" s="29"/>
       <c r="W112" s="29"/>
       <c r="X112" s="29"/>
     </row>
-    <row r="113" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="10" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>502</v>
+        <v>33</v>
       </c>
       <c r="C113" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -10053,23 +10060,23 @@
         <v>534</v>
       </c>
       <c r="E113" s="29"/>
-      <c r="F113" s="29" t="s">
-        <v>540</v>
-      </c>
-      <c r="G113" s="28" t="s">
-        <v>541</v>
-      </c>
-      <c r="H113" s="28" t="s">
-        <v>542</v>
+      <c r="F113" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="G113" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="H113" s="37" t="s">
+        <v>546</v>
       </c>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
       <c r="K113" s="15"/>
       <c r="L113" s="29"/>
       <c r="M113" s="29"/>
-      <c r="N113" s="29"/>
-      <c r="O113" s="36" t="s">
-        <v>543</v>
+      <c r="N113" s="2"/>
+      <c r="O113" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="P113" s="29"/>
       <c r="Q113" s="29"/>
@@ -10084,12 +10091,12 @@
       <c r="W113" s="29"/>
       <c r="X113" s="29"/>
     </row>
-    <row r="114" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="10" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C114" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -10100,23 +10107,25 @@
       </c>
       <c r="E114" s="29"/>
       <c r="F114" s="10" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="G114" s="37" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H114" s="37" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I114" s="15"/>
       <c r="J114" s="15"/>
       <c r="K114" s="15"/>
       <c r="L114" s="29"/>
-      <c r="M114" s="29"/>
-      <c r="N114" s="2"/>
-      <c r="O114" s="29" t="s">
-        <v>36</v>
-      </c>
+      <c r="M114" s="29" t="s">
+        <v>550</v>
+      </c>
+      <c r="N114" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O114" s="29"/>
       <c r="P114" s="29"/>
       <c r="Q114" s="29"/>
       <c r="R114" s="29"/>
@@ -10130,12 +10139,12 @@
       <c r="W114" s="29"/>
       <c r="X114" s="29"/>
     </row>
-    <row r="115" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="10" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>26</v>
+        <v>552</v>
       </c>
       <c r="C115" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -10145,24 +10154,22 @@
         <v>534</v>
       </c>
       <c r="E115" s="29"/>
-      <c r="F115" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="G115" s="37" t="s">
-        <v>548</v>
-      </c>
-      <c r="H115" s="37" t="s">
-        <v>549</v>
+      <c r="F115" s="29" t="s">
+        <v>553</v>
+      </c>
+      <c r="G115" s="36" t="s">
+        <v>554</v>
+      </c>
+      <c r="H115" s="36" t="s">
+        <v>555</v>
       </c>
       <c r="I115" s="15"/>
       <c r="J115" s="15"/>
       <c r="K115" s="15"/>
       <c r="L115" s="29"/>
-      <c r="M115" s="29" t="s">
-        <v>550</v>
-      </c>
-      <c r="N115" s="8" t="s">
-        <v>45</v>
+      <c r="M115" s="29"/>
+      <c r="N115" s="29" t="s">
+        <v>482</v>
       </c>
       <c r="O115" s="29"/>
       <c r="P115" s="29"/>
@@ -10178,12 +10185,12 @@
       <c r="W115" s="29"/>
       <c r="X115" s="29"/>
     </row>
-    <row r="116" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="B116" s="28" t="s">
-        <v>552</v>
+        <v>556</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C116" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -10194,22 +10201,20 @@
       </c>
       <c r="E116" s="29"/>
       <c r="F116" s="29" t="s">
-        <v>553</v>
-      </c>
-      <c r="G116" s="36" t="s">
-        <v>554</v>
-      </c>
-      <c r="H116" s="36" t="s">
-        <v>555</v>
+        <v>556</v>
+      </c>
+      <c r="G116" s="28" t="s">
+        <v>557</v>
+      </c>
+      <c r="H116" s="28" t="s">
+        <v>558</v>
       </c>
       <c r="I116" s="15"/>
       <c r="J116" s="15"/>
       <c r="K116" s="15"/>
       <c r="L116" s="29"/>
       <c r="M116" s="29"/>
-      <c r="N116" s="29" t="s">
-        <v>482</v>
-      </c>
+      <c r="N116" s="29"/>
       <c r="O116" s="29"/>
       <c r="P116" s="29"/>
       <c r="Q116" s="29"/>
@@ -10224,12 +10229,12 @@
       <c r="W116" s="29"/>
       <c r="X116" s="29"/>
     </row>
-    <row r="117" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>38</v>
+        <v>559</v>
+      </c>
+      <c r="B117" s="28" t="s">
+        <v>104</v>
       </c>
       <c r="C117" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -10239,14 +10244,14 @@
         <v>534</v>
       </c>
       <c r="E117" s="29"/>
-      <c r="F117" s="29" t="s">
-        <v>556</v>
-      </c>
-      <c r="G117" s="28" t="s">
-        <v>557</v>
-      </c>
-      <c r="H117" s="28" t="s">
-        <v>558</v>
+      <c r="F117" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="G117" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="H117" s="10" t="s">
+        <v>561</v>
       </c>
       <c r="I117" s="15"/>
       <c r="J117" s="15"/>
@@ -10259,10 +10264,7 @@
       <c r="Q117" s="29"/>
       <c r="R117" s="29"/>
       <c r="S117" s="29"/>
-      <c r="T117" s="28" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T117" s="15"/>
       <c r="U117" s="29"/>
       <c r="V117" s="29"/>
       <c r="W117" s="29"/>
@@ -10270,10 +10272,10 @@
     </row>
     <row r="118" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C118" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -10283,27 +10285,36 @@
         <v>534</v>
       </c>
       <c r="E118" s="29"/>
-      <c r="F118" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="G118" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="H118" s="10" t="s">
-        <v>561</v>
+      <c r="F118" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="G118" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="H118" s="28" t="s">
+        <v>565</v>
       </c>
       <c r="I118" s="15"/>
       <c r="J118" s="15"/>
-      <c r="K118" s="15"/>
+      <c r="K118" s="8" t="s">
+        <v>566</v>
+      </c>
       <c r="L118" s="29"/>
-      <c r="M118" s="29"/>
-      <c r="N118" s="29"/>
+      <c r="M118" s="29" t="s">
+        <v>567</v>
+      </c>
+      <c r="N118" s="10" t="s">
+        <v>568</v>
+      </c>
       <c r="O118" s="29"/>
       <c r="P118" s="29"/>
       <c r="Q118" s="29"/>
       <c r="R118" s="29"/>
       <c r="S118" s="29"/>
-      <c r="T118" s="15"/>
+      <c r="T118" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
       <c r="U118" s="29"/>
       <c r="V118" s="29"/>
       <c r="W118" s="29"/>
@@ -10311,7 +10322,7 @@
     </row>
     <row r="119" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="10" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="B119" s="28" t="s">
         <v>77</v>
@@ -10325,13 +10336,13 @@
       </c>
       <c r="E119" s="29"/>
       <c r="F119" s="29" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="G119" s="28" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="H119" s="28" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="I119" s="15"/>
       <c r="J119" s="15"/>
@@ -10343,7 +10354,7 @@
         <v>567</v>
       </c>
       <c r="N119" s="10" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="O119" s="29"/>
       <c r="P119" s="29"/>
@@ -10361,10 +10372,10 @@
     </row>
     <row r="120" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="10" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>77</v>
+        <v>575</v>
       </c>
       <c r="C120" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -10375,29 +10386,27 @@
       </c>
       <c r="E120" s="29"/>
       <c r="F120" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="G120" s="28" t="s">
-        <v>571</v>
-      </c>
-      <c r="H120" s="28" t="s">
-        <v>572</v>
+        <v>576</v>
+      </c>
+      <c r="G120" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="H120" s="36" t="s">
+        <v>578</v>
       </c>
       <c r="I120" s="15"/>
       <c r="J120" s="15"/>
-      <c r="K120" s="8" t="s">
-        <v>566</v>
-      </c>
+      <c r="K120" s="15"/>
       <c r="L120" s="29"/>
-      <c r="M120" s="29" t="s">
-        <v>567</v>
-      </c>
-      <c r="N120" s="10" t="s">
-        <v>573</v>
+      <c r="M120" s="29"/>
+      <c r="N120" s="29" t="s">
+        <v>482</v>
       </c>
       <c r="O120" s="29"/>
       <c r="P120" s="29"/>
-      <c r="Q120" s="29"/>
+      <c r="Q120" s="36" t="s">
+        <v>579</v>
+      </c>
       <c r="R120" s="29"/>
       <c r="S120" s="29"/>
       <c r="T120" s="28" t="b">
@@ -10411,10 +10420,10 @@
     </row>
     <row r="121" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="10" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>575</v>
+        <v>114</v>
       </c>
       <c r="C121" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -10425,13 +10434,13 @@
       </c>
       <c r="E121" s="29"/>
       <c r="F121" s="29" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="G121" s="36" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="H121" s="36" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="I121" s="15"/>
       <c r="J121" s="15"/>
@@ -10443,9 +10452,7 @@
       </c>
       <c r="O121" s="29"/>
       <c r="P121" s="29"/>
-      <c r="Q121" s="36" t="s">
-        <v>579</v>
-      </c>
+      <c r="Q121" s="29"/>
       <c r="R121" s="29"/>
       <c r="S121" s="29"/>
       <c r="T121" s="28" t="b">
@@ -10459,10 +10466,10 @@
     </row>
     <row r="122" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="10" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B122" s="28" t="s">
-        <v>114</v>
+        <v>575</v>
       </c>
       <c r="C122" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -10473,13 +10480,13 @@
       </c>
       <c r="E122" s="29"/>
       <c r="F122" s="29" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G122" s="36" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="H122" s="36" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="I122" s="15"/>
       <c r="J122" s="15"/>
@@ -10491,7 +10498,9 @@
       </c>
       <c r="O122" s="29"/>
       <c r="P122" s="29"/>
-      <c r="Q122" s="29"/>
+      <c r="Q122" s="36" t="s">
+        <v>588</v>
+      </c>
       <c r="R122" s="29"/>
       <c r="S122" s="29"/>
       <c r="T122" s="28" t="b">
@@ -10503,9 +10512,9 @@
       <c r="W122" s="29"/>
       <c r="X122" s="29"/>
     </row>
-    <row r="123" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="10" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B123" s="28" t="s">
         <v>575</v>
@@ -10519,13 +10528,13 @@
       </c>
       <c r="E123" s="29"/>
       <c r="F123" s="29" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="G123" s="36" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="H123" s="36" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="I123" s="15"/>
       <c r="J123" s="15"/>
@@ -10538,7 +10547,7 @@
       <c r="O123" s="29"/>
       <c r="P123" s="29"/>
       <c r="Q123" s="36" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="R123" s="29"/>
       <c r="S123" s="29"/>
@@ -10551,9 +10560,9 @@
       <c r="W123" s="29"/>
       <c r="X123" s="29"/>
     </row>
-    <row r="124" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="10" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B124" s="28" t="s">
         <v>575</v>
@@ -10567,13 +10576,13 @@
       </c>
       <c r="E124" s="29"/>
       <c r="F124" s="29" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="G124" s="36" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="H124" s="36" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="I124" s="15"/>
       <c r="J124" s="15"/>
@@ -10586,7 +10595,7 @@
       <c r="O124" s="29"/>
       <c r="P124" s="29"/>
       <c r="Q124" s="36" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="R124" s="29"/>
       <c r="S124" s="29"/>
@@ -10599,12 +10608,12 @@
       <c r="W124" s="29"/>
       <c r="X124" s="29"/>
     </row>
-    <row r="125" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="10" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B125" s="28" t="s">
-        <v>575</v>
+        <v>33</v>
       </c>
       <c r="C125" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -10615,13 +10624,13 @@
       </c>
       <c r="E125" s="29"/>
       <c r="F125" s="29" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="G125" s="36" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="H125" s="36" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="I125" s="15"/>
       <c r="J125" s="15"/>
@@ -10631,11 +10640,11 @@
       <c r="N125" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="O125" s="29"/>
+      <c r="O125" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="P125" s="29"/>
-      <c r="Q125" s="36" t="s">
-        <v>598</v>
-      </c>
+      <c r="Q125" s="29"/>
       <c r="R125" s="29"/>
       <c r="S125" s="29"/>
       <c r="T125" s="28" t="b">
@@ -10647,12 +10656,12 @@
       <c r="W125" s="29"/>
       <c r="X125" s="29"/>
     </row>
-    <row r="126" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="10" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B126" s="28" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="C126" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -10662,136 +10671,89 @@
         <v>534</v>
       </c>
       <c r="E126" s="29"/>
-      <c r="F126" s="29" t="s">
-        <v>600</v>
-      </c>
-      <c r="G126" s="36" t="s">
-        <v>601</v>
-      </c>
-      <c r="H126" s="36" t="s">
-        <v>602</v>
+      <c r="F126" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="G126" s="28" t="s">
+        <v>604</v>
+      </c>
+      <c r="H126" s="10" t="s">
+        <v>605</v>
       </c>
       <c r="I126" s="15"/>
       <c r="J126" s="15"/>
       <c r="K126" s="15"/>
       <c r="L126" s="29"/>
       <c r="M126" s="29"/>
-      <c r="N126" s="29" t="s">
-        <v>482</v>
-      </c>
-      <c r="O126" s="29" t="s">
-        <v>165</v>
-      </c>
+      <c r="N126" s="29"/>
+      <c r="O126" s="29"/>
       <c r="P126" s="29"/>
       <c r="Q126" s="29"/>
       <c r="R126" s="29"/>
       <c r="S126" s="29"/>
-      <c r="T126" s="28" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T126" s="15"/>
       <c r="U126" s="29"/>
       <c r="V126" s="29"/>
       <c r="W126" s="29"/>
       <c r="X126" s="29"/>
     </row>
-    <row r="127" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="B127" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C127" s="28" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D127" s="28" t="s">
-        <v>534</v>
-      </c>
-      <c r="E127" s="29"/>
-      <c r="F127" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="G127" s="28" t="s">
-        <v>604</v>
-      </c>
-      <c r="H127" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="I127" s="15"/>
-      <c r="J127" s="15"/>
-      <c r="K127" s="15"/>
-      <c r="L127" s="29"/>
-      <c r="M127" s="29"/>
-      <c r="N127" s="29"/>
-      <c r="O127" s="29"/>
-      <c r="P127" s="29"/>
-      <c r="Q127" s="29"/>
-      <c r="R127" s="29"/>
-      <c r="S127" s="29"/>
-      <c r="T127" s="15"/>
-      <c r="U127" s="29"/>
-      <c r="V127" s="29"/>
-      <c r="W127" s="29"/>
-      <c r="X127" s="29"/>
-    </row>
-    <row r="128" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="s">
+    <row r="127" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C128" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D128" s="1" t="s">
+      <c r="C127" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F127" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="G127" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="H128" s="1" t="s">
+      <c r="H127" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="L128" s="38"/>
-      <c r="M128" s="39"/>
-      <c r="T128" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
+      <c r="L127" s="38"/>
+      <c r="M127" s="39"/>
+      <c r="T127" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:X1"/>
-  <conditionalFormatting sqref="N128:Q128">
+  <conditionalFormatting sqref="N127:Q127">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($B1048456="Custom",  $B1048456&lt;&gt;"", ROW(N1048456)&lt;&gt;1)</formula>
+      <formula>AND($B1048455="Custom",  $B1048455&lt;&gt;"", ROW(N1048455)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q128">
+  <conditionalFormatting sqref="Q127">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($B128&lt;&gt;"Range", $B128&lt;&gt;"", ROW(Q128)&lt;&gt;1)</formula>
+      <formula>AND($B127&lt;&gt;"Range", $B127&lt;&gt;"", ROW(Q127)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C128">
+  <conditionalFormatting sqref="C127">
     <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="FALSE" dxfId="5">
-      <formula>NOT(ISERROR(SEARCH("FALSE",C128)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",C127)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="5" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="TRUE" dxfId="6">
-      <formula>NOT(ISERROR(SEARCH("TRUE",C128)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",C127)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O128:P128">
+  <conditionalFormatting sqref="O127:P127">
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($B128&lt;&gt;"Select", $B128&lt;&gt;"Checkbox", $B128&lt;&gt;"Radio",  $B128&lt;&gt;"", ROW(O128)&lt;&gt;1)</formula>
+      <formula>AND($B127&lt;&gt;"Select", $B127&lt;&gt;"Checkbox", $B127&lt;&gt;"Radio",  $B127&lt;&gt;"", ROW(O127)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C129:C1048576 C63:C84 C95:C96 C102:C127 C1:C61">
+  <conditionalFormatting sqref="C128:C1048576 C62:C83 C94:C95 C101:C126 C1:C60">
     <cfRule type="containsText" priority="7" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="FALSE" dxfId="8">
       <formula>NOT(ISERROR(SEARCH("FALSE",C1)))</formula>
     </cfRule>
@@ -10799,42 +10761,42 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q121">
+  <conditionalFormatting sqref="Q120">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND($B1048450="Custom",  $B1048450&lt;&gt;"", ROW(Q1048450)&lt;&gt;1)</formula>
+      <formula>AND($B1048449="Custom",  $B1048449&lt;&gt;"", ROW(Q1048449)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q121 Q124:Q125">
+  <conditionalFormatting sqref="Q120 Q123:Q124">
     <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($B121&lt;&gt;"Range", $B121&lt;&gt;"", ROW(Q121)&lt;&gt;1)</formula>
+      <formula>AND($B120&lt;&gt;"Range", $B120&lt;&gt;"", ROW(Q120)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q124:Q125">
+  <conditionalFormatting sqref="Q123:Q124">
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(#ref!="Custom",  #ref!&lt;&gt;"", ROW(#ref!)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O113">
+  <conditionalFormatting sqref="O112">
     <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>AND($B113="Custom",  $B113&lt;&gt;"", ROW(O113)&lt;&gt;1)</formula>
+      <formula>AND($B112="Custom",  $B112&lt;&gt;"", ROW(O112)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O113">
+  <conditionalFormatting sqref="O112">
     <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND($B113&lt;&gt;"Select", $B113&lt;&gt;"Checkbox", $B113&lt;&gt;"Radio",  $B113&lt;&gt;"", ROW(O113)&lt;&gt;1)</formula>
+      <formula>AND($B112&lt;&gt;"Select", $B112&lt;&gt;"Checkbox", $B112&lt;&gt;"Radio",  $B112&lt;&gt;"", ROW(O112)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63:C80 C105:C111 C102">
+  <conditionalFormatting sqref="C62:C79 C104:C110 C101">
     <cfRule type="containsText" priority="14" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="FALSE" dxfId="8">
-      <formula>NOT(ISERROR(SEARCH("FALSE",C63)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",C62)))</formula>
     </cfRule>
     <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62:C80 C85:C94 C105:C111 C97:C102">
+  <conditionalFormatting sqref="C61:C79 C84:C93 C104:C110 C96:C101">
     <cfRule type="containsText" priority="16" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="FALSE" dxfId="8">
-      <formula>NOT(ISERROR(SEARCH("FALSE",C62)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",C61)))</formula>
     </cfRule>
     <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>1</formula>
@@ -11740,7 +11702,7 @@
     </row>
     <row r="6" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="33" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>670</v>

--- a/survey/references/OD_nationale_quebec_2025.xlsx
+++ b/survey/references/OD_nationale_quebec_2025.xlsx
@@ -997,7 +997,7 @@
 &lt;span class="_red"&gt;- **Ne pas inclure les lieux de transfert** en cours de déplacement (arrêts de bus, gares, terminus, lieux de stationnement, etc.) sauf si vous êtes all{{gender:é/ée/é.e}} reconduire ou chercher quelqu'un à cet endroit.&lt;/span&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Please specify the**places you went on {{assignedDate}}** (include all places visited until 4 AM the following morning).
+    <t xml:space="preserve">Please specify the **places you went on {{assignedDate}}** (include all places visited until 4 AM the following morning).
 &lt;span class="_green"&gt;- **Include short stops and errands** (gas station, daycare/school, convenience store or any place where you picked someone up or dropped someone off).
 - **Include all places** regardless of the mode of transport used to get there (walking, cycling, car, public transit, taxi, plane, boat, etc.).&lt;/span&gt;
 &lt;span class="_red"&gt;- **Do not include transfer locations** (bus stops, train stations, terminals, parking lots, etc.) unless you went there to drop someone off or pick someone up.&lt;/span&gt;</t>
@@ -4618,11 +4618,11 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G40" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
-      <selection pane="bottomRight" activeCell="H48" activeCellId="0" sqref="H48"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+      <selection pane="bottomRight" activeCell="H49" activeCellId="0" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/survey/references/OD_nationale_quebec_2025.xlsx
+++ b/survey/references/OD_nationale_quebec_2025.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="1217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="1227">
   <si>
     <t xml:space="preserve">questionName</t>
   </si>
@@ -614,6 +614,12 @@
     <t xml:space="preserve">Does {{nickname}} currently have a valid transit **fare, pass or ticket**?</t>
   </si>
   <si>
+    <t xml:space="preserve">Détenez-vous présentement **un laissez-passer ou un abonnement** de transport en commun valide ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you currently have a valid transit **fare, pass or ticket**?</t>
+  </si>
+  <si>
     <t xml:space="preserve">ifAge6OrMoreConditional</t>
   </si>
   <si>
@@ -650,6 +656,12 @@
     <t xml:space="preserve">Does {{nickname}} have a fixed **work location**?</t>
   </si>
   <si>
+    <t xml:space="preserve">Avez-vous un **lieu d'emploi** fixe ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have a fixed **work location**?</t>
+  </si>
+  <si>
     <t xml:space="preserve">isWorkerConditional</t>
   </si>
   <si>
@@ -692,6 +704,12 @@
     <t xml:space="preserve">Does {{nickname}} have a fixed **study location**?</t>
   </si>
   <si>
+    <t xml:space="preserve">Avez-vous a un **lieu d'études** fixe ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have a fixed **study location**?</t>
+  </si>
+  <si>
     <t xml:space="preserve">isStudentConditional</t>
   </si>
   <si>
@@ -708,6 +726,12 @@
   </si>
   <si>
     <t xml:space="preserve">**Name or address** of {{nickname}}'s **usual place of work**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Nom ou adresse** de votre **lieu habituel de travail**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Name or address** of your **usual place of work**</t>
   </si>
   <si>
     <t xml:space="preserve">hasWorkingLocationConditional</t>
@@ -749,6 +773,12 @@
   </si>
   <si>
     <t xml:space="preserve">**Name or address** of {{nickname}}'s school or **main study location**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Nom ou adresse** de votre **lieu habituel d’études**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Name or address** of your school or **main study location**</t>
   </si>
   <si>
     <t xml:space="preserve">personUsualSchoolPlaceNameCustomConditional</t>
@@ -4783,11 +4813,11 @@
   <dimension ref="A1:XFD128"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
-      <selection pane="bottomRight" activeCell="G49" activeCellId="0" sqref="G49"/>
+      <selection pane="bottomLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="H50" activeCellId="0" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6387,18 +6417,22 @@
       <c r="H31" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
+      <c r="I31" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>177</v>
+      </c>
       <c r="K31" s="19"/>
       <c r="L31" s="21"/>
       <c r="M31" s="21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N31" s="21" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
@@ -6415,7 +6449,7 @@
     </row>
     <row r="32" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>33</v>
@@ -6431,20 +6465,20 @@
         <v>107</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
       <c r="L32" s="21"/>
       <c r="M32" s="21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N32" s="21"/>
       <c r="O32" s="21" t="s">
@@ -6465,7 +6499,7 @@
     </row>
     <row r="33" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>33</v>
@@ -6481,24 +6515,28 @@
         <v>107</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
+        <v>189</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>191</v>
+      </c>
       <c r="K33" s="19"/>
       <c r="L33" s="21"/>
       <c r="M33" s="21" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="N33" s="21"/>
       <c r="O33" s="21" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
@@ -6515,7 +6553,7 @@
     </row>
     <row r="34" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="19" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>33</v>
@@ -6531,28 +6569,28 @@
         <v>107</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K34" s="19"/>
       <c r="L34" s="21"/>
       <c r="M34" s="21" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="N34" s="21"/>
       <c r="O34" s="21" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
@@ -6569,7 +6607,7 @@
     </row>
     <row r="35" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="19" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>33</v>
@@ -6585,24 +6623,28 @@
         <v>107</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
+        <v>205</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>207</v>
+      </c>
       <c r="K35" s="19"/>
       <c r="L35" s="21"/>
       <c r="M35" s="21" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="N35" s="21"/>
       <c r="O35" s="21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
@@ -6619,7 +6661,7 @@
     </row>
     <row r="36" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="19" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>26</v>
@@ -6635,20 +6677,24 @@
         <v>107</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
+        <v>213</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>215</v>
+      </c>
       <c r="K36" s="19"/>
       <c r="L36" s="21"/>
       <c r="M36" s="19" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
@@ -6667,7 +6713,7 @@
     </row>
     <row r="37" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="19" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>73</v>
@@ -6683,24 +6729,24 @@
         <v>107</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="K37" s="19"/>
       <c r="L37" s="21"/>
       <c r="M37" s="19" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="N37" s="21"/>
       <c r="O37" s="21"/>
@@ -6719,7 +6765,7 @@
     </row>
     <row r="38" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="19" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>26</v>
@@ -6735,20 +6781,24 @@
         <v>107</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
+        <v>226</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>228</v>
+      </c>
       <c r="K38" s="19"/>
       <c r="L38" s="21"/>
       <c r="M38" s="19" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="N38" s="21"/>
       <c r="O38" s="21"/>
@@ -6767,7 +6817,7 @@
     </row>
     <row r="39" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="19" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>73</v>
@@ -6783,19 +6833,19 @@
         <v>107</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="J39" s="19" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="K39" s="26"/>
       <c r="L39" s="27"/>
@@ -6817,7 +6867,7 @@
     </row>
     <row r="40" customFormat="false" ht="86.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="19" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>172</v>
@@ -6833,30 +6883,30 @@
         <v>107</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="K40" s="19"/>
       <c r="L40" s="21"/>
       <c r="M40" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="P40" s="21"/>
       <c r="Q40" s="21"/>
@@ -6873,7 +6923,7 @@
     </row>
     <row r="41" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="19" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>172</v>
@@ -6889,30 +6939,30 @@
         <v>107</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="J41" s="19" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="21"/>
       <c r="M41" s="21" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N41" s="21" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
@@ -6929,7 +6979,7 @@
     </row>
     <row r="42" s="7" customFormat="true" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="19" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>172</v>
@@ -6945,30 +6995,30 @@
         <v>107</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="K42" s="19"/>
       <c r="L42" s="21"/>
       <c r="M42" s="21" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
@@ -7011,7 +7061,7 @@
     </row>
     <row r="43" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="19" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>172</v>
@@ -7027,30 +7077,30 @@
         <v>107</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="J43" s="19" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="K43" s="19"/>
       <c r="L43" s="21"/>
       <c r="M43" s="21" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="N43" s="21" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="P43" s="21"/>
       <c r="Q43" s="21"/>
@@ -7067,7 +7117,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="28" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B44" s="28" t="s">
         <v>104</v>
@@ -7112,7 +7162,7 @@
     </row>
     <row r="45" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B45" s="28" t="s">
         <v>73</v>
@@ -7122,17 +7172,17 @@
         <v>1</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="E45" s="29"/>
       <c r="F45" s="10" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="I45" s="28"/>
       <c r="J45" s="28"/>
@@ -7153,7 +7203,7 @@
     </row>
     <row r="46" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="B46" s="28" t="s">
         <v>104</v>
@@ -7163,17 +7213,17 @@
         <v>1</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
@@ -7194,7 +7244,7 @@
     </row>
     <row r="47" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B47" s="28" t="s">
         <v>73</v>
@@ -7204,17 +7254,17 @@
         <v>1</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E47" s="29"/>
       <c r="F47" s="29" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="H47" s="31" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="I47" s="28"/>
       <c r="J47" s="28"/>
@@ -7238,12 +7288,12 @@
       <c r="W47" s="29"/>
       <c r="X47" s="29"/>
       <c r="Y47" s="2" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B48" s="28" t="s">
         <v>73</v>
@@ -7253,17 +7303,17 @@
         <v>1</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E48" s="29"/>
       <c r="F48" s="29" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="I48" s="28"/>
       <c r="J48" s="28"/>
@@ -7284,7 +7334,7 @@
     </row>
     <row r="49" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="B49" s="28" t="s">
         <v>73</v>
@@ -7294,17 +7344,17 @@
         <v>1</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E49" s="29"/>
       <c r="F49" s="10" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="I49" s="28"/>
       <c r="J49" s="28"/>
@@ -7325,7 +7375,7 @@
     </row>
     <row r="50" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B50" s="28" t="s">
         <v>73</v>
@@ -7335,17 +7385,17 @@
         <v>1</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E50" s="29"/>
       <c r="F50" s="10" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="I50" s="28"/>
       <c r="J50" s="28"/>
@@ -7366,7 +7416,7 @@
     </row>
     <row r="51" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B51" s="28" t="s">
         <v>73</v>
@@ -7376,23 +7426,23 @@
         <v>1</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E51" s="29"/>
       <c r="F51" s="10" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="K51" s="28"/>
       <c r="L51" s="29"/>
@@ -7411,7 +7461,7 @@
     </row>
     <row r="52" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B52" s="28" t="s">
         <v>73</v>
@@ -7421,23 +7471,23 @@
         <v>1</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E52" s="29"/>
       <c r="F52" s="10" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="K52" s="28"/>
       <c r="L52" s="29"/>
@@ -7456,7 +7506,7 @@
     </row>
     <row r="53" customFormat="false" ht="377.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B53" s="28" t="s">
         <v>73</v>
@@ -7466,23 +7516,23 @@
         <v>1</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E53" s="29"/>
       <c r="F53" s="29" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="K53" s="28"/>
       <c r="L53" s="29"/>
@@ -7501,7 +7551,7 @@
     </row>
     <row r="54" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="B54" s="28" t="s">
         <v>73</v>
@@ -7511,23 +7561,23 @@
         <v>1</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E54" s="29"/>
       <c r="F54" s="29" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="K54" s="28"/>
       <c r="L54" s="29"/>
@@ -7546,7 +7596,7 @@
     </row>
     <row r="55" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B55" s="28" t="s">
         <v>33</v>
@@ -7556,32 +7606,32 @@
         <v>1</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E55" s="29"/>
       <c r="F55" s="10" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="K55" s="28"/>
       <c r="L55" s="29"/>
       <c r="M55" s="29" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="N55" s="29"/>
       <c r="O55" s="29" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="P55" s="29"/>
       <c r="Q55" s="29"/>
@@ -7598,7 +7648,7 @@
     </row>
     <row r="56" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B56" s="28" t="s">
         <v>104</v>
@@ -7608,17 +7658,17 @@
         <v>1</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E56" s="29"/>
       <c r="F56" s="29" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="I56" s="28"/>
       <c r="J56" s="28"/>
@@ -7639,7 +7689,7 @@
     </row>
     <row r="57" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B57" s="28" t="s">
         <v>38</v>
@@ -7649,17 +7699,17 @@
         <v>1</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E57" s="29"/>
       <c r="F57" s="29" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="H57" s="32" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="I57" s="28"/>
       <c r="J57" s="28"/>
@@ -7683,7 +7733,7 @@
     </row>
     <row r="58" s="2" customFormat="true" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B58" s="28" t="s">
         <v>73</v>
@@ -7693,17 +7743,17 @@
         <v>1</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E58" s="29"/>
       <c r="F58" s="29" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="H58" s="31" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="I58" s="28"/>
       <c r="J58" s="28"/>
@@ -7727,12 +7777,12 @@
       <c r="W58" s="29"/>
       <c r="X58" s="29"/>
       <c r="Y58" s="2" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B59" s="28" t="s">
         <v>73</v>
@@ -7742,17 +7792,17 @@
         <v>1</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E59" s="29"/>
       <c r="F59" s="29" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="G59" s="28" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="I59" s="28"/>
       <c r="J59" s="28"/>
@@ -7771,12 +7821,12 @@
       <c r="W59" s="29"/>
       <c r="X59" s="29"/>
       <c r="Y59" s="1" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="B60" s="28" t="s">
         <v>73</v>
@@ -7786,23 +7836,23 @@
         <v>1</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E60" s="29"/>
       <c r="F60" s="10" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="K60" s="28"/>
       <c r="L60" s="29"/>
@@ -7822,12 +7872,12 @@
       <c r="W60" s="29"/>
       <c r="X60" s="29"/>
       <c r="Y60" s="1" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B61" s="28" t="s">
         <v>73</v>
@@ -7837,21 +7887,21 @@
         <v>1</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E61" s="29"/>
       <c r="F61" s="10" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="33" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="K61" s="28"/>
       <c r="L61" s="29"/>
@@ -7868,12 +7918,12 @@
       <c r="W61" s="29"/>
       <c r="X61" s="29"/>
       <c r="Y61" s="1" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="B62" s="28" t="s">
         <v>73</v>
@@ -7883,11 +7933,11 @@
         <v>1</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E62" s="29"/>
       <c r="F62" s="10" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="G62" s="10"/>
       <c r="H62" s="32"/>
@@ -7910,7 +7960,7 @@
     </row>
     <row r="63" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="B63" s="28" t="s">
         <v>73</v>
@@ -7920,13 +7970,13 @@
         <v>1</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="32"/>
@@ -7947,12 +7997,12 @@
       <c r="W63" s="29"/>
       <c r="X63" s="29"/>
       <c r="Y63" s="1" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B64" s="28" t="s">
         <v>73</v>
@@ -7962,13 +8012,13 @@
         <v>1</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F64" s="29" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="32"/>
@@ -7989,12 +8039,12 @@
       <c r="W64" s="29"/>
       <c r="X64" s="29"/>
       <c r="Y64" s="1" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="B65" s="28" t="s">
         <v>73</v>
@@ -8004,25 +8054,25 @@
         <v>1</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="H65" s="32" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="K65" s="28"/>
       <c r="L65" s="29"/>
@@ -8041,7 +8091,7 @@
     </row>
     <row r="66" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B66" s="28" t="s">
         <v>33</v>
@@ -8051,34 +8101,34 @@
         <v>1</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E66" s="29" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="K66" s="28"/>
       <c r="L66" s="29"/>
       <c r="M66" s="29" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="N66" s="29"/>
       <c r="O66" s="29" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="P66" s="29"/>
       <c r="Q66" s="29"/>
@@ -8090,12 +8140,12 @@
       <c r="W66" s="29"/>
       <c r="X66" s="29"/>
       <c r="Y66" s="1" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="69.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B67" s="28" t="s">
         <v>33</v>
@@ -8105,30 +8155,30 @@
         <v>1</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="K67" s="28"/>
       <c r="L67" s="29"/>
       <c r="M67" s="29" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="N67" s="29"/>
       <c r="O67" s="29" t="s">
@@ -8149,7 +8199,7 @@
     </row>
     <row r="68" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="B68" s="28" t="s">
         <v>73</v>
@@ -8159,19 +8209,19 @@
         <v>1</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F68" s="29" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="I68" s="28"/>
       <c r="J68" s="28"/>
@@ -8190,12 +8240,12 @@
       <c r="W68" s="29"/>
       <c r="X68" s="29"/>
       <c r="Y68" s="1" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B69" s="28" t="s">
         <v>73</v>
@@ -8205,13 +8255,13 @@
         <v>1</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="32"/>
@@ -8232,12 +8282,12 @@
       <c r="W69" s="29"/>
       <c r="X69" s="29"/>
       <c r="Y69" s="1" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B70" s="28" t="s">
         <v>73</v>
@@ -8247,19 +8297,19 @@
         <v>1</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="I70" s="28"/>
       <c r="J70" s="28"/>
@@ -8278,12 +8328,12 @@
       <c r="W70" s="29"/>
       <c r="X70" s="29"/>
       <c r="Y70" s="1" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B71" s="28" t="s">
         <v>73</v>
@@ -8293,25 +8343,25 @@
         <v>1</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="K71" s="28"/>
       <c r="L71" s="29"/>
@@ -8328,12 +8378,12 @@
       <c r="W71" s="29"/>
       <c r="X71" s="29"/>
       <c r="Y71" s="1" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="B72" s="28" t="s">
         <v>73</v>
@@ -8343,13 +8393,13 @@
         <v>1</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="G72" s="10"/>
       <c r="H72" s="32"/>
@@ -8370,12 +8420,12 @@
       <c r="W72" s="29"/>
       <c r="X72" s="29"/>
       <c r="Y72" s="1" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="B73" s="28" t="s">
         <v>73</v>
@@ -8385,13 +8435,13 @@
         <v>1</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="G73" s="10"/>
       <c r="H73" s="32"/>
@@ -8412,12 +8462,12 @@
       <c r="W73" s="29"/>
       <c r="X73" s="29"/>
       <c r="Y73" s="1" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="10" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B74" s="28" t="s">
         <v>73</v>
@@ -8427,25 +8477,25 @@
         <v>1</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F74" s="29" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K74" s="28"/>
       <c r="L74" s="29"/>
@@ -8462,12 +8512,12 @@
       <c r="W74" s="29"/>
       <c r="X74" s="29"/>
       <c r="Y74" s="1" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B75" s="28" t="s">
         <v>73</v>
@@ -8477,25 +8527,25 @@
         <v>1</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="K75" s="28"/>
       <c r="L75" s="29"/>
@@ -8512,12 +8562,12 @@
       <c r="W75" s="29"/>
       <c r="X75" s="29"/>
       <c r="Y75" s="1" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="10" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B76" s="28" t="s">
         <v>73</v>
@@ -8527,25 +8577,25 @@
         <v>1</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E76" s="29" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="K76" s="28"/>
       <c r="L76" s="29"/>
@@ -8562,12 +8612,12 @@
       <c r="W76" s="29"/>
       <c r="X76" s="29"/>
       <c r="Y76" s="1" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="10" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="B77" s="28" t="s">
         <v>73</v>
@@ -8577,19 +8627,19 @@
         <v>1</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E77" s="29" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F77" s="29" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="H77" s="32" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="I77" s="28"/>
       <c r="J77" s="28"/>
@@ -8608,12 +8658,12 @@
       <c r="W77" s="29"/>
       <c r="X77" s="29"/>
       <c r="Y77" s="1" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="10" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B78" s="28" t="s">
         <v>73</v>
@@ -8623,10 +8673,10 @@
         <v>1</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F78" s="29"/>
       <c r="G78" s="10"/>
@@ -8648,12 +8698,12 @@
       <c r="W78" s="29"/>
       <c r="X78" s="29"/>
       <c r="Y78" s="1" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="B79" s="28" t="s">
         <v>73</v>
@@ -8663,10 +8713,10 @@
         <v>1</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E79" s="29" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F79" s="29"/>
       <c r="G79" s="10"/>
@@ -8688,12 +8738,12 @@
       <c r="W79" s="29"/>
       <c r="X79" s="29"/>
       <c r="Y79" s="1" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="10" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B80" s="28" t="s">
         <v>73</v>
@@ -8703,24 +8753,24 @@
         <v>1</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E80" s="29"/>
       <c r="F80" s="29" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="I80" s="28"/>
       <c r="J80" s="28"/>
       <c r="K80" s="28"/>
       <c r="L80" s="29"/>
       <c r="M80" s="29" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="N80" s="29"/>
       <c r="O80" s="29"/>
@@ -8734,12 +8784,12 @@
       <c r="W80" s="29"/>
       <c r="X80" s="29"/>
       <c r="Y80" s="1" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B81" s="28" t="s">
         <v>73</v>
@@ -8749,7 +8799,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -8775,12 +8825,12 @@
       <c r="W81" s="29"/>
       <c r="X81" s="29"/>
       <c r="Y81" s="2" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="10" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B82" s="28" t="s">
         <v>73</v>
@@ -8790,17 +8840,17 @@
         <v>1</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="G82" s="28" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="H82" s="28" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="I82" s="28"/>
       <c r="J82" s="28"/>
@@ -8819,12 +8869,12 @@
       <c r="W82" s="29"/>
       <c r="X82" s="29"/>
       <c r="Y82" s="1" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="B83" s="28" t="s">
         <v>73</v>
@@ -8834,23 +8884,23 @@
         <v>1</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E83" s="29"/>
       <c r="F83" s="10" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="K83" s="28"/>
       <c r="L83" s="29"/>
@@ -8870,12 +8920,12 @@
       <c r="W83" s="29"/>
       <c r="X83" s="29"/>
       <c r="Y83" s="1" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B84" s="28" t="s">
         <v>73</v>
@@ -8885,23 +8935,23 @@
         <v>1</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E84" s="29"/>
       <c r="F84" s="10" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="J84" s="33" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="K84" s="28"/>
       <c r="L84" s="29"/>
@@ -8918,12 +8968,12 @@
       <c r="W84" s="29"/>
       <c r="X84" s="29"/>
       <c r="Y84" s="1" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B85" s="28" t="s">
         <v>73</v>
@@ -8933,11 +8983,11 @@
         <v>1</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E85" s="29"/>
       <c r="F85" s="10" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="G85" s="10"/>
       <c r="H85" s="32"/>
@@ -8958,12 +9008,12 @@
       <c r="W85" s="29"/>
       <c r="X85" s="29"/>
       <c r="Y85" s="1" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="38.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="10" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B86" s="28" t="s">
         <v>73</v>
@@ -8973,19 +9023,19 @@
         <v>1</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="I86" s="28"/>
       <c r="J86" s="28"/>
@@ -9004,12 +9054,12 @@
       <c r="W86" s="29"/>
       <c r="X86" s="29"/>
       <c r="Y86" s="1" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B87" s="28" t="s">
         <v>73</v>
@@ -9019,19 +9069,19 @@
         <v>1</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E87" s="29" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="H87" s="32" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="I87" s="28"/>
       <c r="J87" s="28"/>
@@ -9050,12 +9100,12 @@
       <c r="W87" s="29"/>
       <c r="X87" s="29"/>
       <c r="Y87" s="1" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="10" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="B88" s="28" t="s">
         <v>73</v>
@@ -9065,13 +9115,13 @@
         <v>1</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="G88" s="10"/>
       <c r="H88" s="32"/>
@@ -9092,12 +9142,12 @@
       <c r="W88" s="29"/>
       <c r="X88" s="29"/>
       <c r="Y88" s="1" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="10" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="B89" s="28" t="s">
         <v>73</v>
@@ -9107,13 +9157,13 @@
         <v>1</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E89" s="29" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="G89" s="10"/>
       <c r="H89" s="32"/>
@@ -9134,12 +9184,12 @@
       <c r="W89" s="29"/>
       <c r="X89" s="29"/>
       <c r="Y89" s="1" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="10" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="B90" s="28" t="s">
         <v>73</v>
@@ -9149,13 +9199,13 @@
         <v>1</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E90" s="29" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="G90" s="10"/>
       <c r="H90" s="32"/>
@@ -9176,12 +9226,12 @@
       <c r="W90" s="29"/>
       <c r="X90" s="29"/>
       <c r="Y90" s="1" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="71.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="10" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="B91" s="28" t="s">
         <v>73</v>
@@ -9191,25 +9241,25 @@
         <v>1</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E91" s="29" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="J91" s="15" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="K91" s="15"/>
       <c r="L91" s="29"/>
@@ -9226,12 +9276,12 @@
       <c r="W91" s="29"/>
       <c r="X91" s="29"/>
       <c r="Y91" s="1" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="10" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="B92" s="28" t="s">
         <v>33</v>
@@ -9241,26 +9291,26 @@
         <v>1</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E92" s="29" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="I92" s="15"/>
       <c r="J92" s="15"/>
       <c r="K92" s="15"/>
       <c r="L92" s="29"/>
       <c r="M92" s="29" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="N92" s="29"/>
       <c r="O92" s="29" t="s">
@@ -9281,7 +9331,7 @@
     </row>
     <row r="93" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="10" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="B93" s="28" t="s">
         <v>77</v>
@@ -9291,28 +9341,28 @@
         <v>1</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E93" s="29" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="I93" s="15"/>
       <c r="J93" s="15"/>
       <c r="K93" s="8" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="L93" s="29"/>
       <c r="M93" s="29" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="N93" s="29"/>
       <c r="O93" s="29"/>
@@ -9331,7 +9381,7 @@
     </row>
     <row r="94" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="10" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="B94" s="28" t="s">
         <v>73</v>
@@ -9341,19 +9391,19 @@
         <v>1</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E94" s="29" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="G94" s="35" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="I94" s="15"/>
       <c r="J94" s="15"/>
@@ -9375,12 +9425,12 @@
       <c r="W94" s="29"/>
       <c r="X94" s="29"/>
       <c r="Y94" s="1" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="10" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="B95" s="28" t="s">
         <v>73</v>
@@ -9390,19 +9440,19 @@
         <v>0</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E95" s="29" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="I95" s="15"/>
       <c r="J95" s="15"/>
@@ -9424,12 +9474,12 @@
       <c r="W95" s="29"/>
       <c r="X95" s="29"/>
       <c r="Y95" s="1" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="10" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="B96" s="28" t="s">
         <v>73</v>
@@ -9439,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E96" s="29" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="I96" s="15"/>
       <c r="J96" s="15"/>
@@ -9473,12 +9523,12 @@
       <c r="W96" s="29"/>
       <c r="X96" s="29"/>
       <c r="Y96" s="1" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="10" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="B97" s="28" t="s">
         <v>33</v>
@@ -9488,30 +9538,30 @@
         <v>1</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E97" s="29" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="I97" s="15"/>
       <c r="J97" s="15"/>
       <c r="K97" s="15"/>
       <c r="L97" s="29"/>
       <c r="M97" s="29" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="N97" s="29"/>
       <c r="O97" s="29" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="P97" s="29"/>
       <c r="Q97" s="29"/>
@@ -9528,7 +9578,7 @@
     </row>
     <row r="98" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="10" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="B98" s="28" t="s">
         <v>26</v>
@@ -9538,29 +9588,29 @@
         <v>1</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E98" s="29" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="I98" s="15"/>
       <c r="J98" s="15"/>
       <c r="K98" s="15"/>
       <c r="L98" s="29"/>
       <c r="M98" s="29" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="N98" s="29" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="O98" s="29"/>
       <c r="P98" s="29"/>
@@ -9578,7 +9628,7 @@
     </row>
     <row r="99" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="B99" s="28" t="s">
         <v>73</v>
@@ -9588,19 +9638,19 @@
         <v>1</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E99" s="29" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="I99" s="15"/>
       <c r="J99" s="15"/>
@@ -9619,12 +9669,12 @@
       <c r="W99" s="29"/>
       <c r="X99" s="29"/>
       <c r="Y99" s="1" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="10" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="B100" s="28" t="s">
         <v>73</v>
@@ -9634,10 +9684,10 @@
         <v>1</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E100" s="29" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
@@ -9659,12 +9709,12 @@
       <c r="W100" s="29"/>
       <c r="X100" s="29"/>
       <c r="Y100" s="1" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="10" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="B101" s="28" t="s">
         <v>73</v>
@@ -9674,19 +9724,19 @@
         <v>1</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E101" s="29" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="I101" s="15"/>
       <c r="J101" s="15"/>
@@ -9707,7 +9757,7 @@
     </row>
     <row r="102" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="10" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="B102" s="28" t="s">
         <v>73</v>
@@ -9717,24 +9767,24 @@
         <v>1</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E102" s="29"/>
       <c r="F102" s="29" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="I102" s="15"/>
       <c r="J102" s="15"/>
       <c r="K102" s="15"/>
       <c r="L102" s="29"/>
       <c r="M102" s="29" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="N102" s="29"/>
       <c r="O102" s="29"/>
@@ -9748,12 +9798,12 @@
       <c r="W102" s="29"/>
       <c r="X102" s="29"/>
       <c r="Y102" s="1" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
     </row>
     <row r="103" s="2" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="10" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B103" s="28" t="s">
         <v>73</v>
@@ -9763,7 +9813,7 @@
         <v>1</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E103" s="29"/>
       <c r="F103" s="29"/>
@@ -9789,12 +9839,12 @@
       <c r="W103" s="29"/>
       <c r="X103" s="29"/>
       <c r="Y103" s="2" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="10" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B104" s="28" t="s">
         <v>73</v>
@@ -9804,17 +9854,17 @@
         <v>1</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E104" s="29"/>
       <c r="F104" s="29" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="G104" s="28" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="H104" s="28" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="I104" s="28"/>
       <c r="J104" s="28"/>
@@ -9833,12 +9883,12 @@
       <c r="W104" s="29"/>
       <c r="X104" s="29"/>
       <c r="Y104" s="1" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="10" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="B105" s="28" t="s">
         <v>73</v>
@@ -9848,17 +9898,17 @@
         <v>1</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E105" s="29"/>
       <c r="F105" s="29" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="I105" s="15"/>
       <c r="J105" s="15"/>
@@ -9880,45 +9930,45 @@
       <c r="W105" s="29"/>
       <c r="X105" s="29"/>
       <c r="Y105" s="1" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="10" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C106" s="34" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E106" s="29"/>
       <c r="F106" s="10" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="I106" s="15"/>
       <c r="J106" s="15"/>
       <c r="K106" s="15"/>
       <c r="L106" s="29"/>
       <c r="M106" s="29" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="N106" s="29" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="O106" s="29" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="P106" s="29"/>
       <c r="Q106" s="29"/>
@@ -9932,7 +9982,7 @@
     </row>
     <row r="107" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="10" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="B107" s="28" t="s">
         <v>73</v>
@@ -9942,31 +9992,31 @@
         <v>1</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E107" s="29"/>
       <c r="F107" s="10" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="K107" s="15"/>
       <c r="L107" s="29"/>
       <c r="M107" s="29" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="N107" s="29" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="O107" s="29"/>
       <c r="P107" s="29"/>
@@ -9982,12 +10032,12 @@
       <c r="W107" s="29"/>
       <c r="X107" s="29"/>
       <c r="Y107" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="10" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="B108" s="28" t="s">
         <v>73</v>
@@ -9997,17 +10047,17 @@
         <v>1</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E108" s="29"/>
       <c r="F108" s="29" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="I108" s="15"/>
       <c r="J108" s="15"/>
@@ -10029,45 +10079,45 @@
       <c r="W108" s="29"/>
       <c r="X108" s="29"/>
       <c r="Y108" s="1" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="10" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C109" s="34" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E109" s="29"/>
       <c r="F109" s="10" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="I109" s="15"/>
       <c r="J109" s="15"/>
       <c r="K109" s="15"/>
       <c r="L109" s="29"/>
       <c r="M109" s="29" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="N109" s="29" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="O109" s="29" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="P109" s="29"/>
       <c r="Q109" s="29"/>
@@ -10081,7 +10131,7 @@
     </row>
     <row r="110" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="10" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="B110" s="28" t="s">
         <v>73</v>
@@ -10091,31 +10141,31 @@
         <v>1</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E110" s="29"/>
       <c r="F110" s="10" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="J110" s="10" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="29"/>
       <c r="M110" s="29" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="N110" s="29" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="O110" s="29"/>
       <c r="P110" s="29"/>
@@ -10131,12 +10181,12 @@
       <c r="W110" s="29"/>
       <c r="X110" s="29"/>
       <c r="Y110" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="10" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="B111" s="28" t="s">
         <v>104</v>
@@ -10146,17 +10196,17 @@
         <v>1</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E111" s="29"/>
       <c r="F111" s="29" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="G111" s="28" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="H111" s="28" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="I111" s="29"/>
       <c r="J111" s="29"/>
@@ -10177,7 +10227,7 @@
     </row>
     <row r="112" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="10" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="B112" s="28" t="s">
         <v>33</v>
@@ -10187,17 +10237,17 @@
         <v>1</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="E112" s="29"/>
       <c r="F112" s="29" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="G112" s="28" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="H112" s="28" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="I112" s="15"/>
       <c r="J112" s="15"/>
@@ -10206,7 +10256,7 @@
       <c r="M112" s="29"/>
       <c r="N112" s="29"/>
       <c r="O112" s="29" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="P112" s="29"/>
       <c r="Q112" s="29"/>
@@ -10220,27 +10270,27 @@
     </row>
     <row r="113" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="10" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C113" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="E113" s="29"/>
       <c r="F113" s="29" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="G113" s="28" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="H113" s="28" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
@@ -10249,7 +10299,7 @@
       <c r="M113" s="29"/>
       <c r="N113" s="29"/>
       <c r="O113" s="36" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="P113" s="29"/>
       <c r="Q113" s="29"/>
@@ -10266,7 +10316,7 @@
     </row>
     <row r="114" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="10" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="B114" s="28" t="s">
         <v>33</v>
@@ -10276,17 +10326,17 @@
         <v>1</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="E114" s="29"/>
       <c r="F114" s="10" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="G114" s="37" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="H114" s="37" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="I114" s="15"/>
       <c r="J114" s="15"/>
@@ -10312,7 +10362,7 @@
     </row>
     <row r="115" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="10" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="B115" s="28" t="s">
         <v>26</v>
@@ -10322,24 +10372,24 @@
         <v>1</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="E115" s="29"/>
       <c r="F115" s="10" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="G115" s="37" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="H115" s="37" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="I115" s="15"/>
       <c r="J115" s="15"/>
       <c r="K115" s="15"/>
       <c r="L115" s="29"/>
       <c r="M115" s="29" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="N115" s="8" t="s">
         <v>45</v>
@@ -10360,27 +10410,27 @@
     </row>
     <row r="116" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="10" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="C116" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="E116" s="29"/>
       <c r="F116" s="29" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="G116" s="36" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="H116" s="36" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="I116" s="15"/>
       <c r="J116" s="15"/>
@@ -10388,7 +10438,7 @@
       <c r="L116" s="29"/>
       <c r="M116" s="29"/>
       <c r="N116" s="29" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="O116" s="29"/>
       <c r="P116" s="29"/>
@@ -10406,7 +10456,7 @@
     </row>
     <row r="117" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="10" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>38</v>
@@ -10416,17 +10466,17 @@
         <v>1</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="E117" s="29"/>
       <c r="F117" s="29" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="G117" s="28" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="H117" s="28" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="I117" s="15"/>
       <c r="J117" s="15"/>
@@ -10450,7 +10500,7 @@
     </row>
     <row r="118" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="B118" s="28" t="s">
         <v>104</v>
@@ -10460,17 +10510,17 @@
         <v>1</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="E118" s="29"/>
       <c r="F118" s="10" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="I118" s="15"/>
       <c r="J118" s="15"/>
@@ -10491,7 +10541,7 @@
     </row>
     <row r="119" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="10" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="B119" s="28" t="s">
         <v>77</v>
@@ -10501,29 +10551,29 @@
         <v>1</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="E119" s="29"/>
       <c r="F119" s="29" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="G119" s="28" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="H119" s="28" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="I119" s="15"/>
       <c r="J119" s="15"/>
       <c r="K119" s="8" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="L119" s="29"/>
       <c r="M119" s="29" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="N119" s="10" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="O119" s="29"/>
       <c r="P119" s="29"/>
@@ -10541,7 +10591,7 @@
     </row>
     <row r="120" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="10" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="B120" s="28" t="s">
         <v>77</v>
@@ -10551,29 +10601,29 @@
         <v>1</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="E120" s="29"/>
       <c r="F120" s="29" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="G120" s="28" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="H120" s="28" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="I120" s="15"/>
       <c r="J120" s="15"/>
       <c r="K120" s="8" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="L120" s="29"/>
       <c r="M120" s="29" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="N120" s="10" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="O120" s="29"/>
       <c r="P120" s="29"/>
@@ -10591,27 +10641,27 @@
     </row>
     <row r="121" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="10" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="C121" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="E121" s="29"/>
       <c r="F121" s="29" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="G121" s="36" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="H121" s="36" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="I121" s="15"/>
       <c r="J121" s="15"/>
@@ -10619,12 +10669,12 @@
       <c r="L121" s="29"/>
       <c r="M121" s="29"/>
       <c r="N121" s="29" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="O121" s="29"/>
       <c r="P121" s="29"/>
       <c r="Q121" s="36" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="R121" s="29"/>
       <c r="S121" s="29"/>
@@ -10639,7 +10689,7 @@
     </row>
     <row r="122" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="10" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="B122" s="28" t="s">
         <v>114</v>
@@ -10649,17 +10699,17 @@
         <v>1</v>
       </c>
       <c r="D122" s="28" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="E122" s="29"/>
       <c r="F122" s="29" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="G122" s="36" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="H122" s="36" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="I122" s="15"/>
       <c r="J122" s="15"/>
@@ -10667,7 +10717,7 @@
       <c r="L122" s="29"/>
       <c r="M122" s="29"/>
       <c r="N122" s="29" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="O122" s="29"/>
       <c r="P122" s="29"/>
@@ -10685,27 +10735,27 @@
     </row>
     <row r="123" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="10" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="B123" s="28" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="C123" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="E123" s="29"/>
       <c r="F123" s="29" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="G123" s="36" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="H123" s="36" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="I123" s="15"/>
       <c r="J123" s="15"/>
@@ -10713,12 +10763,12 @@
       <c r="L123" s="29"/>
       <c r="M123" s="29"/>
       <c r="N123" s="29" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="O123" s="29"/>
       <c r="P123" s="29"/>
       <c r="Q123" s="36" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="R123" s="29"/>
       <c r="S123" s="29"/>
@@ -10733,27 +10783,27 @@
     </row>
     <row r="124" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="10" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="B124" s="28" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="C124" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="E124" s="29"/>
       <c r="F124" s="29" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="G124" s="36" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="H124" s="36" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="I124" s="15"/>
       <c r="J124" s="15"/>
@@ -10761,12 +10811,12 @@
       <c r="L124" s="29"/>
       <c r="M124" s="29"/>
       <c r="N124" s="29" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="O124" s="29"/>
       <c r="P124" s="29"/>
       <c r="Q124" s="36" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="R124" s="29"/>
       <c r="S124" s="29"/>
@@ -10781,27 +10831,27 @@
     </row>
     <row r="125" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="10" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="B125" s="28" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="C125" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="E125" s="29"/>
       <c r="F125" s="29" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="G125" s="36" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="H125" s="36" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="I125" s="15"/>
       <c r="J125" s="15"/>
@@ -10809,12 +10859,12 @@
       <c r="L125" s="29"/>
       <c r="M125" s="29"/>
       <c r="N125" s="29" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="O125" s="29"/>
       <c r="P125" s="29"/>
       <c r="Q125" s="36" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="R125" s="29"/>
       <c r="S125" s="29"/>
@@ -10829,7 +10879,7 @@
     </row>
     <row r="126" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="10" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="B126" s="28" t="s">
         <v>33</v>
@@ -10839,17 +10889,17 @@
         <v>1</v>
       </c>
       <c r="D126" s="28" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="E126" s="29"/>
       <c r="F126" s="29" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="G126" s="36" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="H126" s="36" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="I126" s="15"/>
       <c r="J126" s="15"/>
@@ -10857,7 +10907,7 @@
       <c r="L126" s="29"/>
       <c r="M126" s="29"/>
       <c r="N126" s="29" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="O126" s="29" t="s">
         <v>165</v>
@@ -10877,7 +10927,7 @@
     </row>
     <row r="127" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="10" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="B127" s="28" t="s">
         <v>104</v>
@@ -10887,17 +10937,17 @@
         <v>1</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="E127" s="29"/>
       <c r="F127" s="10" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="G127" s="28" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="I127" s="15"/>
       <c r="J127" s="15"/>
@@ -10918,7 +10968,7 @@
     </row>
     <row r="128" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>38</v>
@@ -10928,16 +10978,16 @@
         <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="L128" s="38"/>
       <c r="M128" s="39"/>
@@ -11054,34 +11104,34 @@
   <sheetData>
     <row r="1" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="C1" s="41" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E2" s="10" t="n">
         <v>1</v>
@@ -11094,10 +11144,10 @@
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="E3" s="10" t="n">
         <v>2</v>
@@ -11106,32 +11156,32 @@
     </row>
     <row r="4" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E5" s="10" t="n">
         <v>1</v>
@@ -11144,10 +11194,10 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="E6" s="10" t="n">
         <v>1</v>
@@ -11156,14 +11206,14 @@
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="E7" s="10" t="n">
         <v>3</v>
@@ -11172,16 +11222,16 @@
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="E8" s="10" t="n">
         <v>5</v>
@@ -11190,14 +11240,14 @@
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="E9" s="10" t="n">
         <v>4</v>
@@ -11206,16 +11256,16 @@
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="E10" s="10" t="n">
         <v>13</v>
@@ -11224,14 +11274,14 @@
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="E11" s="10" t="n">
         <v>5</v>
@@ -11244,10 +11294,10 @@
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="E12" s="10" t="n">
         <v>5</v>
@@ -11256,14 +11306,14 @@
     </row>
     <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="E13" s="10" t="n">
         <v>6</v>
@@ -11272,14 +11322,14 @@
     </row>
     <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="E14" s="10" t="n">
         <v>11</v>
@@ -11292,10 +11342,10 @@
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="E15" s="10" t="n">
         <v>14</v>
@@ -11308,10 +11358,10 @@
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="E16" s="10" t="n">
         <v>15</v>
@@ -11323,16 +11373,16 @@
         <v>141</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="F17" s="10"/>
     </row>
@@ -11342,10 +11392,10 @@
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="E18" s="10" t="n">
         <v>15</v>
@@ -11358,10 +11408,10 @@
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="E19" s="10" t="n">
         <v>16</v>
@@ -11370,14 +11420,14 @@
     </row>
     <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="E20" s="10" t="n">
         <v>16</v>
@@ -11386,32 +11436,32 @@
     </row>
     <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="E22" s="10" t="n">
         <v>40</v>
@@ -11424,209 +11474,209 @@
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="F23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="D30" s="44" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11637,35 +11687,35 @@
         <v>32</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="46" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E37" s="48" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="46" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="D38" s="44" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>1</v>
@@ -11673,109 +11723,109 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="49" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="D40" s="44" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="21" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="21" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="D42" s="44" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="21" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="21" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="D44" s="44" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="21" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="D45" s="44" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11783,41 +11833,41 @@
         <v>155</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E46" s="51" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="D47" s="44" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="21" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
     </row>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -11866,25 +11916,25 @@
         <v>3</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11892,13 +11942,13 @@
         <v>27</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="E2" s="54" t="b">
         <f aca="false">TRUE()</f>
@@ -11918,13 +11968,13 @@
         <v>108</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="E3" s="54" t="b">
         <f aca="false">TRUE()</f>
@@ -11941,16 +11991,16 @@
     </row>
     <row r="4" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="E4" s="54" t="b">
         <f aca="false">TRUE()</f>
@@ -11967,16 +12017,16 @@
     </row>
     <row r="5" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="E5" s="54" t="b">
         <f aca="false">FALSE()</f>
@@ -11991,21 +12041,21 @@
         <v>1</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="33" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="E6" s="54" t="b">
         <f aca="false">FALSE()</f>
@@ -12020,21 +12070,21 @@
         <v>1</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="33" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="E7" s="54" t="b">
         <f aca="false">FALSE()</f>
@@ -12046,21 +12096,21 @@
       </c>
       <c r="G7" s="54"/>
       <c r="H7" s="10" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="E8" s="54" t="b">
         <f aca="false">FALSE()</f>
@@ -12072,21 +12122,21 @@
       </c>
       <c r="G8" s="54"/>
       <c r="H8" s="10" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="33" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="E9" s="54" t="b">
         <f aca="false">FALSE()</f>
@@ -12101,21 +12151,21 @@
         <v>0</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="E10" s="54" t="b">
         <f aca="false">TRUE()</f>
@@ -12132,16 +12182,16 @@
     </row>
     <row r="11" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="E11" s="54" t="b">
         <f aca="false">FALSE()</f>
@@ -12156,7 +12206,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -12193,10 +12243,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="55" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="C1" s="55" t="s">
         <v>6</v>
@@ -12211,27 +12261,27 @@
         <v>9</v>
       </c>
       <c r="G1" s="55" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="H1" s="55" t="s">
         <v>12</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -12240,16 +12290,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -12264,10 +12314,10 @@
         <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -12276,16 +12326,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -12294,16 +12344,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -12312,16 +12362,16 @@
     </row>
     <row r="7" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -12338,7 +12388,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -12352,7 +12402,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -12380,7 +12430,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -12394,7 +12444,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -12408,7 +12458,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -12422,7 +12472,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -12431,13 +12481,13 @@
         <v>122</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -12449,13 +12499,13 @@
         <v>122</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -12472,7 +12522,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -12481,13 +12531,13 @@
         <v>131</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -12499,13 +12549,13 @@
         <v>131</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -12522,7 +12572,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="H20" s="1"/>
     </row>
@@ -12531,19 +12581,19 @@
         <v>138</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12551,19 +12601,19 @@
         <v>138</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12571,19 +12621,19 @@
         <v>138</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12591,13 +12641,13 @@
         <v>138</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -12609,13 +12659,13 @@
         <v>138</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -12643,20 +12693,20 @@
         <v>144</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="49" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12664,20 +12714,20 @@
         <v>144</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="49" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12685,20 +12735,20 @@
         <v>144</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="49" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12706,20 +12756,20 @@
         <v>144</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="49" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12727,20 +12777,20 @@
         <v>144</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="49" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12748,19 +12798,19 @@
         <v>144</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12768,13 +12818,13 @@
         <v>144</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -12786,13 +12836,13 @@
         <v>144</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -12804,13 +12854,13 @@
         <v>144</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -12822,13 +12872,13 @@
         <v>144</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -12840,13 +12890,13 @@
         <v>144</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -12861,10 +12911,10 @@
         <v>143</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -12876,13 +12926,13 @@
         <v>144</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>769</v>
+        <v>779</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -12891,7 +12941,7 @@
     </row>
     <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -12899,22 +12949,22 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="H40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -12923,16 +12973,16 @@
     </row>
     <row r="42" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -12941,7 +12991,7 @@
     </row>
     <row r="43" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -12949,22 +12999,22 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="H43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="21" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>777</v>
+        <v>787</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>778</v>
+        <v>788</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -12973,16 +13023,16 @@
     </row>
     <row r="45" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="21" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -12991,16 +13041,16 @@
     </row>
     <row r="46" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="21" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -13009,16 +13059,16 @@
     </row>
     <row r="47" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -13027,16 +13077,16 @@
     </row>
     <row r="48" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="21" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -13045,750 +13095,750 @@
     </row>
     <row r="49" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B49" s="49" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="C49" s="49" t="s">
+        <v>798</v>
+      </c>
+      <c r="D49" s="49" t="s">
         <v>788</v>
-      </c>
-      <c r="D49" s="49" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B50" s="49" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="C50" s="49" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="D50" s="49" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B51" s="49" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="C51" s="49" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="D51" s="49" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="49" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B52" s="49" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="C52" s="49" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="D52" s="49" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="49" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>799</v>
+        <v>809</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="49" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="49" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="49" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="49" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="49" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>816</v>
+        <v>826</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="49" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>818</v>
+        <v>828</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>819</v>
+        <v>829</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="49" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>822</v>
+        <v>832</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="49" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>823</v>
+        <v>833</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>824</v>
+        <v>834</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>825</v>
+        <v>835</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="49" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>826</v>
+        <v>836</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="49" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>829</v>
+        <v>839</v>
       </c>
       <c r="C64" s="49" t="s">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="D64" s="49" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="49" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B65" s="49" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="C65" s="49" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="D65" s="49" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="49" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="C66" s="49" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="D66" s="49" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="56" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
       <c r="C67" s="49" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="D67" s="49" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="56" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
       <c r="C68" s="49" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="D68" s="49" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="56" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="B69" s="49" t="s">
         <v>143</v>
       </c>
       <c r="C69" s="49" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="D69" s="49" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="56" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="B70" s="49" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="29" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B71" s="49" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="C71" s="57" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="D71" s="49" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="29" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B72" s="49" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>844</v>
+        <v>854</v>
       </c>
       <c r="D72" s="57" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="E72" s="57"/>
       <c r="F72" s="57"/>
       <c r="H72" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="29" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B73" s="49" t="s">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="D73" s="49" t="s">
-        <v>848</v>
+        <v>858</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="29" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B74" s="49" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="29" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B75" s="49" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>854</v>
+        <v>864</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="29" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B76" s="49" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>857</v>
+        <v>867</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
       <c r="H76" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="29" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B77" s="49" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>860</v>
+        <v>870</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="29" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B78" s="49" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>863</v>
+        <v>873</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
       <c r="H78" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="29" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B79" s="49" t="s">
         <v>143</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="D79" s="49" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="29" t="s">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="B80" s="49" t="s">
         <v>27</v>
       </c>
       <c r="C80" s="49" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="D80" s="49" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="29" t="s">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="B81" s="49" t="s">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="C81" s="49" t="s">
-        <v>866</v>
+        <v>876</v>
       </c>
       <c r="D81" s="49" t="s">
-        <v>867</v>
+        <v>877</v>
       </c>
       <c r="H81" s="49" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="29" t="s">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="B82" s="49" t="s">
         <v>143</v>
       </c>
       <c r="C82" s="49" t="s">
-        <v>868</v>
+        <v>878</v>
       </c>
       <c r="D82" s="49" t="s">
-        <v>869</v>
+        <v>879</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="29" t="s">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>873</v>
+        <v>883</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>874</v>
+        <v>884</v>
       </c>
       <c r="H83" s="49" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="29" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
       <c r="B84" s="49" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="29" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
       <c r="B85" s="49" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="29" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
       <c r="B86" s="49" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="C86" s="49" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="D86" s="49" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="29" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>887</v>
+        <v>897</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>888</v>
+        <v>898</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>889</v>
+        <v>899</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="29" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="29" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>895</v>
+        <v>905</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="29" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>897</v>
+        <v>907</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>898</v>
+        <v>908</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="29" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="29" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="29" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>901</v>
+        <v>911</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="29" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>902</v>
+        <v>912</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>904</v>
+        <v>914</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="29" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>895</v>
+        <v>905</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="29" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>905</v>
+        <v>915</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>906</v>
+        <v>916</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="29" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="29" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13796,13 +13846,13 @@
         <v>157</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
       <c r="C99" s="49" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
       <c r="D99" s="49" t="s">
-        <v>910</v>
+        <v>920</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13810,13 +13860,13 @@
         <v>157</v>
       </c>
       <c r="B100" s="49" t="s">
-        <v>911</v>
+        <v>921</v>
       </c>
       <c r="C100" s="49" t="s">
-        <v>912</v>
+        <v>922</v>
       </c>
       <c r="D100" s="49" t="s">
-        <v>913</v>
+        <v>923</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13824,13 +13874,13 @@
         <v>157</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>914</v>
+        <v>924</v>
       </c>
       <c r="C101" s="49" t="s">
-        <v>915</v>
+        <v>925</v>
       </c>
       <c r="D101" s="49" t="s">
-        <v>916</v>
+        <v>926</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13838,13 +13888,13 @@
         <v>157</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>917</v>
+        <v>927</v>
       </c>
       <c r="C102" s="49" t="s">
-        <v>918</v>
+        <v>928</v>
       </c>
       <c r="D102" s="49" t="s">
-        <v>919</v>
+        <v>929</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13852,13 +13902,13 @@
         <v>157</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>920</v>
+        <v>930</v>
       </c>
       <c r="C103" s="49" t="s">
-        <v>921</v>
+        <v>931</v>
       </c>
       <c r="D103" s="49" t="s">
-        <v>922</v>
+        <v>932</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13866,13 +13916,13 @@
         <v>157</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>923</v>
+        <v>933</v>
       </c>
       <c r="C104" s="49" t="s">
-        <v>924</v>
+        <v>934</v>
       </c>
       <c r="D104" s="49" t="s">
-        <v>925</v>
+        <v>935</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13880,108 +13930,108 @@
         <v>157</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="21" t="s">
-        <v>926</v>
+        <v>936</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>928</v>
+        <v>938</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>929</v>
+        <v>939</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="G106" s="21"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="21" t="s">
-        <v>926</v>
+        <v>936</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>931</v>
+        <v>941</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>932</v>
+        <v>942</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>933</v>
+        <v>943</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>934</v>
+        <v>944</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="21" t="s">
-        <v>926</v>
+        <v>936</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>935</v>
+        <v>945</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>936</v>
+        <v>946</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>938</v>
+        <v>948</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="21" t="s">
-        <v>926</v>
+        <v>936</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>939</v>
+        <v>949</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>940</v>
+        <v>950</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>941</v>
+        <v>951</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>942</v>
+        <v>952</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="21" t="s">
-        <v>926</v>
+        <v>936</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>943</v>
+        <v>953</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>944</v>
+        <v>954</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>946</v>
+        <v>956</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -14025,63 +14075,63 @@
   <sheetData>
     <row r="1" s="55" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="59" t="s">
-        <v>947</v>
+        <v>957</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>948</v>
+        <v>958</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>949</v>
+        <v>959</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>951</v>
+        <v>961</v>
       </c>
       <c r="F1" s="59" t="s">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="G1" s="59" t="s">
-        <v>953</v>
+        <v>963</v>
       </c>
       <c r="H1" s="59" t="s">
-        <v>954</v>
+        <v>964</v>
       </c>
       <c r="I1" s="59" t="s">
-        <v>955</v>
+        <v>965</v>
       </c>
       <c r="J1" s="59" t="s">
-        <v>956</v>
+        <v>966</v>
       </c>
       <c r="K1" s="59" t="s">
-        <v>957</v>
+        <v>967</v>
       </c>
       <c r="L1" s="55" t="s">
-        <v>958</v>
+        <v>968</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="36" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>959</v>
+        <v>969</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>961</v>
+        <v>971</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>962</v>
+        <v>972</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>964</v>
+        <v>974</v>
       </c>
       <c r="H2" s="36" t="n">
         <v>-10</v>
@@ -14090,36 +14140,36 @@
         <v>100</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="K2" s="36" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="L2" s="36" t="s">
-        <v>966</v>
+        <v>976</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="36" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>968</v>
+        <v>978</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>969</v>
+        <v>979</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>971</v>
+        <v>981</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>972</v>
+        <v>982</v>
       </c>
       <c r="H3" s="36" t="n">
         <v>-10</v>
@@ -14128,36 +14178,36 @@
         <v>100</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="K3" s="36" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="L3" s="36" t="s">
-        <v>973</v>
+        <v>983</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="36" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>975</v>
+        <v>985</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>976</v>
+        <v>986</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>977</v>
+        <v>987</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>978</v>
+        <v>988</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>979</v>
+        <v>989</v>
       </c>
       <c r="H4" s="36" t="n">
         <v>-10</v>
@@ -14166,36 +14216,36 @@
         <v>100</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="L4" s="36" t="s">
-        <v>980</v>
+        <v>990</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="36" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>981</v>
+        <v>991</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>982</v>
+        <v>992</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>983</v>
+        <v>993</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>984</v>
+        <v>994</v>
       </c>
       <c r="H5" s="36" t="n">
         <v>-10</v>
@@ -14204,13 +14254,13 @@
         <v>100</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>980</v>
+        <v>990</v>
       </c>
     </row>
   </sheetData>
@@ -14268,13 +14318,13 @@
         <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>985</v>
+        <v>995</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>986</v>
+        <v>996</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>987</v>
+        <v>997</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -14284,834 +14334,834 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>988</v>
+        <v>998</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>991</v>
+        <v>1001</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>992</v>
+        <v>1002</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>993</v>
+        <v>1003</v>
       </c>
       <c r="E4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>994</v>
+        <v>1004</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>995</v>
+        <v>1005</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>996</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>997</v>
+        <v>1007</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>998</v>
+        <v>1008</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>1001</v>
+        <v>1011</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>1002</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>1004</v>
+        <v>1014</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>1005</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1006</v>
+        <v>1016</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>1008</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>1010</v>
+        <v>1020</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>1011</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1012</v>
+        <v>1022</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>1013</v>
+        <v>1023</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1014</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1015</v>
+        <v>1025</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>1016</v>
+        <v>1026</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>1017</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>1019</v>
+        <v>1029</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>1020</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>1023</v>
+        <v>1033</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>1024</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>1025</v>
+        <v>1035</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>1026</v>
+        <v>1036</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>1027</v>
+        <v>1037</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>1028</v>
+        <v>1038</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>1030</v>
+        <v>1040</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>1031</v>
+        <v>1041</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>1032</v>
+        <v>1042</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>1033</v>
+        <v>1043</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>1034</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>1035</v>
+        <v>1045</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>1036</v>
+        <v>1046</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>1037</v>
+        <v>1047</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>1040</v>
+        <v>1050</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>1041</v>
+        <v>1051</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>1042</v>
+        <v>1052</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>1043</v>
+        <v>1053</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>1044</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>1045</v>
+        <v>1055</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>1046</v>
+        <v>1056</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>1047</v>
+        <v>1057</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>1048</v>
+        <v>1058</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>1049</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>1050</v>
+        <v>1060</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1051</v>
+        <v>1061</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>1052</v>
+        <v>1062</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>1053</v>
+        <v>1063</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>1054</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>1055</v>
+        <v>1065</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1056</v>
+        <v>1066</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1057</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>1058</v>
+        <v>1068</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>1059</v>
+        <v>1069</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>1060</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>1061</v>
+        <v>1071</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>1062</v>
+        <v>1072</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>1063</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>1064</v>
+        <v>1074</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>1065</v>
+        <v>1075</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>1066</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>1067</v>
+        <v>1077</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>1068</v>
+        <v>1078</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>1069</v>
+        <v>1079</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>1070</v>
+        <v>1080</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>1071</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>1072</v>
+        <v>1082</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>1073</v>
+        <v>1083</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>1074</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>1075</v>
+        <v>1085</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>1076</v>
+        <v>1086</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>1077</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>1078</v>
+        <v>1088</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>1079</v>
+        <v>1089</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>1080</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>1081</v>
+        <v>1091</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>1084</v>
+        <v>1094</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>1085</v>
+        <v>1095</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>1086</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>1087</v>
+        <v>1097</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>1088</v>
+        <v>1098</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>1089</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>1090</v>
+        <v>1100</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>1091</v>
+        <v>1101</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>1092</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>1093</v>
+        <v>1103</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>1094</v>
+        <v>1104</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>1095</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>1096</v>
+        <v>1106</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>1097</v>
+        <v>1107</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>1098</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>1099</v>
+        <v>1109</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>1100</v>
+        <v>1110</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>1101</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>1102</v>
+        <v>1112</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>1100</v>
+        <v>1110</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>1101</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>1103</v>
+        <v>1113</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>1104</v>
+        <v>1114</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>1105</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>1106</v>
+        <v>1116</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>1107</v>
+        <v>1117</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>1108</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>1109</v>
+        <v>1119</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>1110</v>
+        <v>1120</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>1111</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>1112</v>
+        <v>1122</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>1113</v>
+        <v>1123</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>1115</v>
+        <v>1125</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>1116</v>
+        <v>1126</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>1117</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>1118</v>
+        <v>1128</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>1120</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>1121</v>
+        <v>1131</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>1122</v>
+        <v>1132</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>1123</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>1124</v>
+        <v>1134</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>1125</v>
+        <v>1135</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>1126</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>1127</v>
+        <v>1137</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>1128</v>
+        <v>1138</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>1129</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>1130</v>
+        <v>1140</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>1131</v>
+        <v>1141</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>1132</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>1133</v>
+        <v>1143</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>1134</v>
+        <v>1144</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>1135</v>
+        <v>1145</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>1136</v>
+        <v>1146</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>1137</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>1138</v>
+        <v>1148</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>1141</v>
+        <v>1151</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>1142</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>1143</v>
+        <v>1153</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>1144</v>
+        <v>1154</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>1145</v>
+        <v>1155</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>1146</v>
+        <v>1156</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>1147</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>1148</v>
+        <v>1158</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>1149</v>
+        <v>1159</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>1150</v>
+        <v>1160</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>1151</v>
+        <v>1161</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>1152</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>1153</v>
+        <v>1163</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>1154</v>
+        <v>1164</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>1155</v>
+        <v>1165</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>1156</v>
+        <v>1166</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>1157</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>1158</v>
+        <v>1168</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>1159</v>
+        <v>1169</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>1160</v>
+        <v>1170</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>1161</v>
+        <v>1171</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>1162</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>1163</v>
+        <v>1173</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>1164</v>
+        <v>1174</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>1165</v>
+        <v>1175</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>1166</v>
+        <v>1176</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>1167</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>1169</v>
+        <v>1179</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>1170</v>
+        <v>1180</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>1171</v>
+        <v>1181</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>1172</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15119,13 +15169,13 @@
         <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1173</v>
+        <v>1183</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>1174</v>
+        <v>1184</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>1175</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15133,13 +15183,13 @@
         <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1176</v>
+        <v>1186</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>1177</v>
+        <v>1187</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>1178</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15147,13 +15197,13 @@
         <v>108</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1179</v>
+        <v>1189</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>1180</v>
+        <v>1190</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>1181</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15161,13 +15211,13 @@
         <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>1183</v>
+        <v>1193</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>1184</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15175,13 +15225,13 @@
         <v>108</v>
       </c>
       <c r="B60" s="61" t="s">
-        <v>1185</v>
+        <v>1195</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>1186</v>
+        <v>1196</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>1187</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15189,13 +15239,13 @@
         <v>108</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>1188</v>
+        <v>1198</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>1189</v>
+        <v>1199</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>1190</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15203,177 +15253,177 @@
         <v>108</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>1191</v>
+        <v>1201</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>1192</v>
+        <v>1202</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>1193</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="29" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B63" s="49" t="s">
-        <v>1194</v>
+        <v>1204</v>
       </c>
       <c r="C63" s="49" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="D63" s="49" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="E63" s="49"/>
       <c r="F63" s="49"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="29" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>1195</v>
+        <v>1205</v>
       </c>
       <c r="C64" s="49" t="s">
-        <v>866</v>
+        <v>876</v>
       </c>
       <c r="D64" s="49" t="s">
-        <v>867</v>
+        <v>877</v>
       </c>
       <c r="E64" s="49"/>
       <c r="F64" s="49"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="29" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B65" s="49" t="s">
-        <v>1196</v>
+        <v>1206</v>
       </c>
       <c r="C65" s="49" t="s">
-        <v>868</v>
+        <v>878</v>
       </c>
       <c r="D65" s="49" t="s">
-        <v>869</v>
+        <v>879</v>
       </c>
       <c r="E65" s="49"/>
       <c r="F65" s="49"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="29" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>1197</v>
+        <v>1207</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>873</v>
+        <v>883</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>874</v>
+        <v>884</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="29" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B67" s="49" t="s">
-        <v>1198</v>
+        <v>1208</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="29" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>1199</v>
+        <v>1209</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>1200</v>
+        <v>1210</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>1201</v>
+        <v>1211</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>1202</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>1203</v>
+        <v>1213</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>1204</v>
+        <v>1214</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>1205</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>1206</v>
+        <v>1216</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>1207</v>
+        <v>1217</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>1208</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>1209</v>
+        <v>1219</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>1210</v>
+        <v>1220</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>1211</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15381,19 +15431,19 @@
         <v>108</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1212</v>
+        <v>1222</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>928</v>
+        <v>938</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>929</v>
+        <v>939</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>930</v>
+        <v>940</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15401,19 +15451,19 @@
         <v>108</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1213</v>
+        <v>1223</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>931</v>
+        <v>941</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>932</v>
+        <v>942</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>933</v>
+        <v>943</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>934</v>
+        <v>944</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15421,19 +15471,19 @@
         <v>108</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>1214</v>
+        <v>1224</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>935</v>
+        <v>945</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>936</v>
+        <v>946</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>938</v>
+        <v>948</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15441,19 +15491,19 @@
         <v>108</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>1215</v>
+        <v>1225</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>939</v>
+        <v>949</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>940</v>
+        <v>950</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>941</v>
+        <v>951</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>942</v>
+        <v>952</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15461,19 +15511,19 @@
         <v>108</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>1216</v>
+        <v>1226</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>943</v>
+        <v>953</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>944</v>
+        <v>954</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>946</v>
+        <v>956</v>
       </c>
     </row>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/survey/references/OD_nationale_quebec_2025.xlsx
+++ b/survey/references/OD_nationale_quebec_2025.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="1210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="1259">
   <si>
     <t xml:space="preserve">questionName</t>
   </si>
@@ -1766,6 +1766,126 @@
     <t xml:space="preserve">travelBehavior.save</t>
   </si>
   <si>
+    <t xml:space="preserve">householdMadeLongDistanceTripsInLastYear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longDistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household.madeLongDistanceTripsInLastYear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au cours des **12 derniers mois**, vous ou l’un des membres de votre ménage a-t-il effectué au moins un déplacement qui **a franchi les limites de cette zone grise** autour de votre domicile?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the **last 12 months**, did you or a member of your household make any trips **beyond the limits of the grey zone** around your home?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au cours des **12 derniers mois**, avez-vous effectué au moins un déplacement qui a **franchi les limites de cette zone grise** autour de votre domicile?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the **last 12 months**, did you make any trips **beyond the limits of the grey zone** around your home?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">householdLongDistanceIntroMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom because it is a map around the home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">householdLongDistanceTripsSeptemberDecember</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household.longDistanceTripsSeptemberDecember</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle fréquence vous ou l’un des membres de votre ménage a-t-il effectué des déplacements longue distance de **septembre à décembre 2024**?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what frequency did you or a member of your household make long distance trips from **September to December 2024**?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle fréquence avez-vous effectué des déplacements longue distance de **septembre à décembre 2024**?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what frequency did you make long distance trips from **September to December 2024**?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">madeLongDistanceTripsConditional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sliderLongDistanceTripFrequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">householdLongDistanceTripsJanuaryApril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household.longDistanceTripsJanuaryApril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle fréquence vous ou l’un des membres de votre ménage a-t-il effectué des déplacements longue distance de **janvier à avril 2025**?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what frequency did you or a member of your household make long distance trips from **January to April 2025**?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle fréquence avez-vous effectué des déplacements longue distance de **janvier à avril 2025**?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what frequency did you make long distance trips from **January to April 2025**?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">householdLongDistanceTripsMayAugust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household.longDistanceTripsMayAugust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle fréquence vous ou l’un des membres de votre ménage a-t-il effectué des déplacements longue distance de **mai à août 2025**?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what frequency did you or a member of your household make long distance trips from **May to August 2025**?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle fréquence avez-vous effectué des déplacements longue distance de **mai à août 2025**?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what frequency did you make long distance trips from **May to August 2025**?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wouldLikeToParticipateToLongDistanceSurvey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household.wouldLikeToParticipateToLongDistanceSurvey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seriez-vous intéressés à **être recontactés** pour une enquête plus approfondie sur les **déplacements interurbains**?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would you be interested in **being contacted again** for a more in-depth survey on **interurban travel**?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wouldLikeToParticipateToLongDistanceSurveyContactEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household.wouldLikeToParticipateToLongDistanceSurveyContactEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veuillez fournir l'**adresse e-mail** où vous pouvez être contacté pour participer à une enquête sur les **déplacements interurbains**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please provide the **email address** where you can be reached to participate in a survey on **interurban travel**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wantToParticipateInLongDistanceSurveyConditional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buttonCompleteLongDistanceSection</t>
+  </si>
+  <si>
     <t xml:space="preserve">householdOwnership</t>
   </si>
   <si>
@@ -1895,9 +2015,6 @@
     <t xml:space="preserve">endDurationOfTheSurvey</t>
   </si>
   <si>
-    <t xml:space="preserve">Range</t>
-  </si>
-  <si>
     <t xml:space="preserve">durationOfSurvey</t>
   </si>
   <si>
@@ -2218,6 +2335,15 @@
     <t xml:space="preserve">Travel behavior</t>
   </si>
   <si>
+    <t xml:space="preserve">ld_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déplacements longue distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long distance trips</t>
+  </si>
+  <si>
     <t xml:space="preserve">e_</t>
   </si>
   <si>
@@ -3098,6 +3224,27 @@
   </si>
   <si>
     <t xml:space="preserve">Very burdensome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une fois par mois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plusieurs fois par semaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once a month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many times a week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/10</t>
   </si>
   <si>
     <t xml:space="preserve">addGroupedObject</t>
@@ -3862,7 +4009,7 @@
     <numFmt numFmtId="165" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3993,7 +4140,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -4001,6 +4148,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -4130,7 +4284,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4275,11 +4429,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4299,11 +4465,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4343,11 +4509,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4355,7 +4521,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4371,11 +4537,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4392,7 +4558,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4483,6 +4649,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Aptos Narrow"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4759,14 +4939,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD1048576"/>
+  <dimension ref="A1:XFD134"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C106" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="B40" activeCellId="0" sqref="B40"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A106" activeCellId="0" sqref="A106"/>
+      <selection pane="bottomRight" activeCell="H113" activeCellId="0" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10036,7 +10216,7 @@
       <c r="XEC109" s="2"/>
       <c r="XED109" s="2"/>
     </row>
-    <row r="110" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="10" t="s">
         <v>535</v>
       </c>
@@ -10047,11 +10227,11 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D110" s="28" t="s">
+      <c r="D110" s="34" t="s">
         <v>536</v>
       </c>
       <c r="E110" s="30"/>
-      <c r="F110" s="30" t="s">
+      <c r="F110" s="10" t="s">
         <v>537</v>
       </c>
       <c r="G110" s="28" t="s">
@@ -10060,242 +10240,234 @@
       <c r="H110" s="28" t="s">
         <v>539</v>
       </c>
-      <c r="I110" s="15"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="15"/>
+      <c r="I110" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="J110" s="28" t="s">
+        <v>541</v>
+      </c>
+      <c r="K110" s="30"/>
       <c r="L110" s="30"/>
       <c r="M110" s="30"/>
       <c r="N110" s="30"/>
-      <c r="O110" s="30" t="s">
-        <v>540</v>
-      </c>
-      <c r="P110" s="30"/>
+      <c r="O110" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P110" s="15"/>
       <c r="Q110" s="30"/>
       <c r="R110" s="30"/>
       <c r="S110" s="30"/>
-      <c r="T110" s="15"/>
-      <c r="U110" s="30"/>
-      <c r="V110" s="30"/>
-      <c r="W110" s="30"/>
-      <c r="X110" s="30"/>
-    </row>
-    <row r="111" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="B111" s="28" t="s">
-        <v>504</v>
+      <c r="T110" s="15" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="XEA110" s="2"/>
+      <c r="XEB110" s="2"/>
+      <c r="XEC110" s="2"/>
+      <c r="XED110" s="2"/>
+    </row>
+    <row r="111" s="2" customFormat="true" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="36" t="s">
+        <v>542</v>
+      </c>
+      <c r="B111" s="36" t="s">
+        <v>73</v>
       </c>
       <c r="C111" s="29" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D111" s="28" t="s">
+      <c r="D111" s="34" t="s">
         <v>536</v>
       </c>
-      <c r="E111" s="30"/>
-      <c r="F111" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="G111" s="28" t="s">
+      <c r="E111" s="37"/>
+      <c r="F111" s="36" t="str">
+        <f aca="false">A111</f>
+        <v>householdLongDistanceIntroMap</v>
+      </c>
+      <c r="G111" s="38"/>
+      <c r="H111" s="38"/>
+      <c r="I111" s="38"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="T111" s="15" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Y111" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="H111" s="28" t="s">
+    </row>
+    <row r="112" s="2" customFormat="true" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="I111" s="15"/>
-      <c r="J111" s="15"/>
-      <c r="K111" s="15"/>
-      <c r="L111" s="30"/>
-      <c r="M111" s="30"/>
-      <c r="N111" s="30"/>
-      <c r="O111" s="36" t="s">
+      <c r="B112" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="P111" s="30"/>
-      <c r="Q111" s="30"/>
-      <c r="R111" s="30"/>
-      <c r="S111" s="30"/>
-      <c r="T111" s="28" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="U111" s="30"/>
-      <c r="V111" s="30"/>
-      <c r="W111" s="30"/>
-      <c r="X111" s="30"/>
-    </row>
-    <row r="112" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="10" t="s">
+      <c r="C112" s="29" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D112" s="34" t="s">
+        <v>536</v>
+      </c>
+      <c r="E112" s="37"/>
+      <c r="F112" s="36" t="s">
         <v>546</v>
       </c>
-      <c r="B112" s="28" t="s">
+      <c r="G112" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="H112" s="38" t="s">
+        <v>548</v>
+      </c>
+      <c r="I112" s="38" t="s">
+        <v>549</v>
+      </c>
+      <c r="J112" s="38" t="s">
+        <v>550</v>
+      </c>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="N112" s="1"/>
+      <c r="Q112" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="T112" s="15" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" s="2" customFormat="true" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="36" t="s">
+        <v>553</v>
+      </c>
+      <c r="B113" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="C113" s="29" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D113" s="34" t="s">
+        <v>536</v>
+      </c>
+      <c r="E113" s="37"/>
+      <c r="F113" s="36" t="s">
+        <v>554</v>
+      </c>
+      <c r="G113" s="38" t="s">
+        <v>555</v>
+      </c>
+      <c r="H113" s="38" t="s">
+        <v>556</v>
+      </c>
+      <c r="I113" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="J113" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="N113" s="1"/>
+      <c r="Q113" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="T113" s="15" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" s="2" customFormat="true" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="36" t="s">
+        <v>559</v>
+      </c>
+      <c r="B114" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="C114" s="29" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D114" s="34" t="s">
+        <v>536</v>
+      </c>
+      <c r="E114" s="37"/>
+      <c r="F114" s="36" t="s">
+        <v>560</v>
+      </c>
+      <c r="G114" s="38" t="s">
+        <v>561</v>
+      </c>
+      <c r="H114" s="38" t="s">
+        <v>562</v>
+      </c>
+      <c r="I114" s="38" t="s">
+        <v>563</v>
+      </c>
+      <c r="J114" s="38" t="s">
+        <v>564</v>
+      </c>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="N114" s="1"/>
+      <c r="Q114" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="T114" s="15" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="B115" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C112" s="29" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D112" s="28" t="s">
+      <c r="C115" s="29" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D115" s="34" t="s">
         <v>536</v>
       </c>
-      <c r="E112" s="30"/>
-      <c r="F112" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="G112" s="37" t="s">
-        <v>547</v>
-      </c>
-      <c r="H112" s="37" t="s">
-        <v>548</v>
-      </c>
-      <c r="I112" s="15"/>
-      <c r="J112" s="15"/>
-      <c r="K112" s="15"/>
-      <c r="L112" s="30"/>
-      <c r="M112" s="30"/>
-      <c r="N112" s="2"/>
-      <c r="O112" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="P112" s="30"/>
-      <c r="Q112" s="30"/>
-      <c r="R112" s="30"/>
-      <c r="S112" s="30"/>
-      <c r="T112" s="28" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="U112" s="30"/>
-      <c r="V112" s="30"/>
-      <c r="W112" s="30"/>
-      <c r="X112" s="30"/>
-    </row>
-    <row r="113" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="B113" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C113" s="29" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D113" s="28" t="s">
-        <v>536</v>
-      </c>
-      <c r="E113" s="30"/>
-      <c r="F113" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="G113" s="37" t="s">
-        <v>550</v>
-      </c>
-      <c r="H113" s="37" t="s">
-        <v>551</v>
-      </c>
-      <c r="I113" s="15"/>
-      <c r="J113" s="15"/>
-      <c r="K113" s="15"/>
-      <c r="L113" s="30"/>
-      <c r="M113" s="30" t="s">
-        <v>552</v>
-      </c>
-      <c r="N113" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O113" s="30"/>
-      <c r="P113" s="30"/>
-      <c r="Q113" s="30"/>
-      <c r="R113" s="30"/>
-      <c r="S113" s="30"/>
-      <c r="T113" s="28" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="U113" s="30"/>
-      <c r="V113" s="30"/>
-      <c r="W113" s="30"/>
-      <c r="X113" s="30"/>
-    </row>
-    <row r="114" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="B114" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="C114" s="29" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D114" s="28" t="s">
-        <v>536</v>
-      </c>
-      <c r="E114" s="30"/>
-      <c r="F114" s="30" t="s">
-        <v>555</v>
-      </c>
-      <c r="G114" s="36" t="s">
-        <v>556</v>
-      </c>
-      <c r="H114" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="I114" s="15"/>
-      <c r="J114" s="15"/>
-      <c r="K114" s="15"/>
-      <c r="L114" s="30"/>
-      <c r="M114" s="30"/>
-      <c r="N114" s="30" t="s">
-        <v>484</v>
-      </c>
-      <c r="O114" s="30"/>
-      <c r="P114" s="30"/>
-      <c r="Q114" s="30"/>
-      <c r="R114" s="30"/>
-      <c r="S114" s="30"/>
-      <c r="T114" s="28" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="U114" s="30"/>
-      <c r="V114" s="30"/>
-      <c r="W114" s="30"/>
-      <c r="X114" s="30"/>
-    </row>
-    <row r="115" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C115" s="29" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D115" s="28" t="s">
-        <v>536</v>
-      </c>
       <c r="E115" s="30"/>
-      <c r="F115" s="30" t="s">
-        <v>558</v>
-      </c>
-      <c r="G115" s="28" t="s">
-        <v>559</v>
-      </c>
-      <c r="H115" s="28" t="s">
-        <v>560</v>
+      <c r="F115" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="G115" s="39" t="s">
+        <v>567</v>
+      </c>
+      <c r="H115" s="39" t="s">
+        <v>568</v>
       </c>
       <c r="I115" s="15"/>
       <c r="J115" s="15"/>
       <c r="K115" s="15"/>
       <c r="L115" s="30"/>
-      <c r="M115" s="30"/>
-      <c r="N115" s="30"/>
-      <c r="O115" s="30"/>
+      <c r="M115" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="P115" s="30"/>
       <c r="Q115" s="30"/>
       <c r="R115" s="30"/>
@@ -10309,184 +10481,173 @@
       <c r="W115" s="30"/>
       <c r="X115" s="30"/>
     </row>
-    <row r="116" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="10" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C116" s="29" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D116" s="28" t="s">
+      <c r="D116" s="34" t="s">
         <v>536</v>
       </c>
       <c r="E116" s="30"/>
       <c r="F116" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="G116" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="H116" s="10" t="s">
-        <v>563</v>
+        <v>570</v>
+      </c>
+      <c r="G116" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="H116" s="39" t="s">
+        <v>572</v>
       </c>
       <c r="I116" s="15"/>
       <c r="J116" s="15"/>
       <c r="K116" s="15"/>
       <c r="L116" s="30"/>
-      <c r="M116" s="30"/>
-      <c r="N116" s="30"/>
+      <c r="M116" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="N116" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="O116" s="30"/>
       <c r="P116" s="30"/>
       <c r="Q116" s="30"/>
       <c r="R116" s="30"/>
       <c r="S116" s="30"/>
-      <c r="T116" s="15"/>
+      <c r="T116" s="28" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
       <c r="U116" s="30"/>
       <c r="V116" s="30"/>
       <c r="W116" s="30"/>
       <c r="X116" s="30"/>
     </row>
-    <row r="117" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="10" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C117" s="29" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D117" s="28" t="s">
+      <c r="D117" s="34" t="s">
         <v>536</v>
       </c>
       <c r="E117" s="30"/>
-      <c r="F117" s="30" t="s">
-        <v>565</v>
+      <c r="F117" s="10" t="s">
+        <v>574</v>
       </c>
       <c r="G117" s="28" t="s">
-        <v>566</v>
-      </c>
-      <c r="H117" s="28" t="s">
-        <v>567</v>
+        <v>310</v>
+      </c>
+      <c r="H117" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="I117" s="15"/>
       <c r="J117" s="15"/>
-      <c r="K117" s="8" t="s">
-        <v>568</v>
-      </c>
+      <c r="K117" s="15"/>
       <c r="L117" s="30"/>
-      <c r="M117" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="N117" s="10" t="s">
-        <v>570</v>
-      </c>
+      <c r="M117" s="30"/>
+      <c r="N117" s="30"/>
       <c r="O117" s="30"/>
       <c r="P117" s="30"/>
       <c r="Q117" s="30"/>
       <c r="R117" s="30"/>
       <c r="S117" s="30"/>
-      <c r="T117" s="28" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T117" s="15"/>
       <c r="U117" s="30"/>
       <c r="V117" s="30"/>
       <c r="W117" s="30"/>
       <c r="X117" s="30"/>
     </row>
-    <row r="118" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="C118" s="29" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>536</v>
+        <v>576</v>
       </c>
       <c r="E118" s="30"/>
       <c r="F118" s="30" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="G118" s="28" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="H118" s="28" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="I118" s="15"/>
       <c r="J118" s="15"/>
-      <c r="K118" s="8" t="s">
-        <v>568</v>
-      </c>
+      <c r="K118" s="15"/>
       <c r="L118" s="30"/>
-      <c r="M118" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="N118" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="O118" s="30"/>
+      <c r="M118" s="30"/>
+      <c r="N118" s="30"/>
+      <c r="O118" s="30" t="s">
+        <v>580</v>
+      </c>
       <c r="P118" s="30"/>
       <c r="Q118" s="30"/>
       <c r="R118" s="30"/>
       <c r="S118" s="30"/>
-      <c r="T118" s="28" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T118" s="15"/>
       <c r="U118" s="30"/>
       <c r="V118" s="30"/>
       <c r="W118" s="30"/>
       <c r="X118" s="30"/>
     </row>
-    <row r="119" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="B119" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="C119" s="29" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D119" s="28" t="s">
         <v>576</v>
-      </c>
-      <c r="B119" s="28" t="s">
-        <v>577</v>
-      </c>
-      <c r="C119" s="29" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D119" s="28" t="s">
-        <v>536</v>
       </c>
       <c r="E119" s="30"/>
       <c r="F119" s="30" t="s">
-        <v>578</v>
-      </c>
-      <c r="G119" s="36" t="s">
-        <v>579</v>
-      </c>
-      <c r="H119" s="36" t="s">
-        <v>580</v>
+        <v>582</v>
+      </c>
+      <c r="G119" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="H119" s="28" t="s">
+        <v>584</v>
       </c>
       <c r="I119" s="15"/>
       <c r="J119" s="15"/>
       <c r="K119" s="15"/>
       <c r="L119" s="30"/>
       <c r="M119" s="30"/>
-      <c r="N119" s="30" t="s">
-        <v>484</v>
-      </c>
-      <c r="O119" s="30"/>
+      <c r="N119" s="30"/>
+      <c r="O119" s="40" t="s">
+        <v>585</v>
+      </c>
       <c r="P119" s="30"/>
-      <c r="Q119" s="36" t="s">
-        <v>581</v>
-      </c>
+      <c r="Q119" s="30"/>
       <c r="R119" s="30"/>
       <c r="S119" s="30"/>
       <c r="T119" s="28" t="n">
@@ -10498,39 +10659,39 @@
       <c r="W119" s="30"/>
       <c r="X119" s="30"/>
     </row>
-    <row r="120" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="10" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="C120" s="29" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>536</v>
+        <v>576</v>
       </c>
       <c r="E120" s="30"/>
-      <c r="F120" s="30" t="s">
-        <v>583</v>
-      </c>
-      <c r="G120" s="36" t="s">
-        <v>584</v>
-      </c>
-      <c r="H120" s="36" t="s">
-        <v>585</v>
+      <c r="F120" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="G120" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="H120" s="39" t="s">
+        <v>588</v>
       </c>
       <c r="I120" s="15"/>
       <c r="J120" s="15"/>
       <c r="K120" s="15"/>
       <c r="L120" s="30"/>
       <c r="M120" s="30"/>
-      <c r="N120" s="30" t="s">
-        <v>484</v>
-      </c>
-      <c r="O120" s="30"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="P120" s="30"/>
       <c r="Q120" s="30"/>
       <c r="R120" s="30"/>
@@ -10544,43 +10705,43 @@
       <c r="W120" s="30"/>
       <c r="X120" s="30"/>
     </row>
-    <row r="121" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="10" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>577</v>
+        <v>26</v>
       </c>
       <c r="C121" s="29" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>536</v>
+        <v>576</v>
       </c>
       <c r="E121" s="30"/>
-      <c r="F121" s="30" t="s">
-        <v>587</v>
-      </c>
-      <c r="G121" s="36" t="s">
-        <v>588</v>
-      </c>
-      <c r="H121" s="36" t="s">
+      <c r="F121" s="10" t="s">
         <v>589</v>
+      </c>
+      <c r="G121" s="39" t="s">
+        <v>590</v>
+      </c>
+      <c r="H121" s="39" t="s">
+        <v>591</v>
       </c>
       <c r="I121" s="15"/>
       <c r="J121" s="15"/>
       <c r="K121" s="15"/>
       <c r="L121" s="30"/>
-      <c r="M121" s="30"/>
-      <c r="N121" s="30" t="s">
-        <v>484</v>
+      <c r="M121" s="30" t="s">
+        <v>592</v>
+      </c>
+      <c r="N121" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="O121" s="30"/>
       <c r="P121" s="30"/>
-      <c r="Q121" s="36" t="s">
-        <v>590</v>
-      </c>
+      <c r="Q121" s="30"/>
       <c r="R121" s="30"/>
       <c r="S121" s="30"/>
       <c r="T121" s="28" t="n">
@@ -10592,29 +10753,29 @@
       <c r="W121" s="30"/>
       <c r="X121" s="30"/>
     </row>
-    <row r="122" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="10" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B122" s="28" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="C122" s="29" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D122" s="28" t="s">
-        <v>536</v>
+        <v>576</v>
       </c>
       <c r="E122" s="30"/>
       <c r="F122" s="30" t="s">
-        <v>592</v>
-      </c>
-      <c r="G122" s="36" t="s">
-        <v>593</v>
-      </c>
-      <c r="H122" s="36" t="s">
-        <v>594</v>
+        <v>595</v>
+      </c>
+      <c r="G122" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="H122" s="40" t="s">
+        <v>597</v>
       </c>
       <c r="I122" s="15"/>
       <c r="J122" s="15"/>
@@ -10626,9 +10787,7 @@
       </c>
       <c r="O122" s="30"/>
       <c r="P122" s="30"/>
-      <c r="Q122" s="36" t="s">
-        <v>595</v>
-      </c>
+      <c r="Q122" s="30"/>
       <c r="R122" s="30"/>
       <c r="S122" s="30"/>
       <c r="T122" s="28" t="n">
@@ -10640,43 +10799,39 @@
       <c r="W122" s="30"/>
       <c r="X122" s="30"/>
     </row>
-    <row r="123" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="B123" s="28" t="s">
-        <v>577</v>
+        <v>598</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C123" s="29" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>536</v>
+        <v>576</v>
       </c>
       <c r="E123" s="30"/>
       <c r="F123" s="30" t="s">
-        <v>597</v>
-      </c>
-      <c r="G123" s="36" t="s">
         <v>598</v>
       </c>
-      <c r="H123" s="36" t="s">
+      <c r="G123" s="28" t="s">
         <v>599</v>
+      </c>
+      <c r="H123" s="28" t="s">
+        <v>600</v>
       </c>
       <c r="I123" s="15"/>
       <c r="J123" s="15"/>
       <c r="K123" s="15"/>
       <c r="L123" s="30"/>
       <c r="M123" s="30"/>
-      <c r="N123" s="30" t="s">
-        <v>484</v>
-      </c>
+      <c r="N123" s="30"/>
       <c r="O123" s="30"/>
       <c r="P123" s="30"/>
-      <c r="Q123" s="36" t="s">
-        <v>600</v>
-      </c>
+      <c r="Q123" s="30"/>
       <c r="R123" s="30"/>
       <c r="S123" s="30"/>
       <c r="T123" s="28" t="n">
@@ -10688,49 +10843,42 @@
       <c r="W123" s="30"/>
       <c r="X123" s="30"/>
     </row>
-    <row r="124" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="10" t="s">
         <v>601</v>
       </c>
       <c r="B124" s="28" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="C124" s="29" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>536</v>
+        <v>576</v>
       </c>
       <c r="E124" s="30"/>
-      <c r="F124" s="30" t="s">
+      <c r="F124" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="G124" s="10" t="s">
         <v>602</v>
       </c>
-      <c r="G124" s="36" t="s">
+      <c r="H124" s="10" t="s">
         <v>603</v>
-      </c>
-      <c r="H124" s="36" t="s">
-        <v>604</v>
       </c>
       <c r="I124" s="15"/>
       <c r="J124" s="15"/>
       <c r="K124" s="15"/>
       <c r="L124" s="30"/>
       <c r="M124" s="30"/>
-      <c r="N124" s="30" t="s">
-        <v>484</v>
-      </c>
-      <c r="O124" s="30" t="s">
-        <v>166</v>
-      </c>
+      <c r="N124" s="30"/>
+      <c r="O124" s="30"/>
       <c r="P124" s="30"/>
       <c r="Q124" s="30"/>
       <c r="R124" s="30"/>
       <c r="S124" s="30"/>
-      <c r="T124" s="28" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T124" s="15"/>
       <c r="U124" s="30"/>
       <c r="V124" s="30"/>
       <c r="W124" s="30"/>
@@ -10738,103 +10886,487 @@
     </row>
     <row r="125" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B125" s="28" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C125" s="29" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>536</v>
+        <v>576</v>
       </c>
       <c r="E125" s="30"/>
-      <c r="F125" s="10" t="s">
+      <c r="F125" s="30" t="s">
         <v>605</v>
       </c>
       <c r="G125" s="28" t="s">
         <v>606</v>
       </c>
-      <c r="H125" s="10" t="s">
+      <c r="H125" s="28" t="s">
         <v>607</v>
       </c>
       <c r="I125" s="15"/>
       <c r="J125" s="15"/>
-      <c r="K125" s="15"/>
+      <c r="K125" s="8" t="s">
+        <v>608</v>
+      </c>
       <c r="L125" s="30"/>
-      <c r="M125" s="30"/>
-      <c r="N125" s="30"/>
+      <c r="M125" s="30" t="s">
+        <v>609</v>
+      </c>
+      <c r="N125" s="10" t="s">
+        <v>610</v>
+      </c>
       <c r="O125" s="30"/>
       <c r="P125" s="30"/>
       <c r="Q125" s="30"/>
       <c r="R125" s="30"/>
       <c r="S125" s="30"/>
-      <c r="T125" s="15"/>
+      <c r="T125" s="28" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
       <c r="U125" s="30"/>
       <c r="V125" s="30"/>
       <c r="W125" s="30"/>
       <c r="X125" s="30"/>
     </row>
-    <row r="126" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="s">
+    <row r="126" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="B126" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C126" s="29" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D126" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="E126" s="30"/>
+      <c r="F126" s="30" t="s">
+        <v>612</v>
+      </c>
+      <c r="G126" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="H126" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="I126" s="15"/>
+      <c r="J126" s="15"/>
+      <c r="K126" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="L126" s="30"/>
+      <c r="M126" s="30" t="s">
+        <v>609</v>
+      </c>
+      <c r="N126" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="O126" s="30"/>
+      <c r="P126" s="30"/>
+      <c r="Q126" s="30"/>
+      <c r="R126" s="30"/>
+      <c r="S126" s="30"/>
+      <c r="T126" s="28" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U126" s="30"/>
+      <c r="V126" s="30"/>
+      <c r="W126" s="30"/>
+      <c r="X126" s="30"/>
+    </row>
+    <row r="127" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="B127" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="C127" s="29" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D127" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="E127" s="30"/>
+      <c r="F127" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="G127" s="40" t="s">
+        <v>618</v>
+      </c>
+      <c r="H127" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="I127" s="15"/>
+      <c r="J127" s="15"/>
+      <c r="K127" s="15"/>
+      <c r="L127" s="30"/>
+      <c r="M127" s="30"/>
+      <c r="N127" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="O127" s="30"/>
+      <c r="P127" s="30"/>
+      <c r="Q127" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="R127" s="30"/>
+      <c r="S127" s="30"/>
+      <c r="T127" s="28" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U127" s="30"/>
+      <c r="V127" s="30"/>
+      <c r="W127" s="30"/>
+      <c r="X127" s="30"/>
+    </row>
+    <row r="128" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B128" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C128" s="29" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D128" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="E128" s="30"/>
+      <c r="F128" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="G128" s="40" t="s">
+        <v>623</v>
+      </c>
+      <c r="H128" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="I128" s="15"/>
+      <c r="J128" s="15"/>
+      <c r="K128" s="15"/>
+      <c r="L128" s="30"/>
+      <c r="M128" s="30"/>
+      <c r="N128" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="O128" s="30"/>
+      <c r="P128" s="30"/>
+      <c r="Q128" s="30"/>
+      <c r="R128" s="30"/>
+      <c r="S128" s="30"/>
+      <c r="T128" s="28" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U128" s="30"/>
+      <c r="V128" s="30"/>
+      <c r="W128" s="30"/>
+      <c r="X128" s="30"/>
+    </row>
+    <row r="129" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="B129" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="C129" s="29" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D129" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="E129" s="30"/>
+      <c r="F129" s="30" t="s">
+        <v>626</v>
+      </c>
+      <c r="G129" s="40" t="s">
+        <v>627</v>
+      </c>
+      <c r="H129" s="40" t="s">
+        <v>628</v>
+      </c>
+      <c r="I129" s="15"/>
+      <c r="J129" s="15"/>
+      <c r="K129" s="15"/>
+      <c r="L129" s="30"/>
+      <c r="M129" s="30"/>
+      <c r="N129" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="O129" s="30"/>
+      <c r="P129" s="30"/>
+      <c r="Q129" s="40" t="s">
+        <v>629</v>
+      </c>
+      <c r="R129" s="30"/>
+      <c r="S129" s="30"/>
+      <c r="T129" s="28" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U129" s="30"/>
+      <c r="V129" s="30"/>
+      <c r="W129" s="30"/>
+      <c r="X129" s="30"/>
+    </row>
+    <row r="130" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="B130" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="C130" s="29" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D130" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="E130" s="30"/>
+      <c r="F130" s="30" t="s">
+        <v>631</v>
+      </c>
+      <c r="G130" s="40" t="s">
+        <v>632</v>
+      </c>
+      <c r="H130" s="40" t="s">
+        <v>633</v>
+      </c>
+      <c r="I130" s="15"/>
+      <c r="J130" s="15"/>
+      <c r="K130" s="15"/>
+      <c r="L130" s="30"/>
+      <c r="M130" s="30"/>
+      <c r="N130" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="O130" s="30"/>
+      <c r="P130" s="30"/>
+      <c r="Q130" s="40" t="s">
+        <v>634</v>
+      </c>
+      <c r="R130" s="30"/>
+      <c r="S130" s="30"/>
+      <c r="T130" s="28" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U130" s="30"/>
+      <c r="V130" s="30"/>
+      <c r="W130" s="30"/>
+      <c r="X130" s="30"/>
+    </row>
+    <row r="131" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="B131" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="C131" s="29" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D131" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="E131" s="30"/>
+      <c r="F131" s="30" t="s">
+        <v>636</v>
+      </c>
+      <c r="G131" s="40" t="s">
+        <v>637</v>
+      </c>
+      <c r="H131" s="40" t="s">
+        <v>638</v>
+      </c>
+      <c r="I131" s="15"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="15"/>
+      <c r="L131" s="30"/>
+      <c r="M131" s="30"/>
+      <c r="N131" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="O131" s="30"/>
+      <c r="P131" s="30"/>
+      <c r="Q131" s="40" t="s">
+        <v>639</v>
+      </c>
+      <c r="R131" s="30"/>
+      <c r="S131" s="30"/>
+      <c r="T131" s="28" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U131" s="30"/>
+      <c r="V131" s="30"/>
+      <c r="W131" s="30"/>
+      <c r="X131" s="30"/>
+    </row>
+    <row r="132" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="B132" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C132" s="29" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D132" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="E132" s="30"/>
+      <c r="F132" s="30" t="s">
+        <v>641</v>
+      </c>
+      <c r="G132" s="40" t="s">
+        <v>642</v>
+      </c>
+      <c r="H132" s="40" t="s">
+        <v>643</v>
+      </c>
+      <c r="I132" s="15"/>
+      <c r="J132" s="15"/>
+      <c r="K132" s="15"/>
+      <c r="L132" s="30"/>
+      <c r="M132" s="30"/>
+      <c r="N132" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="O132" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="P132" s="30"/>
+      <c r="Q132" s="30"/>
+      <c r="R132" s="30"/>
+      <c r="S132" s="30"/>
+      <c r="T132" s="28" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U132" s="30"/>
+      <c r="V132" s="30"/>
+      <c r="W132" s="30"/>
+      <c r="X132" s="30"/>
+    </row>
+    <row r="133" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="B133" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C133" s="29" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D133" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="E133" s="30"/>
+      <c r="F133" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="G133" s="28" t="s">
+        <v>645</v>
+      </c>
+      <c r="H133" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="I133" s="15"/>
+      <c r="J133" s="15"/>
+      <c r="K133" s="15"/>
+      <c r="L133" s="30"/>
+      <c r="M133" s="30"/>
+      <c r="N133" s="30"/>
+      <c r="O133" s="30"/>
+      <c r="P133" s="30"/>
+      <c r="Q133" s="30"/>
+      <c r="R133" s="30"/>
+      <c r="S133" s="30"/>
+      <c r="T133" s="15"/>
+      <c r="U133" s="30"/>
+      <c r="V133" s="30"/>
+      <c r="W133" s="30"/>
+      <c r="X133" s="30"/>
+    </row>
+    <row r="134" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C126" s="38" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="L126" s="39"/>
-      <c r="M126" s="40"/>
-      <c r="T126" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="C134" s="41" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="L134" s="42"/>
+      <c r="M134" s="43"/>
+      <c r="T134" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:X1"/>
-  <conditionalFormatting sqref="N126:Q126">
+  <conditionalFormatting sqref="N134:Q134">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($B1048454="Custom",  $B1048454&lt;&gt;"", ROW(N1048454)&lt;&gt;1)</formula>
+      <formula>AND($B1048462="Custom",  $B1048462&lt;&gt;"", ROW(N1048462)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q126">
+  <conditionalFormatting sqref="Q134">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($B126&lt;&gt;"Range", $B126&lt;&gt;"", ROW(Q126)&lt;&gt;1)</formula>
+      <formula>AND($B134&lt;&gt;"Range", $B134&lt;&gt;"", ROW(Q134)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
+  <conditionalFormatting sqref="C134">
     <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="FALSE" dxfId="5">
-      <formula>NOT(ISERROR(SEARCH("FALSE",C126)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",C134)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="5" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="TRUE" dxfId="6">
-      <formula>NOT(ISERROR(SEARCH("TRUE",C126)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",C134)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O126:P126">
+  <conditionalFormatting sqref="O134:P134">
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($B126&lt;&gt;"Select", $B126&lt;&gt;"Checkbox", $B126&lt;&gt;"Radio",  $B126&lt;&gt;"", ROW(O126)&lt;&gt;1)</formula>
+      <formula>AND($B134&lt;&gt;"Select", $B134&lt;&gt;"Checkbox", $B134&lt;&gt;"Radio",  $B134&lt;&gt;"", ROW(O134)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C127:C1048576 C61:C82 C93:C94 C100:C125 C1:C59">
+  <conditionalFormatting sqref="C135:C1048576 C61:C82 C93:C94 C1:C59 C100:C133">
     <cfRule type="containsText" priority="7" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="FALSE" dxfId="8">
       <formula>NOT(ISERROR(SEARCH("FALSE",C1)))</formula>
     </cfRule>
@@ -10842,32 +11374,32 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q119">
+  <conditionalFormatting sqref="Q127">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND($B1048448="Custom",  $B1048448&lt;&gt;"", ROW(Q1048448)&lt;&gt;1)</formula>
+      <formula>AND($B1048456="Custom",  $B1048456&lt;&gt;"", ROW(Q1048456)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q119 Q122:Q123">
+  <conditionalFormatting sqref="Q127 Q130:Q131">
     <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($B119&lt;&gt;"Range", $B119&lt;&gt;"", ROW(Q119)&lt;&gt;1)</formula>
+      <formula>AND($B127&lt;&gt;"Range", $B127&lt;&gt;"", ROW(Q127)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q122:Q123">
+  <conditionalFormatting sqref="Q130:Q131">
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(#ref!="Custom",  #ref!&lt;&gt;"", ROW(#ref!)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O111">
+  <conditionalFormatting sqref="O119">
     <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>AND($B111="Custom",  $B111&lt;&gt;"", ROW(O111)&lt;&gt;1)</formula>
+      <formula>AND($B119="Custom",  $B119&lt;&gt;"", ROW(O119)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O111">
+  <conditionalFormatting sqref="O119">
     <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND($B111&lt;&gt;"Select", $B111&lt;&gt;"Checkbox", $B111&lt;&gt;"Radio",  $B111&lt;&gt;"", ROW(O111)&lt;&gt;1)</formula>
+      <formula>AND($B119&lt;&gt;"Select", $B119&lt;&gt;"Checkbox", $B119&lt;&gt;"Radio",  $B119&lt;&gt;"", ROW(O119)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61:C78 C103:C109 C100">
+  <conditionalFormatting sqref="C61:C78 C100 C103:C114">
     <cfRule type="containsText" priority="14" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="FALSE" dxfId="8">
       <formula>NOT(ISERROR(SEARCH("FALSE",C61)))</formula>
     </cfRule>
@@ -10875,12 +11407,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60:C78 C83:C92 C103:C109 C95:C100">
+  <conditionalFormatting sqref="C60:C78 C83:C92 C95:C100 C103:C114">
     <cfRule type="containsText" priority="16" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="FALSE" dxfId="8">
       <formula>NOT(ISERROR(SEARCH("FALSE",C60)))</formula>
     </cfRule>
     <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I111">
+    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND($B111="Custom",  $B111&lt;&gt;"", ROW(I111)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10902,7 +11439,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10910,41 +11447,41 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="27.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="41" width="20.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="44" width="20.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="19.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="42" t="s">
-        <v>612</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>613</v>
-      </c>
-      <c r="C1" s="42" t="s">
+    <row r="1" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="45" t="s">
+        <v>651</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>652</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="43" t="s">
-        <v>614</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>615</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>616</v>
+      <c r="D1" s="46" t="s">
+        <v>653</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>654</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>617</v>
+        <v>656</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10" t="s">
-        <v>618</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>619</v>
+        <v>657</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>658</v>
       </c>
       <c r="E2" s="10" t="n">
         <v>1</v>
@@ -10957,10 +11494,10 @@
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>618</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>620</v>
+        <v>657</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>659</v>
       </c>
       <c r="E3" s="10" t="n">
         <v>2</v>
@@ -10973,13 +11510,13 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>621</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>619</v>
+        <v>660</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>658</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>622</v>
+        <v>661</v>
       </c>
       <c r="F4" s="10"/>
     </row>
@@ -10988,13 +11525,13 @@
         <v>186</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>618</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>619</v>
+        <v>657</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>658</v>
       </c>
       <c r="E5" s="10" t="n">
         <v>1</v>
@@ -11007,10 +11544,10 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>620</v>
+        <v>663</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>659</v>
       </c>
       <c r="E6" s="10" t="n">
         <v>1</v>
@@ -11019,14 +11556,14 @@
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>620</v>
+        <v>665</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>659</v>
       </c>
       <c r="E7" s="10" t="n">
         <v>3</v>
@@ -11035,16 +11572,16 @@
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>627</v>
+        <v>666</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>628</v>
+        <v>665</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>667</v>
       </c>
       <c r="E8" s="10" t="n">
         <v>5</v>
@@ -11053,14 +11590,14 @@
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>629</v>
+        <v>668</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>620</v>
+        <v>665</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>659</v>
       </c>
       <c r="E9" s="10" t="n">
         <v>4</v>
@@ -11069,16 +11606,16 @@
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>629</v>
+        <v>668</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>627</v>
+        <v>666</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>628</v>
+        <v>665</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>667</v>
       </c>
       <c r="E10" s="10" t="n">
         <v>13</v>
@@ -11087,14 +11624,14 @@
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>630</v>
+        <v>669</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>628</v>
+        <v>665</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>667</v>
       </c>
       <c r="E11" s="10" t="n">
         <v>5</v>
@@ -11107,10 +11644,10 @@
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>620</v>
+        <v>665</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>659</v>
       </c>
       <c r="E12" s="10" t="n">
         <v>5</v>
@@ -11123,10 +11660,10 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>620</v>
+        <v>665</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>659</v>
       </c>
       <c r="E13" s="10" t="n">
         <v>6</v>
@@ -11135,14 +11672,14 @@
     </row>
     <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>631</v>
+        <v>670</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>620</v>
+        <v>665</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>659</v>
       </c>
       <c r="E14" s="10" t="n">
         <v>11</v>
@@ -11155,10 +11692,10 @@
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>620</v>
+        <v>665</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>659</v>
       </c>
       <c r="E15" s="10" t="n">
         <v>14</v>
@@ -11171,10 +11708,10 @@
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>628</v>
+        <v>665</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>667</v>
       </c>
       <c r="E16" s="10" t="n">
         <v>15</v>
@@ -11186,16 +11723,16 @@
         <v>142</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>627</v>
+        <v>666</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>632</v>
+        <v>665</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>671</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>633</v>
+        <v>672</v>
       </c>
       <c r="F17" s="10"/>
     </row>
@@ -11205,10 +11742,10 @@
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>620</v>
+        <v>665</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>659</v>
       </c>
       <c r="E18" s="10" t="n">
         <v>15</v>
@@ -11221,10 +11758,10 @@
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>620</v>
+        <v>665</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>659</v>
       </c>
       <c r="E19" s="10" t="n">
         <v>16</v>
@@ -11233,14 +11770,14 @@
     </row>
     <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>634</v>
+        <v>673</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>628</v>
+        <v>665</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>667</v>
       </c>
       <c r="E20" s="10" t="n">
         <v>16</v>
@@ -11249,32 +11786,32 @@
     </row>
     <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>634</v>
+        <v>673</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>627</v>
+        <v>666</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>632</v>
+        <v>665</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>671</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>633</v>
+        <v>672</v>
       </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>635</v>
+        <v>674</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>620</v>
+        <v>665</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>659</v>
       </c>
       <c r="E22" s="10" t="n">
         <v>40</v>
@@ -11287,13 +11824,13 @@
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
-        <v>636</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>619</v>
+        <v>675</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>658</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>622</v>
+        <v>661</v>
       </c>
       <c r="F23" s="10"/>
     </row>
@@ -11302,13 +11839,13 @@
         <v>193</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>619</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>638</v>
+        <v>676</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>658</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11316,16 +11853,16 @@
         <v>193</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>619</v>
-      </c>
-      <c r="E25" s="41" t="s">
-        <v>639</v>
+        <v>676</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>658</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11333,16 +11870,16 @@
         <v>193</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>619</v>
-      </c>
-      <c r="E26" s="41" t="s">
-        <v>640</v>
+        <v>676</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>658</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11350,13 +11887,13 @@
         <v>209</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>619</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>641</v>
+        <v>676</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>658</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11364,16 +11901,16 @@
         <v>209</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>619</v>
-      </c>
-      <c r="E28" s="41" t="s">
-        <v>642</v>
+        <v>676</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>658</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11381,16 +11918,16 @@
         <v>209</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>619</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>640</v>
+        <v>676</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>658</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11398,13 +11935,13 @@
         <v>217</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="D30" s="45" t="s">
-        <v>619</v>
+        <v>682</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>658</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>644</v>
+        <v>683</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11412,16 +11949,16 @@
         <v>217</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>619</v>
+        <v>682</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>658</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>645</v>
+        <v>684</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11429,16 +11966,16 @@
         <v>217</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="D32" s="45" t="s">
-        <v>619</v>
+        <v>682</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>658</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>646</v>
+        <v>685</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11446,16 +11983,16 @@
         <v>217</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D33" s="45" t="s">
-        <v>619</v>
+        <v>686</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>658</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>644</v>
+        <v>683</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11463,16 +12000,16 @@
         <v>217</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>619</v>
+        <v>686</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>658</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>645</v>
+        <v>684</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11480,72 +12017,72 @@
         <v>217</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D35" s="45" t="s">
-        <v>619</v>
+        <v>686</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>658</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>646</v>
+        <v>685</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="41" t="s">
-        <v>619</v>
+      <c r="D36" s="44" t="s">
+        <v>658</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>622</v>
+        <v>661</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="47" t="s">
-        <v>552</v>
+      <c r="A37" s="50" t="s">
+        <v>592</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="D37" s="48" t="s">
-        <v>619</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>622</v>
+        <v>586</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>658</v>
+      </c>
+      <c r="E37" s="52" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="47" t="s">
-        <v>569</v>
+      <c r="A38" s="50" t="s">
+        <v>609</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="D38" s="45" t="s">
-        <v>620</v>
+        <v>687</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>659</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="50" t="s">
-        <v>649</v>
+      <c r="A39" s="53" t="s">
+        <v>688</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>619</v>
+        <v>682</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>658</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>646</v>
+        <v>685</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11553,13 +12090,13 @@
         <v>251</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>619</v>
+        <v>682</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>658</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>650</v>
+        <v>689</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11567,30 +12104,30 @@
         <v>251</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="D41" s="45" t="s">
-        <v>619</v>
+        <v>682</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>658</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>645</v>
+        <v>684</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="54" t="s">
         <v>156</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="D42" s="41" t="s">
-        <v>619</v>
-      </c>
-      <c r="E42" s="52" t="s">
-        <v>651</v>
+        <v>676</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>658</v>
+      </c>
+      <c r="E42" s="55" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11598,13 +12135,13 @@
         <v>201</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="D43" s="45" t="s">
-        <v>619</v>
-      </c>
-      <c r="E43" s="41" t="s">
-        <v>653</v>
+        <v>691</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>658</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11612,13 +12149,41 @@
         <v>201</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="D44" s="45" t="s">
-        <v>619</v>
-      </c>
-      <c r="E44" s="41" t="s">
-        <v>654</v>
+        <v>691</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>658</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="D45" s="51" t="s">
+        <v>658</v>
+      </c>
+      <c r="E45" s="52" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="D46" s="44" t="s">
+        <v>658</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -11648,10 +12213,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11667,29 +12232,29 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>655</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>656</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>657</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>658</v>
-      </c>
-      <c r="F1" s="53" t="s">
-        <v>659</v>
+      <c r="B1" s="57" t="s">
+        <v>694</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>695</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>696</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>697</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>698</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>661</v>
+        <v>699</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11697,23 +12262,23 @@
         <v>27</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>662</v>
+        <v>701</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>663</v>
+        <v>702</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="E2" s="55" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="55" t="b">
+        <v>703</v>
+      </c>
+      <c r="E2" s="58" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="58" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G2" s="55" t="b">
+      <c r="G2" s="58" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -11723,49 +12288,49 @@
         <v>108</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>665</v>
+        <v>704</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>666</v>
+        <v>705</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="E3" s="55" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="55" t="b">
+        <v>706</v>
+      </c>
+      <c r="E3" s="58" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="58" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G3" s="55" t="b">
+      <c r="G3" s="58" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>668</v>
+        <v>707</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>669</v>
+        <v>708</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>670</v>
+        <v>709</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>671</v>
-      </c>
-      <c r="E4" s="55" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="55" t="b">
+        <v>710</v>
+      </c>
+      <c r="E4" s="58" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="58" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G4" s="55" t="b">
+      <c r="G4" s="58" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -11775,28 +12340,28 @@
         <v>255</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>672</v>
+        <v>711</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>673</v>
+        <v>712</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="E5" s="55" t="b">
+        <v>713</v>
+      </c>
+      <c r="E5" s="58" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F5" s="55" t="b">
+      <c r="F5" s="58" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G5" s="55" t="b">
+      <c r="G5" s="58" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>668</v>
+        <v>707</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11804,28 +12369,28 @@
         <v>263</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>675</v>
+        <v>714</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>676</v>
+        <v>715</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>671</v>
-      </c>
-      <c r="E6" s="55" t="b">
+        <v>710</v>
+      </c>
+      <c r="E6" s="58" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F6" s="55" t="b">
+      <c r="F6" s="58" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G6" s="55" t="b">
+      <c r="G6" s="58" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>668</v>
+        <v>707</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11833,25 +12398,25 @@
         <v>315</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>677</v>
+        <v>716</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>670</v>
+        <v>709</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="E7" s="55" t="b">
+        <v>709</v>
+      </c>
+      <c r="E7" s="58" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F7" s="55" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="55"/>
+      <c r="F7" s="58" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="58"/>
       <c r="H7" s="10" t="s">
-        <v>668</v>
+        <v>707</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11859,25 +12424,25 @@
         <v>416</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>678</v>
+        <v>717</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="E8" s="55" t="b">
+        <v>719</v>
+      </c>
+      <c r="E8" s="58" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F8" s="55" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G8" s="55"/>
+      <c r="F8" s="58" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="58"/>
       <c r="H8" s="10" t="s">
-        <v>668</v>
+        <v>707</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11885,83 +12450,112 @@
         <v>498</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>681</v>
+        <v>720</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>682</v>
+        <v>721</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>683</v>
-      </c>
-      <c r="E9" s="55" t="b">
+        <v>722</v>
+      </c>
+      <c r="E9" s="58" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F9" s="55" t="b">
+      <c r="F9" s="58" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G9" s="55" t="b">
+      <c r="G9" s="58" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="34" t="s">
         <v>536</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>684</v>
+        <v>723</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>685</v>
+        <v>724</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>686</v>
-      </c>
-      <c r="E10" s="55" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="55" t="b">
+        <v>725</v>
+      </c>
+      <c r="E10" s="58" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G10" s="55" t="b">
+      <c r="F10" s="58" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>609</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>687</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>688</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="E11" s="55" t="b">
+      <c r="G10" s="58" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F11" s="55" t="b">
+      <c r="H10" s="10" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="E11" s="58" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="58" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G11" s="55" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>536</v>
+      <c r="G11" s="58" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="E12" s="58" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="58" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="58" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -11982,31 +12576,31 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A111" activeCellId="0" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="50" width="21.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="50" width="15.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="50" width="23.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="50" width="19.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="50" width="24.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="50" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="53" width="21.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="53" width="15.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="53" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="53" width="19.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="53" width="24.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="53" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56" t="s">
-        <v>690</v>
-      </c>
-      <c r="B1" s="56" t="s">
-        <v>615</v>
-      </c>
-      <c r="C1" s="56" t="s">
+      <c r="A1" s="59" t="s">
+        <v>732</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>654</v>
+      </c>
+      <c r="C1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="59" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -12015,28 +12609,28 @@
       <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="56" t="s">
-        <v>691</v>
-      </c>
-      <c r="H1" s="56" t="s">
+      <c r="G1" s="59" t="s">
+        <v>733</v>
+      </c>
+      <c r="H1" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="50" t="s">
-        <v>692</v>
+      <c r="I1" s="53" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>622</v>
+        <v>661</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>622</v>
+        <v>661</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>693</v>
+        <v>735</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>694</v>
+        <v>736</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -12045,16 +12639,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>695</v>
+        <v>737</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>695</v>
+        <v>737</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>696</v>
+        <v>738</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>697</v>
+        <v>739</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -12069,10 +12663,10 @@
         <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>698</v>
+        <v>740</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>699</v>
+        <v>741</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -12081,16 +12675,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>700</v>
+        <v>742</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>701</v>
+        <v>743</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>702</v>
+        <v>744</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -12099,16 +12693,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>703</v>
+        <v>745</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>703</v>
+        <v>745</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>704</v>
+        <v>746</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>705</v>
+        <v>747</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -12117,16 +12711,16 @@
     </row>
     <row r="7" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>706</v>
+        <v>748</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>706</v>
+        <v>748</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>707</v>
+        <v>749</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>708</v>
+        <v>750</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -12143,7 +12737,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>622</v>
+        <v>661</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -12157,7 +12751,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>695</v>
+        <v>737</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -12185,7 +12779,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>703</v>
+        <v>745</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -12199,7 +12793,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>622</v>
+        <v>661</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -12213,11 +12807,11 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>695</v>
+        <v>737</v>
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="2" customFormat="true" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>102</v>
       </c>
@@ -12227,41 +12821,41 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>706</v>
+        <v>748</v>
       </c>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" s="2" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I14" s="53"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>709</v>
+        <v>751</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>710</v>
+        <v>752</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>711</v>
+        <v>753</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
     </row>
     <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>712</v>
+        <v>754</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>713</v>
+        <v>755</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>714</v>
+        <v>756</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -12278,7 +12872,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>706</v>
+        <v>748</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -12287,13 +12881,13 @@
         <v>132</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>653</v>
+        <v>692</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>715</v>
+        <v>757</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>716</v>
+        <v>758</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -12305,13 +12899,13 @@
         <v>132</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>654</v>
+        <v>693</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>717</v>
+        <v>759</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>718</v>
+        <v>760</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -12328,7 +12922,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>695</v>
+        <v>737</v>
       </c>
       <c r="H20" s="1"/>
     </row>
@@ -12337,19 +12931,19 @@
         <v>139</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>719</v>
+        <v>761</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>720</v>
+        <v>762</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>721</v>
+        <v>763</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>630</v>
+        <v>669</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12357,19 +12951,19 @@
         <v>139</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>722</v>
+        <v>764</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>723</v>
+        <v>765</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>724</v>
+        <v>766</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>629</v>
+        <v>668</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12377,19 +12971,19 @@
         <v>139</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>725</v>
+        <v>767</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>726</v>
+        <v>768</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>727</v>
+        <v>769</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>631</v>
+        <v>670</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12397,13 +12991,13 @@
         <v>139</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>728</v>
+        <v>770</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>729</v>
+        <v>771</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>730</v>
+        <v>772</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -12415,13 +13009,13 @@
         <v>139</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>731</v>
+        <v>773</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>732</v>
+        <v>774</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>733</v>
+        <v>775</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -12449,20 +13043,20 @@
         <v>145</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>638</v>
+        <v>677</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>734</v>
+        <v>776</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>735</v>
+        <v>777</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="50" t="s">
-        <v>736</v>
+      <c r="I27" s="53" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12470,20 +13064,20 @@
         <v>145</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>639</v>
+        <v>678</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>737</v>
+        <v>779</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>738</v>
+        <v>780</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="50" t="s">
-        <v>736</v>
+      <c r="I28" s="53" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12491,20 +13085,20 @@
         <v>145</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>640</v>
+        <v>679</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>739</v>
+        <v>781</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>740</v>
+        <v>782</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="50" t="s">
-        <v>736</v>
+      <c r="I29" s="53" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12512,20 +13106,20 @@
         <v>145</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>641</v>
+        <v>680</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>741</v>
+        <v>783</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>742</v>
+        <v>784</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="50" t="s">
-        <v>736</v>
+      <c r="I30" s="53" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12533,20 +13127,20 @@
         <v>145</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>642</v>
+        <v>681</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>743</v>
+        <v>785</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>744</v>
+        <v>786</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="50" t="s">
-        <v>736</v>
+      <c r="I31" s="53" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12554,19 +13148,19 @@
         <v>145</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>745</v>
+        <v>787</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>746</v>
+        <v>788</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>747</v>
+        <v>789</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>635</v>
+        <v>674</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12574,13 +13168,13 @@
         <v>145</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>748</v>
+        <v>790</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>749</v>
+        <v>791</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>750</v>
+        <v>792</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -12592,13 +13186,13 @@
         <v>145</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>751</v>
+        <v>793</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>752</v>
+        <v>794</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>753</v>
+        <v>795</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -12610,13 +13204,13 @@
         <v>145</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>651</v>
+        <v>690</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>754</v>
+        <v>796</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>755</v>
+        <v>797</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -12628,13 +13222,13 @@
         <v>145</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>757</v>
+        <v>799</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>758</v>
+        <v>800</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -12646,13 +13240,13 @@
         <v>145</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>759</v>
+        <v>801</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>760</v>
+        <v>802</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>761</v>
+        <v>803</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -12667,10 +13261,10 @@
         <v>144</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>701</v>
+        <v>743</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>702</v>
+        <v>744</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -12682,13 +13276,13 @@
         <v>145</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>706</v>
+        <v>748</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>762</v>
+        <v>804</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>763</v>
+        <v>805</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -12705,7 +13299,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>695</v>
+        <v>737</v>
       </c>
       <c r="H40" s="1"/>
     </row>
@@ -12714,13 +13308,13 @@
         <v>181</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>764</v>
+        <v>806</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>765</v>
+        <v>807</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>766</v>
+        <v>808</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -12732,13 +13326,13 @@
         <v>181</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>767</v>
+        <v>809</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>768</v>
+        <v>810</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>769</v>
+        <v>811</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -12755,7 +13349,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>703</v>
+        <v>745</v>
       </c>
       <c r="H43" s="1"/>
     </row>
@@ -12764,13 +13358,13 @@
         <v>194</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>644</v>
+        <v>683</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>770</v>
+        <v>812</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>771</v>
+        <v>813</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -12782,13 +13376,13 @@
         <v>194</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>645</v>
+        <v>684</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>772</v>
+        <v>814</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>773</v>
+        <v>815</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -12800,13 +13394,13 @@
         <v>194</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>646</v>
+        <v>685</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>774</v>
+        <v>816</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>775</v>
+        <v>817</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -12818,13 +13412,13 @@
         <v>194</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>776</v>
+        <v>818</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>777</v>
+        <v>819</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>778</v>
+        <v>820</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -12836,13 +13430,13 @@
         <v>194</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>650</v>
+        <v>689</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>779</v>
+        <v>821</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>780</v>
+        <v>822</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -12853,330 +13447,330 @@
       <c r="A49" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="B49" s="50" t="s">
-        <v>644</v>
-      </c>
-      <c r="C49" s="50" t="s">
-        <v>781</v>
-      </c>
-      <c r="D49" s="50" t="s">
-        <v>771</v>
+      <c r="B49" s="53" t="s">
+        <v>683</v>
+      </c>
+      <c r="C49" s="53" t="s">
+        <v>823</v>
+      </c>
+      <c r="D49" s="53" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="B50" s="50" t="s">
-        <v>645</v>
-      </c>
-      <c r="C50" s="50" t="s">
-        <v>782</v>
-      </c>
-      <c r="D50" s="50" t="s">
-        <v>783</v>
+      <c r="B50" s="53" t="s">
+        <v>684</v>
+      </c>
+      <c r="C50" s="53" t="s">
+        <v>824</v>
+      </c>
+      <c r="D50" s="53" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="B51" s="50" t="s">
-        <v>650</v>
-      </c>
-      <c r="C51" s="50" t="s">
-        <v>784</v>
-      </c>
-      <c r="D51" s="50" t="s">
-        <v>785</v>
+      <c r="B51" s="53" t="s">
+        <v>689</v>
+      </c>
+      <c r="C51" s="53" t="s">
+        <v>826</v>
+      </c>
+      <c r="D51" s="53" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="50" t="s">
-        <v>545</v>
-      </c>
-      <c r="B52" s="50" t="s">
-        <v>786</v>
-      </c>
-      <c r="C52" s="50" t="s">
-        <v>787</v>
-      </c>
-      <c r="D52" s="50" t="s">
-        <v>788</v>
+      <c r="A52" s="53" t="s">
+        <v>585</v>
+      </c>
+      <c r="B52" s="53" t="s">
+        <v>828</v>
+      </c>
+      <c r="C52" s="53" t="s">
+        <v>829</v>
+      </c>
+      <c r="D52" s="53" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="50" t="s">
-        <v>545</v>
+      <c r="A53" s="53" t="s">
+        <v>585</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>789</v>
+        <v>831</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>791</v>
+        <v>833</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="50" t="s">
-        <v>545</v>
+      <c r="A54" s="53" t="s">
+        <v>585</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>792</v>
+        <v>834</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>793</v>
+        <v>835</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>794</v>
+        <v>836</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="50" t="s">
-        <v>545</v>
+      <c r="A55" s="53" t="s">
+        <v>585</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>795</v>
+        <v>837</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>796</v>
+        <v>838</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>797</v>
+        <v>839</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="50" t="s">
-        <v>545</v>
+      <c r="A56" s="53" t="s">
+        <v>585</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>798</v>
+        <v>840</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>799</v>
+        <v>841</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>800</v>
+        <v>842</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="50" t="s">
-        <v>545</v>
+      <c r="A57" s="53" t="s">
+        <v>585</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>801</v>
+        <v>843</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>802</v>
+        <v>844</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>803</v>
+        <v>845</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="50" t="s">
-        <v>545</v>
+      <c r="A58" s="53" t="s">
+        <v>585</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>804</v>
+        <v>846</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>805</v>
+        <v>847</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>806</v>
+        <v>848</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="50" t="s">
-        <v>545</v>
+      <c r="A59" s="53" t="s">
+        <v>585</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>807</v>
+        <v>849</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>808</v>
+        <v>850</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>809</v>
+        <v>851</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="50" t="s">
-        <v>545</v>
+      <c r="A60" s="53" t="s">
+        <v>585</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>810</v>
+        <v>852</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>811</v>
+        <v>853</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>812</v>
+        <v>854</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="50" t="s">
-        <v>545</v>
+      <c r="A61" s="53" t="s">
+        <v>585</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>813</v>
+        <v>855</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>814</v>
+        <v>856</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>815</v>
+        <v>857</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="50" t="s">
-        <v>545</v>
+      <c r="A62" s="53" t="s">
+        <v>585</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>816</v>
+        <v>858</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>817</v>
+        <v>859</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="50" t="s">
-        <v>545</v>
+      <c r="A63" s="53" t="s">
+        <v>585</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>819</v>
+        <v>861</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>820</v>
+        <v>862</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>821</v>
+        <v>863</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="50" t="s">
-        <v>545</v>
-      </c>
-      <c r="B64" s="50" t="s">
-        <v>822</v>
-      </c>
-      <c r="C64" s="50" t="s">
-        <v>823</v>
-      </c>
-      <c r="D64" s="50" t="s">
-        <v>824</v>
+      <c r="A64" s="53" t="s">
+        <v>585</v>
+      </c>
+      <c r="B64" s="53" t="s">
+        <v>864</v>
+      </c>
+      <c r="C64" s="53" t="s">
+        <v>865</v>
+      </c>
+      <c r="D64" s="53" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="50" t="s">
-        <v>545</v>
-      </c>
-      <c r="B65" s="50" t="s">
-        <v>703</v>
-      </c>
-      <c r="C65" s="50" t="s">
-        <v>704</v>
-      </c>
-      <c r="D65" s="50" t="s">
-        <v>705</v>
+      <c r="A65" s="53" t="s">
+        <v>585</v>
+      </c>
+      <c r="B65" s="53" t="s">
+        <v>745</v>
+      </c>
+      <c r="C65" s="53" t="s">
+        <v>746</v>
+      </c>
+      <c r="D65" s="53" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="50" t="s">
-        <v>545</v>
-      </c>
-      <c r="B66" s="50" t="s">
-        <v>825</v>
-      </c>
-      <c r="C66" s="50" t="s">
-        <v>707</v>
-      </c>
-      <c r="D66" s="50" t="s">
-        <v>826</v>
+      <c r="A66" s="53" t="s">
+        <v>585</v>
+      </c>
+      <c r="B66" s="53" t="s">
+        <v>867</v>
+      </c>
+      <c r="C66" s="53" t="s">
+        <v>749</v>
+      </c>
+      <c r="D66" s="53" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="57" t="s">
-        <v>540</v>
+      <c r="A67" s="60" t="s">
+        <v>580</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>827</v>
-      </c>
-      <c r="C67" s="50" t="s">
-        <v>828</v>
-      </c>
-      <c r="D67" s="50" t="s">
-        <v>829</v>
+        <v>869</v>
+      </c>
+      <c r="C67" s="53" t="s">
+        <v>870</v>
+      </c>
+      <c r="D67" s="53" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="57" t="s">
-        <v>540</v>
-      </c>
-      <c r="B68" s="50" t="s">
-        <v>830</v>
-      </c>
-      <c r="C68" s="50" t="s">
-        <v>831</v>
-      </c>
-      <c r="D68" s="50" t="s">
-        <v>832</v>
+      <c r="A68" s="60" t="s">
+        <v>580</v>
+      </c>
+      <c r="B68" s="53" t="s">
+        <v>872</v>
+      </c>
+      <c r="C68" s="53" t="s">
+        <v>873</v>
+      </c>
+      <c r="D68" s="53" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="57" t="s">
-        <v>540</v>
-      </c>
-      <c r="B69" s="50" t="s">
+      <c r="A69" s="60" t="s">
+        <v>580</v>
+      </c>
+      <c r="B69" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="50" t="s">
-        <v>701</v>
-      </c>
-      <c r="D69" s="50" t="s">
-        <v>702</v>
+      <c r="C69" s="53" t="s">
+        <v>743</v>
+      </c>
+      <c r="D69" s="53" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="57" t="s">
-        <v>540</v>
-      </c>
-      <c r="B70" s="50" t="s">
-        <v>706</v>
+      <c r="A70" s="60" t="s">
+        <v>580</v>
+      </c>
+      <c r="B70" s="53" t="s">
+        <v>748</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>707</v>
+        <v>749</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>826</v>
+        <v>868</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
@@ -13185,34 +13779,34 @@
       <c r="A71" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="B71" s="50" t="s">
-        <v>833</v>
-      </c>
-      <c r="C71" s="58" t="s">
-        <v>834</v>
-      </c>
-      <c r="D71" s="50" t="s">
-        <v>835</v>
+      <c r="B71" s="53" t="s">
+        <v>875</v>
+      </c>
+      <c r="C71" s="61" t="s">
+        <v>876</v>
+      </c>
+      <c r="D71" s="53" t="s">
+        <v>877</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>634</v>
+        <v>673</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="B72" s="50" t="s">
-        <v>836</v>
+      <c r="B72" s="53" t="s">
+        <v>878</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>837</v>
-      </c>
-      <c r="D72" s="58" t="s">
-        <v>838</v>
-      </c>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
+        <v>879</v>
+      </c>
+      <c r="D72" s="61" t="s">
+        <v>880</v>
+      </c>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
       <c r="H72" s="2" t="s">
         <v>193</v>
       </c>
@@ -13221,28 +13815,28 @@
       <c r="A73" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="B73" s="50" t="s">
-        <v>839</v>
+      <c r="B73" s="53" t="s">
+        <v>881</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>840</v>
-      </c>
-      <c r="D73" s="50" t="s">
-        <v>841</v>
+        <v>882</v>
+      </c>
+      <c r="D73" s="53" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="B74" s="50" t="s">
-        <v>842</v>
+      <c r="B74" s="53" t="s">
+        <v>884</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>843</v>
+        <v>885</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>844</v>
+        <v>886</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
@@ -13251,14 +13845,14 @@
       <c r="A75" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="B75" s="50" t="s">
-        <v>845</v>
+      <c r="B75" s="53" t="s">
+        <v>887</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>846</v>
+        <v>888</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>847</v>
+        <v>889</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
@@ -13267,14 +13861,14 @@
       <c r="A76" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="B76" s="50" t="s">
-        <v>848</v>
+      <c r="B76" s="53" t="s">
+        <v>890</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>849</v>
+        <v>891</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>850</v>
+        <v>892</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
@@ -13286,14 +13880,14 @@
       <c r="A77" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="B77" s="50" t="s">
-        <v>851</v>
+      <c r="B77" s="53" t="s">
+        <v>893</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>852</v>
+        <v>894</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>853</v>
+        <v>895</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
@@ -13302,14 +13896,14 @@
       <c r="A78" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="B78" s="50" t="s">
-        <v>854</v>
+      <c r="B78" s="53" t="s">
+        <v>896</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>855</v>
+        <v>897</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>856</v>
+        <v>898</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
@@ -13321,136 +13915,136 @@
       <c r="A79" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="B79" s="50" t="s">
+      <c r="B79" s="53" t="s">
         <v>144</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>701</v>
-      </c>
-      <c r="D79" s="50" t="s">
-        <v>702</v>
+        <v>743</v>
+      </c>
+      <c r="D79" s="53" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="30" t="s">
-        <v>857</v>
-      </c>
-      <c r="B80" s="50" t="s">
+        <v>899</v>
+      </c>
+      <c r="B80" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C80" s="50" t="s">
-        <v>663</v>
-      </c>
-      <c r="D80" s="50" t="s">
-        <v>664</v>
+      <c r="C80" s="53" t="s">
+        <v>702</v>
+      </c>
+      <c r="D80" s="53" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="30" t="s">
-        <v>857</v>
-      </c>
-      <c r="B81" s="50" t="s">
-        <v>858</v>
-      </c>
-      <c r="C81" s="50" t="s">
-        <v>859</v>
-      </c>
-      <c r="D81" s="50" t="s">
-        <v>860</v>
-      </c>
-      <c r="H81" s="50" t="s">
-        <v>649</v>
+        <v>899</v>
+      </c>
+      <c r="B81" s="53" t="s">
+        <v>900</v>
+      </c>
+      <c r="C81" s="53" t="s">
+        <v>901</v>
+      </c>
+      <c r="D81" s="53" t="s">
+        <v>902</v>
+      </c>
+      <c r="H81" s="53" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="30" t="s">
-        <v>857</v>
-      </c>
-      <c r="B82" s="50" t="s">
+        <v>899</v>
+      </c>
+      <c r="B82" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="C82" s="50" t="s">
-        <v>861</v>
-      </c>
-      <c r="D82" s="50" t="s">
-        <v>862</v>
+      <c r="C82" s="53" t="s">
+        <v>903</v>
+      </c>
+      <c r="D82" s="53" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="30" t="s">
-        <v>857</v>
+        <v>899</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>863</v>
+        <v>905</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>864</v>
+        <v>906</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>865</v>
+        <v>907</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>866</v>
+        <v>908</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>867</v>
-      </c>
-      <c r="H83" s="50" t="s">
-        <v>868</v>
+        <v>909</v>
+      </c>
+      <c r="H83" s="53" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="30" t="s">
-        <v>869</v>
-      </c>
-      <c r="B84" s="50" t="s">
-        <v>870</v>
+        <v>911</v>
+      </c>
+      <c r="B84" s="53" t="s">
+        <v>912</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>871</v>
+        <v>913</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>872</v>
+        <v>914</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>873</v>
+        <v>915</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>874</v>
+        <v>916</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="30" t="s">
-        <v>869</v>
-      </c>
-      <c r="B85" s="50" t="s">
-        <v>875</v>
+        <v>911</v>
+      </c>
+      <c r="B85" s="53" t="s">
+        <v>917</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>876</v>
+        <v>918</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>877</v>
+        <v>919</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>878</v>
+        <v>920</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>879</v>
+        <v>921</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="30" t="s">
-        <v>869</v>
-      </c>
-      <c r="B86" s="50" t="s">
-        <v>695</v>
-      </c>
-      <c r="C86" s="50" t="s">
-        <v>696</v>
-      </c>
-      <c r="D86" s="50" t="s">
-        <v>697</v>
+        <v>911</v>
+      </c>
+      <c r="B86" s="53" t="s">
+        <v>737</v>
+      </c>
+      <c r="C86" s="53" t="s">
+        <v>738</v>
+      </c>
+      <c r="D86" s="53" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13458,13 +14052,13 @@
         <v>510</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>880</v>
+        <v>922</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>881</v>
+        <v>923</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>882</v>
+        <v>924</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13472,13 +14066,13 @@
         <v>510</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>883</v>
+        <v>925</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>884</v>
+        <v>926</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>885</v>
+        <v>927</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13486,13 +14080,13 @@
         <v>510</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>886</v>
+        <v>928</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>887</v>
+        <v>929</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>888</v>
+        <v>930</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13500,13 +14094,13 @@
         <v>510</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>889</v>
+        <v>931</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>890</v>
+        <v>932</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>891</v>
+        <v>933</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13514,7 +14108,7 @@
         <v>510</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>700</v>
+        <v>742</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13522,7 +14116,7 @@
         <v>510</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>703</v>
+        <v>745</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13530,13 +14124,13 @@
         <v>525</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>892</v>
+        <v>934</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>893</v>
+        <v>935</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>894</v>
+        <v>936</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13544,13 +14138,13 @@
         <v>525</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>895</v>
+        <v>937</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>896</v>
+        <v>938</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>897</v>
+        <v>939</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13558,13 +14152,13 @@
         <v>525</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>886</v>
+        <v>928</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>887</v>
+        <v>929</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>888</v>
+        <v>930</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13572,13 +14166,13 @@
         <v>525</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>898</v>
+        <v>940</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>899</v>
+        <v>941</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>900</v>
+        <v>942</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13586,7 +14180,7 @@
         <v>525</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>700</v>
+        <v>742</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13594,202 +14188,208 @@
         <v>525</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>703</v>
+        <v>745</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="59" t="s">
+      <c r="A99" s="62" t="s">
         <v>158</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>901</v>
-      </c>
-      <c r="C99" s="50" t="s">
-        <v>902</v>
-      </c>
-      <c r="D99" s="50" t="s">
-        <v>903</v>
+        <v>943</v>
+      </c>
+      <c r="C99" s="53" t="s">
+        <v>944</v>
+      </c>
+      <c r="D99" s="53" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="59" t="s">
+      <c r="A100" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="B100" s="50" t="s">
-        <v>904</v>
-      </c>
-      <c r="C100" s="50" t="s">
-        <v>905</v>
-      </c>
-      <c r="D100" s="50" t="s">
-        <v>906</v>
+      <c r="B100" s="53" t="s">
+        <v>946</v>
+      </c>
+      <c r="C100" s="53" t="s">
+        <v>947</v>
+      </c>
+      <c r="D100" s="53" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="59" t="s">
+      <c r="A101" s="62" t="s">
         <v>158</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>907</v>
-      </c>
-      <c r="C101" s="50" t="s">
-        <v>908</v>
-      </c>
-      <c r="D101" s="50" t="s">
-        <v>909</v>
+        <v>949</v>
+      </c>
+      <c r="C101" s="53" t="s">
+        <v>950</v>
+      </c>
+      <c r="D101" s="53" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="59" t="s">
+      <c r="A102" s="62" t="s">
         <v>158</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>910</v>
-      </c>
-      <c r="C102" s="50" t="s">
-        <v>911</v>
-      </c>
-      <c r="D102" s="50" t="s">
-        <v>912</v>
+        <v>952</v>
+      </c>
+      <c r="C102" s="53" t="s">
+        <v>953</v>
+      </c>
+      <c r="D102" s="53" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="59" t="s">
+      <c r="A103" s="62" t="s">
         <v>158</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>913</v>
-      </c>
-      <c r="C103" s="50" t="s">
-        <v>914</v>
-      </c>
-      <c r="D103" s="50" t="s">
-        <v>915</v>
+        <v>955</v>
+      </c>
+      <c r="C103" s="53" t="s">
+        <v>956</v>
+      </c>
+      <c r="D103" s="53" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="59" t="s">
+      <c r="A104" s="62" t="s">
         <v>158</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>916</v>
-      </c>
-      <c r="C104" s="50" t="s">
-        <v>917</v>
-      </c>
-      <c r="D104" s="50" t="s">
-        <v>918</v>
+        <v>958</v>
+      </c>
+      <c r="C104" s="53" t="s">
+        <v>959</v>
+      </c>
+      <c r="D104" s="53" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="59" t="s">
+      <c r="A105" s="62" t="s">
         <v>158</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>706</v>
+        <v>748</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="21" t="s">
-        <v>919</v>
+        <v>961</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>644</v>
+        <v>683</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>920</v>
+        <v>962</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>921</v>
+        <v>963</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>922</v>
+        <v>964</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>923</v>
+        <v>965</v>
       </c>
       <c r="G106" s="21"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="21" t="s">
-        <v>919</v>
+        <v>961</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>645</v>
+        <v>684</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>924</v>
+        <v>966</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>925</v>
+        <v>967</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>926</v>
+        <v>968</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>927</v>
+        <v>969</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="21" t="s">
-        <v>919</v>
+        <v>961</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>646</v>
+        <v>685</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>928</v>
+        <v>970</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>929</v>
+        <v>971</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>930</v>
+        <v>972</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>931</v>
+        <v>973</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="21" t="s">
-        <v>919</v>
+        <v>961</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>776</v>
+        <v>818</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>932</v>
+        <v>974</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>933</v>
+        <v>975</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>934</v>
+        <v>976</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>935</v>
+        <v>977</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="21" t="s">
-        <v>919</v>
+        <v>961</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>650</v>
+        <v>689</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>936</v>
+        <v>978</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>937</v>
+        <v>979</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>938</v>
+        <v>980</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>939</v>
-      </c>
-    </row>
+        <v>981</v>
+      </c>
+    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -13809,10 +14409,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13829,196 +14429,235 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" s="56" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="60" t="s">
-        <v>940</v>
-      </c>
-      <c r="B1" s="60" t="s">
-        <v>941</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>942</v>
-      </c>
-      <c r="D1" s="60" t="s">
-        <v>943</v>
-      </c>
-      <c r="E1" s="60" t="s">
-        <v>944</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>945</v>
-      </c>
-      <c r="G1" s="60" t="s">
-        <v>946</v>
-      </c>
-      <c r="H1" s="60" t="s">
-        <v>947</v>
-      </c>
-      <c r="I1" s="60" t="s">
-        <v>948</v>
-      </c>
-      <c r="J1" s="60" t="s">
-        <v>949</v>
-      </c>
-      <c r="K1" s="60" t="s">
-        <v>950</v>
-      </c>
-      <c r="L1" s="56" t="s">
-        <v>951</v>
+    <row r="1" s="59" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="63" t="s">
+        <v>982</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>983</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>984</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>985</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>986</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>987</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>988</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>989</v>
+      </c>
+      <c r="I1" s="63" t="s">
+        <v>990</v>
+      </c>
+      <c r="J1" s="63" t="s">
+        <v>991</v>
+      </c>
+      <c r="K1" s="63" t="s">
+        <v>992</v>
+      </c>
+      <c r="L1" s="59" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
-        <v>581</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>952</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>953</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>954</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>955</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>956</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>957</v>
-      </c>
-      <c r="H2" s="36" t="n">
+      <c r="A2" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>995</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>996</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>997</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>998</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>999</v>
+      </c>
+      <c r="H2" s="40" t="n">
         <v>-10</v>
       </c>
-      <c r="I2" s="36" t="n">
+      <c r="I2" s="40" t="n">
         <v>100</v>
       </c>
-      <c r="J2" s="36" t="s">
-        <v>958</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>958</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>959</v>
+      <c r="J2" s="40" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
-        <v>590</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>960</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>961</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>962</v>
-      </c>
-      <c r="E3" s="61" t="s">
-        <v>963</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>964</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>965</v>
-      </c>
-      <c r="H3" s="36" t="n">
+      <c r="A3" s="40" t="s">
+        <v>629</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F3" s="64" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H3" s="40" t="n">
         <v>-10</v>
       </c>
-      <c r="I3" s="36" t="n">
+      <c r="I3" s="40" t="n">
         <v>100</v>
       </c>
-      <c r="J3" s="36" t="s">
-        <v>958</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>958</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>966</v>
+      <c r="J3" s="40" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
-        <v>595</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>967</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>968</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>969</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>970</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>971</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>972</v>
-      </c>
-      <c r="H4" s="36" t="n">
+      <c r="A4" s="40" t="s">
+        <v>634</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H4" s="40" t="n">
         <v>-10</v>
       </c>
-      <c r="I4" s="36" t="n">
+      <c r="I4" s="40" t="n">
         <v>100</v>
       </c>
-      <c r="J4" s="36" t="s">
-        <v>958</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>958</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>973</v>
+      <c r="J4" s="40" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="s">
-        <v>600</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>960</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>974</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>975</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>963</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>976</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>977</v>
-      </c>
-      <c r="H5" s="36" t="n">
+      <c r="A5" s="40" t="s">
+        <v>639</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H5" s="40" t="n">
         <v>-10</v>
       </c>
-      <c r="I5" s="36" t="n">
+      <c r="I5" s="40" t="n">
         <v>100</v>
       </c>
-      <c r="J5" s="36" t="s">
-        <v>958</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>958</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>973</v>
-      </c>
-    </row>
+      <c r="J5" s="40" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -14074,13 +14713,13 @@
         <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>978</v>
+        <v>1027</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>979</v>
+        <v>1028</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>980</v>
+        <v>1029</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -14090,13 +14729,13 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>981</v>
+        <v>1030</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>982</v>
+        <v>1031</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>983</v>
+        <v>1032</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -14106,13 +14745,13 @@
         <v>416</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>984</v>
+        <v>1033</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>985</v>
+        <v>1034</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>986</v>
+        <v>1035</v>
       </c>
       <c r="E4" s="10"/>
     </row>
@@ -14121,13 +14760,13 @@
         <v>416</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>987</v>
+        <v>1036</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>988</v>
+        <v>1037</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>989</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14135,13 +14774,13 @@
         <v>416</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>990</v>
+        <v>1039</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>991</v>
+        <v>1040</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>992</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14149,13 +14788,13 @@
         <v>416</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>993</v>
+        <v>1042</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>994</v>
+        <v>1043</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>995</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14163,13 +14802,13 @@
         <v>416</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>996</v>
+        <v>1045</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>997</v>
+        <v>1046</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>998</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14177,13 +14816,13 @@
         <v>416</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>999</v>
+        <v>1048</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1000</v>
+        <v>1049</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>1001</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14191,13 +14830,13 @@
         <v>416</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1002</v>
+        <v>1051</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>1003</v>
+        <v>1052</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>1004</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14205,13 +14844,13 @@
         <v>416</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1005</v>
+        <v>1054</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>1006</v>
+        <v>1055</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1007</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14219,13 +14858,13 @@
         <v>416</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1008</v>
+        <v>1057</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>1009</v>
+        <v>1058</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>1010</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14233,13 +14872,13 @@
         <v>416</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1011</v>
+        <v>1060</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>1012</v>
+        <v>1061</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>1013</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14247,13 +14886,13 @@
         <v>416</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1014</v>
+        <v>1063</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>704</v>
+        <v>746</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>705</v>
+        <v>747</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14261,13 +14900,13 @@
         <v>416</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1015</v>
+        <v>1064</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>1016</v>
+        <v>1065</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>1017</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14275,19 +14914,19 @@
         <v>315</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>1018</v>
+        <v>1067</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>1019</v>
+        <v>1068</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>1020</v>
+        <v>1069</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>1021</v>
+        <v>1070</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>1022</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14295,19 +14934,19 @@
         <v>315</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>1023</v>
+        <v>1072</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>1024</v>
+        <v>1073</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>1025</v>
+        <v>1074</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>1026</v>
+        <v>1075</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>1027</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14315,19 +14954,19 @@
         <v>315</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>1028</v>
+        <v>1077</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>1029</v>
+        <v>1078</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>1030</v>
+        <v>1079</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>1031</v>
+        <v>1080</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>1032</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14335,19 +14974,19 @@
         <v>315</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>1033</v>
+        <v>1082</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>1034</v>
+        <v>1083</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>1035</v>
+        <v>1084</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>1036</v>
+        <v>1085</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>1037</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14355,19 +14994,19 @@
         <v>315</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>1038</v>
+        <v>1087</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>1039</v>
+        <v>1088</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>1040</v>
+        <v>1089</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>1041</v>
+        <v>1090</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>1042</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14375,19 +15014,19 @@
         <v>315</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>1043</v>
+        <v>1092</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1044</v>
+        <v>1093</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>1045</v>
+        <v>1094</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>1046</v>
+        <v>1095</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>1047</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14395,13 +15034,13 @@
         <v>315</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>1048</v>
+        <v>1097</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1049</v>
+        <v>1098</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1050</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14409,13 +15048,13 @@
         <v>315</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>1051</v>
+        <v>1100</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>1052</v>
+        <v>1101</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>1053</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14423,13 +15062,13 @@
         <v>315</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>1054</v>
+        <v>1103</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>1055</v>
+        <v>1104</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>1056</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14437,13 +15076,13 @@
         <v>315</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>1057</v>
+        <v>1106</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>1058</v>
+        <v>1107</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>1059</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14451,19 +15090,19 @@
         <v>315</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>1060</v>
+        <v>1109</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>1061</v>
+        <v>1110</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>1062</v>
+        <v>1111</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>1063</v>
+        <v>1112</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>1064</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14471,13 +15110,13 @@
         <v>315</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>1065</v>
+        <v>1114</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>1066</v>
+        <v>1115</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>1067</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14485,13 +15124,13 @@
         <v>315</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>1068</v>
+        <v>1117</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>1069</v>
+        <v>1118</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>1070</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14499,13 +15138,13 @@
         <v>315</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>1071</v>
+        <v>1120</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>1072</v>
+        <v>1121</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>1073</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14513,13 +15152,13 @@
         <v>315</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>1074</v>
+        <v>1123</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>1075</v>
+        <v>1124</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>1076</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14527,13 +15166,13 @@
         <v>315</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>1077</v>
+        <v>1126</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>1078</v>
+        <v>1127</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>1079</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14541,13 +15180,13 @@
         <v>315</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>1080</v>
+        <v>1129</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>1081</v>
+        <v>1130</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>1082</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14555,13 +15194,13 @@
         <v>315</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>1083</v>
+        <v>1132</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>1084</v>
+        <v>1133</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>1085</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14569,13 +15208,13 @@
         <v>315</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>1086</v>
+        <v>1135</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>1087</v>
+        <v>1136</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>1088</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14583,13 +15222,13 @@
         <v>315</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>1089</v>
+        <v>1138</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>1090</v>
+        <v>1139</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>1091</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14597,13 +15236,13 @@
         <v>315</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>1092</v>
+        <v>1141</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>1093</v>
+        <v>1142</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>1094</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14611,13 +15250,13 @@
         <v>315</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>1095</v>
+        <v>1144</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>1093</v>
+        <v>1142</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>1094</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14625,13 +15264,13 @@
         <v>315</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>1096</v>
+        <v>1145</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>1097</v>
+        <v>1146</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>1098</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14639,13 +15278,13 @@
         <v>315</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>1099</v>
+        <v>1148</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>1100</v>
+        <v>1149</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>1101</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14653,13 +15292,13 @@
         <v>315</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>1102</v>
+        <v>1151</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>1103</v>
+        <v>1152</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>1104</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14667,13 +15306,13 @@
         <v>315</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>1105</v>
+        <v>1154</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>1106</v>
+        <v>1155</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>1107</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14681,13 +15320,13 @@
         <v>315</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>1108</v>
+        <v>1157</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>1109</v>
+        <v>1158</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>1110</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14695,13 +15334,13 @@
         <v>315</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>1111</v>
+        <v>1160</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>1112</v>
+        <v>1161</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>1113</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14709,13 +15348,13 @@
         <v>315</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>1114</v>
+        <v>1163</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>1115</v>
+        <v>1164</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>1116</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14723,13 +15362,13 @@
         <v>315</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>1117</v>
+        <v>1166</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>1118</v>
+        <v>1167</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>1119</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14737,13 +15376,13 @@
         <v>315</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>1120</v>
+        <v>1169</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>1121</v>
+        <v>1170</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>1122</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14751,13 +15390,13 @@
         <v>315</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>1123</v>
+        <v>1172</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>1124</v>
+        <v>1173</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>1125</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14765,19 +15404,19 @@
         <v>315</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>1126</v>
+        <v>1175</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>1127</v>
+        <v>1176</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>1128</v>
+        <v>1177</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>1129</v>
+        <v>1178</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>1130</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14785,19 +15424,19 @@
         <v>315</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>1131</v>
+        <v>1180</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>1132</v>
+        <v>1181</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>1133</v>
+        <v>1182</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>1134</v>
+        <v>1183</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>1135</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14805,19 +15444,19 @@
         <v>315</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>1136</v>
+        <v>1185</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>1137</v>
+        <v>1186</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>1138</v>
+        <v>1187</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>1139</v>
+        <v>1188</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>1140</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14825,19 +15464,19 @@
         <v>315</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>1141</v>
+        <v>1190</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>1142</v>
+        <v>1191</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>1143</v>
+        <v>1192</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>1144</v>
+        <v>1193</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>1145</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14845,19 +15484,19 @@
         <v>315</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>1146</v>
+        <v>1195</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>1147</v>
+        <v>1196</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>1148</v>
+        <v>1197</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>1149</v>
+        <v>1198</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>1150</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14865,19 +15504,19 @@
         <v>315</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>1151</v>
+        <v>1200</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>1152</v>
+        <v>1201</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>1153</v>
+        <v>1202</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>1154</v>
+        <v>1203</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>1155</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14885,19 +15524,19 @@
         <v>315</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>1156</v>
+        <v>1205</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>1157</v>
+        <v>1206</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>1158</v>
+        <v>1207</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>1159</v>
+        <v>1208</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>1160</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14905,19 +15544,19 @@
         <v>315</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>1161</v>
+        <v>1210</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>1162</v>
+        <v>1211</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>1163</v>
+        <v>1212</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>1164</v>
+        <v>1213</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>1165</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14925,13 +15564,13 @@
         <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1166</v>
+        <v>1215</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>1167</v>
+        <v>1216</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>1168</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14939,13 +15578,13 @@
         <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1169</v>
+        <v>1218</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>1170</v>
+        <v>1219</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>1171</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14953,13 +15592,13 @@
         <v>108</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1172</v>
+        <v>1221</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>1173</v>
+        <v>1222</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>1174</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14967,27 +15606,27 @@
         <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1175</v>
+        <v>1224</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>1176</v>
+        <v>1225</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>1177</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B60" s="62" t="s">
-        <v>1178</v>
+      <c r="B60" s="65" t="s">
+        <v>1227</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>1179</v>
+        <v>1228</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>1180</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14995,13 +15634,13 @@
         <v>108</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>1181</v>
+        <v>1230</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>1182</v>
+        <v>1231</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>1183</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15009,121 +15648,121 @@
         <v>108</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>1184</v>
+        <v>1233</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>1185</v>
+        <v>1234</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>1186</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="B63" s="50" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C63" s="50" t="s">
-        <v>663</v>
-      </c>
-      <c r="D63" s="50" t="s">
-        <v>664</v>
-      </c>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
+      <c r="B63" s="53" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C63" s="53" t="s">
+        <v>702</v>
+      </c>
+      <c r="D63" s="53" t="s">
+        <v>703</v>
+      </c>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="B64" s="50" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C64" s="50" t="s">
-        <v>859</v>
-      </c>
-      <c r="D64" s="50" t="s">
-        <v>860</v>
-      </c>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
+      <c r="B64" s="53" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C64" s="53" t="s">
+        <v>901</v>
+      </c>
+      <c r="D64" s="53" t="s">
+        <v>902</v>
+      </c>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="B65" s="50" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C65" s="50" t="s">
-        <v>861</v>
-      </c>
-      <c r="D65" s="50" t="s">
-        <v>862</v>
-      </c>
-      <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
+      <c r="B65" s="53" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C65" s="53" t="s">
+        <v>903</v>
+      </c>
+      <c r="D65" s="53" t="s">
+        <v>904</v>
+      </c>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="30" t="s">
         <v>315</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>1190</v>
+        <v>1239</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>864</v>
+        <v>906</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>865</v>
+        <v>907</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>866</v>
+        <v>908</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>867</v>
+        <v>909</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="B67" s="50" t="s">
-        <v>1191</v>
+      <c r="B67" s="53" t="s">
+        <v>1240</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>871</v>
+        <v>913</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>872</v>
+        <v>914</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>873</v>
+        <v>915</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>874</v>
+        <v>916</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="B68" s="50" t="s">
-        <v>1192</v>
+      <c r="B68" s="53" t="s">
+        <v>1241</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>876</v>
+        <v>918</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>877</v>
+        <v>919</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>878</v>
+        <v>920</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>879</v>
+        <v>921</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15131,13 +15770,13 @@
         <v>315</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>1193</v>
+        <v>1242</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>1194</v>
+        <v>1243</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>1195</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15145,13 +15784,13 @@
         <v>315</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>1196</v>
+        <v>1245</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>1197</v>
+        <v>1246</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>1198</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15159,13 +15798,13 @@
         <v>315</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>1199</v>
+        <v>1248</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>1200</v>
+        <v>1249</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>1201</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15173,13 +15812,13 @@
         <v>315</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>1202</v>
+        <v>1251</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>1203</v>
+        <v>1252</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>1204</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15187,19 +15826,19 @@
         <v>108</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1205</v>
+        <v>1254</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>920</v>
+        <v>962</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>921</v>
+        <v>963</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>922</v>
+        <v>964</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>923</v>
+        <v>965</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15207,19 +15846,19 @@
         <v>108</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1206</v>
+        <v>1255</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>924</v>
+        <v>966</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>925</v>
+        <v>967</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>926</v>
+        <v>968</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>927</v>
+        <v>969</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15227,19 +15866,19 @@
         <v>108</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>1207</v>
+        <v>1256</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>928</v>
+        <v>970</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>929</v>
+        <v>971</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>930</v>
+        <v>972</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>931</v>
+        <v>973</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15247,19 +15886,19 @@
         <v>108</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>1208</v>
+        <v>1257</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>932</v>
+        <v>974</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>933</v>
+        <v>975</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>934</v>
+        <v>976</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>935</v>
+        <v>977</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15267,19 +15906,19 @@
         <v>108</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>1209</v>
+        <v>1258</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>936</v>
+        <v>978</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>937</v>
+        <v>979</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>938</v>
+        <v>980</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>939</v>
+        <v>981</v>
       </c>
     </row>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/survey/references/OD_nationale_quebec_2025.xlsx
+++ b/survey/references/OD_nationale_quebec_2025.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="1259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="1271">
   <si>
     <t xml:space="preserve">questionName</t>
   </si>
@@ -3890,6 +3890,42 @@
   </si>
   <si>
     <t xml:space="preserve">onDemandChoicesJoinedStop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">busLinesOther</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autre(s) ligne(s) de bus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other bus line(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">busLinesDontKnow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ligne(s) inconnue(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown line(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">busLinesAreCorrect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les lignes de bus sont correctes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bus lines are correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">busLinesWarningRequired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veuillez valider les lignes de bus ou confirmer que ce sont les bonnes lignes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please validate the bus lines or confirm that lines are correct.</t>
   </si>
   <si>
     <t xml:space="preserve">nextPlaceRadioChoices.stayedHomeUntilTheNextDay</t>
@@ -4942,11 +4978,11 @@
   <dimension ref="A1:XFD134"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C97" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A106" activeCellId="0" sqref="A106"/>
-      <selection pane="bottomRight" activeCell="H113" activeCellId="0" sqref="H113"/>
+      <selection pane="bottomLeft" activeCell="A97" activeCellId="0" sqref="A97"/>
+      <selection pane="bottomRight" activeCell="H115" activeCellId="0" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9426,9 +9462,9 @@
       <c r="B93" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C93" s="19" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="C93" s="29" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="D93" s="28" t="s">
         <v>416</v>
@@ -9475,9 +9511,9 @@
       <c r="B94" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C94" s="19" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="C94" s="29" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="D94" s="28" t="s">
         <v>416</v>
@@ -11366,7 +11402,7 @@
       <formula>AND($B134&lt;&gt;"Select", $B134&lt;&gt;"Checkbox", $B134&lt;&gt;"Radio",  $B134&lt;&gt;"", ROW(O134)&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C135:C1048576 C61:C82 C93:C94 C1:C59 C100:C133">
+  <conditionalFormatting sqref="C135:C1048576 C61:C82 C1:C59 C100:C133">
     <cfRule type="containsText" priority="7" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="FALSE" dxfId="8">
       <formula>NOT(ISERROR(SEARCH("FALSE",C1)))</formula>
     </cfRule>
@@ -11407,7 +11443,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60:C78 C83:C92 C95:C100 C103:C114">
+  <conditionalFormatting sqref="C60:C78 C83:C100 C103:C114">
     <cfRule type="containsText" priority="16" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="FALSE" dxfId="8">
       <formula>NOT(ISERROR(SEARCH("FALSE",C60)))</formula>
     </cfRule>
@@ -12216,7 +12252,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14677,7 +14713,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F73" activeCellId="0" sqref="F73"/>
+      <selection pane="topLeft" activeCell="C64" activeCellId="0" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15766,10 +15802,10 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B69" s="10" t="s">
+      <c r="A69" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="B69" s="53" t="s">
         <v>1242</v>
       </c>
       <c r="C69" s="10" t="s">
@@ -15778,12 +15814,14 @@
       <c r="D69" s="10" t="s">
         <v>1244</v>
       </c>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B70" s="10" t="s">
+      <c r="A70" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="B70" s="53" t="s">
         <v>1245</v>
       </c>
       <c r="C70" s="10" t="s">
@@ -15792,12 +15830,14 @@
       <c r="D70" s="10" t="s">
         <v>1247</v>
       </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B71" s="10" t="s">
+      <c r="A71" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="B71" s="53" t="s">
         <v>1248</v>
       </c>
       <c r="C71" s="10" t="s">
@@ -15806,10 +15846,12 @@
       <c r="D71" s="10" t="s">
         <v>1250</v>
       </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
-        <v>315</v>
+      <c r="A72" s="30" t="s">
+        <v>416</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>1251</v>
@@ -15820,111 +15862,165 @@
       <c r="D72" s="10" t="s">
         <v>1253</v>
       </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B73" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>1254</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>965</v>
+      <c r="C73" s="10" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>1256</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>969</v>
+        <v>315</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>1259</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>973</v>
+        <v>315</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>977</v>
+        <v>315</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>1265</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B77" s="21" t="s">
-        <v>1258</v>
+      <c r="B77" s="1" t="s">
+        <v>1266</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/survey/references/OD_nationale_quebec_2025.xlsx
+++ b/survey/references/OD_nationale_quebec_2025.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Widgets" sheetId="1" state="visible" r:id="rId3"/>
@@ -1166,7 +1166,7 @@
     <t xml:space="preserve">onTheRoadArrivalType</t>
   </si>
   <si>
-    <t xml:space="preserve">À quel endroit {{nickname}} a-t-{{gender :il/elle/iel}} terminé ses déplacements sur la route?</t>
+    <t xml:space="preserve">À quel endroit {{nickname}} a-t-{{gender :il/elle/iel/"il/elle"}} terminé ses déplacements sur la route?</t>
   </si>
   <si>
     <t xml:space="preserve">Where did {{nickname}} end {{gender:his/her/their}} work trip on the road?</t>
@@ -1259,7 +1259,7 @@
     <t xml:space="preserve">_previousPreviousDepartureTime</t>
   </si>
   <si>
-    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel}} quitté le lieu précédent ({{visitedPlaceDescription}}) avant de se rendre à son lieu habituel de travail?</t>
+    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel/"il/elle"}} quitté le lieu précédent ({{visitedPlaceDescription}}) avant de se rendre à son lieu habituel de travail?</t>
   </si>
   <si>
     <t xml:space="preserve">At what time did {{nickname}} leave the previous location ({{visitedPlaceDescription}}) before going to {{gender:his/her/their}} usual work place?</t>
@@ -1314,7 +1314,7 @@
   </si>
   <si>
     <t xml:space="preserve">Après avoir été {{atPlace}}, {{nickname}} est…
-__Si {{nickname}} a quitté le lieu après 4h du matin le lendemain, merci de considérer pour l'enquête qu'{{gender :il/elle/iel}} y est rest{{gender :é/ée/é.e}} jusqu'au lendemain et de sélectionner la réponse adaptée.__</t>
+__Si {{nickname}} a quitté le lieu après 4h du matin le lendemain, merci de considérer pour l'enquête qu'{{gender :il/elle/iel/"il/elle"}} y est rest{{gender :é/ée/é.e}} jusqu'au lendemain et de sélectionner la réponse adaptée.__</t>
   </si>
   <si>
     <t xml:space="preserve">After being {{atPlace}}, {{nickname}}…
@@ -1322,11 +1322,11 @@
   </si>
   <si>
     <t xml:space="preserve">Après avoir été {{atPlace}}, vous êtes…
-__Si {{nickname}} a quitté le lieu après 4h du matin le lendemain, merci de considérer pour l'enquête qu'{{gender :il/elle/iel}} y est rest{{gender :é/ée/é.e}} jusqu'au lendemain et de sélectionner la réponse adaptée.__</t>
+__Si vous avez quitté le lieu après 4h du matin le lendemain, merci de considérer pour l'enquête que vous y êtes rest{{gender :é/ée/é.e}} jusqu'au lendemain et de sélectionner la réponse adaptée.__</t>
   </si>
   <si>
     <t xml:space="preserve">After being {{atPlace}}, you…
-__If {{nickname}} left this place after 4 AM the following day, please consider for the purposes of the survey that they stayed there until the next day and select the appropriate answer.__</t>
+__If you left this place after 4 AM the following day, please consider for the purposes of the survey that you stayed there until the next day and select the appropriate answer.__</t>
   </si>
   <si>
     <t xml:space="preserve">Custom because of the labels that include the visited place</t>
@@ -3370,7 +3370,7 @@
     <t xml:space="preserve">PreviousDepartureTime</t>
   </si>
   <si>
-    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel}} quitté le lieu précédent ({{previousVisitedPlaceDescription}})?</t>
+    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel/"il/elle"}} quitté le lieu précédent ({{previousVisitedPlaceDescription}})?</t>
   </si>
   <si>
     <t xml:space="preserve">At what time did {{nickname}} leave the previous location ({{previousVisitedPlaceDescription}})?</t>
@@ -3385,7 +3385,7 @@
     <t xml:space="preserve">PreviousDepartureTime_home_workUsual</t>
   </si>
   <si>
-    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel}} quitté le domicile pour aller au travail?</t>
+    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel/"il/elle"}} quitté le domicile pour aller au travail?</t>
   </si>
   <si>
     <t xml:space="preserve">At what time did {{nickname}} leave home before going to work?</t>
@@ -3400,7 +3400,35 @@
     <t xml:space="preserve">PreviousDepartureTime_home_schoolUsual</t>
   </si>
   <si>
-    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel}} quitté le domicile pour aller au lieu d'études/école?</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/"il/elle"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}} quitté le domicile pour aller au lieu d'études/école?</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">At what time did {{nickname}} leave home before going to school?</t>
@@ -3415,7 +3443,35 @@
     <t xml:space="preserve">PreviousDepartureTime_home_other</t>
   </si>
   <si>
-    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel}} quitté le domicile pour aller à cet endroit ({{visitedPlaceDescription}})?</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/"il/elle"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}} quitté le domicile pour aller à cet endroit ({{visitedPlaceDescription}})?</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">At what time did {{nickname}} leave home before going to this place ({{visitedPlaceDescription}})?</t>
@@ -3430,7 +3486,35 @@
     <t xml:space="preserve">PreviousDepartureTime_home_workOnTheRoad</t>
   </si>
   <si>
-    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel}} quitté le domicile avant de débuter ses déplacements sur la route?</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/"il/elle"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}} quitté le domicile avant de débuter ses déplacements sur la route?</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">At what time did {{nickname}} leave home before starting {{gender :his/her/their}} on the road trips?</t>
@@ -3445,7 +3529,35 @@
     <t xml:space="preserve">PreviousDepartureTime_usualWorkPlace_workOnTheRoad</t>
   </si>
   <si>
-    <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel}} quitté son lieu de travail habituel avant de débuter ses déplacements sur la route?</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">À quelle heure {{nickname}} a-t-{{gender :il/elle/iel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/"il/elle"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}} quitté son lieu de travail habituel avant de débuter ses déplacements sur la route?</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">t what time did {{nickname}} leave {{gender :his/her/their}} usual work place before starting {{gender :his/her/their}} on the road trips?</t>
@@ -3709,7 +3821,35 @@
     <t xml:space="preserve">_previousArrivalTimeDepartureTypeHome</t>
   </si>
   <si>
-    <t xml:space="preserve">À quelle heure {{nickname}} est-{{gender :il/elle/iel}} arriv{{gender :é/ée/é.e}} au domicile avant de débuter ses déplacements sur la route?</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">À quelle heure {{nickname}} est-{{gender :il/elle/iel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/"il/elle"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}} arriv{{gender :é/ée/é.e}} au domicile avant de débuter ses déplacements sur la route?</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">At what time did {{nickname}} arrive home before starting {{gender :his/her/their}} on the road trips?</t>
@@ -3724,7 +3864,35 @@
     <t xml:space="preserve">_previousArrivalTimeDepartureTypeUsualWorkPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">À quelle heure {{nickname}} est-{{gender :il/elle/iel}} arriv{{gender :é/ée/é.e}} à son lieu de travail habituel avant de débuter ses déplacements sur la route?</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">À quelle heure {{nickname}} est-{{gender :il/elle/iel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/"il/elle"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}} arriv{{gender :é/ée/é.e}} à son lieu de travail habituel avant de débuter ses déplacements sur la route?</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">At what time did {{nickname}} arrive at his usual work place before starting {{gender :his/her/their}} on the road trips?</t>
@@ -3739,7 +3907,35 @@
     <t xml:space="preserve">_previousArrivalTimeDepartureTypeOther</t>
   </si>
   <si>
-    <t xml:space="preserve">À quelle heure {{nickname}} est-{{gender :il/elle/iel}} arriv{{gender :é/ée/é.e}} au lieu précédent ({{visitedPlaceDescription}}) avant de débuter ses déplacements sur la route?</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">À quelle heure {{nickname}} est-{{gender :il/elle/iel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/"il/elle"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}} arriv{{gender :é/ée/é.e}} au lieu précédent ({{visitedPlaceDescription}}) avant de débuter ses déplacements sur la route?</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">At what time did {{nickname}} arrive at the previous location ({{visitedPlaceDescription}}) before starting {{gender :his/her/their}} on the road trips?</t>
@@ -4045,7 +4241,7 @@
     <numFmt numFmtId="165" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4223,6 +4419,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4977,12 +5179,12 @@
   </sheetPr>
   <dimension ref="A1:XFD134"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C97" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A97" activeCellId="0" sqref="A97"/>
-      <selection pane="bottomRight" activeCell="H115" activeCellId="0" sqref="H115"/>
+      <selection pane="bottomLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
+      <selection pane="bottomRight" activeCell="I89" activeCellId="0" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14712,8 +14914,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C64" activeCellId="0" sqref="C64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/survey/references/OD_nationale_quebec_2025.xlsx
+++ b/survey/references/OD_nationale_quebec_2025.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Widgets" sheetId="1" state="visible" r:id="rId3"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="1271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="1272">
   <si>
     <t xml:space="preserve">questionName</t>
   </si>
@@ -423,10 +423,10 @@
     <t xml:space="preserve">ageValidation</t>
   </si>
   <si>
-    <t xml:space="preserve">personGender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
+    <t xml:space="preserve">personSexAssignedAtBirth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sexAssignedAtBirth</t>
   </si>
   <si>
     <t xml:space="preserve">**Sexe à la naissance**
@@ -438,6 +438,9 @@
   </si>
   <si>
     <t xml:space="preserve">ifAge5orMoreConditional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maleFemalePreferNotAnswer</t>
   </si>
   <si>
     <t xml:space="preserve">personWorkerType</t>
@@ -5180,11 +5183,11 @@
   <dimension ref="A1:XFD134"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
-      <selection pane="bottomRight" activeCell="I89" activeCellId="0" sqref="I89"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="O22" activeCellId="0" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6335,7 +6338,7 @@
       </c>
       <c r="N22" s="21"/>
       <c r="O22" s="21" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
@@ -6352,7 +6355,7 @@
     </row>
     <row r="23" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>33</v>
@@ -6368,24 +6371,24 @@
         <v>107</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
       <c r="L23" s="21"/>
       <c r="M23" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N23" s="21"/>
       <c r="O23" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
@@ -6402,7 +6405,7 @@
     </row>
     <row r="24" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>33</v>
@@ -6418,24 +6421,24 @@
         <v>107</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
       <c r="L24" s="21"/>
       <c r="M24" s="21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N24" s="21"/>
       <c r="O24" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P24" s="22"/>
       <c r="Q24" s="21"/>
@@ -6452,7 +6455,7 @@
     </row>
     <row r="25" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>33</v>
@@ -6468,24 +6471,24 @@
         <v>107</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
       <c r="L25" s="21"/>
       <c r="M25" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N25" s="21"/>
       <c r="O25" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
@@ -6496,17 +6499,17 @@
         <v>1</v>
       </c>
       <c r="U25" s="21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="V25" s="21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="W25" s="21"/>
       <c r="X25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>33</v>
@@ -6522,24 +6525,24 @@
         <v>107</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
       <c r="L26" s="21"/>
       <c r="M26" s="21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N26" s="21"/>
       <c r="O26" s="21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
@@ -6556,7 +6559,7 @@
     </row>
     <row r="27" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>33</v>
@@ -6572,28 +6575,28 @@
         <v>107</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K27" s="19"/>
       <c r="L27" s="21"/>
       <c r="M27" s="21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N27" s="21"/>
       <c r="O27" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
@@ -6610,7 +6613,7 @@
     </row>
     <row r="28" customFormat="false" ht="50" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>33</v>
@@ -6626,24 +6629,24 @@
         <v>107</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="21"/>
       <c r="M28" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N28" s="21"/>
       <c r="O28" s="24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
@@ -6660,7 +6663,7 @@
     </row>
     <row r="29" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>33</v>
@@ -6676,24 +6679,24 @@
         <v>107</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
       <c r="L29" s="21"/>
       <c r="M29" s="21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N29" s="21"/>
       <c r="O29" s="21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
@@ -6710,7 +6713,7 @@
     </row>
     <row r="30" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>33</v>
@@ -6726,24 +6729,24 @@
         <v>107</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="21"/>
       <c r="M30" s="21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N30" s="21"/>
       <c r="O30" s="21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
@@ -6760,10 +6763,10 @@
     </row>
     <row r="31" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C31" s="19" t="b">
         <f aca="false">TRUE()</f>
@@ -6776,30 +6779,30 @@
         <v>107</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K31" s="19"/>
       <c r="L31" s="21"/>
       <c r="M31" s="21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N31" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
@@ -6816,7 +6819,7 @@
     </row>
     <row r="32" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>33</v>
@@ -6832,20 +6835,20 @@
         <v>107</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
       <c r="L32" s="21"/>
       <c r="M32" s="21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N32" s="21"/>
       <c r="O32" s="21" t="s">
@@ -6866,7 +6869,7 @@
     </row>
     <row r="33" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>33</v>
@@ -6882,28 +6885,28 @@
         <v>107</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K33" s="19"/>
       <c r="L33" s="21"/>
       <c r="M33" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N33" s="21"/>
       <c r="O33" s="21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
@@ -6920,7 +6923,7 @@
     </row>
     <row r="34" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>33</v>
@@ -6936,28 +6939,28 @@
         <v>107</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K34" s="19"/>
       <c r="L34" s="21"/>
       <c r="M34" s="21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N34" s="21"/>
       <c r="O34" s="21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
@@ -6974,7 +6977,7 @@
     </row>
     <row r="35" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>33</v>
@@ -6990,28 +6993,28 @@
         <v>107</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K35" s="19"/>
       <c r="L35" s="21"/>
       <c r="M35" s="21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N35" s="21"/>
       <c r="O35" s="21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
@@ -7028,7 +7031,7 @@
     </row>
     <row r="36" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>26</v>
@@ -7044,24 +7047,24 @@
         <v>107</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K36" s="19"/>
       <c r="L36" s="21"/>
       <c r="M36" s="19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
@@ -7080,7 +7083,7 @@
     </row>
     <row r="37" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>73</v>
@@ -7096,24 +7099,24 @@
         <v>107</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K37" s="19"/>
       <c r="L37" s="21"/>
       <c r="M37" s="19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N37" s="21"/>
       <c r="O37" s="21"/>
@@ -7132,7 +7135,7 @@
     </row>
     <row r="38" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>26</v>
@@ -7148,24 +7151,24 @@
         <v>107</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J38" s="19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K38" s="19"/>
       <c r="L38" s="21"/>
       <c r="M38" s="19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N38" s="21"/>
       <c r="O38" s="21"/>
@@ -7184,7 +7187,7 @@
     </row>
     <row r="39" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>73</v>
@@ -7200,19 +7203,19 @@
         <v>107</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J39" s="19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K39" s="26"/>
       <c r="L39" s="27"/>
@@ -7234,10 +7237,10 @@
     </row>
     <row r="40" customFormat="false" ht="86.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C40" s="19" t="n">
         <f aca="false">TRUE()</f>
@@ -7250,30 +7253,30 @@
         <v>107</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K40" s="19"/>
       <c r="L40" s="21"/>
       <c r="M40" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P40" s="21"/>
       <c r="Q40" s="21"/>
@@ -7290,10 +7293,10 @@
     </row>
     <row r="41" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C41" s="19" t="n">
         <f aca="false">TRUE()</f>
@@ -7306,30 +7309,30 @@
         <v>107</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J41" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="21"/>
       <c r="M41" s="21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N41" s="21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
@@ -7346,7 +7349,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>104</v>
@@ -7391,7 +7394,7 @@
     </row>
     <row r="43" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B43" s="28" t="s">
         <v>73</v>
@@ -7401,17 +7404,17 @@
         <v>1</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E43" s="30"/>
       <c r="F43" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I43" s="28"/>
       <c r="J43" s="28"/>
@@ -7432,7 +7435,7 @@
     </row>
     <row r="44" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B44" s="28" t="s">
         <v>104</v>
@@ -7442,17 +7445,17 @@
         <v>1</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I44" s="28"/>
       <c r="J44" s="28"/>
@@ -7473,7 +7476,7 @@
     </row>
     <row r="45" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B45" s="28" t="s">
         <v>73</v>
@@ -7483,17 +7486,17 @@
         <v>1</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E45" s="30"/>
       <c r="F45" s="30" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H45" s="32" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I45" s="28"/>
       <c r="J45" s="28"/>
@@ -7517,12 +7520,12 @@
       <c r="W45" s="30"/>
       <c r="X45" s="30"/>
       <c r="Y45" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B46" s="28" t="s">
         <v>73</v>
@@ -7532,17 +7535,17 @@
         <v>1</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E46" s="30"/>
       <c r="F46" s="30" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
@@ -7563,7 +7566,7 @@
     </row>
     <row r="47" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B47" s="28" t="s">
         <v>73</v>
@@ -7573,17 +7576,17 @@
         <v>1</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E47" s="30"/>
       <c r="F47" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I47" s="28"/>
       <c r="J47" s="28"/>
@@ -7604,7 +7607,7 @@
     </row>
     <row r="48" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B48" s="28" t="s">
         <v>73</v>
@@ -7614,17 +7617,17 @@
         <v>1</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E48" s="30"/>
       <c r="F48" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I48" s="28"/>
       <c r="J48" s="28"/>
@@ -7645,7 +7648,7 @@
     </row>
     <row r="49" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B49" s="28" t="s">
         <v>73</v>
@@ -7655,23 +7658,23 @@
         <v>1</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E49" s="30"/>
       <c r="F49" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K49" s="28"/>
       <c r="L49" s="30"/>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="50" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B50" s="28" t="s">
         <v>73</v>
@@ -7700,23 +7703,23 @@
         <v>1</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E50" s="30"/>
       <c r="F50" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K50" s="28"/>
       <c r="L50" s="30"/>
@@ -7735,7 +7738,7 @@
     </row>
     <row r="51" customFormat="false" ht="377.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B51" s="28" t="s">
         <v>73</v>
@@ -7745,23 +7748,23 @@
         <v>1</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E51" s="30"/>
       <c r="F51" s="30" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K51" s="28"/>
       <c r="L51" s="30"/>
@@ -7780,7 +7783,7 @@
     </row>
     <row r="52" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B52" s="28" t="s">
         <v>73</v>
@@ -7790,23 +7793,23 @@
         <v>1</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E52" s="30"/>
       <c r="F52" s="30" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K52" s="28"/>
       <c r="L52" s="30"/>
@@ -7825,7 +7828,7 @@
     </row>
     <row r="53" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B53" s="28" t="s">
         <v>33</v>
@@ -7835,32 +7838,32 @@
         <v>1</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E53" s="30"/>
       <c r="F53" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K53" s="28"/>
       <c r="L53" s="30"/>
       <c r="M53" s="30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N53" s="30"/>
       <c r="O53" s="30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P53" s="30"/>
       <c r="Q53" s="30"/>
@@ -7877,7 +7880,7 @@
     </row>
     <row r="54" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B54" s="28" t="s">
         <v>104</v>
@@ -7887,17 +7890,17 @@
         <v>1</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E54" s="30"/>
       <c r="F54" s="30" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I54" s="28"/>
       <c r="J54" s="28"/>
@@ -7918,7 +7921,7 @@
     </row>
     <row r="55" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B55" s="28" t="s">
         <v>38</v>
@@ -7928,17 +7931,17 @@
         <v>1</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E55" s="30"/>
       <c r="F55" s="30" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H55" s="33" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I55" s="28"/>
       <c r="J55" s="28"/>
@@ -7962,7 +7965,7 @@
     </row>
     <row r="56" s="2" customFormat="true" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B56" s="28" t="s">
         <v>73</v>
@@ -7972,17 +7975,17 @@
         <v>1</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E56" s="30"/>
       <c r="F56" s="30" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H56" s="32" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I56" s="28"/>
       <c r="J56" s="28"/>
@@ -8006,12 +8009,12 @@
       <c r="W56" s="30"/>
       <c r="X56" s="30"/>
       <c r="Y56" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B57" s="28" t="s">
         <v>73</v>
@@ -8021,17 +8024,17 @@
         <v>1</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E57" s="30"/>
       <c r="F57" s="30" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G57" s="28" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I57" s="28"/>
       <c r="J57" s="28"/>
@@ -8050,12 +8053,12 @@
       <c r="W57" s="30"/>
       <c r="X57" s="30"/>
       <c r="Y57" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B58" s="28" t="s">
         <v>73</v>
@@ -8065,23 +8068,23 @@
         <v>1</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E58" s="30"/>
       <c r="F58" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K58" s="28"/>
       <c r="L58" s="30"/>
@@ -8101,12 +8104,12 @@
       <c r="W58" s="30"/>
       <c r="X58" s="30"/>
       <c r="Y58" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B59" s="28" t="s">
         <v>73</v>
@@ -8116,21 +8119,21 @@
         <v>1</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E59" s="30"/>
       <c r="F59" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="34" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K59" s="28"/>
       <c r="L59" s="30"/>
@@ -8147,12 +8150,12 @@
       <c r="W59" s="30"/>
       <c r="X59" s="30"/>
       <c r="Y59" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B60" s="28" t="s">
         <v>73</v>
@@ -8162,11 +8165,11 @@
         <v>1</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E60" s="30"/>
       <c r="F60" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G60" s="10"/>
       <c r="H60" s="33"/>
@@ -8189,7 +8192,7 @@
     </row>
     <row r="61" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B61" s="28" t="s">
         <v>73</v>
@@ -8199,13 +8202,13 @@
         <v>1</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="33"/>
@@ -8226,12 +8229,12 @@
       <c r="W61" s="30"/>
       <c r="X61" s="30"/>
       <c r="Y61" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B62" s="28" t="s">
         <v>73</v>
@@ -8241,13 +8244,13 @@
         <v>1</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F62" s="30" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G62" s="10"/>
       <c r="H62" s="33"/>
@@ -8268,12 +8271,12 @@
       <c r="W62" s="30"/>
       <c r="X62" s="30"/>
       <c r="Y62" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B63" s="28" t="s">
         <v>73</v>
@@ -8283,25 +8286,25 @@
         <v>1</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H63" s="33" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K63" s="28"/>
       <c r="L63" s="30"/>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="64" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B64" s="28" t="s">
         <v>33</v>
@@ -8330,34 +8333,34 @@
         <v>1</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K64" s="28"/>
       <c r="L64" s="30"/>
       <c r="M64" s="30" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N64" s="30"/>
       <c r="O64" s="30" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P64" s="30"/>
       <c r="Q64" s="30"/>
@@ -8369,12 +8372,12 @@
       <c r="W64" s="30"/>
       <c r="X64" s="30"/>
       <c r="Y64" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="69.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B65" s="28" t="s">
         <v>33</v>
@@ -8384,30 +8387,30 @@
         <v>1</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E65" s="30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K65" s="28"/>
       <c r="L65" s="30"/>
       <c r="M65" s="30" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N65" s="30"/>
       <c r="O65" s="30" t="s">
@@ -8428,7 +8431,7 @@
     </row>
     <row r="66" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B66" s="28" t="s">
         <v>73</v>
@@ -8438,19 +8441,19 @@
         <v>1</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I66" s="28"/>
       <c r="J66" s="28"/>
@@ -8469,12 +8472,12 @@
       <c r="W66" s="30"/>
       <c r="X66" s="30"/>
       <c r="Y66" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B67" s="28" t="s">
         <v>73</v>
@@ -8484,13 +8487,13 @@
         <v>1</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F67" s="30" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G67" s="10"/>
       <c r="H67" s="33"/>
@@ -8511,12 +8514,12 @@
       <c r="W67" s="30"/>
       <c r="X67" s="30"/>
       <c r="Y67" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B68" s="28" t="s">
         <v>73</v>
@@ -8526,19 +8529,19 @@
         <v>1</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I68" s="28"/>
       <c r="J68" s="28"/>
@@ -8557,12 +8560,12 @@
       <c r="W68" s="30"/>
       <c r="X68" s="30"/>
       <c r="Y68" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B69" s="28" t="s">
         <v>73</v>
@@ -8572,25 +8575,25 @@
         <v>1</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K69" s="28"/>
       <c r="L69" s="30"/>
@@ -8607,12 +8610,12 @@
       <c r="W69" s="30"/>
       <c r="X69" s="30"/>
       <c r="Y69" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B70" s="28" t="s">
         <v>73</v>
@@ -8622,13 +8625,13 @@
         <v>1</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="33"/>
@@ -8649,12 +8652,12 @@
       <c r="W70" s="30"/>
       <c r="X70" s="30"/>
       <c r="Y70" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B71" s="28" t="s">
         <v>73</v>
@@ -8664,13 +8667,13 @@
         <v>1</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G71" s="10"/>
       <c r="H71" s="33"/>
@@ -8691,12 +8694,12 @@
       <c r="W71" s="30"/>
       <c r="X71" s="30"/>
       <c r="Y71" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B72" s="28" t="s">
         <v>73</v>
@@ -8706,25 +8709,25 @@
         <v>1</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F72" s="30" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K72" s="28"/>
       <c r="L72" s="30"/>
@@ -8741,12 +8744,12 @@
       <c r="W72" s="30"/>
       <c r="X72" s="30"/>
       <c r="Y72" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B73" s="28" t="s">
         <v>73</v>
@@ -8756,25 +8759,25 @@
         <v>1</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K73" s="28"/>
       <c r="L73" s="30"/>
@@ -8791,12 +8794,12 @@
       <c r="W73" s="30"/>
       <c r="X73" s="30"/>
       <c r="Y73" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B74" s="28" t="s">
         <v>73</v>
@@ -8806,25 +8809,25 @@
         <v>1</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K74" s="28"/>
       <c r="L74" s="30"/>
@@ -8841,12 +8844,12 @@
       <c r="W74" s="30"/>
       <c r="X74" s="30"/>
       <c r="Y74" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B75" s="28" t="s">
         <v>73</v>
@@ -8856,19 +8859,19 @@
         <v>1</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F75" s="30" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H75" s="33" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I75" s="28"/>
       <c r="J75" s="28"/>
@@ -8887,12 +8890,12 @@
       <c r="W75" s="30"/>
       <c r="X75" s="30"/>
       <c r="Y75" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B76" s="28" t="s">
         <v>73</v>
@@ -8902,10 +8905,10 @@
         <v>1</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F76" s="30"/>
       <c r="G76" s="10"/>
@@ -8927,12 +8930,12 @@
       <c r="W76" s="30"/>
       <c r="X76" s="30"/>
       <c r="Y76" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B77" s="28" t="s">
         <v>73</v>
@@ -8942,10 +8945,10 @@
         <v>1</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F77" s="30"/>
       <c r="G77" s="10"/>
@@ -8967,12 +8970,12 @@
       <c r="W77" s="30"/>
       <c r="X77" s="30"/>
       <c r="Y77" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B78" s="28" t="s">
         <v>73</v>
@@ -8982,24 +8985,24 @@
         <v>1</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E78" s="30"/>
       <c r="F78" s="30" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I78" s="28"/>
       <c r="J78" s="28"/>
       <c r="K78" s="28"/>
       <c r="L78" s="30"/>
       <c r="M78" s="30" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N78" s="30"/>
       <c r="O78" s="30"/>
@@ -9013,12 +9016,12 @@
       <c r="W78" s="30"/>
       <c r="X78" s="30"/>
       <c r="Y78" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B79" s="28" t="s">
         <v>73</v>
@@ -9028,7 +9031,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E79" s="30"/>
       <c r="F79" s="30"/>
@@ -9054,12 +9057,12 @@
       <c r="W79" s="30"/>
       <c r="X79" s="30"/>
       <c r="Y79" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B80" s="28" t="s">
         <v>73</v>
@@ -9069,17 +9072,17 @@
         <v>1</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E80" s="30"/>
       <c r="F80" s="30" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G80" s="28" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H80" s="28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I80" s="28"/>
       <c r="J80" s="28"/>
@@ -9098,12 +9101,12 @@
       <c r="W80" s="30"/>
       <c r="X80" s="30"/>
       <c r="Y80" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B81" s="28" t="s">
         <v>73</v>
@@ -9113,23 +9116,23 @@
         <v>1</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E81" s="30"/>
       <c r="F81" s="10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K81" s="28"/>
       <c r="L81" s="30"/>
@@ -9149,12 +9152,12 @@
       <c r="W81" s="30"/>
       <c r="X81" s="30"/>
       <c r="Y81" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B82" s="28" t="s">
         <v>73</v>
@@ -9164,23 +9167,23 @@
         <v>1</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E82" s="30"/>
       <c r="F82" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J82" s="34" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K82" s="28"/>
       <c r="L82" s="30"/>
@@ -9197,12 +9200,12 @@
       <c r="W82" s="30"/>
       <c r="X82" s="30"/>
       <c r="Y82" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B83" s="28" t="s">
         <v>73</v>
@@ -9212,11 +9215,11 @@
         <v>1</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E83" s="30"/>
       <c r="F83" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="33"/>
@@ -9237,12 +9240,12 @@
       <c r="W83" s="30"/>
       <c r="X83" s="30"/>
       <c r="Y83" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="38.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B84" s="28" t="s">
         <v>73</v>
@@ -9252,19 +9255,19 @@
         <v>1</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I84" s="28"/>
       <c r="J84" s="28"/>
@@ -9283,12 +9286,12 @@
       <c r="W84" s="30"/>
       <c r="X84" s="30"/>
       <c r="Y84" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B85" s="28" t="s">
         <v>73</v>
@@ -9298,19 +9301,19 @@
         <v>1</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H85" s="33" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I85" s="28"/>
       <c r="J85" s="28"/>
@@ -9329,12 +9332,12 @@
       <c r="W85" s="30"/>
       <c r="X85" s="30"/>
       <c r="Y85" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B86" s="28" t="s">
         <v>73</v>
@@ -9344,13 +9347,13 @@
         <v>1</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G86" s="10"/>
       <c r="H86" s="33"/>
@@ -9371,12 +9374,12 @@
       <c r="W86" s="30"/>
       <c r="X86" s="30"/>
       <c r="Y86" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B87" s="28" t="s">
         <v>73</v>
@@ -9386,13 +9389,13 @@
         <v>1</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G87" s="10"/>
       <c r="H87" s="33"/>
@@ -9413,12 +9416,12 @@
       <c r="W87" s="30"/>
       <c r="X87" s="30"/>
       <c r="Y87" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B88" s="28" t="s">
         <v>73</v>
@@ -9428,13 +9431,13 @@
         <v>1</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E88" s="30" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G88" s="10"/>
       <c r="H88" s="33"/>
@@ -9455,12 +9458,12 @@
       <c r="W88" s="30"/>
       <c r="X88" s="30"/>
       <c r="Y88" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="71.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B89" s="28" t="s">
         <v>73</v>
@@ -9470,25 +9473,25 @@
         <v>1</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E89" s="30" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J89" s="15" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K89" s="15"/>
       <c r="L89" s="30"/>
@@ -9505,12 +9508,12 @@
       <c r="W89" s="30"/>
       <c r="X89" s="30"/>
       <c r="Y89" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B90" s="28" t="s">
         <v>33</v>
@@ -9520,30 +9523,30 @@
         <v>1</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E90" s="30" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I90" s="15"/>
       <c r="J90" s="15"/>
       <c r="K90" s="15"/>
       <c r="L90" s="30"/>
       <c r="M90" s="30" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N90" s="30"/>
       <c r="O90" s="30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P90" s="30"/>
       <c r="Q90" s="30"/>
@@ -9560,7 +9563,7 @@
     </row>
     <row r="91" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B91" s="28" t="s">
         <v>77</v>
@@ -9570,28 +9573,28 @@
         <v>1</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E91" s="30" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I91" s="15"/>
       <c r="J91" s="15"/>
       <c r="K91" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L91" s="30"/>
       <c r="M91" s="30" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N91" s="30"/>
       <c r="O91" s="30"/>
@@ -9610,7 +9613,7 @@
     </row>
     <row r="92" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B92" s="28" t="s">
         <v>73</v>
@@ -9620,19 +9623,19 @@
         <v>1</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E92" s="30" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G92" s="35" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I92" s="15"/>
       <c r="J92" s="15"/>
@@ -9654,12 +9657,12 @@
       <c r="W92" s="30"/>
       <c r="X92" s="30"/>
       <c r="Y92" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B93" s="28" t="s">
         <v>73</v>
@@ -9669,19 +9672,19 @@
         <v>1</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E93" s="30" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I93" s="15"/>
       <c r="J93" s="15"/>
@@ -9703,12 +9706,12 @@
       <c r="W93" s="30"/>
       <c r="X93" s="30"/>
       <c r="Y93" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B94" s="28" t="s">
         <v>73</v>
@@ -9718,19 +9721,19 @@
         <v>1</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E94" s="30" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I94" s="15"/>
       <c r="J94" s="15"/>
@@ -9752,12 +9755,12 @@
       <c r="W94" s="30"/>
       <c r="X94" s="30"/>
       <c r="Y94" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B95" s="28" t="s">
         <v>33</v>
@@ -9767,30 +9770,30 @@
         <v>1</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E95" s="30" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I95" s="15"/>
       <c r="J95" s="15"/>
       <c r="K95" s="15"/>
       <c r="L95" s="30"/>
       <c r="M95" s="30" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N95" s="30"/>
       <c r="O95" s="30" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P95" s="30"/>
       <c r="Q95" s="30"/>
@@ -9807,7 +9810,7 @@
     </row>
     <row r="96" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B96" s="28" t="s">
         <v>26</v>
@@ -9817,29 +9820,29 @@
         <v>1</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E96" s="30" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I96" s="15"/>
       <c r="J96" s="15"/>
       <c r="K96" s="15"/>
       <c r="L96" s="30"/>
       <c r="M96" s="30" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N96" s="30" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O96" s="30"/>
       <c r="P96" s="30"/>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="97" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B97" s="28" t="s">
         <v>73</v>
@@ -9867,19 +9870,19 @@
         <v>1</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E97" s="30" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I97" s="15"/>
       <c r="J97" s="15"/>
@@ -9898,12 +9901,12 @@
       <c r="W97" s="30"/>
       <c r="X97" s="30"/>
       <c r="Y97" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="10" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B98" s="28" t="s">
         <v>73</v>
@@ -9913,10 +9916,10 @@
         <v>1</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E98" s="30" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
@@ -9938,12 +9941,12 @@
       <c r="W98" s="30"/>
       <c r="X98" s="30"/>
       <c r="Y98" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B99" s="28" t="s">
         <v>73</v>
@@ -9953,19 +9956,19 @@
         <v>1</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I99" s="15"/>
       <c r="J99" s="15"/>
@@ -9986,7 +9989,7 @@
     </row>
     <row r="100" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B100" s="28" t="s">
         <v>73</v>
@@ -9996,24 +9999,24 @@
         <v>1</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E100" s="30"/>
       <c r="F100" s="30" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I100" s="15"/>
       <c r="J100" s="15"/>
       <c r="K100" s="15"/>
       <c r="L100" s="30"/>
       <c r="M100" s="30" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N100" s="30"/>
       <c r="O100" s="30"/>
@@ -10027,12 +10030,12 @@
       <c r="W100" s="30"/>
       <c r="X100" s="30"/>
       <c r="Y100" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="101" s="2" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B101" s="28" t="s">
         <v>73</v>
@@ -10042,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E101" s="30"/>
       <c r="F101" s="30"/>
@@ -10068,12 +10071,12 @@
       <c r="W101" s="30"/>
       <c r="X101" s="30"/>
       <c r="Y101" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B102" s="28" t="s">
         <v>73</v>
@@ -10083,17 +10086,17 @@
         <v>1</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E102" s="30"/>
       <c r="F102" s="30" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H102" s="28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I102" s="28"/>
       <c r="J102" s="28"/>
@@ -10112,12 +10115,12 @@
       <c r="W102" s="30"/>
       <c r="X102" s="30"/>
       <c r="Y102" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="10" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B103" s="28" t="s">
         <v>73</v>
@@ -10127,17 +10130,17 @@
         <v>1</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E103" s="30"/>
       <c r="F103" s="30" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I103" s="15"/>
       <c r="J103" s="15"/>
@@ -10159,45 +10162,45 @@
       <c r="W103" s="30"/>
       <c r="X103" s="30"/>
       <c r="Y103" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C104" s="29" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E104" s="30"/>
       <c r="F104" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I104" s="15"/>
       <c r="J104" s="15"/>
       <c r="K104" s="15"/>
       <c r="L104" s="30"/>
       <c r="M104" s="30" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N104" s="30" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O104" s="30" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P104" s="30"/>
       <c r="Q104" s="30"/>
@@ -10211,7 +10214,7 @@
     </row>
     <row r="105" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B105" s="28" t="s">
         <v>73</v>
@@ -10221,31 +10224,31 @@
         <v>1</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E105" s="30"/>
       <c r="F105" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K105" s="15"/>
       <c r="L105" s="30"/>
       <c r="M105" s="30" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N105" s="30" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O105" s="30"/>
       <c r="P105" s="30"/>
@@ -10261,12 +10264,12 @@
       <c r="W105" s="30"/>
       <c r="X105" s="30"/>
       <c r="Y105" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="10" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B106" s="28" t="s">
         <v>73</v>
@@ -10276,17 +10279,17 @@
         <v>1</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E106" s="30"/>
       <c r="F106" s="30" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I106" s="15"/>
       <c r="J106" s="15"/>
@@ -10308,45 +10311,45 @@
       <c r="W106" s="30"/>
       <c r="X106" s="30"/>
       <c r="Y106" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C107" s="29" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E107" s="30"/>
       <c r="F107" s="10" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I107" s="15"/>
       <c r="J107" s="15"/>
       <c r="K107" s="15"/>
       <c r="L107" s="30"/>
       <c r="M107" s="30" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N107" s="30" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O107" s="30" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P107" s="30"/>
       <c r="Q107" s="30"/>
@@ -10360,7 +10363,7 @@
     </row>
     <row r="108" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B108" s="28" t="s">
         <v>73</v>
@@ -10370,31 +10373,31 @@
         <v>1</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E108" s="30"/>
       <c r="F108" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="30"/>
       <c r="M108" s="30" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N108" s="30" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O108" s="30"/>
       <c r="P108" s="30"/>
@@ -10410,12 +10413,12 @@
       <c r="W108" s="30"/>
       <c r="X108" s="30"/>
       <c r="Y108" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B109" s="28" t="s">
         <v>104</v>
@@ -10425,17 +10428,17 @@
         <v>1</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E109" s="30"/>
       <c r="F109" s="30" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G109" s="28" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H109" s="28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
@@ -10456,7 +10459,7 @@
     </row>
     <row r="110" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B110" s="28" t="s">
         <v>33</v>
@@ -10466,30 +10469,30 @@
         <v>1</v>
       </c>
       <c r="D110" s="34" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E110" s="30"/>
       <c r="F110" s="10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G110" s="28" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H110" s="28" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I110" s="30" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="J110" s="28" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K110" s="30"/>
       <c r="L110" s="30"/>
       <c r="M110" s="30"/>
       <c r="N110" s="30"/>
       <c r="O110" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P110" s="15"/>
       <c r="Q110" s="30"/>
@@ -10506,7 +10509,7 @@
     </row>
     <row r="111" s="2" customFormat="true" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="36" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B111" s="36" t="s">
         <v>73</v>
@@ -10516,7 +10519,7 @@
         <v>1</v>
       </c>
       <c r="D111" s="34" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E111" s="37"/>
       <c r="F111" s="36" t="str">
@@ -10536,47 +10539,47 @@
         <v>1</v>
       </c>
       <c r="Y111" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="112" s="2" customFormat="true" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="36" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C112" s="29" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D112" s="34" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E112" s="37"/>
       <c r="F112" s="36" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G112" s="38" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H112" s="38" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="J112" s="38" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N112" s="1"/>
       <c r="Q112" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="T112" s="15" t="b">
         <f aca="false">TRUE()</f>
@@ -10585,42 +10588,42 @@
     </row>
     <row r="113" s="2" customFormat="true" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="36" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C113" s="29" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D113" s="34" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E113" s="37"/>
       <c r="F113" s="36" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G113" s="38" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H113" s="38" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J113" s="38" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N113" s="1"/>
       <c r="Q113" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="T113" s="15" t="b">
         <f aca="false">TRUE()</f>
@@ -10629,42 +10632,42 @@
     </row>
     <row r="114" s="2" customFormat="true" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="36" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C114" s="29" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D114" s="34" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E114" s="37"/>
       <c r="F114" s="36" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G114" s="38" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H114" s="38" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J114" s="38" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N114" s="1"/>
       <c r="Q114" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="T114" s="15" t="b">
         <f aca="false">TRUE()</f>
@@ -10673,7 +10676,7 @@
     </row>
     <row r="115" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B115" s="28" t="s">
         <v>33</v>
@@ -10683,24 +10686,24 @@
         <v>1</v>
       </c>
       <c r="D115" s="34" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E115" s="30"/>
       <c r="F115" s="10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G115" s="39" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H115" s="39" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="I115" s="15"/>
       <c r="J115" s="15"/>
       <c r="K115" s="15"/>
       <c r="L115" s="30"/>
       <c r="M115" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="30" t="s">
@@ -10721,7 +10724,7 @@
     </row>
     <row r="116" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B116" s="28" t="s">
         <v>26</v>
@@ -10731,24 +10734,24 @@
         <v>1</v>
       </c>
       <c r="D116" s="34" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E116" s="30"/>
       <c r="F116" s="10" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G116" s="39" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H116" s="39" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I116" s="15"/>
       <c r="J116" s="15"/>
       <c r="K116" s="15"/>
       <c r="L116" s="30"/>
       <c r="M116" s="30" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N116" s="8" t="s">
         <v>45</v>
@@ -10769,7 +10772,7 @@
     </row>
     <row r="117" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B117" s="28" t="s">
         <v>104</v>
@@ -10779,17 +10782,17 @@
         <v>1</v>
       </c>
       <c r="D117" s="34" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E117" s="30"/>
       <c r="F117" s="10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G117" s="28" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I117" s="15"/>
       <c r="J117" s="15"/>
@@ -10810,7 +10813,7 @@
     </row>
     <row r="118" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B118" s="28" t="s">
         <v>33</v>
@@ -10820,17 +10823,17 @@
         <v>1</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E118" s="30"/>
       <c r="F118" s="30" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G118" s="28" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H118" s="28" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I118" s="15"/>
       <c r="J118" s="15"/>
@@ -10839,7 +10842,7 @@
       <c r="M118" s="30"/>
       <c r="N118" s="30"/>
       <c r="O118" s="30" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P118" s="30"/>
       <c r="Q118" s="30"/>
@@ -10853,27 +10856,27 @@
     </row>
     <row r="119" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="10" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C119" s="29" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E119" s="30"/>
       <c r="F119" s="30" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G119" s="28" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H119" s="28" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I119" s="15"/>
       <c r="J119" s="15"/>
@@ -10882,7 +10885,7 @@
       <c r="M119" s="30"/>
       <c r="N119" s="30"/>
       <c r="O119" s="40" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="P119" s="30"/>
       <c r="Q119" s="30"/>
@@ -10899,7 +10902,7 @@
     </row>
     <row r="120" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="10" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B120" s="28" t="s">
         <v>33</v>
@@ -10909,17 +10912,17 @@
         <v>1</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E120" s="30"/>
       <c r="F120" s="10" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G120" s="39" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H120" s="39" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I120" s="15"/>
       <c r="J120" s="15"/>
@@ -10945,7 +10948,7 @@
     </row>
     <row r="121" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B121" s="28" t="s">
         <v>26</v>
@@ -10955,24 +10958,24 @@
         <v>1</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E121" s="30"/>
       <c r="F121" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G121" s="39" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H121" s="39" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I121" s="15"/>
       <c r="J121" s="15"/>
       <c r="K121" s="15"/>
       <c r="L121" s="30"/>
       <c r="M121" s="30" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N121" s="8" t="s">
         <v>45</v>
@@ -10993,27 +10996,27 @@
     </row>
     <row r="122" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B122" s="28" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C122" s="29" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D122" s="28" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E122" s="30"/>
       <c r="F122" s="30" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G122" s="40" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H122" s="40" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="I122" s="15"/>
       <c r="J122" s="15"/>
@@ -11021,7 +11024,7 @@
       <c r="L122" s="30"/>
       <c r="M122" s="30"/>
       <c r="N122" s="30" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O122" s="30"/>
       <c r="P122" s="30"/>
@@ -11039,7 +11042,7 @@
     </row>
     <row r="123" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>38</v>
@@ -11049,17 +11052,17 @@
         <v>1</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E123" s="30"/>
       <c r="F123" s="30" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G123" s="28" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H123" s="28" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="I123" s="15"/>
       <c r="J123" s="15"/>
@@ -11083,7 +11086,7 @@
     </row>
     <row r="124" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B124" s="28" t="s">
         <v>104</v>
@@ -11093,17 +11096,17 @@
         <v>1</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E124" s="30"/>
       <c r="F124" s="10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H124" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I124" s="15"/>
       <c r="J124" s="15"/>
@@ -11124,7 +11127,7 @@
     </row>
     <row r="125" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="10" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B125" s="28" t="s">
         <v>77</v>
@@ -11134,29 +11137,29 @@
         <v>1</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E125" s="30"/>
       <c r="F125" s="30" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G125" s="28" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H125" s="28" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="I125" s="15"/>
       <c r="J125" s="15"/>
       <c r="K125" s="8" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L125" s="30"/>
       <c r="M125" s="30" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N125" s="10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O125" s="30"/>
       <c r="P125" s="30"/>
@@ -11174,7 +11177,7 @@
     </row>
     <row r="126" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="10" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B126" s="28" t="s">
         <v>77</v>
@@ -11184,29 +11187,29 @@
         <v>1</v>
       </c>
       <c r="D126" s="28" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E126" s="30"/>
       <c r="F126" s="30" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G126" s="28" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H126" s="28" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="I126" s="15"/>
       <c r="J126" s="15"/>
       <c r="K126" s="8" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L126" s="30"/>
       <c r="M126" s="30" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N126" s="10" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O126" s="30"/>
       <c r="P126" s="30"/>
@@ -11224,27 +11227,27 @@
     </row>
     <row r="127" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="10" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B127" s="28" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C127" s="29" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E127" s="30"/>
       <c r="F127" s="30" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G127" s="40" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H127" s="40" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="I127" s="15"/>
       <c r="J127" s="15"/>
@@ -11252,12 +11255,12 @@
       <c r="L127" s="30"/>
       <c r="M127" s="30"/>
       <c r="N127" s="30" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O127" s="30"/>
       <c r="P127" s="30"/>
       <c r="Q127" s="40" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="R127" s="30"/>
       <c r="S127" s="30"/>
@@ -11272,7 +11275,7 @@
     </row>
     <row r="128" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="10" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B128" s="28" t="s">
         <v>115</v>
@@ -11282,17 +11285,17 @@
         <v>1</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E128" s="30"/>
       <c r="F128" s="30" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G128" s="40" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H128" s="40" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="I128" s="15"/>
       <c r="J128" s="15"/>
@@ -11300,7 +11303,7 @@
       <c r="L128" s="30"/>
       <c r="M128" s="30"/>
       <c r="N128" s="30" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O128" s="30"/>
       <c r="P128" s="30"/>
@@ -11318,27 +11321,27 @@
     </row>
     <row r="129" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B129" s="28" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C129" s="29" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D129" s="28" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E129" s="30"/>
       <c r="F129" s="30" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G129" s="40" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H129" s="40" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="I129" s="15"/>
       <c r="J129" s="15"/>
@@ -11346,12 +11349,12 @@
       <c r="L129" s="30"/>
       <c r="M129" s="30"/>
       <c r="N129" s="30" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O129" s="30"/>
       <c r="P129" s="30"/>
       <c r="Q129" s="40" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="R129" s="30"/>
       <c r="S129" s="30"/>
@@ -11366,27 +11369,27 @@
     </row>
     <row r="130" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="10" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B130" s="28" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C130" s="29" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E130" s="30"/>
       <c r="F130" s="30" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G130" s="40" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H130" s="40" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="I130" s="15"/>
       <c r="J130" s="15"/>
@@ -11394,12 +11397,12 @@
       <c r="L130" s="30"/>
       <c r="M130" s="30"/>
       <c r="N130" s="30" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O130" s="30"/>
       <c r="P130" s="30"/>
       <c r="Q130" s="40" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="R130" s="30"/>
       <c r="S130" s="30"/>
@@ -11414,27 +11417,27 @@
     </row>
     <row r="131" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="10" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B131" s="28" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C131" s="29" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D131" s="28" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E131" s="30"/>
       <c r="F131" s="30" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G131" s="40" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H131" s="40" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="I131" s="15"/>
       <c r="J131" s="15"/>
@@ -11442,12 +11445,12 @@
       <c r="L131" s="30"/>
       <c r="M131" s="30"/>
       <c r="N131" s="30" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O131" s="30"/>
       <c r="P131" s="30"/>
       <c r="Q131" s="40" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="R131" s="30"/>
       <c r="S131" s="30"/>
@@ -11462,7 +11465,7 @@
     </row>
     <row r="132" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B132" s="28" t="s">
         <v>33</v>
@@ -11472,17 +11475,17 @@
         <v>1</v>
       </c>
       <c r="D132" s="28" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E132" s="30"/>
       <c r="F132" s="30" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G132" s="40" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H132" s="40" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="I132" s="15"/>
       <c r="J132" s="15"/>
@@ -11490,10 +11493,10 @@
       <c r="L132" s="30"/>
       <c r="M132" s="30"/>
       <c r="N132" s="30" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O132" s="30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P132" s="30"/>
       <c r="Q132" s="30"/>
@@ -11510,7 +11513,7 @@
     </row>
     <row r="133" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B133" s="28" t="s">
         <v>104</v>
@@ -11520,17 +11523,17 @@
         <v>1</v>
       </c>
       <c r="D133" s="28" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E133" s="30"/>
       <c r="F133" s="10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G133" s="28" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H133" s="10" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="I133" s="15"/>
       <c r="J133" s="15"/>
@@ -11551,7 +11554,7 @@
     </row>
     <row r="134" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>38</v>
@@ -11561,16 +11564,16 @@
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>647</v>
-      </c>
       <c r="G134" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L134" s="42"/>
       <c r="M134" s="43"/>
@@ -11692,34 +11695,34 @@
   <sheetData>
     <row r="1" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="45" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E2" s="10" t="n">
         <v>1</v>
@@ -11732,10 +11735,10 @@
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E3" s="10" t="n">
         <v>2</v>
@@ -11744,32 +11747,32 @@
     </row>
     <row r="4" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E5" s="10" t="n">
         <v>1</v>
@@ -11782,10 +11785,10 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E6" s="10" t="n">
         <v>1</v>
@@ -11794,14 +11797,14 @@
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E7" s="10" t="n">
         <v>3</v>
@@ -11810,16 +11813,16 @@
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>665</v>
-      </c>
       <c r="D8" s="48" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E8" s="10" t="n">
         <v>5</v>
@@ -11828,14 +11831,14 @@
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E9" s="10" t="n">
         <v>4</v>
@@ -11844,16 +11847,16 @@
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="D10" s="48" t="s">
         <v>668</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>666</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>665</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>667</v>
       </c>
       <c r="E10" s="10" t="n">
         <v>13</v>
@@ -11862,14 +11865,14 @@
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E11" s="10" t="n">
         <v>5</v>
@@ -11882,10 +11885,10 @@
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E12" s="10" t="n">
         <v>5</v>
@@ -11894,14 +11897,14 @@
     </row>
     <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E13" s="10" t="n">
         <v>6</v>
@@ -11910,14 +11913,14 @@
     </row>
     <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E14" s="10" t="n">
         <v>11</v>
@@ -11926,14 +11929,14 @@
     </row>
     <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E15" s="10" t="n">
         <v>14</v>
@@ -11942,14 +11945,14 @@
     </row>
     <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E16" s="10" t="n">
         <v>15</v>
@@ -11958,32 +11961,32 @@
     </row>
     <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>665</v>
-      </c>
       <c r="D17" s="48" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E18" s="10" t="n">
         <v>15</v>
@@ -11992,14 +11995,14 @@
     </row>
     <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E19" s="10" t="n">
         <v>16</v>
@@ -12008,14 +12011,14 @@
     </row>
     <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E20" s="10" t="n">
         <v>16</v>
@@ -12024,32 +12027,32 @@
     </row>
     <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>672</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>673</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>666</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>665</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>671</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>672</v>
       </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E22" s="10" t="n">
         <v>40</v>
@@ -12058,213 +12061,213 @@
     </row>
     <row r="23" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>659</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>686</v>
-      </c>
-      <c r="D35" s="48" t="s">
-        <v>658</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12275,35 +12278,35 @@
         <v>32</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="50" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E37" s="52" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="50" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>1</v>
@@ -12311,117 +12314,117 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="53" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="54" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D42" s="44" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E42" s="55" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E44" s="44" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="30" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D45" s="51" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E45" s="52" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D46" s="44" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -12474,25 +12477,25 @@
         <v>3</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12500,13 +12503,13 @@
         <v>27</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E2" s="58" t="b">
         <f aca="false">TRUE()</f>
@@ -12526,13 +12529,13 @@
         <v>108</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E3" s="58" t="b">
         <f aca="false">TRUE()</f>
@@ -12549,16 +12552,16 @@
     </row>
     <row r="4" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E4" s="58" t="b">
         <f aca="false">TRUE()</f>
@@ -12575,16 +12578,16 @@
     </row>
     <row r="5" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E5" s="58" t="b">
         <f aca="false">FALSE()</f>
@@ -12599,21 +12602,21 @@
         <v>1</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E6" s="58" t="b">
         <f aca="false">FALSE()</f>
@@ -12628,21 +12631,21 @@
         <v>1</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E7" s="58" t="b">
         <f aca="false">FALSE()</f>
@@ -12654,21 +12657,21 @@
       </c>
       <c r="G7" s="58"/>
       <c r="H7" s="10" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="34" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E8" s="58" t="b">
         <f aca="false">FALSE()</f>
@@ -12680,21 +12683,21 @@
       </c>
       <c r="G8" s="58"/>
       <c r="H8" s="10" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E9" s="58" t="b">
         <f aca="false">FALSE()</f>
@@ -12709,21 +12712,21 @@
         <v>0</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="34" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E10" s="58" t="b">
         <f aca="false">FALSE()</f>
@@ -12738,21 +12741,21 @@
         <v>0</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E11" s="58" t="b">
         <f aca="false">TRUE()</f>
@@ -12769,16 +12772,16 @@
     </row>
     <row r="12" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E12" s="58" t="b">
         <f aca="false">FALSE()</f>
@@ -12793,7 +12796,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -12814,8 +12817,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A111" activeCellId="0" sqref="A111"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12830,10 +12833,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="59" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C1" s="59" t="s">
         <v>6</v>
@@ -12848,27 +12851,27 @@
         <v>9</v>
       </c>
       <c r="G1" s="59" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1" s="59" t="s">
         <v>12</v>
       </c>
       <c r="I1" s="53" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -12877,16 +12880,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -12895,16 +12898,16 @@
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -12913,16 +12916,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -12931,16 +12934,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -12949,16 +12952,16 @@
     </row>
     <row r="7" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -12975,7 +12978,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -12989,13 +12992,13 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -13009,7 +13012,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -13017,7 +13020,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -13031,7 +13034,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -13045,7 +13048,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -13059,23 +13062,23 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="53"/>
     </row>
     <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>123</v>
+      <c r="A15" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -13083,17 +13086,17 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>123</v>
+      <c r="A16" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -13101,8 +13104,8 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>123</v>
+      <c r="A17" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -13110,22 +13113,22 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -13134,16 +13137,16 @@
     </row>
     <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -13152,7 +13155,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -13160,82 +13163,82 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -13244,27 +13247,27 @@
     </row>
     <row r="25" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -13272,147 +13275,147 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="53" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="53" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>